--- a/Femicidios 2020.xlsx
+++ b/Femicidios 2020.xlsx
@@ -8,32 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-RIESGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD08C10F-0940-4BF8-9D9F-259F1E5EEC50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F164FCA-6BB6-47D8-B7E6-156E399F9F51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FEMICIDIOS 2020" sheetId="1" r:id="rId1"/>
     <sheet name="Femicidios 2020 Min Mujer" sheetId="3" r:id="rId2"/>
-    <sheet name="RED" sheetId="4" r:id="rId3"/>
-    <sheet name="MINMUJER" sheetId="5" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId3"/>
+    <sheet name="RED" sheetId="4" r:id="rId4"/>
+    <sheet name="MINMUJER" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RED!$A$1:$M$68</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId6"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="670">
   <si>
     <t>FEMICIDIOS 2020</t>
   </si>
@@ -2102,6 +2099,12 @@
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/d/df/Escudo_de_Los_Lagos.svg</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
   </si>
 </sst>
 </file>
@@ -2325,7 +2328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2457,19 +2460,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2486,6 +2494,1221 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Natalia Arancibia" refreshedDate="44203.718264120369" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="67" xr:uid="{36A7FCBA-7DD6-42FF-8792-E345A5CE2824}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:M68" sheet="RED"/>
+  </cacheSource>
+  <cacheFields count="13">
+    <cacheField name="Tipo" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Fecha" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-01-05T00:00:00" maxDate="2020-12-29T00:00:00"/>
+    </cacheField>
+    <cacheField name="Codreg" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="16"/>
+    </cacheField>
+    <cacheField name="Codcom" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1107" maxValue="16205"/>
+    </cacheField>
+    <cacheField name="Comuna" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Región" numFmtId="0">
+      <sharedItems count="21">
+        <s v="Los Ríos"/>
+        <s v="O'Higgins"/>
+        <s v="Maule"/>
+        <s v="Metropolitana"/>
+        <s v="Biobío"/>
+        <s v="Valparaíso"/>
+        <s v="Tarapacá"/>
+        <s v="Magallanes"/>
+        <s v="Atacama"/>
+        <s v="Arica y Parinacota"/>
+        <s v="Coquimbo"/>
+        <s v="La Araucanía"/>
+        <s v="Los Lagos"/>
+        <s v="Aysén"/>
+        <s v="Ñuble"/>
+        <s v="Antofagasta"/>
+        <s v="Los Ríos "/>
+        <s v="Metropolitana "/>
+        <s v="Valparaíso "/>
+        <s v="Maule "/>
+        <s v="Bío Bío "/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Nombre víctima" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Edad" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="89"/>
+    </cacheField>
+    <cacheField name="Nacionalidad" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Ocupación" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Información sobre el hecho" numFmtId="0">
+      <sharedItems longText="1"/>
+    </cacheField>
+    <cacheField name="Violencia sexual" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Relación víctima-femicida" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="67">
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-01-05T00:00:00"/>
+    <n v="14"/>
+    <n v="14101"/>
+    <s v="Valdivia"/>
+    <x v="0"/>
+    <s v="Gladys Gallegos Insunza"/>
+    <n v="53"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Asesinada por su pareja, en la casa que compartían en Valdivia. El femicida fue detenido en la ciudad de Antofagasta el 4 de marzo "/>
+    <m/>
+    <s v="Conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-01-10T00:00:00"/>
+    <n v="6"/>
+    <n v="6116"/>
+    <s v="Requínoa"/>
+    <x v="1"/>
+    <s v="Alejandra Macarena Castro Barahona"/>
+    <n v="32"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Fue a visitar a su hijo mayor a la casa de su ex conyuge. Estaba en el patio cuando su actual pareja la atacó con un cuchillo. Tras el ataque intentó suicidarse"/>
+    <m/>
+    <s v="Conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-01-13T00:00:00"/>
+    <n v="7"/>
+    <n v="7404"/>
+    <s v="Parral"/>
+    <x v="2"/>
+    <s v="Uberlinda del Carmen Leiva Orellana"/>
+    <n v="59"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Golpeada hasta la muerte por su hijo, quien luego la lanzó a canal de regadío y denunció desaparición "/>
+    <m/>
+    <s v="Hijo"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-01-30T00:00:00"/>
+    <n v="6"/>
+    <n v="6115"/>
+    <s v="Rengo"/>
+    <x v="1"/>
+    <s v="Karen Ramírez Salinas"/>
+    <n v="45"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Apuñalada con martillo y taladro por su conviviente. Tras el asesinato intentó suicidarse, siendo trasladado al Hospital regional de O'Higgins"/>
+    <m/>
+    <s v="Conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-02-17T00:00:00"/>
+    <n v="13"/>
+    <n v="13119"/>
+    <s v="Maipú"/>
+    <x v="3"/>
+    <s v="Yasna Bustos Muñoz"/>
+    <n v="31"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Degollada por conviviente, quien se autoinflingió una herida en el cuello y se encuentra hospitalizado. La madre del agresor dio aviso tras llamada del propio sujeto"/>
+    <m/>
+    <s v="Conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-02-17T00:00:00"/>
+    <n v="8"/>
+    <n v="8305"/>
+    <s v="Mulchén"/>
+    <x v="4"/>
+    <s v="Ana Viveros Echeverría"/>
+    <n v="47"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Degollada junto a actual conviviente por ex conviviente, quien luego se autoinfligió herida cortante e incendió el domicilio, resultando los tres muertos"/>
+    <m/>
+    <s v="Ex conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-02-22T00:00:00"/>
+    <n v="5"/>
+    <n v="5804"/>
+    <s v="Villa Alemana"/>
+    <x v="5"/>
+    <s v="Brenda Vidal"/>
+    <n v="23"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Calcinada en incendio junto a su hija e hijo de 1 y 2 años de edad. En agosto, familiares de Brenda denuncian que el incendio fue provocado por ex pareja de ella y que la investigación ha sido negligente"/>
+    <m/>
+    <s v="Ex conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-02-26T00:00:00"/>
+    <n v="6"/>
+    <n v="6115"/>
+    <s v="Rengo"/>
+    <x v="1"/>
+    <s v="Beatriz Esperanza Rosa González Vilches"/>
+    <n v="16"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Asesinada de un disparo por ex pareja. Tras el asesinato, él cambio la versión de los hechos e intento hacerlo pasar por un accidente"/>
+    <m/>
+    <s v="Ex pareja"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-02-29T00:00:00"/>
+    <n v="1"/>
+    <n v="1107"/>
+    <s v="Alto Hospicio"/>
+    <x v="6"/>
+    <s v="Tamara Ruiz Villalobos"/>
+    <n v="20"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Muere tras volcamiento de un vehículo, que hasta la fecha sigue catalogado como fortuito. Sin embargo, el pololo de Tamara es sospechoso de femicidio para la familia de Tamara y organizaciones de la zona pues, tras una relación en que siempre fue violento hacia Tamara, se encontraba con ella en el vehículo maltratándola momentos antes de que el auto volcara. Tanto las organizaciones como la familia de Tamara sostienen que el Ministerio Público no ha investigado suficientemente y están seguras de que el pololo fue el femicida. Éste se encuentra actualmente en prisión preventiva por parricidio frustrado cometido contra su abuelo"/>
+    <m/>
+    <s v="Pololo"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-03-05T00:00:00"/>
+    <n v="5"/>
+    <n v="5301"/>
+    <s v="Los Andes"/>
+    <x v="5"/>
+    <s v="Sara Delfina Gutiérrez Rojas"/>
+    <n v="39"/>
+    <s v="Chilena"/>
+    <s v="Situación de calle"/>
+    <s v="Apuñalda y golpeada con objeto contundente en la cabeza por su pareja, quien denunció hallazgo del cadáver y luego fue indetificado por la PDI como autor del crimen"/>
+    <s v="Si"/>
+    <s v="Conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-03-08T00:00:00"/>
+    <n v="12"/>
+    <n v="12101"/>
+    <s v="Punta Arenas"/>
+    <x v="7"/>
+    <s v="Elizabeth Noemí Mella Cárcamo"/>
+    <n v="54"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Apuñalada en su cama por desconocido, quien inició incendio. Su hijo indica que las heridas que presenta son propias de un femicidio"/>
+    <s v="Se presume "/>
+    <s v="Se investiga"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-03-15T00:00:00"/>
+    <n v="6"/>
+    <n v="6117"/>
+    <s v="San Vicente"/>
+    <x v="1"/>
+    <s v="Mariela de las Mercedes Fuentes Lucero"/>
+    <n v="39"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Apuñalada por su marido al interior de automóvil estacionado en motel. El sujeto se autoinfligió heridas cortopunzantes en la garganta y se encuentra en riesgo vital"/>
+    <m/>
+    <s v="Cónyuge"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-03-16T00:00:00"/>
+    <n v="13"/>
+    <n v="13301"/>
+    <s v="Colina"/>
+    <x v="3"/>
+    <s v="Nataly Davison Escobar"/>
+    <n v="24"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Fractura craneal, golpeada en reiteradas oportunidades. Atacada el 13 de marzo junto a su hija de 2 años por su conviviente y padre de la menor, sujeto se autoinflingió heridas leves. El 16 de marzo muere Nataly, la niña sigue en riesgo vital"/>
+    <m/>
+    <s v="Conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-03-20T00:00:00"/>
+    <n v="3"/>
+    <n v="3202"/>
+    <s v="Diego de Almagro"/>
+    <x v="8"/>
+    <s v="Maribel Soledad Mallea Quinzacara"/>
+    <n v="26"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Apuñalada junto a su hijo de 7 años por exconviviente, quien luego prendió fuego al inmueble y se suicidó"/>
+    <m/>
+    <s v="Conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-04-11T00:00:00"/>
+    <n v="6"/>
+    <n v="6205"/>
+    <s v="Navidad"/>
+    <x v="1"/>
+    <s v="Marianela del Carmen Guzmán Ortiz"/>
+    <n v="49"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Asesinada a balazos por cónyuge, quien luego se suicidó con la misma arma. Una de las hijas denuncia el femicidio a las autoridades"/>
+    <m/>
+    <s v="Cónyuge"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-04-22T00:00:00"/>
+    <n v="13"/>
+    <n v="13301"/>
+    <s v="Colina"/>
+    <x v="3"/>
+    <s v="Viviana Estrada"/>
+    <n v="38"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Mujer visita a ex pareja en Chicureo para retirar sus pertenencias, momento en que el decide apuñalarla. Femicida se da a la fuga y, horas después, se suicida."/>
+    <m/>
+    <s v="Ex conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-04-25T00:00:00"/>
+    <n v="15"/>
+    <n v="15101"/>
+    <s v="Arica"/>
+    <x v="9"/>
+    <s v="Ruth Tania Mendoza Mamani"/>
+    <n v="19"/>
+    <s v="Peruana"/>
+    <m/>
+    <s v="Apuñalada en Valle de Azapa por cónyuge. Horas después de encontrarse su cuerpo, el marido es detenido"/>
+    <m/>
+    <s v="Cónyuge"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-04-27T00:00:00"/>
+    <n v="4"/>
+    <n v="4101"/>
+    <s v="La Serena"/>
+    <x v="10"/>
+    <s v="Yulisa Belén Cerda Aguilera_x000a_"/>
+    <n v="22"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Baleada por su pareja en el domicilio de ella. El femicida huyó tras abandonarla en las afueras de un Cesfam en La Serena. A los dos días se entrega a la justicia"/>
+    <m/>
+    <s v="Pareja"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-05-21T00:00:00"/>
+    <n v="8"/>
+    <n v="8102"/>
+    <s v="Coronel"/>
+    <x v="4"/>
+    <s v="Carmen del Pilar Toro Durán"/>
+    <n v="68"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Traumatismo craneoencefálico tras sufrir violación y golpes por hombres aún no identificados. Su hijo la encontró moribunda en el patio de su vivienda, la víctima fallece en el hospital producto a las lesiones"/>
+    <s v="Si"/>
+    <s v="Se investiga"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-05-30T00:00:00"/>
+    <n v="5"/>
+    <n v="5101"/>
+    <s v="Valparaíso"/>
+    <x v="5"/>
+    <s v="Gladys Quezada Rojas"/>
+    <n v="46"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Baleada por conviviente en cerro Las Cañas, él mismo llama a Carabineros y se da a la fuga. Estuvo oculto en un cerro y fue detenido una semana después"/>
+    <m/>
+    <s v="Conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-06-03T00:00:00"/>
+    <n v="7"/>
+    <n v="7102"/>
+    <s v="Constitución"/>
+    <x v="2"/>
+    <s v="Ruth Victoria Gallardo Gutierrez"/>
+    <n v="25"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Apuñalada por ex pololo luego de golpearla con sus puños. Después de asesinar a Ruth, el agresor golpeó a la abuela de ésta"/>
+    <m/>
+    <s v="Ex pareja"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-06-08T00:00:00"/>
+    <n v="9"/>
+    <n v="9211"/>
+    <s v="Victoria"/>
+    <x v="11"/>
+    <s v="Nataly Valeria Sepulveda Oria"/>
+    <n v="29"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Baleada por conviviente, quien se dio a la fuga tras dispararle"/>
+    <m/>
+    <s v="Conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-06-14T00:00:00"/>
+    <n v="9"/>
+    <n v="9103"/>
+    <s v="Cunco"/>
+    <x v="11"/>
+    <s v="Eliana Urra Colicoy"/>
+    <n v="48"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Acuchillada por ex conviviente, quién logró llegar hasta su casa a pesar de medidas cautelares interpuestas por agresión anterior"/>
+    <m/>
+    <s v="Ex conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-07-05T00:00:00"/>
+    <n v="8"/>
+    <n v="8106"/>
+    <s v="Lota"/>
+    <x v="4"/>
+    <s v="Nancy Riquelme Morales "/>
+    <n v="25"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Baleada por su conviviente, quien inicialmente había indicado que le había llegado bala perdida"/>
+    <m/>
+    <s v="Conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-07-05T00:00:00"/>
+    <n v="6"/>
+    <n v="6105"/>
+    <s v="Doñihue"/>
+    <x v="1"/>
+    <s v="Soledad Valenzuela Valenzuela"/>
+    <n v="29"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Apuñalada en tórax y luego quemada por ex cuñado, quien trató de ocultar de esta manera el crimen, que se produjo tras discusión con ex cuñada"/>
+    <m/>
+    <s v="Ex cuñado"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-08-04T00:00:00"/>
+    <n v="13"/>
+    <n v="13120"/>
+    <s v="Ñuñoa"/>
+    <x v="3"/>
+    <s v="Nataly Vilma Escobar Jara"/>
+    <n v="18"/>
+    <s v="Colombiana"/>
+    <m/>
+    <s v="Asfixiada por su pareja en presencia de su hija de 2 meses, quien fuera abandonada viva y sin lesiones aparentes por el femicida y padre de la niña; horas después fue detenido"/>
+    <m/>
+    <s v="Conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-08-06T00:00:00"/>
+    <n v="5"/>
+    <n v="5804"/>
+    <s v="Villa Alemana"/>
+    <x v="5"/>
+    <s v="Ámbar Denisse Cornejo Llanos"/>
+    <n v="16"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Asesinada por la pareja de su madre, quien tenía antecedentes por femicidio y parricidio de menor de edad en 2005 y había sido dejado en libertad mediante indulto en 2016. "/>
+    <m/>
+    <s v="Padrastro"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-08-08T00:00:00"/>
+    <n v="13"/>
+    <n v="13101"/>
+    <s v="Santiago"/>
+    <x v="3"/>
+    <s v="Kleibell Luciana Morales Graterol"/>
+    <n v="30"/>
+    <s v="Venezolana"/>
+    <m/>
+    <s v="Acuchillada por su marido junto a su madre. Sobrevive adolescente de 17 años, hermano e hijo de las víctimas, quien relata que el sujeto atacó a su hermana, a su madre y a él. El niño quedó insconsciente con lesiones en rostro y cabeza. Al despertar en la mañana encuentra al cuñado muerto también y llama a conserjería y a policía"/>
+    <m/>
+    <s v="Cónyuge"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-08-08T00:00:00"/>
+    <n v="13"/>
+    <n v="13101"/>
+    <s v="Santiago"/>
+    <x v="3"/>
+    <s v="Esperanza Graterol Moya"/>
+    <n v="53"/>
+    <s v="Venezolana"/>
+    <m/>
+    <s v="Acuchillada por su yerno junto a su hija. Sobrevive adolescente de 17 años, hermano e hijo de las víctimas, quien relata que el sujeto atacó a su hermana, a su madre y a él. El niño quedó insconsciente con lesiones en rostro y cabeza. Al despertar en la mañana encuentra al cuñado muerto también y llama a conserjería y a policía"/>
+    <m/>
+    <s v="Yerno"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-08-09T00:00:00"/>
+    <n v="13"/>
+    <n v="13116"/>
+    <s v="Lo Espejo"/>
+    <x v="3"/>
+    <s v="Leslie Velásquez (Chico Leslie)"/>
+    <m/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Apuñala por conocido al tratar de defender a compañera de ataque sexual"/>
+    <m/>
+    <s v="Amigo"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-08-22T00:00:00"/>
+    <n v="7"/>
+    <n v="7401"/>
+    <s v="Linares"/>
+    <x v="2"/>
+    <s v="Norma Isabel Vásquez Soto"/>
+    <n v="21"/>
+    <s v="Chilena"/>
+    <s v="Carabinera"/>
+    <s v="Golpeada con objeto contunde en la cabeza por compañero de servicio, a quien ella misma había denunciado por violación. El sujeto la asesinó en un motel e intentó ocultar el cuerpo en su autómovil. El carabinero asesino tenía al menos 6 sumarios administrativos pendientes. Se entregó horas después de que funcionaria del motel denunciara hallazgo del cadáver tras haber encarado al carabinero, quien salió con actitud sospechosa. "/>
+    <s v="Sí"/>
+    <s v="Ex pololo y compañero de trabajo"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-09-05T00:00:00"/>
+    <n v="13"/>
+    <n v="13112"/>
+    <s v="La Pintana"/>
+    <x v="3"/>
+    <s v="Camila Alejandra Díaz Álvarez"/>
+    <n v="21"/>
+    <m/>
+    <m/>
+    <s v="Acuchillada con tijeras y asfixiada. Sujeto huye a Valdivia, donde es detenido "/>
+    <m/>
+    <s v="Conviviente"/>
+  </r>
+  <r>
+    <s v="Suicidios femicidas"/>
+    <d v="2020-04-20T00:00:00"/>
+    <n v="13"/>
+    <n v="13502"/>
+    <s v="Alhué"/>
+    <x v="3"/>
+    <s v="Jacqueline Marcela Calfulaf Poblete"/>
+    <n v="34"/>
+    <m/>
+    <s v="Arquitecta"/>
+    <s v="Ahorcamiento. En certificado de defunción aparece ahorcamiento como causa de muerte. Su familia se comunica en agosto señalando que por la violencia ejercida por su conviviente, la situación corresponde al menos a suicidio femicida, y se encuentran exigiendo una investigación seria para determinar si realmente es posible descartar el femicidio"/>
+    <m/>
+    <s v="Conviviente"/>
+  </r>
+  <r>
+    <s v="Suicidios femicidas"/>
+    <d v="2020-06-28T00:00:00"/>
+    <n v="4"/>
+    <n v="4106"/>
+    <s v="Vicuña"/>
+    <x v="10"/>
+    <s v="Anaís Godoy Ramírez"/>
+    <n v="16"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Anaís fue violada el 17 de diciembre de 2018 en Pampilla, cuando tenía 15 años. Tras dos años, al enterarse de la impunidad de su agresor, se quitó la vida. El agresor se encuentra actualmente en prisión por otros delitos"/>
+    <s v="Sí"/>
+    <s v="Amigo"/>
+  </r>
+  <r>
+    <s v="Suicidios femicidas"/>
+    <d v="2020-08-02T00:00:00"/>
+    <n v="10"/>
+    <n v="10403"/>
+    <s v="Hualaihué"/>
+    <x v="12"/>
+    <s v="Deysi Nobelia Compay Schmitd"/>
+    <n v="20"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Tras violencia cometida por su pareja, Deysi se quitó la vida. Se encontraba embarazada. Amigas y familiares inician campaña"/>
+    <m/>
+    <s v="Pololo"/>
+  </r>
+  <r>
+    <s v="Otros asesinatos por Violencia Femicida"/>
+    <d v="2020-02-09T00:00:00"/>
+    <n v="6"/>
+    <n v="6306"/>
+    <s v="Palmilla"/>
+    <x v="1"/>
+    <s v="Luis Díaz Parraguez"/>
+    <n v="11"/>
+    <s v="Chileno"/>
+    <m/>
+    <s v="Apuñalado por el padre para castigar a la madre pues el niño había decidido ir a vivir con ella y su nueva pareja. El asesino citó al niño al río Tinguiririca para conversar, según se registró en mensajes de whatsapp, lugar en que lo asesinó"/>
+    <m/>
+    <s v="Padre"/>
+  </r>
+  <r>
+    <s v="Otros asesinatos por Violencia Femicida"/>
+    <d v="2020-02-22T00:00:00"/>
+    <n v="5"/>
+    <n v="5804"/>
+    <s v="Villa Alemana"/>
+    <x v="5"/>
+    <s v="Daniela"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <s v="Calcinada junto a su madre, Brenda Vidal. En agosto, familiares de Brenda denuncian que el incendio fue provocado por ex pareja de ella y que la investigación ha sido negligente"/>
+    <m/>
+    <s v="Padre"/>
+  </r>
+  <r>
+    <s v="Otros asesinatos por Violencia Femicida"/>
+    <d v="2020-02-22T00:00:00"/>
+    <n v="5"/>
+    <n v="5804"/>
+    <s v="Villa Alemana"/>
+    <x v="5"/>
+    <s v="Daniel"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <s v="Calcinado junto a su madre, Brenda Vidal. En agosto, familiares de Brenda denuncian que el incendio fue provocado por ex pareja de ella y que la investigación ha sido negligente"/>
+    <m/>
+    <s v="Padre"/>
+  </r>
+  <r>
+    <s v="Otros asesinatos por Violencia Femicida"/>
+    <d v="2020-03-20T00:00:00"/>
+    <n v="3"/>
+    <n v="3202"/>
+    <s v="Diego de Almagro"/>
+    <x v="8"/>
+    <s v="Joaquín Mallea"/>
+    <n v="7"/>
+    <s v="Chileno"/>
+    <m/>
+    <s v="Apuñalado junto a su madre por pareja de ésta, quien luego prendió fuego al inmueble y se suicidó."/>
+    <m/>
+    <s v="Pareja de la madre"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-09-08T00:00:00"/>
+    <n v="13"/>
+    <n v="13302"/>
+    <s v="Lampa"/>
+    <x v="3"/>
+    <s v="Alsacia Lorena Arriagada Morales"/>
+    <n v="60"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Asfixiada con un cable por su esposo"/>
+    <m/>
+    <s v="Cónyuge"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-09-08T00:00:00"/>
+    <n v="5"/>
+    <n v="5109"/>
+    <s v="Viña del Mar "/>
+    <x v="5"/>
+    <s v="Betty del Carmen Torres Villarroel "/>
+    <n v="46"/>
+    <m/>
+    <m/>
+    <s v="Baleada por conviviente en Reñaca Alto. Había denuncias de VIF y el sujeto, quien se dio a la fuga, tenía antecedentes por otros delitos. Agresor es detenido por no portar mascarilla y confiesa delito"/>
+    <m/>
+    <s v="Conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios "/>
+    <d v="2020-09-14T00:00:00"/>
+    <n v="13"/>
+    <n v="13125"/>
+    <s v="Quilicura "/>
+    <x v="3"/>
+    <s v="Esperanza Érika Aguilar Olivares "/>
+    <n v="54"/>
+    <s v="Chilena "/>
+    <m/>
+    <s v="Acuchillada junto a su hija menor por su hijo. Sujeto se autoinfirió heridas y dejó llave del gas abierta; más tarde confiesa. Se denuncia violencia sexual, la que el Ministerio Público no ha considerado. No se utiliza nuevo concepto de femicidio de Ley Gabriela"/>
+    <m/>
+    <s v="Hijo "/>
+  </r>
+  <r>
+    <s v="Femicidios "/>
+    <d v="2020-09-14T00:00:00"/>
+    <n v="13"/>
+    <n v="13125"/>
+    <s v="Quilicura "/>
+    <x v="3"/>
+    <s v="Caroline Giselle Venegas Aguilar "/>
+    <n v="18"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Acuchillada junto a su madre menor por su heramno. Sujeto se autoinfirió heridas y dejó llave del gas abierta; más tarde confiesa. Se denuncia violencia sexual, la que el Ministerio Público no ha considerado. No sé utiliza nuevo concepto de femicidio de Ley Gabriela"/>
+    <s v="Se presume "/>
+    <s v="Hermano "/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-09-22T00:00:00"/>
+    <n v="7"/>
+    <n v="7301"/>
+    <s v="Curicó"/>
+    <x v="2"/>
+    <s v="Sara Tatiana Muñoz Farías "/>
+    <n v="26"/>
+    <s v="Chilena "/>
+    <m/>
+    <s v="Violada y asesinada por hombre que conoció por facebook. Se citaron para conocerse en persona al levantarse cuarentena, lo que el sujeto aprovechó para violarla y asesinarla, dejándola semidesnuda en cerro Condell. Dado que _x000a_ el agresor abandonó su celular en el lugar, fue durante la tarde. Se le está formalizando por violación con homicidio en lugar de la nueva figura de violación con femicidio&quot;"/>
+    <s v="Sí "/>
+    <s v="Conocido "/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-10-01T00:00:00"/>
+    <n v="11"/>
+    <n v="11101"/>
+    <s v="Coyhaique"/>
+    <x v="13"/>
+    <s v="Julia Aluen Mancilla Vargas "/>
+    <n v="21"/>
+    <m/>
+    <m/>
+    <s v="Violada y apuñalada en su casa por su primo. PDI indica que es clara la intervención homicida de terceros y que se investiga violación por la criminodinámica del hallazgo. No se dan antecedentes sobre agresor o agresores en primer momento. Horas más tarde se detienen a autor. Agresión sexual es cada vez menos abordada por policías. Familia señala fue femicidio "/>
+    <s v="Sí "/>
+    <s v="Primo "/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-10-06T00:00:00"/>
+    <n v="16"/>
+    <n v="16205"/>
+    <s v="Portezuelo"/>
+    <x v="14"/>
+    <s v="Carolina Fuentes Bustos"/>
+    <n v="42"/>
+    <m/>
+    <m/>
+    <s v="Hallada en río Ñuble tras desaparecer el 30 de junio. Su ex pareja, quien fuera siempre sospechoso para ex marido, hijos y familiares de Carolina, envió mensajes desde el teléfono de ella tal día. Se investiga día data de muerte"/>
+    <m/>
+    <s v="Ex pololo "/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-10-11T00:00:00"/>
+    <n v="3"/>
+    <n v="3101"/>
+    <s v="Copiapó "/>
+    <x v="8"/>
+    <s v="Lady Paola Aboledo Riascos"/>
+    <n v="33"/>
+    <s v="Colombiana "/>
+    <m/>
+    <s v="Apuñalada por su conviviente. Fue encontrada en la calle"/>
+    <m/>
+    <s v="Conviviente "/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-10-16T00:00:00"/>
+    <n v="5"/>
+    <n v="5101"/>
+    <s v="Valparaíso"/>
+    <x v="5"/>
+    <s v="Ercilla Gladys Salgado Yáñez "/>
+    <n v="63"/>
+    <s v="Chilena "/>
+    <m/>
+    <s v="Violada y estrangulada por sobrino en su casa. Agresor es formalizado el 12 de noviembre, según datos de prensa, sin considerar nueva figura de violación con femicidio de Ley Gabriela (causa no aparece en web P. Judicial). Ercilia había denunciado a su hermano, padre del imputado, por lesiones VIF durante el año 2020. Tenían audiencia el 25 de noviembre de 2020 (según datos P. Judicial)"/>
+    <s v="Sí "/>
+    <s v="Sobrino "/>
+  </r>
+  <r>
+    <s v="Femicidios "/>
+    <d v="2020-10-20T00:00:00"/>
+    <n v="2"/>
+    <n v="2201"/>
+    <s v="Calama"/>
+    <x v="15"/>
+    <s v="Lucía Chicchi Leandro "/>
+    <n v="35"/>
+    <s v="Boliviana "/>
+    <m/>
+    <s v="Hallada muerta en basural del sector Limón Verde. Se encontraba desaparecida desde el 14 de octubre de 2020. Esposo, quien hizo la denuncia, es luego detenido y confiesa el crimen "/>
+    <m/>
+    <s v="Cónyuge"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-11-01T00:00:00"/>
+    <n v="14"/>
+    <n v="1401"/>
+    <s v="Valdivia"/>
+    <x v="0"/>
+    <s v="Tania Macarena Bustamante Díaz "/>
+    <n v="24"/>
+    <s v="Chilena "/>
+    <m/>
+    <s v="Escopetazo de su pareja"/>
+    <m/>
+    <s v="Conviviente "/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-11-01T00:00:00"/>
+    <n v="7"/>
+    <n v="7201"/>
+    <s v="Cauquenes"/>
+    <x v="2"/>
+    <s v="Verónica Villenas Vega "/>
+    <n v="36"/>
+    <s v="Chilena "/>
+    <m/>
+    <s v="Apuñalada en cuatro oportunidades por su hermano. Nuevamente no se usa figura de femicidio de Ley Gabriela"/>
+    <m/>
+    <s v="Hermano "/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-11-01T00:00:00"/>
+    <n v="7"/>
+    <n v="7101"/>
+    <s v="Talca"/>
+    <x v="2"/>
+    <s v="Lhysbet Ureta Méndez "/>
+    <n v="20"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Golpes con elemento contundente; el sujeto trató de ocultar el femicidio limpiando el lugar, por lo que inicialmente se investigaba homicidio sin identificar al autor"/>
+    <m/>
+    <s v="Conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-11-03T00:00:00"/>
+    <n v="14"/>
+    <n v="14108"/>
+    <s v="Panguipulli "/>
+    <x v="16"/>
+    <s v="Yenny Shirley Ancamilla Collinao"/>
+    <n v="26"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Acuchillada por conviviente tenía diversas lesiones en cabeza "/>
+    <m/>
+    <s v="Conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-11-14T00:00:00"/>
+    <n v="13"/>
+    <n v="13401"/>
+    <s v="San Bernardo "/>
+    <x v="3"/>
+    <s v="Nancy Gloria Rojas Arenas "/>
+    <n v="67"/>
+    <s v="Chilena"/>
+    <s v="Comerciante feria"/>
+    <s v="Golpeada y acuchillada por su hijo. La encuentra desnuda, acuchillada y golpeada en el suelo de la cocina su otro hijo, quien al ingresar al lugar por la fuerte música que se escuchaba desde afuera, encuentra escondido en el baño a su hermano, quien tras golpearlo se da a la fuga. Horas después Nancy fallece por politraumatismo. Nancy era oxígeno dependiente y mantenía económicamente a su agresor, quien estaba con arresto domiciliario por robo. Asesino se dio a la fuga y fue detenido el 18 de noviembre. Tribunal sigue investigación no formalizada por parricidio, y no por Ley Gabriela"/>
+    <s v="Presunta "/>
+    <s v="Hijo "/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-11-15T00:00:00"/>
+    <n v="13"/>
+    <n v="13130"/>
+    <s v="San Miguel "/>
+    <x v="17"/>
+    <s v="Jacqueline Hernández Morales "/>
+    <n v="52"/>
+    <s v="Chilena "/>
+    <m/>
+    <s v="Muere tras caída de 5to piso. Familia asegura fue femicidio, sospechoso, pareja de Jacqueline, indica fue accidente o suicidio. Fiscalía está investigando presunto femicidio"/>
+    <m/>
+    <s v="Conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-11-20T00:00:00"/>
+    <n v="5"/>
+    <n v="5701"/>
+    <s v="San Felipe "/>
+    <x v="18"/>
+    <s v="Sandra Carolina Pizarro Jeria "/>
+    <n v="45"/>
+    <s v="Chilena"/>
+    <s v="Profesora "/>
+    <s v="Golpeada por ex conviviente hasta quedar inconsciente el viernes 13 de noviembre. Se declara muerte cerebral, y el día 20 de noviembre fallece producto de los golpes. Ex conviviente sólo reconoce haberla visitado el 10 de noviembre. La familia indica que se perdió su contacto y fueron a verla, encontrándola sin consciencia."/>
+    <m/>
+    <s v="Ex conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-11-22T00:00:00"/>
+    <n v="5"/>
+    <n v="5101"/>
+    <s v="Valparaíso"/>
+    <x v="5"/>
+    <s v="Katherine Andrea Ayala Ayala "/>
+    <n v="38"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Asesinada por conviviente. Medios no indican cómo."/>
+    <m/>
+    <s v="Conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-11-28T00:00:00"/>
+    <n v="10"/>
+    <n v="10101"/>
+    <s v="Puerto Montt "/>
+    <x v="12"/>
+    <s v="Yanira Javiera Díaz Vera "/>
+    <n v="26"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Asfixiada por conviviente luego de múltiples golpes con elemento contundente. Inicialmente tanto PDI como SML habían corroborado tesis de suicidio del imputado, pero se determinó el femicidio tras exhumación solicitada por la familia practicada el 4 de diciembre. El 17 de diciembre el sujeto fue formalizado y se encuentra en prisión preventiva "/>
+    <m/>
+    <s v="Conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-12-05T00:00:00"/>
+    <n v="13"/>
+    <n v="13122"/>
+    <s v="Peñalolén"/>
+    <x v="3"/>
+    <s v="Jocelyn Hernández Jara "/>
+    <n v="28"/>
+    <s v="Chilena "/>
+    <m/>
+    <s v="Apuñalada por conviviente, quien se esconde luego en casa de familiares"/>
+    <m/>
+    <s v="Conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-12-12T00:00:00"/>
+    <n v="7"/>
+    <n v="7105"/>
+    <s v="Colín "/>
+    <x v="19"/>
+    <s v="Francisca Ignacia Kustmann Rojas "/>
+    <n v="36"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Asfixiada por conviviente mientras pernoctaban en Colín. Francisca Ignacia era de Talca. Defensa alega esquizofrenia del sujeto"/>
+    <m/>
+    <s v="Conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-12-14T00:00:00"/>
+    <n v="10"/>
+    <n v="10101"/>
+    <s v="Puerto Montt "/>
+    <x v="12"/>
+    <s v="Margarita Paredes Santana "/>
+    <n v="54"/>
+    <s v="Chilena "/>
+    <m/>
+    <s v="Apuñalada por hijo. Se menciona en prensa que tanto él como su tío (no se indica si es hermano o cuñado de la mujer) habría despertado borrachos con sangre en sus ropas y la madre muerta en el jardín. Sólo se ha formalizado al hijo de la mujer."/>
+    <m/>
+    <s v="Hijo "/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-12-15T00:00:00"/>
+    <n v="8"/>
+    <n v="8108"/>
+    <s v="San Pedro de la Paz "/>
+    <x v="20"/>
+    <s v="Ana María Guerra Castañeda "/>
+    <n v="66"/>
+    <s v="Chilena "/>
+    <m/>
+    <s v="Atacada con un hacha por su marido"/>
+    <m/>
+    <s v="Cónyuge"/>
+  </r>
+  <r>
+    <s v="Otros asesinatos por Violencia Femicida"/>
+    <d v="2020-10-31T00:00:00"/>
+    <n v="14"/>
+    <n v="14101"/>
+    <s v="Valdivia"/>
+    <x v="16"/>
+    <s v="Vicente González Lorca "/>
+    <n v="25"/>
+    <s v="Chileno"/>
+    <m/>
+    <s v="Asfixiado tras sufrir agresión sexual en sitio eriazo; hay antecedentes de asesinato estaría motivado por identificarse como varón trans con violación correctiva"/>
+    <s v="Sí "/>
+    <s v="Desconocido "/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-12-23T00:00:00"/>
+    <n v="13"/>
+    <n v="13101"/>
+    <s v="Santiago"/>
+    <x v="3"/>
+    <s v="María Isabel Pavez Zamora "/>
+    <n v="22"/>
+    <s v="Chilena"/>
+    <s v="Estudiante"/>
+    <s v="Apuñalada por ex pololo. Desaparece el 17 de diciembre. A madre le dijo que se reuniría con ex pareja, y a amigas que tenía cita de Tinder. Tras triangulación de teléfono, PDI encuentra su cuerpo en departamento de ex pareja."/>
+    <m/>
+    <s v="Ex pololo "/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-12-24T00:00:00"/>
+    <n v="5"/>
+    <n v="5109"/>
+    <s v="Viña del Mar "/>
+    <x v="5"/>
+    <s v="Elsa Janet Muñoz Santana "/>
+    <n v="40"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Apuñalada por ex conviviente. Durante el día, Elsa, quien había denunciado antes acoso de su ex pareja, denunció VIF pero sujeto fue puesto en libertad, retornando al domicilio. Vecinos denuncian nuevamente VIF, pues vieron golpes del sujeto desnudo a Elsa y escucharon sus gritos de ayuda. En audiencia de control de detención, Ministerio Público lee parte policial, en que se indica que al llegar carabineros Elsa estaba inconsciente, pero el sujeto con un cuchillo en mano les lanzó sábana incendiada, logrando encerrarse en departamento, por lo que Elsa pudo haber muerto en ese momento. Luego, el sujeto fue detenido y se escapó retornando al departamento y terminando de incendiarlo y quemar el cuerpo de Elsa. Paralelamente, vecinos, trataron de linchar a femicida, salvándolo carabineros.   "/>
+    <s v="Se presume "/>
+    <s v="Ex conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-12-24T00:00:00"/>
+    <n v="5"/>
+    <n v="5502"/>
+    <s v="La Calera "/>
+    <x v="5"/>
+    <s v="Gladys Escalona "/>
+    <n v="46"/>
+    <m/>
+    <m/>
+    <s v="Encontrada muerta envuelta en frazadas el 30 de diciembre, tras llamado de vecinos a carabineros por olor putrefacto en el inmueble. Vecinos indican que escucharon discusión el 24 y luego silencio. Carabineros encontró cadáver de pareja de Gladys colgando en viga, con data de suicidio de 36 horas. Familia indica que Gladys sufrió varios episodios VIF sin denunciar."/>
+    <m/>
+    <s v="Conviviente"/>
+  </r>
+  <r>
+    <s v="Femicidios"/>
+    <d v="2020-12-28T00:00:00"/>
+    <n v="10"/>
+    <n v="10107"/>
+    <s v="Llanquihue"/>
+    <x v="12"/>
+    <s v="Amada Andrade "/>
+    <n v="89"/>
+    <s v="Chilena"/>
+    <m/>
+    <s v="Encontrada muerta con múltiples lesiones atribuibles a terceros. Esa noche se toma declaraciones a su hijo como testigo, siendo sindicado como sospechoso, si bien él habría dado otra versión de los hechos. El 29 de diciembre, hijo, quien no fuera detenido, se suicida. Fiscalía indica que cuerpo de Amada está en SML en Santiago y no aclaran si tiene impactos de bala o golpes"/>
+    <m/>
+    <s v="Hijo "/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B87A129C-0473-4264-81A8-E2FC95231AD1}" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="22">
+        <item x="15"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="20"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="16"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="19"/>
+        <item x="3"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="18"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="22">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13319,14 +14542,147 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E0F0F5-3191-4B1E-866C-F9C37ABBCBBB}">
+  <dimension ref="A3:A25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="56" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="57" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="57" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="57" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="57" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="57" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="57" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="57" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="57" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="57" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="57" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="57" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="57" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="57" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="57" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="57" t="s">
+        <v>669</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85E8145-A65A-4280-976F-3B8DC648AD14}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:AM68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13462,37 +14818,37 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B2" s="48">
-        <v>43835</v>
-      </c>
-      <c r="C2" s="50">
-        <v>14</v>
-      </c>
-      <c r="D2" s="50">
-        <v>14101</v>
+        <v>471</v>
+      </c>
+      <c r="B2" s="52">
+        <v>44124</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2201</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>422</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>423</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>534</v>
       </c>
       <c r="H2">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>535</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>536</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="P2" t="s">
         <v>35</v>
@@ -13536,7 +14892,7 @@
       <c r="AJ2" t="s">
         <v>387</v>
       </c>
-      <c r="AK2" s="53" t="s">
+      <c r="AK2" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL2">
@@ -13551,34 +14907,34 @@
         <v>372</v>
       </c>
       <c r="B3" s="48">
-        <v>43840</v>
+        <v>43946</v>
       </c>
       <c r="C3" s="50">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D3" s="50">
-        <v>6116</v>
+        <v>15101</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>47</v>
+        <v>178</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>179</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="H3">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="P3" t="s">
         <v>35</v>
@@ -13620,7 +14976,7 @@
       <c r="AJ3" t="s">
         <v>389</v>
       </c>
-      <c r="AK3" s="53" t="s">
+      <c r="AK3" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL3">
@@ -13635,34 +14991,34 @@
         <v>372</v>
       </c>
       <c r="B4" s="48">
-        <v>43843</v>
+        <v>43910</v>
       </c>
       <c r="C4" s="50">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" s="50">
-        <v>7404</v>
+        <v>3202</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="H4">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
         <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="M4" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="P4" t="s">
         <v>60</v>
@@ -13704,7 +15060,7 @@
       <c r="AJ4" t="s">
         <v>396</v>
       </c>
-      <c r="AK4" s="53" t="s">
+      <c r="AK4" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL4">
@@ -13718,35 +15074,35 @@
       <c r="A5" t="s">
         <v>372</v>
       </c>
-      <c r="B5" s="48">
-        <v>43860</v>
-      </c>
-      <c r="C5" s="50">
-        <v>6</v>
-      </c>
-      <c r="D5" s="50">
-        <v>6115</v>
+      <c r="B5" s="52">
+        <v>44115</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3101</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>47</v>
+        <v>419</v>
+      </c>
+      <c r="F5" t="s">
+        <v>158</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>519</v>
       </c>
       <c r="H5">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>520</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>521</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>522</v>
       </c>
       <c r="P5" t="s">
         <v>35</v>
@@ -13785,7 +15141,7 @@
       <c r="AJ5" t="s">
         <v>389</v>
       </c>
-      <c r="AK5" s="53" t="s">
+      <c r="AK5" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL5">
@@ -13797,37 +15153,37 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="B6" s="48">
-        <v>43878</v>
+        <v>43910</v>
       </c>
       <c r="C6" s="50">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D6" s="50">
-        <v>13119</v>
+        <v>3202</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="H6">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>343</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>344</v>
       </c>
       <c r="P6" t="s">
         <v>35</v>
@@ -13875,7 +15231,7 @@
       <c r="AJ6" t="s">
         <v>390</v>
       </c>
-      <c r="AK6" s="53" t="s">
+      <c r="AK6" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL6">
@@ -13889,35 +15245,35 @@
       <c r="A7" t="s">
         <v>372</v>
       </c>
-      <c r="B7" s="48">
-        <v>43878</v>
-      </c>
-      <c r="C7" s="50">
-        <v>8</v>
-      </c>
-      <c r="D7" s="50">
-        <v>8305</v>
+      <c r="B7" s="52">
+        <v>44105</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>11101</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>380</v>
+        <v>497</v>
+      </c>
+      <c r="F7" t="s">
+        <v>498</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>499</v>
       </c>
       <c r="H7">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>500</v>
+      </c>
+      <c r="L7" t="s">
+        <v>479</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>501</v>
       </c>
       <c r="P7" t="s">
         <v>35</v>
@@ -13964,7 +15320,7 @@
       <c r="AJ7" t="s">
         <v>391</v>
       </c>
-      <c r="AK7" s="53" t="s">
+      <c r="AK7" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL7">
@@ -13978,35 +15334,35 @@
       <c r="A8" t="s">
         <v>372</v>
       </c>
-      <c r="B8" s="48">
-        <v>43883</v>
-      </c>
-      <c r="C8" s="50">
-        <v>5</v>
-      </c>
-      <c r="D8" s="50">
-        <v>5804</v>
+      <c r="B8" s="52">
+        <v>44180</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>8108</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" t="s">
-        <v>98</v>
+        <v>621</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>380</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>623</v>
       </c>
       <c r="H8">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>474</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>624</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="P8" t="s">
         <v>35</v>
@@ -14042,7 +15398,7 @@
       <c r="AJ8" t="s">
         <v>392</v>
       </c>
-      <c r="AK8" s="53" t="s">
+      <c r="AK8" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL8">
@@ -14057,34 +15413,34 @@
         <v>372</v>
       </c>
       <c r="B9" s="48">
-        <v>43887</v>
+        <v>43878</v>
       </c>
       <c r="C9" s="50">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" s="50">
-        <v>6115</v>
+        <v>8305</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>380</v>
+      </c>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9">
         <v>47</v>
-      </c>
-      <c r="G9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H9">
-        <v>16</v>
       </c>
       <c r="I9" t="s">
         <v>32</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="M9" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="P9" t="s">
         <v>35</v>
@@ -14123,7 +15479,7 @@
       <c r="AJ9" t="s">
         <v>389</v>
       </c>
-      <c r="AK9" s="53" t="s">
+      <c r="AK9" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL9">
@@ -14138,34 +15494,37 @@
         <v>372</v>
       </c>
       <c r="B10" s="48">
-        <v>43890</v>
+        <v>43972</v>
       </c>
       <c r="C10" s="50">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D10" s="50">
-        <v>1107</v>
+        <v>8102</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" t="s">
-        <v>113</v>
+        <v>196</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>380</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
         <v>32</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>198</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
       </c>
       <c r="M10" t="s">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="P10" t="s">
         <v>35</v>
@@ -14210,7 +15569,7 @@
       <c r="AJ10" t="s">
         <v>398</v>
       </c>
-      <c r="AK10" s="53" t="s">
+      <c r="AK10" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL10">
@@ -14225,37 +15584,31 @@
         <v>372</v>
       </c>
       <c r="B11" s="48">
-        <v>43895</v>
+        <v>44017</v>
       </c>
       <c r="C11" s="50">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" s="50">
-        <v>5301</v>
+        <v>8106</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" t="s">
-        <v>98</v>
+        <v>232</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>380</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="H11">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
       </c>
-      <c r="J11" t="s">
-        <v>125</v>
-      </c>
       <c r="K11" t="s">
-        <v>126</v>
-      </c>
-      <c r="L11" t="s">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="M11" t="s">
         <v>34</v>
@@ -14303,7 +15656,7 @@
       <c r="AJ11" t="s">
         <v>392</v>
       </c>
-      <c r="AK11" s="53" t="s">
+      <c r="AK11" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL11">
@@ -14318,37 +15671,34 @@
         <v>372</v>
       </c>
       <c r="B12" s="48">
-        <v>43898</v>
+        <v>43948</v>
       </c>
       <c r="C12" s="50">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D12" s="50">
-        <v>12101</v>
+        <v>4101</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="G12" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="H12">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
         <v>32</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
-      </c>
-      <c r="L12" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="M12" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="P12" t="s">
         <v>137</v>
@@ -14378,7 +15728,7 @@
       <c r="AJ12" t="s">
         <v>399</v>
       </c>
-      <c r="AK12" s="53" t="s">
+      <c r="AK12" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL12">
@@ -14390,37 +15740,40 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="B13" s="48">
-        <v>43905</v>
+        <v>44010</v>
       </c>
       <c r="C13" s="50">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="50">
-        <v>6117</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>377</v>
+        <v>4106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>314</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="G13" t="s">
-        <v>141</v>
+        <v>315</v>
       </c>
       <c r="H13">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
         <v>32</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
+        <v>316</v>
+      </c>
+      <c r="L13" t="s">
+        <v>89</v>
       </c>
       <c r="M13" t="s">
-        <v>143</v>
+        <v>281</v>
       </c>
       <c r="P13" t="s">
         <v>35</v>
@@ -14462,7 +15815,7 @@
       <c r="AJ13" t="s">
         <v>389</v>
       </c>
-      <c r="AK13" s="53" t="s">
+      <c r="AK13" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL13">
@@ -14477,31 +15830,31 @@
         <v>372</v>
       </c>
       <c r="B14" s="48">
-        <v>43906</v>
+        <v>43990</v>
       </c>
       <c r="C14" s="50">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D14" s="50">
-        <v>13301</v>
+        <v>9211</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" t="s">
-        <v>75</v>
+        <v>217</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>379</v>
       </c>
       <c r="G14" t="s">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="H14">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I14" t="s">
         <v>32</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
       <c r="M14" t="s">
         <v>34</v>
@@ -14549,7 +15902,7 @@
       <c r="AJ14" t="s">
         <v>390</v>
       </c>
-      <c r="AK14" s="53" t="s">
+      <c r="AK14" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL14">
@@ -14564,34 +15917,34 @@
         <v>372</v>
       </c>
       <c r="B15" s="48">
-        <v>43910</v>
+        <v>43996</v>
       </c>
       <c r="C15" s="50">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D15" s="50">
-        <v>3202</v>
+        <v>9103</v>
       </c>
       <c r="E15" t="s">
-        <v>157</v>
-      </c>
-      <c r="F15" t="s">
-        <v>158</v>
+        <v>224</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>379</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>225</v>
       </c>
       <c r="H15">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
         <v>32</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="M15" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="P15" t="s">
         <v>35</v>
@@ -14629,7 +15982,7 @@
       <c r="AJ15" t="s">
         <v>393</v>
       </c>
-      <c r="AK15" s="53" t="s">
+      <c r="AK15" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL15">
@@ -14643,35 +15996,35 @@
       <c r="A16" t="s">
         <v>372</v>
       </c>
-      <c r="B16" s="48">
-        <v>43932</v>
-      </c>
-      <c r="C16" s="50">
-        <v>6</v>
-      </c>
-      <c r="D16" s="50">
-        <v>6205</v>
+      <c r="B16" s="52">
+        <v>44163</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>10101</v>
       </c>
       <c r="E16" t="s">
-        <v>164</v>
+        <v>448</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>321</v>
       </c>
       <c r="G16" t="s">
-        <v>165</v>
+        <v>597</v>
       </c>
       <c r="H16">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
       </c>
       <c r="K16" t="s">
-        <v>166</v>
+        <v>598</v>
       </c>
       <c r="M16" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="P16" t="s">
         <v>35</v>
@@ -14718,7 +16071,7 @@
       <c r="AJ16" t="s">
         <v>389</v>
       </c>
-      <c r="AK16" s="53" t="s">
+      <c r="AK16" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL16">
@@ -14732,35 +16085,35 @@
       <c r="A17" t="s">
         <v>372</v>
       </c>
-      <c r="B17" s="48">
-        <v>43943</v>
-      </c>
-      <c r="C17" s="50">
-        <v>13</v>
-      </c>
-      <c r="D17" s="50">
-        <v>13301</v>
+      <c r="B17" s="52">
+        <v>44179</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>10101</v>
       </c>
       <c r="E17" t="s">
-        <v>149</v>
+        <v>448</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>321</v>
       </c>
       <c r="G17" t="s">
-        <v>172</v>
+        <v>616</v>
       </c>
       <c r="H17">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>474</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>617</v>
       </c>
       <c r="M17" t="s">
-        <v>87</v>
+        <v>476</v>
       </c>
       <c r="P17" t="s">
         <v>35</v>
@@ -14801,7 +16154,7 @@
       <c r="AJ17" t="s">
         <v>390</v>
       </c>
-      <c r="AK17" s="53" t="s">
+      <c r="AK17" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL17">
@@ -14815,35 +16168,35 @@
       <c r="A18" t="s">
         <v>372</v>
       </c>
-      <c r="B18" s="48">
-        <v>43946</v>
-      </c>
-      <c r="C18" s="50">
-        <v>15</v>
-      </c>
-      <c r="D18" s="50">
-        <v>15101</v>
+      <c r="B18" s="52">
+        <v>44193</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>10107</v>
       </c>
       <c r="E18" t="s">
-        <v>178</v>
+        <v>659</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>321</v>
       </c>
       <c r="G18" t="s">
-        <v>180</v>
+        <v>660</v>
       </c>
       <c r="H18">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>661</v>
       </c>
       <c r="M18" t="s">
-        <v>143</v>
+        <v>476</v>
       </c>
       <c r="P18" t="s">
         <v>35</v>
@@ -14884,7 +16237,7 @@
       <c r="AJ18" t="s">
         <v>394</v>
       </c>
-      <c r="AK18" s="53" t="s">
+      <c r="AK18" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL18">
@@ -14896,37 +16249,37 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="B19" s="48">
-        <v>43948</v>
+        <v>44045</v>
       </c>
       <c r="C19" s="50">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D19" s="50">
-        <v>4101</v>
+        <v>10403</v>
       </c>
       <c r="E19" t="s">
-        <v>186</v>
+        <v>378</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>321</v>
       </c>
       <c r="G19" t="s">
-        <v>188</v>
+        <v>322</v>
       </c>
       <c r="H19">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
         <v>32</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>323</v>
       </c>
       <c r="M19" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="P19" t="s">
         <v>35</v>
@@ -14976,7 +16329,7 @@
       <c r="AJ19" t="s">
         <v>395</v>
       </c>
-      <c r="AK19" s="53" t="s">
+      <c r="AK19" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL19">
@@ -14991,37 +16344,34 @@
         <v>372</v>
       </c>
       <c r="B20" s="48">
-        <v>43972</v>
+        <v>43835</v>
       </c>
       <c r="C20" s="50">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D20" s="50">
-        <v>8102</v>
+        <v>14101</v>
       </c>
       <c r="E20" t="s">
-        <v>196</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>380</v>
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="I20" t="s">
         <v>32</v>
       </c>
       <c r="K20" t="s">
-        <v>198</v>
-      </c>
-      <c r="L20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M20" t="s">
-        <v>199</v>
+        <v>34</v>
       </c>
       <c r="P20" t="s">
         <v>200</v>
@@ -15048,7 +16398,7 @@
       <c r="AJ20" t="s">
         <v>391</v>
       </c>
-      <c r="AK20" s="53" t="s">
+      <c r="AK20" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL20">
@@ -15062,35 +16412,35 @@
       <c r="A21" t="s">
         <v>372</v>
       </c>
-      <c r="B21" s="48">
-        <v>43981</v>
-      </c>
-      <c r="C21" s="50">
-        <v>5</v>
-      </c>
-      <c r="D21" s="50">
-        <v>5101</v>
+      <c r="B21" s="52">
+        <v>44136</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>1401</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>204</v>
+        <v>540</v>
       </c>
       <c r="H21">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I21" t="s">
-        <v>32</v>
+        <v>474</v>
       </c>
       <c r="K21" t="s">
-        <v>205</v>
+        <v>541</v>
       </c>
       <c r="M21" t="s">
-        <v>34</v>
+        <v>522</v>
       </c>
       <c r="P21" t="s">
         <v>35</v>
@@ -15131,7 +16481,7 @@
       <c r="AJ21" t="s">
         <v>392</v>
       </c>
-      <c r="AK21" s="53" t="s">
+      <c r="AK21" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL21">
@@ -15145,35 +16495,35 @@
       <c r="A22" t="s">
         <v>372</v>
       </c>
-      <c r="B22" s="48">
-        <v>43985</v>
-      </c>
-      <c r="C22" s="50">
-        <v>7</v>
-      </c>
-      <c r="D22" s="50">
-        <v>7102</v>
+      <c r="B22" s="52">
+        <v>44138</v>
+      </c>
+      <c r="C22">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>14108</v>
       </c>
       <c r="E22" t="s">
-        <v>210</v>
+        <v>433</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>211</v>
+        <v>559</v>
       </c>
       <c r="H22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I22" t="s">
         <v>32</v>
       </c>
       <c r="K22" t="s">
-        <v>212</v>
+        <v>560</v>
       </c>
       <c r="M22" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="P22" t="s">
         <v>35</v>
@@ -15217,7 +16567,7 @@
       <c r="AJ22" t="s">
         <v>396</v>
       </c>
-      <c r="AK22" s="53" t="s">
+      <c r="AK22" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL22">
@@ -15229,37 +16579,40 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>372</v>
-      </c>
-      <c r="B23" s="48">
-        <v>43990</v>
-      </c>
-      <c r="C23" s="50">
-        <v>9</v>
-      </c>
-      <c r="D23" s="50">
-        <v>9211</v>
+        <v>327</v>
+      </c>
+      <c r="B23" s="52">
+        <v>44135</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>14101</v>
       </c>
       <c r="E23" t="s">
-        <v>217</v>
-      </c>
-      <c r="F23" s="49" t="s">
-        <v>379</v>
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>219</v>
+        <v>629</v>
       </c>
       <c r="H23">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K23" t="s">
-        <v>220</v>
+        <v>630</v>
+      </c>
+      <c r="L23" t="s">
+        <v>479</v>
       </c>
       <c r="M23" t="s">
-        <v>34</v>
+        <v>631</v>
       </c>
       <c r="P23" t="s">
         <v>35</v>
@@ -15298,7 +16651,7 @@
       <c r="AJ23" t="s">
         <v>397</v>
       </c>
-      <c r="AK23" s="53" t="s">
+      <c r="AK23" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL23">
@@ -15313,34 +16666,37 @@
         <v>372</v>
       </c>
       <c r="B24" s="48">
-        <v>43996</v>
+        <v>43898</v>
       </c>
       <c r="C24" s="50">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="50">
-        <v>9103</v>
+        <v>12101</v>
       </c>
       <c r="E24" t="s">
-        <v>224</v>
-      </c>
-      <c r="F24" s="49" t="s">
-        <v>379</v>
+        <v>131</v>
+      </c>
+      <c r="F24" t="s">
+        <v>132</v>
       </c>
       <c r="G24" t="s">
-        <v>225</v>
+        <v>133</v>
       </c>
       <c r="H24">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I24" t="s">
         <v>32</v>
       </c>
       <c r="K24" t="s">
-        <v>226</v>
+        <v>134</v>
+      </c>
+      <c r="L24" t="s">
+        <v>135</v>
       </c>
       <c r="M24" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="P24" t="s">
         <v>35</v>
@@ -15385,7 +16741,7 @@
       <c r="AJ24" t="s">
         <v>397</v>
       </c>
-      <c r="AK24" s="53" t="s">
+      <c r="AK24" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL24">
@@ -15400,34 +16756,34 @@
         <v>372</v>
       </c>
       <c r="B25" s="48">
-        <v>44017</v>
+        <v>43843</v>
       </c>
       <c r="C25" s="50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" s="50">
-        <v>8106</v>
+        <v>7404</v>
       </c>
       <c r="E25" t="s">
-        <v>232</v>
-      </c>
-      <c r="F25" s="49" t="s">
-        <v>380</v>
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>233</v>
+        <v>57</v>
       </c>
       <c r="H25">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I25" t="s">
         <v>32</v>
       </c>
       <c r="K25" t="s">
-        <v>234</v>
+        <v>58</v>
       </c>
       <c r="M25" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="P25" t="s">
         <v>35</v>
@@ -15466,7 +16822,7 @@
       <c r="AJ25" t="s">
         <v>391</v>
       </c>
-      <c r="AK25" s="53" t="s">
+      <c r="AK25" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL25">
@@ -15481,34 +16837,34 @@
         <v>372</v>
       </c>
       <c r="B26" s="48">
-        <v>44017</v>
+        <v>43985</v>
       </c>
       <c r="C26" s="50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" s="50">
-        <v>6105</v>
+        <v>7102</v>
       </c>
       <c r="E26" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G26" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="H26">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I26" t="s">
         <v>32</v>
       </c>
       <c r="K26" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="M26" t="s">
-        <v>241</v>
+        <v>108</v>
       </c>
       <c r="P26" t="s">
         <v>60</v>
@@ -15550,7 +16906,7 @@
       <c r="AJ26" t="s">
         <v>389</v>
       </c>
-      <c r="AK26" s="53" t="s">
+      <c r="AK26" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL26">
@@ -15565,34 +16921,40 @@
         <v>372</v>
       </c>
       <c r="B27" s="48">
-        <v>44047</v>
+        <v>44065</v>
       </c>
       <c r="C27" s="50">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D27" s="50">
-        <v>13120</v>
+        <v>7401</v>
       </c>
       <c r="E27" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="G27" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="H27">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>248</v>
+        <v>32</v>
+      </c>
+      <c r="J27" t="s">
+        <v>289</v>
       </c>
       <c r="K27" t="s">
-        <v>249</v>
+        <v>290</v>
+      </c>
+      <c r="L27" t="s">
+        <v>89</v>
       </c>
       <c r="M27" t="s">
-        <v>34</v>
+        <v>291</v>
       </c>
       <c r="P27" t="s">
         <v>35</v>
@@ -15634,7 +16996,7 @@
       <c r="AJ27" t="s">
         <v>390</v>
       </c>
-      <c r="AK27" s="53" t="s">
+      <c r="AK27" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL27">
@@ -15648,35 +17010,38 @@
       <c r="A28" t="s">
         <v>372</v>
       </c>
-      <c r="B28" s="48">
-        <v>44049</v>
-      </c>
-      <c r="C28" s="50">
-        <v>5</v>
-      </c>
-      <c r="D28" s="50">
-        <v>5804</v>
+      <c r="B28" s="52">
+        <v>44096</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>7301</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>489</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>254</v>
+        <v>490</v>
       </c>
       <c r="H28">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I28" t="s">
-        <v>32</v>
+        <v>474</v>
       </c>
       <c r="K28" t="s">
-        <v>255</v>
+        <v>491</v>
+      </c>
+      <c r="L28" t="s">
+        <v>479</v>
       </c>
       <c r="M28" t="s">
-        <v>256</v>
+        <v>492</v>
       </c>
       <c r="P28" t="s">
         <v>60</v>
@@ -15718,7 +17083,7 @@
       <c r="AJ28" t="s">
         <v>392</v>
       </c>
-      <c r="AK28" s="53" t="s">
+      <c r="AK28" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL28">
@@ -15732,35 +17097,35 @@
       <c r="A29" t="s">
         <v>372</v>
       </c>
-      <c r="B29" s="48">
-        <v>44051</v>
-      </c>
-      <c r="C29" s="50">
-        <v>13</v>
-      </c>
-      <c r="D29" s="50">
-        <v>13101</v>
+      <c r="B29" s="52">
+        <v>44136</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>7201</v>
       </c>
       <c r="E29" t="s">
-        <v>263</v>
+        <v>545</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="G29" t="s">
-        <v>264</v>
+        <v>546</v>
       </c>
       <c r="H29">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I29" t="s">
-        <v>265</v>
+        <v>474</v>
       </c>
       <c r="K29" t="s">
-        <v>266</v>
+        <v>547</v>
       </c>
       <c r="M29" t="s">
-        <v>143</v>
+        <v>484</v>
       </c>
       <c r="P29" t="s">
         <v>35</v>
@@ -15799,7 +17164,7 @@
       <c r="AJ29" t="s">
         <v>390</v>
       </c>
-      <c r="AK29" s="53" t="s">
+      <c r="AK29" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL29">
@@ -15813,35 +17178,35 @@
       <c r="A30" t="s">
         <v>372</v>
       </c>
-      <c r="B30" s="48">
-        <v>44051</v>
-      </c>
-      <c r="C30" s="50">
-        <v>13</v>
-      </c>
-      <c r="D30" s="50">
-        <v>13101</v>
+      <c r="B30" s="52">
+        <v>44136</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>7101</v>
       </c>
       <c r="E30" t="s">
-        <v>263</v>
+        <v>553</v>
       </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>274</v>
+        <v>554</v>
       </c>
       <c r="H30">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="K30" t="s">
-        <v>275</v>
+        <v>555</v>
       </c>
       <c r="M30" t="s">
-        <v>276</v>
+        <v>34</v>
       </c>
       <c r="P30" t="s">
         <v>60</v>
@@ -15877,7 +17242,7 @@
       <c r="AJ30" t="s">
         <v>390</v>
       </c>
-      <c r="AK30" s="53" t="s">
+      <c r="AK30" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL30">
@@ -15891,32 +17256,35 @@
       <c r="A31" t="s">
         <v>372</v>
       </c>
-      <c r="B31" s="48">
-        <v>44052</v>
-      </c>
-      <c r="C31" s="50">
-        <v>13</v>
-      </c>
-      <c r="D31" s="50">
-        <v>13116</v>
+      <c r="B31" s="52">
+        <v>44177</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>7105</v>
       </c>
       <c r="E31" t="s">
-        <v>278</v>
+        <v>609</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>279</v>
+        <v>611</v>
+      </c>
+      <c r="H31">
+        <v>36</v>
       </c>
       <c r="I31" t="s">
         <v>32</v>
       </c>
       <c r="K31" t="s">
-        <v>280</v>
+        <v>612</v>
       </c>
       <c r="M31" t="s">
-        <v>281</v>
+        <v>34</v>
       </c>
       <c r="P31" t="s">
         <v>282</v>
@@ -15952,7 +17320,7 @@
       <c r="AJ31" t="s">
         <v>390</v>
       </c>
-      <c r="AK31" s="53" t="s">
+      <c r="AK31" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL31">
@@ -15967,40 +17335,34 @@
         <v>372</v>
       </c>
       <c r="B32" s="48">
-        <v>44065</v>
+        <v>43878</v>
       </c>
       <c r="C32" s="50">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D32" s="50">
-        <v>7401</v>
+        <v>13119</v>
       </c>
       <c r="E32" t="s">
-        <v>287</v>
+        <v>74</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="H32">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I32" t="s">
         <v>32</v>
       </c>
-      <c r="J32" t="s">
-        <v>289</v>
-      </c>
       <c r="K32" t="s">
-        <v>290</v>
-      </c>
-      <c r="L32" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="M32" t="s">
-        <v>291</v>
+        <v>34</v>
       </c>
       <c r="P32" t="s">
         <v>35</v>
@@ -16042,7 +17404,7 @@
       <c r="AJ32" t="s">
         <v>396</v>
       </c>
-      <c r="AK32" s="53" t="s">
+      <c r="AK32" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL32">
@@ -16057,28 +17419,31 @@
         <v>372</v>
       </c>
       <c r="B33" s="48">
-        <v>44079</v>
+        <v>43906</v>
       </c>
       <c r="C33" s="50">
         <v>13</v>
       </c>
       <c r="D33" s="50">
-        <v>13112</v>
+        <v>13301</v>
       </c>
       <c r="E33" t="s">
-        <v>299</v>
+        <v>149</v>
       </c>
       <c r="F33" t="s">
         <v>75</v>
       </c>
       <c r="G33" t="s">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H33">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="I33" t="s">
+        <v>32</v>
       </c>
       <c r="K33" t="s">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="M33" t="s">
         <v>34</v>
@@ -16111,7 +17476,7 @@
       <c r="AJ33" t="s">
         <v>390</v>
       </c>
-      <c r="AK33" s="53" t="s">
+      <c r="AK33" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL33">
@@ -16123,37 +17488,37 @@
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="B34" s="48">
-        <v>43941</v>
+        <v>43943</v>
       </c>
       <c r="C34" s="50">
         <v>13</v>
       </c>
       <c r="D34" s="50">
-        <v>13502</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>376</v>
+        <v>13301</v>
+      </c>
+      <c r="E34" t="s">
+        <v>149</v>
       </c>
       <c r="F34" t="s">
         <v>75</v>
       </c>
       <c r="G34" t="s">
-        <v>308</v>
+        <v>172</v>
       </c>
       <c r="H34">
-        <v>34</v>
-      </c>
-      <c r="J34" t="s">
-        <v>309</v>
+        <v>38</v>
+      </c>
+      <c r="I34" t="s">
+        <v>32</v>
       </c>
       <c r="K34" t="s">
-        <v>310</v>
+        <v>173</v>
       </c>
       <c r="M34" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="P34" t="s">
         <v>311</v>
@@ -16180,7 +17545,7 @@
       <c r="AJ34" t="s">
         <v>390</v>
       </c>
-      <c r="AK34" s="53" t="s">
+      <c r="AK34" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL34">
@@ -16192,40 +17557,37 @@
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="B35" s="48">
-        <v>44010</v>
+        <v>44047</v>
       </c>
       <c r="C35" s="50">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D35" s="50">
-        <v>4106</v>
+        <v>13120</v>
       </c>
       <c r="E35" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
       <c r="F35" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s">
-        <v>315</v>
+        <v>247</v>
       </c>
       <c r="H35">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I35" t="s">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="K35" t="s">
-        <v>316</v>
-      </c>
-      <c r="L35" t="s">
-        <v>89</v>
+        <v>249</v>
       </c>
       <c r="M35" t="s">
-        <v>281</v>
+        <v>34</v>
       </c>
       <c r="P35" t="s">
         <v>311</v>
@@ -16258,7 +17620,7 @@
       <c r="AJ35" t="s">
         <v>395</v>
       </c>
-      <c r="AK35" s="53" t="s">
+      <c r="AK35" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL35">
@@ -16270,37 +17632,37 @@
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="B36" s="48">
-        <v>44045</v>
+        <v>44051</v>
       </c>
       <c r="C36" s="50">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D36" s="50">
-        <v>10403</v>
+        <v>13101</v>
       </c>
       <c r="E36" t="s">
-        <v>378</v>
+        <v>263</v>
       </c>
       <c r="F36" t="s">
-        <v>321</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s">
-        <v>322</v>
+        <v>264</v>
       </c>
       <c r="H36">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I36" t="s">
-        <v>32</v>
+        <v>265</v>
       </c>
       <c r="K36" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="M36" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="P36" t="s">
         <v>311</v>
@@ -16330,7 +17692,7 @@
       <c r="AJ36" t="s">
         <v>400</v>
       </c>
-      <c r="AK36" s="53" t="s">
+      <c r="AK36" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL36">
@@ -16342,37 +17704,37 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="B37" s="48">
-        <v>43870</v>
+        <v>44051</v>
       </c>
       <c r="C37" s="50">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D37" s="50">
-        <v>6306</v>
+        <v>13101</v>
       </c>
       <c r="E37" t="s">
-        <v>328</v>
+        <v>263</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s">
-        <v>329</v>
+        <v>274</v>
       </c>
       <c r="H37">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="I37" t="s">
-        <v>37</v>
+        <v>265</v>
       </c>
       <c r="K37" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="M37" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="P37" t="s">
         <v>332</v>
@@ -16405,7 +17767,7 @@
       <c r="AJ37" t="s">
         <v>389</v>
       </c>
-      <c r="AK37" s="53" t="s">
+      <c r="AK37" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL37">
@@ -16417,34 +17779,34 @@
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="B38" s="48">
-        <v>43883</v>
+        <v>44052</v>
       </c>
       <c r="C38" s="50">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D38" s="50">
-        <v>5804</v>
+        <v>13116</v>
       </c>
       <c r="E38" t="s">
-        <v>97</v>
+        <v>278</v>
       </c>
       <c r="F38" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s">
-        <v>336</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
+        <v>279</v>
+      </c>
+      <c r="I38" t="s">
+        <v>32</v>
       </c>
       <c r="K38" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="M38" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="P38" t="s">
         <v>338</v>
@@ -16468,7 +17830,7 @@
       <c r="AJ38" t="s">
         <v>392</v>
       </c>
-      <c r="AK38" s="53" t="s">
+      <c r="AK38" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL38">
@@ -16480,34 +17842,34 @@
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="B39" s="48">
-        <v>43883</v>
+        <v>44079</v>
       </c>
       <c r="C39" s="50">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D39" s="50">
-        <v>5804</v>
+        <v>13112</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>299</v>
       </c>
       <c r="F39" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="K39" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="M39" t="s">
-        <v>331</v>
+        <v>34</v>
       </c>
       <c r="P39" t="s">
         <v>338</v>
@@ -16531,7 +17893,7 @@
       <c r="AJ39" t="s">
         <v>392</v>
       </c>
-      <c r="AK39" s="53" t="s">
+      <c r="AK39" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL39">
@@ -16543,37 +17905,37 @@
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>327</v>
-      </c>
-      <c r="B40" s="48">
-        <v>43910</v>
-      </c>
-      <c r="C40" s="50">
-        <v>3</v>
-      </c>
-      <c r="D40" s="50">
-        <v>3202</v>
+        <v>372</v>
+      </c>
+      <c r="B40" s="52">
+        <v>44082</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>13302</v>
       </c>
       <c r="E40" t="s">
-        <v>157</v>
+        <v>457</v>
       </c>
       <c r="F40" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s">
-        <v>342</v>
+        <v>458</v>
       </c>
       <c r="H40">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="I40" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K40" t="s">
-        <v>343</v>
+        <v>459</v>
       </c>
       <c r="M40" t="s">
-        <v>344</v>
+        <v>143</v>
       </c>
       <c r="P40" t="s">
         <v>338</v>
@@ -16600,7 +17962,7 @@
       <c r="AJ40" t="s">
         <v>393</v>
       </c>
-      <c r="AK40" s="53" t="s">
+      <c r="AK40" s="51" t="s">
         <v>401</v>
       </c>
       <c r="AL40">
@@ -16614,35 +17976,41 @@
       <c r="A41" t="s">
         <v>372</v>
       </c>
-      <c r="B41" s="56">
-        <v>44082</v>
+      <c r="B41" s="52">
+        <v>44149</v>
       </c>
       <c r="C41">
         <v>13</v>
       </c>
       <c r="D41">
-        <v>13302</v>
+        <v>13401</v>
       </c>
       <c r="E41" t="s">
-        <v>457</v>
+        <v>565</v>
       </c>
       <c r="F41" t="s">
         <v>75</v>
       </c>
       <c r="G41" t="s">
-        <v>458</v>
+        <v>566</v>
       </c>
       <c r="H41">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I41" t="s">
         <v>32</v>
       </c>
+      <c r="J41" t="s">
+        <v>567</v>
+      </c>
       <c r="K41" t="s">
-        <v>459</v>
+        <v>568</v>
+      </c>
+      <c r="L41" t="s">
+        <v>569</v>
       </c>
       <c r="M41" t="s">
-        <v>143</v>
+        <v>476</v>
       </c>
       <c r="P41" t="s">
         <v>35</v>
@@ -16679,29 +18047,32 @@
       <c r="A42" t="s">
         <v>372</v>
       </c>
-      <c r="B42" s="56">
-        <v>44082</v>
+      <c r="B42" s="52">
+        <v>44170</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D42">
-        <v>5109</v>
+        <v>13122</v>
       </c>
       <c r="E42" t="s">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="F42" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s">
-        <v>465</v>
+        <v>603</v>
       </c>
       <c r="H42">
-        <v>46</v>
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>474</v>
       </c>
       <c r="K42" t="s">
-        <v>466</v>
+        <v>604</v>
       </c>
       <c r="M42" t="s">
         <v>34</v>
@@ -16736,37 +18107,40 @@
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>471</v>
-      </c>
-      <c r="B43" s="56">
-        <v>44088</v>
+        <v>372</v>
+      </c>
+      <c r="B43" s="52">
+        <v>44188</v>
       </c>
       <c r="C43">
         <v>13</v>
       </c>
       <c r="D43">
-        <v>13125</v>
+        <v>13101</v>
       </c>
       <c r="E43" t="s">
-        <v>472</v>
+        <v>263</v>
       </c>
       <c r="F43" t="s">
         <v>75</v>
       </c>
       <c r="G43" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="H43">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="I43" t="s">
-        <v>474</v>
+        <v>32</v>
+      </c>
+      <c r="J43" t="s">
+        <v>637</v>
       </c>
       <c r="K43" t="s">
-        <v>475</v>
+        <v>638</v>
       </c>
       <c r="M43" t="s">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="P43" t="s">
         <v>60</v>
@@ -16812,7 +18186,7 @@
       <c r="A44" t="s">
         <v>471</v>
       </c>
-      <c r="B44" s="56">
+      <c r="B44" s="52">
         <v>44088</v>
       </c>
       <c r="C44">
@@ -16828,22 +18202,19 @@
         <v>75</v>
       </c>
       <c r="G44" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="H44">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I44" t="s">
-        <v>32</v>
+        <v>474</v>
       </c>
       <c r="K44" t="s">
-        <v>483</v>
-      </c>
-      <c r="L44" t="s">
-        <v>135</v>
+        <v>475</v>
       </c>
       <c r="M44" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="P44" t="s">
         <v>60</v>
@@ -16887,40 +18258,40 @@
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>372</v>
-      </c>
-      <c r="B45" s="56">
-        <v>44096</v>
+        <v>471</v>
+      </c>
+      <c r="B45" s="52">
+        <v>44088</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D45">
-        <v>7301</v>
+        <v>13125</v>
       </c>
       <c r="E45" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="H45">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I45" t="s">
-        <v>474</v>
+        <v>32</v>
       </c>
       <c r="K45" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="L45" t="s">
-        <v>479</v>
+        <v>135</v>
       </c>
       <c r="M45" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="P45" t="s">
         <v>137</v>
@@ -16958,37 +18329,37 @@
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>372</v>
-      </c>
-      <c r="B46" s="56">
-        <v>44105</v>
-      </c>
-      <c r="C46">
-        <v>11</v>
-      </c>
-      <c r="D46">
-        <v>11101</v>
-      </c>
-      <c r="E46" t="s">
-        <v>497</v>
+        <v>306</v>
+      </c>
+      <c r="B46" s="48">
+        <v>43941</v>
+      </c>
+      <c r="C46" s="50">
+        <v>13</v>
+      </c>
+      <c r="D46" s="50">
+        <v>13502</v>
+      </c>
+      <c r="E46" s="49" t="s">
+        <v>376</v>
       </c>
       <c r="F46" t="s">
-        <v>498</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s">
-        <v>499</v>
+        <v>308</v>
       </c>
       <c r="H46">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="J46" t="s">
+        <v>309</v>
       </c>
       <c r="K46" t="s">
-        <v>500</v>
-      </c>
-      <c r="L46" t="s">
-        <v>479</v>
+        <v>310</v>
       </c>
       <c r="M46" t="s">
-        <v>501</v>
+        <v>34</v>
       </c>
       <c r="P46" t="s">
         <v>60</v>
@@ -17031,32 +18402,35 @@
       <c r="A47" t="s">
         <v>372</v>
       </c>
-      <c r="B47" s="56">
-        <v>44110</v>
+      <c r="B47" s="52">
+        <v>44150</v>
       </c>
       <c r="C47">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>16205</v>
+        <v>13130</v>
       </c>
       <c r="E47" t="s">
-        <v>508</v>
+        <v>575</v>
       </c>
       <c r="F47" t="s">
-        <v>415</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s">
-        <v>509</v>
+        <v>577</v>
       </c>
       <c r="H47">
-        <v>42</v>
+        <v>52</v>
+      </c>
+      <c r="I47" t="s">
+        <v>474</v>
       </c>
       <c r="K47" t="s">
-        <v>510</v>
+        <v>578</v>
       </c>
       <c r="M47" t="s">
-        <v>511</v>
+        <v>34</v>
       </c>
       <c r="P47" t="s">
         <v>512</v>
@@ -17102,35 +18476,32 @@
       <c r="A48" t="s">
         <v>372</v>
       </c>
-      <c r="B48" s="56">
-        <v>44115</v>
+      <c r="B48" s="52">
+        <v>44110</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D48">
-        <v>3101</v>
+        <v>16205</v>
       </c>
       <c r="E48" t="s">
-        <v>419</v>
+        <v>508</v>
       </c>
       <c r="F48" t="s">
-        <v>158</v>
+        <v>415</v>
       </c>
       <c r="G48" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="H48">
-        <v>33</v>
-      </c>
-      <c r="I48" t="s">
-        <v>520</v>
+        <v>42</v>
       </c>
       <c r="K48" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="M48" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="P48" t="s">
         <v>512</v>
@@ -17176,38 +18547,35 @@
       <c r="A49" t="s">
         <v>372</v>
       </c>
-      <c r="B49" s="57">
-        <v>44120</v>
-      </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
-      <c r="D49">
-        <v>5101</v>
+      <c r="B49" s="48">
+        <v>43840</v>
+      </c>
+      <c r="C49" s="50">
+        <v>6</v>
+      </c>
+      <c r="D49" s="50">
+        <v>6116</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
+        <v>46</v>
+      </c>
+      <c r="F49" s="59" t="s">
+        <v>47</v>
       </c>
       <c r="G49" t="s">
-        <v>527</v>
+        <v>48</v>
       </c>
       <c r="H49">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="I49" t="s">
-        <v>474</v>
+        <v>32</v>
       </c>
       <c r="K49" t="s">
-        <v>528</v>
-      </c>
-      <c r="L49" t="s">
-        <v>479</v>
+        <v>49</v>
       </c>
       <c r="M49" t="s">
-        <v>529</v>
+        <v>34</v>
       </c>
       <c r="P49" t="s">
         <v>530</v>
@@ -17248,37 +18616,37 @@
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>471</v>
-      </c>
-      <c r="B50" s="56">
-        <v>44124</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50">
-        <v>2201</v>
+        <v>372</v>
+      </c>
+      <c r="B50" s="48">
+        <v>43860</v>
+      </c>
+      <c r="C50" s="50">
+        <v>6</v>
+      </c>
+      <c r="D50" s="50">
+        <v>6115</v>
       </c>
       <c r="E50" t="s">
-        <v>422</v>
-      </c>
-      <c r="F50" t="s">
-        <v>423</v>
+        <v>67</v>
+      </c>
+      <c r="F50" s="59" t="s">
+        <v>47</v>
       </c>
       <c r="G50" t="s">
-        <v>534</v>
+        <v>68</v>
       </c>
       <c r="H50">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I50" t="s">
-        <v>535</v>
+        <v>32</v>
       </c>
       <c r="K50" t="s">
-        <v>536</v>
+        <v>69</v>
       </c>
       <c r="M50" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="P50" t="s">
         <v>512</v>
@@ -17315,35 +18683,35 @@
       <c r="A51" t="s">
         <v>372</v>
       </c>
-      <c r="B51" s="56">
-        <v>44136</v>
-      </c>
-      <c r="C51">
-        <v>14</v>
-      </c>
-      <c r="D51">
-        <v>1401</v>
+      <c r="B51" s="48">
+        <v>43887</v>
+      </c>
+      <c r="C51" s="50">
+        <v>6</v>
+      </c>
+      <c r="D51" s="50">
+        <v>6115</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" t="s">
-        <v>30</v>
+        <v>67</v>
+      </c>
+      <c r="F51" s="59" t="s">
+        <v>47</v>
       </c>
       <c r="G51" t="s">
-        <v>540</v>
+        <v>106</v>
       </c>
       <c r="H51">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I51" t="s">
-        <v>474</v>
+        <v>32</v>
       </c>
       <c r="K51" t="s">
-        <v>541</v>
+        <v>107</v>
       </c>
       <c r="M51" t="s">
-        <v>522</v>
+        <v>108</v>
       </c>
       <c r="P51" t="s">
         <v>512</v>
@@ -17386,35 +18754,35 @@
       <c r="A52" t="s">
         <v>372</v>
       </c>
-      <c r="B52" s="56">
-        <v>44136</v>
-      </c>
-      <c r="C52">
-        <v>7</v>
-      </c>
-      <c r="D52">
-        <v>7201</v>
-      </c>
-      <c r="E52" t="s">
-        <v>545</v>
-      </c>
-      <c r="F52" t="s">
-        <v>56</v>
+      <c r="B52" s="48">
+        <v>43905</v>
+      </c>
+      <c r="C52" s="50">
+        <v>6</v>
+      </c>
+      <c r="D52" s="50">
+        <v>6117</v>
+      </c>
+      <c r="E52" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="F52" s="59" t="s">
+        <v>47</v>
       </c>
       <c r="G52" t="s">
-        <v>546</v>
+        <v>141</v>
       </c>
       <c r="H52">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I52" t="s">
-        <v>474</v>
+        <v>32</v>
       </c>
       <c r="K52" t="s">
-        <v>547</v>
+        <v>142</v>
       </c>
       <c r="M52" t="s">
-        <v>484</v>
+        <v>143</v>
       </c>
       <c r="P52" t="s">
         <v>530</v>
@@ -17457,35 +18825,35 @@
       <c r="A53" t="s">
         <v>372</v>
       </c>
-      <c r="B53" s="56">
-        <v>44136</v>
-      </c>
-      <c r="C53">
-        <v>7</v>
-      </c>
-      <c r="D53">
-        <v>7101</v>
+      <c r="B53" s="48">
+        <v>43932</v>
+      </c>
+      <c r="C53" s="50">
+        <v>6</v>
+      </c>
+      <c r="D53" s="50">
+        <v>6205</v>
       </c>
       <c r="E53" t="s">
-        <v>553</v>
-      </c>
-      <c r="F53" t="s">
-        <v>56</v>
+        <v>164</v>
+      </c>
+      <c r="F53" s="59" t="s">
+        <v>47</v>
       </c>
       <c r="G53" t="s">
-        <v>554</v>
+        <v>165</v>
       </c>
       <c r="H53">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I53" t="s">
         <v>32</v>
       </c>
       <c r="K53" t="s">
-        <v>555</v>
+        <v>166</v>
       </c>
       <c r="M53" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="P53" t="s">
         <v>35</v>
@@ -17525,35 +18893,35 @@
       <c r="A54" t="s">
         <v>372</v>
       </c>
-      <c r="B54" s="56">
-        <v>44138</v>
-      </c>
-      <c r="C54">
-        <v>14</v>
-      </c>
-      <c r="D54">
-        <v>14108</v>
+      <c r="B54" s="48">
+        <v>44017</v>
+      </c>
+      <c r="C54" s="50">
+        <v>6</v>
+      </c>
+      <c r="D54" s="50">
+        <v>6105</v>
       </c>
       <c r="E54" t="s">
-        <v>433</v>
-      </c>
-      <c r="F54" t="s">
-        <v>430</v>
+        <v>238</v>
+      </c>
+      <c r="F54" s="59" t="s">
+        <v>47</v>
       </c>
       <c r="G54" t="s">
-        <v>559</v>
+        <v>239</v>
       </c>
       <c r="H54">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I54" t="s">
         <v>32</v>
       </c>
       <c r="K54" t="s">
-        <v>560</v>
+        <v>240</v>
       </c>
       <c r="M54" t="s">
-        <v>34</v>
+        <v>241</v>
       </c>
       <c r="P54" t="s">
         <v>35</v>
@@ -17594,43 +18962,37 @@
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>372</v>
-      </c>
-      <c r="B55" s="56">
-        <v>44149</v>
-      </c>
-      <c r="C55">
-        <v>13</v>
-      </c>
-      <c r="D55">
-        <v>13401</v>
+        <v>327</v>
+      </c>
+      <c r="B55" s="48">
+        <v>43870</v>
+      </c>
+      <c r="C55" s="50">
+        <v>6</v>
+      </c>
+      <c r="D55" s="50">
+        <v>6306</v>
       </c>
       <c r="E55" t="s">
-        <v>565</v>
-      </c>
-      <c r="F55" t="s">
-        <v>75</v>
+        <v>328</v>
+      </c>
+      <c r="F55" s="59" t="s">
+        <v>47</v>
       </c>
       <c r="G55" t="s">
-        <v>566</v>
+        <v>329</v>
       </c>
       <c r="H55">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="I55" t="s">
-        <v>32</v>
-      </c>
-      <c r="J55" t="s">
-        <v>567</v>
+        <v>37</v>
       </c>
       <c r="K55" t="s">
-        <v>568</v>
-      </c>
-      <c r="L55" t="s">
-        <v>569</v>
+        <v>330</v>
       </c>
       <c r="M55" t="s">
-        <v>476</v>
+        <v>331</v>
       </c>
       <c r="P55" t="s">
         <v>530</v>
@@ -17676,35 +19038,35 @@
       <c r="A56" t="s">
         <v>372</v>
       </c>
-      <c r="B56" s="56">
-        <v>44150</v>
-      </c>
-      <c r="C56">
-        <v>13</v>
-      </c>
-      <c r="D56">
-        <v>13130</v>
+      <c r="B56" s="48">
+        <v>43890</v>
+      </c>
+      <c r="C56" s="50">
+        <v>1</v>
+      </c>
+      <c r="D56" s="50">
+        <v>1107</v>
       </c>
       <c r="E56" t="s">
-        <v>575</v>
+        <v>112</v>
       </c>
       <c r="F56" t="s">
-        <v>576</v>
+        <v>113</v>
       </c>
       <c r="G56" t="s">
-        <v>577</v>
+        <v>114</v>
       </c>
       <c r="H56">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>474</v>
+        <v>32</v>
       </c>
       <c r="K56" t="s">
-        <v>578</v>
+        <v>115</v>
       </c>
       <c r="M56" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="P56" t="s">
         <v>35</v>
@@ -17753,35 +19115,32 @@
       <c r="A57" t="s">
         <v>372</v>
       </c>
-      <c r="B57" s="56">
-        <v>44155</v>
-      </c>
-      <c r="C57">
+      <c r="B57" s="48">
+        <v>43883</v>
+      </c>
+      <c r="C57" s="50">
         <v>5</v>
       </c>
-      <c r="D57">
-        <v>5701</v>
+      <c r="D57" s="50">
+        <v>5804</v>
       </c>
       <c r="E57" t="s">
-        <v>585</v>
+        <v>97</v>
       </c>
       <c r="F57" t="s">
-        <v>406</v>
+        <v>98</v>
       </c>
       <c r="G57" t="s">
-        <v>586</v>
+        <v>99</v>
       </c>
       <c r="H57">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I57" t="s">
         <v>32</v>
       </c>
-      <c r="J57" t="s">
-        <v>587</v>
-      </c>
       <c r="K57" t="s">
-        <v>588</v>
+        <v>100</v>
       </c>
       <c r="M57" t="s">
         <v>87</v>
@@ -17827,32 +19186,38 @@
       <c r="A58" t="s">
         <v>372</v>
       </c>
-      <c r="B58" s="56">
-        <v>44157</v>
-      </c>
-      <c r="C58">
+      <c r="B58" s="48">
+        <v>43895</v>
+      </c>
+      <c r="C58" s="50">
         <v>5</v>
       </c>
-      <c r="D58">
-        <v>5101</v>
+      <c r="D58" s="50">
+        <v>5301</v>
       </c>
       <c r="E58" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="F58" t="s">
         <v>98</v>
       </c>
       <c r="G58" t="s">
-        <v>593</v>
+        <v>124</v>
       </c>
       <c r="H58">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I58" t="s">
         <v>32</v>
       </c>
+      <c r="J58" t="s">
+        <v>125</v>
+      </c>
       <c r="K58" t="s">
-        <v>594</v>
+        <v>126</v>
+      </c>
+      <c r="L58" t="s">
+        <v>40</v>
       </c>
       <c r="M58" t="s">
         <v>34</v>
@@ -17895,32 +19260,32 @@
       <c r="A59" t="s">
         <v>372</v>
       </c>
-      <c r="B59" s="56">
-        <v>44163</v>
-      </c>
-      <c r="C59">
-        <v>10</v>
-      </c>
-      <c r="D59">
-        <v>10101</v>
+      <c r="B59" s="48">
+        <v>43981</v>
+      </c>
+      <c r="C59" s="50">
+        <v>5</v>
+      </c>
+      <c r="D59" s="50">
+        <v>5101</v>
       </c>
       <c r="E59" t="s">
-        <v>448</v>
+        <v>98</v>
       </c>
       <c r="F59" t="s">
-        <v>321</v>
+        <v>98</v>
       </c>
       <c r="G59" t="s">
-        <v>597</v>
+        <v>204</v>
       </c>
       <c r="H59">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I59" t="s">
         <v>32</v>
       </c>
       <c r="K59" t="s">
-        <v>598</v>
+        <v>205</v>
       </c>
       <c r="M59" t="s">
         <v>34</v>
@@ -17969,35 +19334,35 @@
       <c r="A60" t="s">
         <v>372</v>
       </c>
-      <c r="B60" s="56">
-        <v>44170</v>
-      </c>
-      <c r="C60">
-        <v>13</v>
-      </c>
-      <c r="D60">
-        <v>13122</v>
+      <c r="B60" s="48">
+        <v>44049</v>
+      </c>
+      <c r="C60" s="50">
+        <v>5</v>
+      </c>
+      <c r="D60" s="50">
+        <v>5804</v>
       </c>
       <c r="E60" t="s">
-        <v>440</v>
+        <v>97</v>
       </c>
       <c r="F60" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="G60" t="s">
-        <v>603</v>
+        <v>254</v>
       </c>
       <c r="H60">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I60" t="s">
-        <v>474</v>
+        <v>32</v>
       </c>
       <c r="K60" t="s">
-        <v>604</v>
+        <v>255</v>
       </c>
       <c r="M60" t="s">
-        <v>34</v>
+        <v>256</v>
       </c>
       <c r="P60" t="s">
         <v>35</v>
@@ -18037,32 +19402,29 @@
       <c r="A61" t="s">
         <v>372</v>
       </c>
-      <c r="B61" s="56">
-        <v>44177</v>
+      <c r="B61" s="52">
+        <v>44082</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D61">
-        <v>7105</v>
+        <v>5109</v>
       </c>
       <c r="E61" t="s">
-        <v>609</v>
+        <v>405</v>
       </c>
       <c r="F61" t="s">
-        <v>610</v>
+        <v>98</v>
       </c>
       <c r="G61" t="s">
-        <v>611</v>
+        <v>465</v>
       </c>
       <c r="H61">
-        <v>36</v>
-      </c>
-      <c r="I61" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>612</v>
+        <v>466</v>
       </c>
       <c r="M61" t="s">
         <v>34</v>
@@ -18105,35 +19467,38 @@
       <c r="A62" t="s">
         <v>372</v>
       </c>
-      <c r="B62" s="56">
-        <v>44179</v>
+      <c r="B62" s="53">
+        <v>44120</v>
       </c>
       <c r="C62">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D62">
-        <v>10101</v>
+        <v>5101</v>
       </c>
       <c r="E62" t="s">
-        <v>448</v>
+        <v>98</v>
       </c>
       <c r="F62" t="s">
-        <v>321</v>
+        <v>98</v>
       </c>
       <c r="G62" t="s">
-        <v>616</v>
+        <v>527</v>
       </c>
       <c r="H62">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="I62" t="s">
         <v>474</v>
       </c>
       <c r="K62" t="s">
-        <v>617</v>
+        <v>528</v>
+      </c>
+      <c r="L62" t="s">
+        <v>479</v>
       </c>
       <c r="M62" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
       <c r="P62" t="s">
         <v>530</v>
@@ -18179,35 +19544,35 @@
       <c r="A63" t="s">
         <v>372</v>
       </c>
-      <c r="B63" s="56">
-        <v>44180</v>
+      <c r="B63" s="52">
+        <v>44157</v>
       </c>
       <c r="C63">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D63">
-        <v>8108</v>
+        <v>5101</v>
       </c>
       <c r="E63" t="s">
-        <v>621</v>
+        <v>98</v>
       </c>
       <c r="F63" t="s">
-        <v>622</v>
+        <v>98</v>
       </c>
       <c r="G63" t="s">
-        <v>623</v>
+        <v>593</v>
       </c>
       <c r="H63">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="I63" t="s">
-        <v>474</v>
+        <v>32</v>
       </c>
       <c r="K63" t="s">
-        <v>624</v>
+        <v>594</v>
       </c>
       <c r="M63" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="P63" t="s">
         <v>35</v>
@@ -18251,40 +19616,40 @@
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>327</v>
-      </c>
-      <c r="B64" s="56">
-        <v>44135</v>
+        <v>372</v>
+      </c>
+      <c r="B64" s="52">
+        <v>44189</v>
       </c>
       <c r="C64">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D64">
-        <v>14101</v>
+        <v>5109</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>405</v>
       </c>
       <c r="F64" t="s">
-        <v>430</v>
+        <v>98</v>
       </c>
       <c r="G64" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="H64">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I64" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K64" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="L64" t="s">
-        <v>479</v>
+        <v>135</v>
       </c>
       <c r="M64" t="s">
-        <v>631</v>
+        <v>87</v>
       </c>
       <c r="P64" t="s">
         <v>632</v>
@@ -18327,38 +19692,32 @@
       <c r="A65" t="s">
         <v>372</v>
       </c>
-      <c r="B65" s="56">
-        <v>44188</v>
+      <c r="B65" s="52">
+        <v>44189</v>
       </c>
       <c r="C65">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D65">
-        <v>13101</v>
+        <v>5502</v>
       </c>
       <c r="E65" t="s">
-        <v>263</v>
+        <v>652</v>
       </c>
       <c r="F65" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="G65" t="s">
-        <v>455</v>
+        <v>653</v>
       </c>
       <c r="H65">
-        <v>22</v>
-      </c>
-      <c r="I65" t="s">
-        <v>32</v>
-      </c>
-      <c r="J65" t="s">
-        <v>637</v>
+        <v>46</v>
       </c>
       <c r="K65" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="M65" t="s">
-        <v>511</v>
+        <v>34</v>
       </c>
       <c r="P65" t="s">
         <v>35</v>
@@ -18402,40 +19761,34 @@
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>372</v>
-      </c>
-      <c r="B66" s="56">
-        <v>44189</v>
-      </c>
-      <c r="C66">
+        <v>327</v>
+      </c>
+      <c r="B66" s="48">
+        <v>43883</v>
+      </c>
+      <c r="C66" s="50">
         <v>5</v>
       </c>
-      <c r="D66">
-        <v>5109</v>
+      <c r="D66" s="50">
+        <v>5804</v>
       </c>
       <c r="E66" t="s">
-        <v>405</v>
+        <v>97</v>
       </c>
       <c r="F66" t="s">
         <v>98</v>
       </c>
       <c r="G66" t="s">
-        <v>645</v>
+        <v>336</v>
       </c>
       <c r="H66">
-        <v>40</v>
-      </c>
-      <c r="I66" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>646</v>
-      </c>
-      <c r="L66" t="s">
-        <v>135</v>
+        <v>337</v>
       </c>
       <c r="M66" t="s">
-        <v>87</v>
+        <v>331</v>
       </c>
       <c r="P66" t="s">
         <v>35</v>
@@ -18482,34 +19835,34 @@
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>372</v>
-      </c>
-      <c r="B67" s="56">
-        <v>44189</v>
-      </c>
-      <c r="C67">
+        <v>327</v>
+      </c>
+      <c r="B67" s="48">
+        <v>43883</v>
+      </c>
+      <c r="C67" s="50">
         <v>5</v>
       </c>
-      <c r="D67">
-        <v>5502</v>
+      <c r="D67" s="50">
+        <v>5804</v>
       </c>
       <c r="E67" t="s">
-        <v>652</v>
+        <v>97</v>
       </c>
       <c r="F67" t="s">
         <v>98</v>
       </c>
       <c r="G67" t="s">
-        <v>653</v>
+        <v>340</v>
       </c>
       <c r="H67">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="K67" t="s">
-        <v>654</v>
+        <v>341</v>
       </c>
       <c r="M67" t="s">
-        <v>34</v>
+        <v>331</v>
       </c>
       <c r="P67" t="s">
         <v>35</v>
@@ -18552,35 +19905,38 @@
       <c r="A68" t="s">
         <v>372</v>
       </c>
-      <c r="B68" s="56">
-        <v>44193</v>
+      <c r="B68" s="52">
+        <v>44155</v>
       </c>
       <c r="C68">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D68">
-        <v>10107</v>
+        <v>5701</v>
       </c>
       <c r="E68" t="s">
-        <v>659</v>
+        <v>585</v>
       </c>
       <c r="F68" t="s">
-        <v>321</v>
+        <v>98</v>
       </c>
       <c r="G68" t="s">
-        <v>660</v>
+        <v>586</v>
       </c>
       <c r="H68">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="I68" t="s">
         <v>32</v>
       </c>
+      <c r="J68" t="s">
+        <v>587</v>
+      </c>
       <c r="K68" t="s">
-        <v>661</v>
+        <v>588</v>
       </c>
       <c r="M68" t="s">
-        <v>476</v>
+        <v>87</v>
       </c>
       <c r="P68" t="s">
         <v>60</v>
@@ -18620,6 +19976,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M68">
+    <sortCondition ref="F2:F68"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="AK2" r:id="rId1" xr:uid="{B452CC8E-E69F-4969-93E3-3E1D8738E19E}"/>
     <hyperlink ref="AK3:AK40" r:id="rId2" display="https://www.agenciainformativaudem.com/wp-content/uploads/2017/10/Asset-15.png" xr:uid="{EFEC0E8B-7E2B-4106-92F4-EE199DF97763}"/>
@@ -18628,7 +19987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4600B6F2-BF33-4125-91E8-8A44BB4B67A1}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>

--- a/Femicidios 2020.xlsx
+++ b/Femicidios 2020.xlsx
@@ -8,29 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-RIESGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F164FCA-6BB6-47D8-B7E6-156E399F9F51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92640036-D2DF-4173-AF97-782195A3679D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FEMICIDIOS 2020" sheetId="1" r:id="rId1"/>
     <sheet name="Femicidios 2020 Min Mujer" sheetId="3" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="6" r:id="rId3"/>
-    <sheet name="RED" sheetId="4" r:id="rId4"/>
-    <sheet name="MINMUJER" sheetId="5" r:id="rId5"/>
+    <sheet name="RED" sheetId="4" r:id="rId3"/>
+    <sheet name="MINMUJER" sheetId="5" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RED!$A$1:$M$68</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
-  <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId6"/>
-  </pivotCaches>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="668">
   <si>
     <t>FEMICIDIOS 2020</t>
   </si>
@@ -2099,12 +2102,6 @@
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/d/df/Escudo_de_Los_Lagos.svg</t>
-  </si>
-  <si>
-    <t>Etiquetas de fila</t>
-  </si>
-  <si>
-    <t>Total general</t>
   </si>
 </sst>
 </file>
@@ -2328,7 +2325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2460,24 +2457,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2494,1221 +2486,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Natalia Arancibia" refreshedDate="44203.718264120369" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="67" xr:uid="{36A7FCBA-7DD6-42FF-8792-E345A5CE2824}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:M68" sheet="RED"/>
-  </cacheSource>
-  <cacheFields count="13">
-    <cacheField name="Tipo" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Fecha" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-01-05T00:00:00" maxDate="2020-12-29T00:00:00"/>
-    </cacheField>
-    <cacheField name="Codreg" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="16"/>
-    </cacheField>
-    <cacheField name="Codcom" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1107" maxValue="16205"/>
-    </cacheField>
-    <cacheField name="Comuna" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Región" numFmtId="0">
-      <sharedItems count="21">
-        <s v="Los Ríos"/>
-        <s v="O'Higgins"/>
-        <s v="Maule"/>
-        <s v="Metropolitana"/>
-        <s v="Biobío"/>
-        <s v="Valparaíso"/>
-        <s v="Tarapacá"/>
-        <s v="Magallanes"/>
-        <s v="Atacama"/>
-        <s v="Arica y Parinacota"/>
-        <s v="Coquimbo"/>
-        <s v="La Araucanía"/>
-        <s v="Los Lagos"/>
-        <s v="Aysén"/>
-        <s v="Ñuble"/>
-        <s v="Antofagasta"/>
-        <s v="Los Ríos "/>
-        <s v="Metropolitana "/>
-        <s v="Valparaíso "/>
-        <s v="Maule "/>
-        <s v="Bío Bío "/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Nombre víctima" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Edad" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="89"/>
-    </cacheField>
-    <cacheField name="Nacionalidad" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Ocupación" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Información sobre el hecho" numFmtId="0">
-      <sharedItems longText="1"/>
-    </cacheField>
-    <cacheField name="Violencia sexual" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Relación víctima-femicida" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="67">
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-01-05T00:00:00"/>
-    <n v="14"/>
-    <n v="14101"/>
-    <s v="Valdivia"/>
-    <x v="0"/>
-    <s v="Gladys Gallegos Insunza"/>
-    <n v="53"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Asesinada por su pareja, en la casa que compartían en Valdivia. El femicida fue detenido en la ciudad de Antofagasta el 4 de marzo "/>
-    <m/>
-    <s v="Conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-01-10T00:00:00"/>
-    <n v="6"/>
-    <n v="6116"/>
-    <s v="Requínoa"/>
-    <x v="1"/>
-    <s v="Alejandra Macarena Castro Barahona"/>
-    <n v="32"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Fue a visitar a su hijo mayor a la casa de su ex conyuge. Estaba en el patio cuando su actual pareja la atacó con un cuchillo. Tras el ataque intentó suicidarse"/>
-    <m/>
-    <s v="Conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-01-13T00:00:00"/>
-    <n v="7"/>
-    <n v="7404"/>
-    <s v="Parral"/>
-    <x v="2"/>
-    <s v="Uberlinda del Carmen Leiva Orellana"/>
-    <n v="59"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Golpeada hasta la muerte por su hijo, quien luego la lanzó a canal de regadío y denunció desaparición "/>
-    <m/>
-    <s v="Hijo"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-01-30T00:00:00"/>
-    <n v="6"/>
-    <n v="6115"/>
-    <s v="Rengo"/>
-    <x v="1"/>
-    <s v="Karen Ramírez Salinas"/>
-    <n v="45"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Apuñalada con martillo y taladro por su conviviente. Tras el asesinato intentó suicidarse, siendo trasladado al Hospital regional de O'Higgins"/>
-    <m/>
-    <s v="Conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-02-17T00:00:00"/>
-    <n v="13"/>
-    <n v="13119"/>
-    <s v="Maipú"/>
-    <x v="3"/>
-    <s v="Yasna Bustos Muñoz"/>
-    <n v="31"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Degollada por conviviente, quien se autoinflingió una herida en el cuello y se encuentra hospitalizado. La madre del agresor dio aviso tras llamada del propio sujeto"/>
-    <m/>
-    <s v="Conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-02-17T00:00:00"/>
-    <n v="8"/>
-    <n v="8305"/>
-    <s v="Mulchén"/>
-    <x v="4"/>
-    <s v="Ana Viveros Echeverría"/>
-    <n v="47"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Degollada junto a actual conviviente por ex conviviente, quien luego se autoinfligió herida cortante e incendió el domicilio, resultando los tres muertos"/>
-    <m/>
-    <s v="Ex conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-02-22T00:00:00"/>
-    <n v="5"/>
-    <n v="5804"/>
-    <s v="Villa Alemana"/>
-    <x v="5"/>
-    <s v="Brenda Vidal"/>
-    <n v="23"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Calcinada en incendio junto a su hija e hijo de 1 y 2 años de edad. En agosto, familiares de Brenda denuncian que el incendio fue provocado por ex pareja de ella y que la investigación ha sido negligente"/>
-    <m/>
-    <s v="Ex conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-02-26T00:00:00"/>
-    <n v="6"/>
-    <n v="6115"/>
-    <s v="Rengo"/>
-    <x v="1"/>
-    <s v="Beatriz Esperanza Rosa González Vilches"/>
-    <n v="16"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Asesinada de un disparo por ex pareja. Tras el asesinato, él cambio la versión de los hechos e intento hacerlo pasar por un accidente"/>
-    <m/>
-    <s v="Ex pareja"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-02-29T00:00:00"/>
-    <n v="1"/>
-    <n v="1107"/>
-    <s v="Alto Hospicio"/>
-    <x v="6"/>
-    <s v="Tamara Ruiz Villalobos"/>
-    <n v="20"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Muere tras volcamiento de un vehículo, que hasta la fecha sigue catalogado como fortuito. Sin embargo, el pololo de Tamara es sospechoso de femicidio para la familia de Tamara y organizaciones de la zona pues, tras una relación en que siempre fue violento hacia Tamara, se encontraba con ella en el vehículo maltratándola momentos antes de que el auto volcara. Tanto las organizaciones como la familia de Tamara sostienen que el Ministerio Público no ha investigado suficientemente y están seguras de que el pololo fue el femicida. Éste se encuentra actualmente en prisión preventiva por parricidio frustrado cometido contra su abuelo"/>
-    <m/>
-    <s v="Pololo"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-03-05T00:00:00"/>
-    <n v="5"/>
-    <n v="5301"/>
-    <s v="Los Andes"/>
-    <x v="5"/>
-    <s v="Sara Delfina Gutiérrez Rojas"/>
-    <n v="39"/>
-    <s v="Chilena"/>
-    <s v="Situación de calle"/>
-    <s v="Apuñalda y golpeada con objeto contundente en la cabeza por su pareja, quien denunció hallazgo del cadáver y luego fue indetificado por la PDI como autor del crimen"/>
-    <s v="Si"/>
-    <s v="Conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-03-08T00:00:00"/>
-    <n v="12"/>
-    <n v="12101"/>
-    <s v="Punta Arenas"/>
-    <x v="7"/>
-    <s v="Elizabeth Noemí Mella Cárcamo"/>
-    <n v="54"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Apuñalada en su cama por desconocido, quien inició incendio. Su hijo indica que las heridas que presenta son propias de un femicidio"/>
-    <s v="Se presume "/>
-    <s v="Se investiga"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-03-15T00:00:00"/>
-    <n v="6"/>
-    <n v="6117"/>
-    <s v="San Vicente"/>
-    <x v="1"/>
-    <s v="Mariela de las Mercedes Fuentes Lucero"/>
-    <n v="39"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Apuñalada por su marido al interior de automóvil estacionado en motel. El sujeto se autoinfligió heridas cortopunzantes en la garganta y se encuentra en riesgo vital"/>
-    <m/>
-    <s v="Cónyuge"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-03-16T00:00:00"/>
-    <n v="13"/>
-    <n v="13301"/>
-    <s v="Colina"/>
-    <x v="3"/>
-    <s v="Nataly Davison Escobar"/>
-    <n v="24"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Fractura craneal, golpeada en reiteradas oportunidades. Atacada el 13 de marzo junto a su hija de 2 años por su conviviente y padre de la menor, sujeto se autoinflingió heridas leves. El 16 de marzo muere Nataly, la niña sigue en riesgo vital"/>
-    <m/>
-    <s v="Conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-03-20T00:00:00"/>
-    <n v="3"/>
-    <n v="3202"/>
-    <s v="Diego de Almagro"/>
-    <x v="8"/>
-    <s v="Maribel Soledad Mallea Quinzacara"/>
-    <n v="26"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Apuñalada junto a su hijo de 7 años por exconviviente, quien luego prendió fuego al inmueble y se suicidó"/>
-    <m/>
-    <s v="Conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-04-11T00:00:00"/>
-    <n v="6"/>
-    <n v="6205"/>
-    <s v="Navidad"/>
-    <x v="1"/>
-    <s v="Marianela del Carmen Guzmán Ortiz"/>
-    <n v="49"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Asesinada a balazos por cónyuge, quien luego se suicidó con la misma arma. Una de las hijas denuncia el femicidio a las autoridades"/>
-    <m/>
-    <s v="Cónyuge"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-04-22T00:00:00"/>
-    <n v="13"/>
-    <n v="13301"/>
-    <s v="Colina"/>
-    <x v="3"/>
-    <s v="Viviana Estrada"/>
-    <n v="38"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Mujer visita a ex pareja en Chicureo para retirar sus pertenencias, momento en que el decide apuñalarla. Femicida se da a la fuga y, horas después, se suicida."/>
-    <m/>
-    <s v="Ex conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-04-25T00:00:00"/>
-    <n v="15"/>
-    <n v="15101"/>
-    <s v="Arica"/>
-    <x v="9"/>
-    <s v="Ruth Tania Mendoza Mamani"/>
-    <n v="19"/>
-    <s v="Peruana"/>
-    <m/>
-    <s v="Apuñalada en Valle de Azapa por cónyuge. Horas después de encontrarse su cuerpo, el marido es detenido"/>
-    <m/>
-    <s v="Cónyuge"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-04-27T00:00:00"/>
-    <n v="4"/>
-    <n v="4101"/>
-    <s v="La Serena"/>
-    <x v="10"/>
-    <s v="Yulisa Belén Cerda Aguilera_x000a_"/>
-    <n v="22"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Baleada por su pareja en el domicilio de ella. El femicida huyó tras abandonarla en las afueras de un Cesfam en La Serena. A los dos días se entrega a la justicia"/>
-    <m/>
-    <s v="Pareja"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-05-21T00:00:00"/>
-    <n v="8"/>
-    <n v="8102"/>
-    <s v="Coronel"/>
-    <x v="4"/>
-    <s v="Carmen del Pilar Toro Durán"/>
-    <n v="68"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Traumatismo craneoencefálico tras sufrir violación y golpes por hombres aún no identificados. Su hijo la encontró moribunda en el patio de su vivienda, la víctima fallece en el hospital producto a las lesiones"/>
-    <s v="Si"/>
-    <s v="Se investiga"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-05-30T00:00:00"/>
-    <n v="5"/>
-    <n v="5101"/>
-    <s v="Valparaíso"/>
-    <x v="5"/>
-    <s v="Gladys Quezada Rojas"/>
-    <n v="46"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Baleada por conviviente en cerro Las Cañas, él mismo llama a Carabineros y se da a la fuga. Estuvo oculto en un cerro y fue detenido una semana después"/>
-    <m/>
-    <s v="Conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-06-03T00:00:00"/>
-    <n v="7"/>
-    <n v="7102"/>
-    <s v="Constitución"/>
-    <x v="2"/>
-    <s v="Ruth Victoria Gallardo Gutierrez"/>
-    <n v="25"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Apuñalada por ex pololo luego de golpearla con sus puños. Después de asesinar a Ruth, el agresor golpeó a la abuela de ésta"/>
-    <m/>
-    <s v="Ex pareja"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-06-08T00:00:00"/>
-    <n v="9"/>
-    <n v="9211"/>
-    <s v="Victoria"/>
-    <x v="11"/>
-    <s v="Nataly Valeria Sepulveda Oria"/>
-    <n v="29"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Baleada por conviviente, quien se dio a la fuga tras dispararle"/>
-    <m/>
-    <s v="Conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-06-14T00:00:00"/>
-    <n v="9"/>
-    <n v="9103"/>
-    <s v="Cunco"/>
-    <x v="11"/>
-    <s v="Eliana Urra Colicoy"/>
-    <n v="48"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Acuchillada por ex conviviente, quién logró llegar hasta su casa a pesar de medidas cautelares interpuestas por agresión anterior"/>
-    <m/>
-    <s v="Ex conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-07-05T00:00:00"/>
-    <n v="8"/>
-    <n v="8106"/>
-    <s v="Lota"/>
-    <x v="4"/>
-    <s v="Nancy Riquelme Morales "/>
-    <n v="25"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Baleada por su conviviente, quien inicialmente había indicado que le había llegado bala perdida"/>
-    <m/>
-    <s v="Conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-07-05T00:00:00"/>
-    <n v="6"/>
-    <n v="6105"/>
-    <s v="Doñihue"/>
-    <x v="1"/>
-    <s v="Soledad Valenzuela Valenzuela"/>
-    <n v="29"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Apuñalada en tórax y luego quemada por ex cuñado, quien trató de ocultar de esta manera el crimen, que se produjo tras discusión con ex cuñada"/>
-    <m/>
-    <s v="Ex cuñado"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-08-04T00:00:00"/>
-    <n v="13"/>
-    <n v="13120"/>
-    <s v="Ñuñoa"/>
-    <x v="3"/>
-    <s v="Nataly Vilma Escobar Jara"/>
-    <n v="18"/>
-    <s v="Colombiana"/>
-    <m/>
-    <s v="Asfixiada por su pareja en presencia de su hija de 2 meses, quien fuera abandonada viva y sin lesiones aparentes por el femicida y padre de la niña; horas después fue detenido"/>
-    <m/>
-    <s v="Conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-08-06T00:00:00"/>
-    <n v="5"/>
-    <n v="5804"/>
-    <s v="Villa Alemana"/>
-    <x v="5"/>
-    <s v="Ámbar Denisse Cornejo Llanos"/>
-    <n v="16"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Asesinada por la pareja de su madre, quien tenía antecedentes por femicidio y parricidio de menor de edad en 2005 y había sido dejado en libertad mediante indulto en 2016. "/>
-    <m/>
-    <s v="Padrastro"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-08-08T00:00:00"/>
-    <n v="13"/>
-    <n v="13101"/>
-    <s v="Santiago"/>
-    <x v="3"/>
-    <s v="Kleibell Luciana Morales Graterol"/>
-    <n v="30"/>
-    <s v="Venezolana"/>
-    <m/>
-    <s v="Acuchillada por su marido junto a su madre. Sobrevive adolescente de 17 años, hermano e hijo de las víctimas, quien relata que el sujeto atacó a su hermana, a su madre y a él. El niño quedó insconsciente con lesiones en rostro y cabeza. Al despertar en la mañana encuentra al cuñado muerto también y llama a conserjería y a policía"/>
-    <m/>
-    <s v="Cónyuge"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-08-08T00:00:00"/>
-    <n v="13"/>
-    <n v="13101"/>
-    <s v="Santiago"/>
-    <x v="3"/>
-    <s v="Esperanza Graterol Moya"/>
-    <n v="53"/>
-    <s v="Venezolana"/>
-    <m/>
-    <s v="Acuchillada por su yerno junto a su hija. Sobrevive adolescente de 17 años, hermano e hijo de las víctimas, quien relata que el sujeto atacó a su hermana, a su madre y a él. El niño quedó insconsciente con lesiones en rostro y cabeza. Al despertar en la mañana encuentra al cuñado muerto también y llama a conserjería y a policía"/>
-    <m/>
-    <s v="Yerno"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-08-09T00:00:00"/>
-    <n v="13"/>
-    <n v="13116"/>
-    <s v="Lo Espejo"/>
-    <x v="3"/>
-    <s v="Leslie Velásquez (Chico Leslie)"/>
-    <m/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Apuñala por conocido al tratar de defender a compañera de ataque sexual"/>
-    <m/>
-    <s v="Amigo"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-08-22T00:00:00"/>
-    <n v="7"/>
-    <n v="7401"/>
-    <s v="Linares"/>
-    <x v="2"/>
-    <s v="Norma Isabel Vásquez Soto"/>
-    <n v="21"/>
-    <s v="Chilena"/>
-    <s v="Carabinera"/>
-    <s v="Golpeada con objeto contunde en la cabeza por compañero de servicio, a quien ella misma había denunciado por violación. El sujeto la asesinó en un motel e intentó ocultar el cuerpo en su autómovil. El carabinero asesino tenía al menos 6 sumarios administrativos pendientes. Se entregó horas después de que funcionaria del motel denunciara hallazgo del cadáver tras haber encarado al carabinero, quien salió con actitud sospechosa. "/>
-    <s v="Sí"/>
-    <s v="Ex pololo y compañero de trabajo"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-09-05T00:00:00"/>
-    <n v="13"/>
-    <n v="13112"/>
-    <s v="La Pintana"/>
-    <x v="3"/>
-    <s v="Camila Alejandra Díaz Álvarez"/>
-    <n v="21"/>
-    <m/>
-    <m/>
-    <s v="Acuchillada con tijeras y asfixiada. Sujeto huye a Valdivia, donde es detenido "/>
-    <m/>
-    <s v="Conviviente"/>
-  </r>
-  <r>
-    <s v="Suicidios femicidas"/>
-    <d v="2020-04-20T00:00:00"/>
-    <n v="13"/>
-    <n v="13502"/>
-    <s v="Alhué"/>
-    <x v="3"/>
-    <s v="Jacqueline Marcela Calfulaf Poblete"/>
-    <n v="34"/>
-    <m/>
-    <s v="Arquitecta"/>
-    <s v="Ahorcamiento. En certificado de defunción aparece ahorcamiento como causa de muerte. Su familia se comunica en agosto señalando que por la violencia ejercida por su conviviente, la situación corresponde al menos a suicidio femicida, y se encuentran exigiendo una investigación seria para determinar si realmente es posible descartar el femicidio"/>
-    <m/>
-    <s v="Conviviente"/>
-  </r>
-  <r>
-    <s v="Suicidios femicidas"/>
-    <d v="2020-06-28T00:00:00"/>
-    <n v="4"/>
-    <n v="4106"/>
-    <s v="Vicuña"/>
-    <x v="10"/>
-    <s v="Anaís Godoy Ramírez"/>
-    <n v="16"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Anaís fue violada el 17 de diciembre de 2018 en Pampilla, cuando tenía 15 años. Tras dos años, al enterarse de la impunidad de su agresor, se quitó la vida. El agresor se encuentra actualmente en prisión por otros delitos"/>
-    <s v="Sí"/>
-    <s v="Amigo"/>
-  </r>
-  <r>
-    <s v="Suicidios femicidas"/>
-    <d v="2020-08-02T00:00:00"/>
-    <n v="10"/>
-    <n v="10403"/>
-    <s v="Hualaihué"/>
-    <x v="12"/>
-    <s v="Deysi Nobelia Compay Schmitd"/>
-    <n v="20"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Tras violencia cometida por su pareja, Deysi se quitó la vida. Se encontraba embarazada. Amigas y familiares inician campaña"/>
-    <m/>
-    <s v="Pololo"/>
-  </r>
-  <r>
-    <s v="Otros asesinatos por Violencia Femicida"/>
-    <d v="2020-02-09T00:00:00"/>
-    <n v="6"/>
-    <n v="6306"/>
-    <s v="Palmilla"/>
-    <x v="1"/>
-    <s v="Luis Díaz Parraguez"/>
-    <n v="11"/>
-    <s v="Chileno"/>
-    <m/>
-    <s v="Apuñalado por el padre para castigar a la madre pues el niño había decidido ir a vivir con ella y su nueva pareja. El asesino citó al niño al río Tinguiririca para conversar, según se registró en mensajes de whatsapp, lugar en que lo asesinó"/>
-    <m/>
-    <s v="Padre"/>
-  </r>
-  <r>
-    <s v="Otros asesinatos por Violencia Femicida"/>
-    <d v="2020-02-22T00:00:00"/>
-    <n v="5"/>
-    <n v="5804"/>
-    <s v="Villa Alemana"/>
-    <x v="5"/>
-    <s v="Daniela"/>
-    <n v="1"/>
-    <m/>
-    <m/>
-    <s v="Calcinada junto a su madre, Brenda Vidal. En agosto, familiares de Brenda denuncian que el incendio fue provocado por ex pareja de ella y que la investigación ha sido negligente"/>
-    <m/>
-    <s v="Padre"/>
-  </r>
-  <r>
-    <s v="Otros asesinatos por Violencia Femicida"/>
-    <d v="2020-02-22T00:00:00"/>
-    <n v="5"/>
-    <n v="5804"/>
-    <s v="Villa Alemana"/>
-    <x v="5"/>
-    <s v="Daniel"/>
-    <n v="2"/>
-    <m/>
-    <m/>
-    <s v="Calcinado junto a su madre, Brenda Vidal. En agosto, familiares de Brenda denuncian que el incendio fue provocado por ex pareja de ella y que la investigación ha sido negligente"/>
-    <m/>
-    <s v="Padre"/>
-  </r>
-  <r>
-    <s v="Otros asesinatos por Violencia Femicida"/>
-    <d v="2020-03-20T00:00:00"/>
-    <n v="3"/>
-    <n v="3202"/>
-    <s v="Diego de Almagro"/>
-    <x v="8"/>
-    <s v="Joaquín Mallea"/>
-    <n v="7"/>
-    <s v="Chileno"/>
-    <m/>
-    <s v="Apuñalado junto a su madre por pareja de ésta, quien luego prendió fuego al inmueble y se suicidó."/>
-    <m/>
-    <s v="Pareja de la madre"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-09-08T00:00:00"/>
-    <n v="13"/>
-    <n v="13302"/>
-    <s v="Lampa"/>
-    <x v="3"/>
-    <s v="Alsacia Lorena Arriagada Morales"/>
-    <n v="60"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Asfixiada con un cable por su esposo"/>
-    <m/>
-    <s v="Cónyuge"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-09-08T00:00:00"/>
-    <n v="5"/>
-    <n v="5109"/>
-    <s v="Viña del Mar "/>
-    <x v="5"/>
-    <s v="Betty del Carmen Torres Villarroel "/>
-    <n v="46"/>
-    <m/>
-    <m/>
-    <s v="Baleada por conviviente en Reñaca Alto. Había denuncias de VIF y el sujeto, quien se dio a la fuga, tenía antecedentes por otros delitos. Agresor es detenido por no portar mascarilla y confiesa delito"/>
-    <m/>
-    <s v="Conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios "/>
-    <d v="2020-09-14T00:00:00"/>
-    <n v="13"/>
-    <n v="13125"/>
-    <s v="Quilicura "/>
-    <x v="3"/>
-    <s v="Esperanza Érika Aguilar Olivares "/>
-    <n v="54"/>
-    <s v="Chilena "/>
-    <m/>
-    <s v="Acuchillada junto a su hija menor por su hijo. Sujeto se autoinfirió heridas y dejó llave del gas abierta; más tarde confiesa. Se denuncia violencia sexual, la que el Ministerio Público no ha considerado. No se utiliza nuevo concepto de femicidio de Ley Gabriela"/>
-    <m/>
-    <s v="Hijo "/>
-  </r>
-  <r>
-    <s v="Femicidios "/>
-    <d v="2020-09-14T00:00:00"/>
-    <n v="13"/>
-    <n v="13125"/>
-    <s v="Quilicura "/>
-    <x v="3"/>
-    <s v="Caroline Giselle Venegas Aguilar "/>
-    <n v="18"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Acuchillada junto a su madre menor por su heramno. Sujeto se autoinfirió heridas y dejó llave del gas abierta; más tarde confiesa. Se denuncia violencia sexual, la que el Ministerio Público no ha considerado. No sé utiliza nuevo concepto de femicidio de Ley Gabriela"/>
-    <s v="Se presume "/>
-    <s v="Hermano "/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-09-22T00:00:00"/>
-    <n v="7"/>
-    <n v="7301"/>
-    <s v="Curicó"/>
-    <x v="2"/>
-    <s v="Sara Tatiana Muñoz Farías "/>
-    <n v="26"/>
-    <s v="Chilena "/>
-    <m/>
-    <s v="Violada y asesinada por hombre que conoció por facebook. Se citaron para conocerse en persona al levantarse cuarentena, lo que el sujeto aprovechó para violarla y asesinarla, dejándola semidesnuda en cerro Condell. Dado que _x000a_ el agresor abandonó su celular en el lugar, fue durante la tarde. Se le está formalizando por violación con homicidio en lugar de la nueva figura de violación con femicidio&quot;"/>
-    <s v="Sí "/>
-    <s v="Conocido "/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-10-01T00:00:00"/>
-    <n v="11"/>
-    <n v="11101"/>
-    <s v="Coyhaique"/>
-    <x v="13"/>
-    <s v="Julia Aluen Mancilla Vargas "/>
-    <n v="21"/>
-    <m/>
-    <m/>
-    <s v="Violada y apuñalada en su casa por su primo. PDI indica que es clara la intervención homicida de terceros y que se investiga violación por la criminodinámica del hallazgo. No se dan antecedentes sobre agresor o agresores en primer momento. Horas más tarde se detienen a autor. Agresión sexual es cada vez menos abordada por policías. Familia señala fue femicidio "/>
-    <s v="Sí "/>
-    <s v="Primo "/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-10-06T00:00:00"/>
-    <n v="16"/>
-    <n v="16205"/>
-    <s v="Portezuelo"/>
-    <x v="14"/>
-    <s v="Carolina Fuentes Bustos"/>
-    <n v="42"/>
-    <m/>
-    <m/>
-    <s v="Hallada en río Ñuble tras desaparecer el 30 de junio. Su ex pareja, quien fuera siempre sospechoso para ex marido, hijos y familiares de Carolina, envió mensajes desde el teléfono de ella tal día. Se investiga día data de muerte"/>
-    <m/>
-    <s v="Ex pololo "/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-10-11T00:00:00"/>
-    <n v="3"/>
-    <n v="3101"/>
-    <s v="Copiapó "/>
-    <x v="8"/>
-    <s v="Lady Paola Aboledo Riascos"/>
-    <n v="33"/>
-    <s v="Colombiana "/>
-    <m/>
-    <s v="Apuñalada por su conviviente. Fue encontrada en la calle"/>
-    <m/>
-    <s v="Conviviente "/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-10-16T00:00:00"/>
-    <n v="5"/>
-    <n v="5101"/>
-    <s v="Valparaíso"/>
-    <x v="5"/>
-    <s v="Ercilla Gladys Salgado Yáñez "/>
-    <n v="63"/>
-    <s v="Chilena "/>
-    <m/>
-    <s v="Violada y estrangulada por sobrino en su casa. Agresor es formalizado el 12 de noviembre, según datos de prensa, sin considerar nueva figura de violación con femicidio de Ley Gabriela (causa no aparece en web P. Judicial). Ercilia había denunciado a su hermano, padre del imputado, por lesiones VIF durante el año 2020. Tenían audiencia el 25 de noviembre de 2020 (según datos P. Judicial)"/>
-    <s v="Sí "/>
-    <s v="Sobrino "/>
-  </r>
-  <r>
-    <s v="Femicidios "/>
-    <d v="2020-10-20T00:00:00"/>
-    <n v="2"/>
-    <n v="2201"/>
-    <s v="Calama"/>
-    <x v="15"/>
-    <s v="Lucía Chicchi Leandro "/>
-    <n v="35"/>
-    <s v="Boliviana "/>
-    <m/>
-    <s v="Hallada muerta en basural del sector Limón Verde. Se encontraba desaparecida desde el 14 de octubre de 2020. Esposo, quien hizo la denuncia, es luego detenido y confiesa el crimen "/>
-    <m/>
-    <s v="Cónyuge"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-11-01T00:00:00"/>
-    <n v="14"/>
-    <n v="1401"/>
-    <s v="Valdivia"/>
-    <x v="0"/>
-    <s v="Tania Macarena Bustamante Díaz "/>
-    <n v="24"/>
-    <s v="Chilena "/>
-    <m/>
-    <s v="Escopetazo de su pareja"/>
-    <m/>
-    <s v="Conviviente "/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-11-01T00:00:00"/>
-    <n v="7"/>
-    <n v="7201"/>
-    <s v="Cauquenes"/>
-    <x v="2"/>
-    <s v="Verónica Villenas Vega "/>
-    <n v="36"/>
-    <s v="Chilena "/>
-    <m/>
-    <s v="Apuñalada en cuatro oportunidades por su hermano. Nuevamente no se usa figura de femicidio de Ley Gabriela"/>
-    <m/>
-    <s v="Hermano "/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-11-01T00:00:00"/>
-    <n v="7"/>
-    <n v="7101"/>
-    <s v="Talca"/>
-    <x v="2"/>
-    <s v="Lhysbet Ureta Méndez "/>
-    <n v="20"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Golpes con elemento contundente; el sujeto trató de ocultar el femicidio limpiando el lugar, por lo que inicialmente se investigaba homicidio sin identificar al autor"/>
-    <m/>
-    <s v="Conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-11-03T00:00:00"/>
-    <n v="14"/>
-    <n v="14108"/>
-    <s v="Panguipulli "/>
-    <x v="16"/>
-    <s v="Yenny Shirley Ancamilla Collinao"/>
-    <n v="26"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Acuchillada por conviviente tenía diversas lesiones en cabeza "/>
-    <m/>
-    <s v="Conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-11-14T00:00:00"/>
-    <n v="13"/>
-    <n v="13401"/>
-    <s v="San Bernardo "/>
-    <x v="3"/>
-    <s v="Nancy Gloria Rojas Arenas "/>
-    <n v="67"/>
-    <s v="Chilena"/>
-    <s v="Comerciante feria"/>
-    <s v="Golpeada y acuchillada por su hijo. La encuentra desnuda, acuchillada y golpeada en el suelo de la cocina su otro hijo, quien al ingresar al lugar por la fuerte música que se escuchaba desde afuera, encuentra escondido en el baño a su hermano, quien tras golpearlo se da a la fuga. Horas después Nancy fallece por politraumatismo. Nancy era oxígeno dependiente y mantenía económicamente a su agresor, quien estaba con arresto domiciliario por robo. Asesino se dio a la fuga y fue detenido el 18 de noviembre. Tribunal sigue investigación no formalizada por parricidio, y no por Ley Gabriela"/>
-    <s v="Presunta "/>
-    <s v="Hijo "/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-11-15T00:00:00"/>
-    <n v="13"/>
-    <n v="13130"/>
-    <s v="San Miguel "/>
-    <x v="17"/>
-    <s v="Jacqueline Hernández Morales "/>
-    <n v="52"/>
-    <s v="Chilena "/>
-    <m/>
-    <s v="Muere tras caída de 5to piso. Familia asegura fue femicidio, sospechoso, pareja de Jacqueline, indica fue accidente o suicidio. Fiscalía está investigando presunto femicidio"/>
-    <m/>
-    <s v="Conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-11-20T00:00:00"/>
-    <n v="5"/>
-    <n v="5701"/>
-    <s v="San Felipe "/>
-    <x v="18"/>
-    <s v="Sandra Carolina Pizarro Jeria "/>
-    <n v="45"/>
-    <s v="Chilena"/>
-    <s v="Profesora "/>
-    <s v="Golpeada por ex conviviente hasta quedar inconsciente el viernes 13 de noviembre. Se declara muerte cerebral, y el día 20 de noviembre fallece producto de los golpes. Ex conviviente sólo reconoce haberla visitado el 10 de noviembre. La familia indica que se perdió su contacto y fueron a verla, encontrándola sin consciencia."/>
-    <m/>
-    <s v="Ex conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-11-22T00:00:00"/>
-    <n v="5"/>
-    <n v="5101"/>
-    <s v="Valparaíso"/>
-    <x v="5"/>
-    <s v="Katherine Andrea Ayala Ayala "/>
-    <n v="38"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Asesinada por conviviente. Medios no indican cómo."/>
-    <m/>
-    <s v="Conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-11-28T00:00:00"/>
-    <n v="10"/>
-    <n v="10101"/>
-    <s v="Puerto Montt "/>
-    <x v="12"/>
-    <s v="Yanira Javiera Díaz Vera "/>
-    <n v="26"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Asfixiada por conviviente luego de múltiples golpes con elemento contundente. Inicialmente tanto PDI como SML habían corroborado tesis de suicidio del imputado, pero se determinó el femicidio tras exhumación solicitada por la familia practicada el 4 de diciembre. El 17 de diciembre el sujeto fue formalizado y se encuentra en prisión preventiva "/>
-    <m/>
-    <s v="Conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-12-05T00:00:00"/>
-    <n v="13"/>
-    <n v="13122"/>
-    <s v="Peñalolén"/>
-    <x v="3"/>
-    <s v="Jocelyn Hernández Jara "/>
-    <n v="28"/>
-    <s v="Chilena "/>
-    <m/>
-    <s v="Apuñalada por conviviente, quien se esconde luego en casa de familiares"/>
-    <m/>
-    <s v="Conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-12-12T00:00:00"/>
-    <n v="7"/>
-    <n v="7105"/>
-    <s v="Colín "/>
-    <x v="19"/>
-    <s v="Francisca Ignacia Kustmann Rojas "/>
-    <n v="36"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Asfixiada por conviviente mientras pernoctaban en Colín. Francisca Ignacia era de Talca. Defensa alega esquizofrenia del sujeto"/>
-    <m/>
-    <s v="Conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-12-14T00:00:00"/>
-    <n v="10"/>
-    <n v="10101"/>
-    <s v="Puerto Montt "/>
-    <x v="12"/>
-    <s v="Margarita Paredes Santana "/>
-    <n v="54"/>
-    <s v="Chilena "/>
-    <m/>
-    <s v="Apuñalada por hijo. Se menciona en prensa que tanto él como su tío (no se indica si es hermano o cuñado de la mujer) habría despertado borrachos con sangre en sus ropas y la madre muerta en el jardín. Sólo se ha formalizado al hijo de la mujer."/>
-    <m/>
-    <s v="Hijo "/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-12-15T00:00:00"/>
-    <n v="8"/>
-    <n v="8108"/>
-    <s v="San Pedro de la Paz "/>
-    <x v="20"/>
-    <s v="Ana María Guerra Castañeda "/>
-    <n v="66"/>
-    <s v="Chilena "/>
-    <m/>
-    <s v="Atacada con un hacha por su marido"/>
-    <m/>
-    <s v="Cónyuge"/>
-  </r>
-  <r>
-    <s v="Otros asesinatos por Violencia Femicida"/>
-    <d v="2020-10-31T00:00:00"/>
-    <n v="14"/>
-    <n v="14101"/>
-    <s v="Valdivia"/>
-    <x v="16"/>
-    <s v="Vicente González Lorca "/>
-    <n v="25"/>
-    <s v="Chileno"/>
-    <m/>
-    <s v="Asfixiado tras sufrir agresión sexual en sitio eriazo; hay antecedentes de asesinato estaría motivado por identificarse como varón trans con violación correctiva"/>
-    <s v="Sí "/>
-    <s v="Desconocido "/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-12-23T00:00:00"/>
-    <n v="13"/>
-    <n v="13101"/>
-    <s v="Santiago"/>
-    <x v="3"/>
-    <s v="María Isabel Pavez Zamora "/>
-    <n v="22"/>
-    <s v="Chilena"/>
-    <s v="Estudiante"/>
-    <s v="Apuñalada por ex pololo. Desaparece el 17 de diciembre. A madre le dijo que se reuniría con ex pareja, y a amigas que tenía cita de Tinder. Tras triangulación de teléfono, PDI encuentra su cuerpo en departamento de ex pareja."/>
-    <m/>
-    <s v="Ex pololo "/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-12-24T00:00:00"/>
-    <n v="5"/>
-    <n v="5109"/>
-    <s v="Viña del Mar "/>
-    <x v="5"/>
-    <s v="Elsa Janet Muñoz Santana "/>
-    <n v="40"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Apuñalada por ex conviviente. Durante el día, Elsa, quien había denunciado antes acoso de su ex pareja, denunció VIF pero sujeto fue puesto en libertad, retornando al domicilio. Vecinos denuncian nuevamente VIF, pues vieron golpes del sujeto desnudo a Elsa y escucharon sus gritos de ayuda. En audiencia de control de detención, Ministerio Público lee parte policial, en que se indica que al llegar carabineros Elsa estaba inconsciente, pero el sujeto con un cuchillo en mano les lanzó sábana incendiada, logrando encerrarse en departamento, por lo que Elsa pudo haber muerto en ese momento. Luego, el sujeto fue detenido y se escapó retornando al departamento y terminando de incendiarlo y quemar el cuerpo de Elsa. Paralelamente, vecinos, trataron de linchar a femicida, salvándolo carabineros.   "/>
-    <s v="Se presume "/>
-    <s v="Ex conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-12-24T00:00:00"/>
-    <n v="5"/>
-    <n v="5502"/>
-    <s v="La Calera "/>
-    <x v="5"/>
-    <s v="Gladys Escalona "/>
-    <n v="46"/>
-    <m/>
-    <m/>
-    <s v="Encontrada muerta envuelta en frazadas el 30 de diciembre, tras llamado de vecinos a carabineros por olor putrefacto en el inmueble. Vecinos indican que escucharon discusión el 24 y luego silencio. Carabineros encontró cadáver de pareja de Gladys colgando en viga, con data de suicidio de 36 horas. Familia indica que Gladys sufrió varios episodios VIF sin denunciar."/>
-    <m/>
-    <s v="Conviviente"/>
-  </r>
-  <r>
-    <s v="Femicidios"/>
-    <d v="2020-12-28T00:00:00"/>
-    <n v="10"/>
-    <n v="10107"/>
-    <s v="Llanquihue"/>
-    <x v="12"/>
-    <s v="Amada Andrade "/>
-    <n v="89"/>
-    <s v="Chilena"/>
-    <m/>
-    <s v="Encontrada muerta con múltiples lesiones atribuibles a terceros. Esa noche se toma declaraciones a su hijo como testigo, siendo sindicado como sospechoso, si bien él habría dado otra versión de los hechos. El 29 de diciembre, hijo, quien no fuera detenido, se suicida. Fiscalía indica que cuerpo de Amada está en SML en Santiago y no aclaran si tiene impactos de bala o golpes"/>
-    <m/>
-    <s v="Hijo "/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B87A129C-0473-4264-81A8-E2FC95231AD1}" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="22">
-        <item x="15"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="13"/>
-        <item x="20"/>
-        <item x="4"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="0"/>
-        <item x="16"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="19"/>
-        <item x="3"/>
-        <item x="17"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="18"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="22">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13909,7 +12686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D2F743-D653-482D-A9CF-63545896FD5D}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -14542,147 +13319,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E0F0F5-3191-4B1E-866C-F9C37ABBCBBB}">
-  <dimension ref="A3:A25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="57" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="57" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="57" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="57" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
-        <v>669</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85E8145-A65A-4280-976F-3B8DC648AD14}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:AM68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14818,37 +13462,37 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B2" s="52">
-        <v>44124</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2201</v>
+        <v>372</v>
+      </c>
+      <c r="B2" s="48">
+        <v>43835</v>
+      </c>
+      <c r="C2" s="50">
+        <v>14</v>
+      </c>
+      <c r="D2" s="50">
+        <v>14101</v>
       </c>
       <c r="E2" t="s">
-        <v>422</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>423</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>534</v>
+        <v>31</v>
       </c>
       <c r="H2">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>535</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>536</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
         <v>35</v>
@@ -14892,7 +13536,7 @@
       <c r="AJ2" t="s">
         <v>387</v>
       </c>
-      <c r="AK2" s="51" t="s">
+      <c r="AK2" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL2">
@@ -14907,34 +13551,34 @@
         <v>372</v>
       </c>
       <c r="B3" s="48">
-        <v>43946</v>
+        <v>43840</v>
       </c>
       <c r="C3" s="50">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D3" s="50">
-        <v>15101</v>
+        <v>6116</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>179</v>
+        <v>46</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="H3">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
         <v>35</v>
@@ -14976,7 +13620,7 @@
       <c r="AJ3" t="s">
         <v>389</v>
       </c>
-      <c r="AK3" s="51" t="s">
+      <c r="AK3" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL3">
@@ -14991,34 +13635,34 @@
         <v>372</v>
       </c>
       <c r="B4" s="48">
-        <v>43910</v>
+        <v>43843</v>
       </c>
       <c r="C4" s="50">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" s="50">
-        <v>3202</v>
+        <v>7404</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="H4">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
         <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="P4" t="s">
         <v>60</v>
@@ -15060,7 +13704,7 @@
       <c r="AJ4" t="s">
         <v>396</v>
       </c>
-      <c r="AK4" s="51" t="s">
+      <c r="AK4" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL4">
@@ -15074,35 +13718,35 @@
       <c r="A5" t="s">
         <v>372</v>
       </c>
-      <c r="B5" s="52">
-        <v>44115</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>3101</v>
+      <c r="B5" s="48">
+        <v>43860</v>
+      </c>
+      <c r="C5" s="50">
+        <v>6</v>
+      </c>
+      <c r="D5" s="50">
+        <v>6115</v>
       </c>
       <c r="E5" t="s">
-        <v>419</v>
-      </c>
-      <c r="F5" t="s">
-        <v>158</v>
+        <v>67</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>519</v>
+        <v>68</v>
       </c>
       <c r="H5">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>520</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
-        <v>521</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s">
-        <v>522</v>
+        <v>34</v>
       </c>
       <c r="P5" t="s">
         <v>35</v>
@@ -15141,7 +13785,7 @@
       <c r="AJ5" t="s">
         <v>389</v>
       </c>
-      <c r="AK5" s="51" t="s">
+      <c r="AK5" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL5">
@@ -15153,37 +13797,37 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="B6" s="48">
-        <v>43910</v>
+        <v>43878</v>
       </c>
       <c r="C6" s="50">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D6" s="50">
-        <v>3202</v>
+        <v>13119</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>342</v>
+        <v>76</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s">
-        <v>344</v>
+        <v>34</v>
       </c>
       <c r="P6" t="s">
         <v>35</v>
@@ -15231,7 +13875,7 @@
       <c r="AJ6" t="s">
         <v>390</v>
       </c>
-      <c r="AK6" s="51" t="s">
+      <c r="AK6" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL6">
@@ -15245,35 +13889,35 @@
       <c r="A7" t="s">
         <v>372</v>
       </c>
-      <c r="B7" s="52">
-        <v>44105</v>
-      </c>
-      <c r="C7">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>11101</v>
+      <c r="B7" s="48">
+        <v>43878</v>
+      </c>
+      <c r="C7" s="50">
+        <v>8</v>
+      </c>
+      <c r="D7" s="50">
+        <v>8305</v>
       </c>
       <c r="E7" t="s">
-        <v>497</v>
-      </c>
-      <c r="F7" t="s">
-        <v>498</v>
+        <v>83</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>380</v>
       </c>
       <c r="G7" t="s">
-        <v>499</v>
+        <v>85</v>
       </c>
       <c r="H7">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
       </c>
       <c r="K7" t="s">
-        <v>500</v>
-      </c>
-      <c r="L7" t="s">
-        <v>479</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s">
-        <v>501</v>
+        <v>87</v>
       </c>
       <c r="P7" t="s">
         <v>35</v>
@@ -15320,7 +13964,7 @@
       <c r="AJ7" t="s">
         <v>391</v>
       </c>
-      <c r="AK7" s="51" t="s">
+      <c r="AK7" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL7">
@@ -15334,35 +13978,35 @@
       <c r="A8" t="s">
         <v>372</v>
       </c>
-      <c r="B8" s="52">
-        <v>44180</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>8108</v>
+      <c r="B8" s="48">
+        <v>43883</v>
+      </c>
+      <c r="C8" s="50">
+        <v>5</v>
+      </c>
+      <c r="D8" s="50">
+        <v>5804</v>
       </c>
       <c r="E8" t="s">
-        <v>621</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>380</v>
+        <v>97</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>623</v>
+        <v>99</v>
       </c>
       <c r="H8">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>474</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s">
-        <v>624</v>
+        <v>100</v>
       </c>
       <c r="M8" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="P8" t="s">
         <v>35</v>
@@ -15398,7 +14042,7 @@
       <c r="AJ8" t="s">
         <v>392</v>
       </c>
-      <c r="AK8" s="51" t="s">
+      <c r="AK8" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL8">
@@ -15413,34 +14057,34 @@
         <v>372</v>
       </c>
       <c r="B9" s="48">
-        <v>43878</v>
+        <v>43887</v>
       </c>
       <c r="C9" s="50">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="50">
-        <v>8305</v>
+        <v>6115</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="60" t="s">
-        <v>380</v>
+        <v>67</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="H9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
         <v>32</v>
       </c>
       <c r="K9" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="P9" t="s">
         <v>35</v>
@@ -15479,7 +14123,7 @@
       <c r="AJ9" t="s">
         <v>389</v>
       </c>
-      <c r="AK9" s="51" t="s">
+      <c r="AK9" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL9">
@@ -15494,37 +14138,34 @@
         <v>372</v>
       </c>
       <c r="B10" s="48">
-        <v>43972</v>
+        <v>43890</v>
       </c>
       <c r="C10" s="50">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D10" s="50">
-        <v>8102</v>
+        <v>1107</v>
       </c>
       <c r="E10" t="s">
-        <v>196</v>
-      </c>
-      <c r="F10" s="60" t="s">
-        <v>380</v>
+        <v>112</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>197</v>
+        <v>114</v>
       </c>
       <c r="H10">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
         <v>32</v>
       </c>
       <c r="K10" t="s">
-        <v>198</v>
-      </c>
-      <c r="L10" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="M10" t="s">
-        <v>199</v>
+        <v>116</v>
       </c>
       <c r="P10" t="s">
         <v>35</v>
@@ -15569,7 +14210,7 @@
       <c r="AJ10" t="s">
         <v>398</v>
       </c>
-      <c r="AK10" s="51" t="s">
+      <c r="AK10" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL10">
@@ -15584,31 +14225,37 @@
         <v>372</v>
       </c>
       <c r="B11" s="48">
-        <v>44017</v>
+        <v>43895</v>
       </c>
       <c r="C11" s="50">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11" s="50">
-        <v>8106</v>
+        <v>5301</v>
       </c>
       <c r="E11" t="s">
-        <v>232</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>380</v>
+        <v>123</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>233</v>
+        <v>124</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
       </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
       <c r="K11" t="s">
-        <v>234</v>
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
       </c>
       <c r="M11" t="s">
         <v>34</v>
@@ -15656,7 +14303,7 @@
       <c r="AJ11" t="s">
         <v>392</v>
       </c>
-      <c r="AK11" s="51" t="s">
+      <c r="AK11" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL11">
@@ -15671,34 +14318,37 @@
         <v>372</v>
       </c>
       <c r="B12" s="48">
-        <v>43948</v>
+        <v>43898</v>
       </c>
       <c r="C12" s="50">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D12" s="50">
-        <v>4101</v>
+        <v>12101</v>
       </c>
       <c r="E12" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="H12">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
         <v>32</v>
       </c>
       <c r="K12" t="s">
-        <v>189</v>
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
       </c>
       <c r="M12" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="P12" t="s">
         <v>137</v>
@@ -15728,7 +14378,7 @@
       <c r="AJ12" t="s">
         <v>399</v>
       </c>
-      <c r="AK12" s="51" t="s">
+      <c r="AK12" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL12">
@@ -15740,40 +14390,37 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="B13" s="48">
-        <v>44010</v>
+        <v>43905</v>
       </c>
       <c r="C13" s="50">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="50">
-        <v>4106</v>
-      </c>
-      <c r="E13" t="s">
-        <v>314</v>
+        <v>6117</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>377</v>
       </c>
       <c r="F13" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>315</v>
+        <v>141</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s">
         <v>32</v>
       </c>
       <c r="K13" t="s">
-        <v>316</v>
-      </c>
-      <c r="L13" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="M13" t="s">
-        <v>281</v>
+        <v>143</v>
       </c>
       <c r="P13" t="s">
         <v>35</v>
@@ -15815,7 +14462,7 @@
       <c r="AJ13" t="s">
         <v>389</v>
       </c>
-      <c r="AK13" s="51" t="s">
+      <c r="AK13" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL13">
@@ -15830,31 +14477,31 @@
         <v>372</v>
       </c>
       <c r="B14" s="48">
-        <v>43990</v>
+        <v>43906</v>
       </c>
       <c r="C14" s="50">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D14" s="50">
-        <v>9211</v>
+        <v>13301</v>
       </c>
       <c r="E14" t="s">
-        <v>217</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>379</v>
+        <v>149</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="H14">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I14" t="s">
         <v>32</v>
       </c>
       <c r="K14" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="M14" t="s">
         <v>34</v>
@@ -15902,7 +14549,7 @@
       <c r="AJ14" t="s">
         <v>390</v>
       </c>
-      <c r="AK14" s="51" t="s">
+      <c r="AK14" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL14">
@@ -15917,34 +14564,34 @@
         <v>372</v>
       </c>
       <c r="B15" s="48">
-        <v>43996</v>
+        <v>43910</v>
       </c>
       <c r="C15" s="50">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D15" s="50">
-        <v>9103</v>
+        <v>3202</v>
       </c>
       <c r="E15" t="s">
-        <v>224</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>379</v>
+        <v>157</v>
+      </c>
+      <c r="F15" t="s">
+        <v>158</v>
       </c>
       <c r="G15" t="s">
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="H15">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
         <v>32</v>
       </c>
       <c r="K15" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="M15" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="P15" t="s">
         <v>35</v>
@@ -15982,7 +14629,7 @@
       <c r="AJ15" t="s">
         <v>393</v>
       </c>
-      <c r="AK15" s="51" t="s">
+      <c r="AK15" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL15">
@@ -15996,35 +14643,35 @@
       <c r="A16" t="s">
         <v>372</v>
       </c>
-      <c r="B16" s="52">
-        <v>44163</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>10101</v>
+      <c r="B16" s="48">
+        <v>43932</v>
+      </c>
+      <c r="C16" s="50">
+        <v>6</v>
+      </c>
+      <c r="D16" s="50">
+        <v>6205</v>
       </c>
       <c r="E16" t="s">
-        <v>448</v>
+        <v>164</v>
       </c>
       <c r="F16" t="s">
-        <v>321</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>597</v>
+        <v>165</v>
       </c>
       <c r="H16">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
       </c>
       <c r="K16" t="s">
-        <v>598</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="P16" t="s">
         <v>35</v>
@@ -16071,7 +14718,7 @@
       <c r="AJ16" t="s">
         <v>389</v>
       </c>
-      <c r="AK16" s="51" t="s">
+      <c r="AK16" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL16">
@@ -16085,35 +14732,35 @@
       <c r="A17" t="s">
         <v>372</v>
       </c>
-      <c r="B17" s="52">
-        <v>44179</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>10101</v>
+      <c r="B17" s="48">
+        <v>43943</v>
+      </c>
+      <c r="C17" s="50">
+        <v>13</v>
+      </c>
+      <c r="D17" s="50">
+        <v>13301</v>
       </c>
       <c r="E17" t="s">
-        <v>448</v>
+        <v>149</v>
       </c>
       <c r="F17" t="s">
-        <v>321</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>616</v>
+        <v>172</v>
       </c>
       <c r="H17">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s">
-        <v>474</v>
+        <v>32</v>
       </c>
       <c r="K17" t="s">
-        <v>617</v>
+        <v>173</v>
       </c>
       <c r="M17" t="s">
-        <v>476</v>
+        <v>87</v>
       </c>
       <c r="P17" t="s">
         <v>35</v>
@@ -16154,7 +14801,7 @@
       <c r="AJ17" t="s">
         <v>390</v>
       </c>
-      <c r="AK17" s="51" t="s">
+      <c r="AK17" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL17">
@@ -16168,35 +14815,35 @@
       <c r="A18" t="s">
         <v>372</v>
       </c>
-      <c r="B18" s="52">
-        <v>44193</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>10107</v>
+      <c r="B18" s="48">
+        <v>43946</v>
+      </c>
+      <c r="C18" s="50">
+        <v>15</v>
+      </c>
+      <c r="D18" s="50">
+        <v>15101</v>
       </c>
       <c r="E18" t="s">
-        <v>659</v>
+        <v>178</v>
       </c>
       <c r="F18" t="s">
-        <v>321</v>
+        <v>179</v>
       </c>
       <c r="G18" t="s">
-        <v>660</v>
+        <v>180</v>
       </c>
       <c r="H18">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s">
-        <v>661</v>
+        <v>182</v>
       </c>
       <c r="M18" t="s">
-        <v>476</v>
+        <v>143</v>
       </c>
       <c r="P18" t="s">
         <v>35</v>
@@ -16237,7 +14884,7 @@
       <c r="AJ18" t="s">
         <v>394</v>
       </c>
-      <c r="AK18" s="51" t="s">
+      <c r="AK18" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL18">
@@ -16249,37 +14896,37 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="B19" s="48">
-        <v>44045</v>
+        <v>43948</v>
       </c>
       <c r="C19" s="50">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D19" s="50">
-        <v>10403</v>
+        <v>4101</v>
       </c>
       <c r="E19" t="s">
-        <v>378</v>
+        <v>186</v>
       </c>
       <c r="F19" t="s">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="G19" t="s">
-        <v>322</v>
+        <v>188</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I19" t="s">
         <v>32</v>
       </c>
       <c r="K19" t="s">
-        <v>323</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="P19" t="s">
         <v>35</v>
@@ -16329,7 +14976,7 @@
       <c r="AJ19" t="s">
         <v>395</v>
       </c>
-      <c r="AK19" s="51" t="s">
+      <c r="AK19" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL19">
@@ -16344,34 +14991,37 @@
         <v>372</v>
       </c>
       <c r="B20" s="48">
-        <v>43835</v>
+        <v>43972</v>
       </c>
       <c r="C20" s="50">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D20" s="50">
-        <v>14101</v>
+        <v>8102</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>30</v>
+        <v>196</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>380</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="H20">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="I20" t="s">
         <v>32</v>
       </c>
       <c r="K20" t="s">
-        <v>33</v>
+        <v>198</v>
+      </c>
+      <c r="L20" t="s">
+        <v>40</v>
       </c>
       <c r="M20" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="P20" t="s">
         <v>200</v>
@@ -16398,7 +15048,7 @@
       <c r="AJ20" t="s">
         <v>391</v>
       </c>
-      <c r="AK20" s="51" t="s">
+      <c r="AK20" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL20">
@@ -16412,35 +15062,35 @@
       <c r="A21" t="s">
         <v>372</v>
       </c>
-      <c r="B21" s="52">
-        <v>44136</v>
-      </c>
-      <c r="C21">
-        <v>14</v>
-      </c>
-      <c r="D21">
-        <v>1401</v>
+      <c r="B21" s="48">
+        <v>43981</v>
+      </c>
+      <c r="C21" s="50">
+        <v>5</v>
+      </c>
+      <c r="D21" s="50">
+        <v>5101</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="G21" t="s">
-        <v>540</v>
+        <v>204</v>
       </c>
       <c r="H21">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>474</v>
+        <v>32</v>
       </c>
       <c r="K21" t="s">
-        <v>541</v>
+        <v>205</v>
       </c>
       <c r="M21" t="s">
-        <v>522</v>
+        <v>34</v>
       </c>
       <c r="P21" t="s">
         <v>35</v>
@@ -16481,7 +15131,7 @@
       <c r="AJ21" t="s">
         <v>392</v>
       </c>
-      <c r="AK21" s="51" t="s">
+      <c r="AK21" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL21">
@@ -16495,35 +15145,35 @@
       <c r="A22" t="s">
         <v>372</v>
       </c>
-      <c r="B22" s="52">
-        <v>44138</v>
-      </c>
-      <c r="C22">
-        <v>14</v>
-      </c>
-      <c r="D22">
-        <v>14108</v>
+      <c r="B22" s="48">
+        <v>43985</v>
+      </c>
+      <c r="C22" s="50">
+        <v>7</v>
+      </c>
+      <c r="D22" s="50">
+        <v>7102</v>
       </c>
       <c r="E22" t="s">
-        <v>433</v>
+        <v>210</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
-        <v>559</v>
+        <v>211</v>
       </c>
       <c r="H22">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I22" t="s">
         <v>32</v>
       </c>
       <c r="K22" t="s">
-        <v>560</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="P22" t="s">
         <v>35</v>
@@ -16567,7 +15217,7 @@
       <c r="AJ22" t="s">
         <v>396</v>
       </c>
-      <c r="AK22" s="51" t="s">
+      <c r="AK22" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL22">
@@ -16579,40 +15229,37 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>327</v>
-      </c>
-      <c r="B23" s="52">
-        <v>44135</v>
-      </c>
-      <c r="C23">
-        <v>14</v>
-      </c>
-      <c r="D23">
-        <v>14101</v>
+        <v>372</v>
+      </c>
+      <c r="B23" s="48">
+        <v>43990</v>
+      </c>
+      <c r="C23" s="50">
+        <v>9</v>
+      </c>
+      <c r="D23" s="50">
+        <v>9211</v>
       </c>
       <c r="E23" t="s">
+        <v>217</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>379</v>
+      </c>
+      <c r="G23" t="s">
+        <v>219</v>
+      </c>
+      <c r="H23">
         <v>29</v>
       </c>
-      <c r="F23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" t="s">
-        <v>629</v>
-      </c>
-      <c r="H23">
-        <v>25</v>
-      </c>
       <c r="I23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K23" t="s">
-        <v>630</v>
-      </c>
-      <c r="L23" t="s">
-        <v>479</v>
+        <v>220</v>
       </c>
       <c r="M23" t="s">
-        <v>631</v>
+        <v>34</v>
       </c>
       <c r="P23" t="s">
         <v>35</v>
@@ -16651,7 +15298,7 @@
       <c r="AJ23" t="s">
         <v>397</v>
       </c>
-      <c r="AK23" s="51" t="s">
+      <c r="AK23" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL23">
@@ -16666,37 +15313,34 @@
         <v>372</v>
       </c>
       <c r="B24" s="48">
-        <v>43898</v>
+        <v>43996</v>
       </c>
       <c r="C24" s="50">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="50">
-        <v>12101</v>
+        <v>9103</v>
       </c>
       <c r="E24" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" t="s">
-        <v>132</v>
+        <v>224</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>379</v>
       </c>
       <c r="G24" t="s">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="H24">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
         <v>32</v>
       </c>
       <c r="K24" t="s">
-        <v>134</v>
-      </c>
-      <c r="L24" t="s">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="P24" t="s">
         <v>35</v>
@@ -16741,7 +15385,7 @@
       <c r="AJ24" t="s">
         <v>397</v>
       </c>
-      <c r="AK24" s="51" t="s">
+      <c r="AK24" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL24">
@@ -16756,34 +15400,34 @@
         <v>372</v>
       </c>
       <c r="B25" s="48">
-        <v>43843</v>
+        <v>44017</v>
       </c>
       <c r="C25" s="50">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" s="50">
-        <v>7404</v>
+        <v>8106</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" t="s">
-        <v>56</v>
+        <v>232</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>380</v>
       </c>
       <c r="G25" t="s">
-        <v>57</v>
+        <v>233</v>
       </c>
       <c r="H25">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I25" t="s">
         <v>32</v>
       </c>
       <c r="K25" t="s">
-        <v>58</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="P25" t="s">
         <v>35</v>
@@ -16822,7 +15466,7 @@
       <c r="AJ25" t="s">
         <v>391</v>
       </c>
-      <c r="AK25" s="51" t="s">
+      <c r="AK25" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL25">
@@ -16837,34 +15481,34 @@
         <v>372</v>
       </c>
       <c r="B26" s="48">
-        <v>43985</v>
+        <v>44017</v>
       </c>
       <c r="C26" s="50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="50">
-        <v>7102</v>
+        <v>6105</v>
       </c>
       <c r="E26" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="H26">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I26" t="s">
         <v>32</v>
       </c>
       <c r="K26" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="P26" t="s">
         <v>60</v>
@@ -16906,7 +15550,7 @@
       <c r="AJ26" t="s">
         <v>389</v>
       </c>
-      <c r="AK26" s="51" t="s">
+      <c r="AK26" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL26">
@@ -16921,40 +15565,34 @@
         <v>372</v>
       </c>
       <c r="B27" s="48">
-        <v>44065</v>
+        <v>44047</v>
       </c>
       <c r="C27" s="50">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D27" s="50">
-        <v>7401</v>
+        <v>13120</v>
       </c>
       <c r="E27" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="H27">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="K27" t="s">
-        <v>290</v>
-      </c>
-      <c r="L27" t="s">
-        <v>89</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s">
-        <v>291</v>
+        <v>34</v>
       </c>
       <c r="P27" t="s">
         <v>35</v>
@@ -16996,7 +15634,7 @@
       <c r="AJ27" t="s">
         <v>390</v>
       </c>
-      <c r="AK27" s="51" t="s">
+      <c r="AK27" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL27">
@@ -17010,38 +15648,35 @@
       <c r="A28" t="s">
         <v>372</v>
       </c>
-      <c r="B28" s="52">
-        <v>44096</v>
-      </c>
-      <c r="C28">
-        <v>7</v>
-      </c>
-      <c r="D28">
-        <v>7301</v>
+      <c r="B28" s="48">
+        <v>44049</v>
+      </c>
+      <c r="C28" s="50">
+        <v>5</v>
+      </c>
+      <c r="D28" s="50">
+        <v>5804</v>
       </c>
       <c r="E28" t="s">
-        <v>489</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="G28" t="s">
-        <v>490</v>
+        <v>254</v>
       </c>
       <c r="H28">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I28" t="s">
-        <v>474</v>
+        <v>32</v>
       </c>
       <c r="K28" t="s">
-        <v>491</v>
-      </c>
-      <c r="L28" t="s">
-        <v>479</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s">
-        <v>492</v>
+        <v>256</v>
       </c>
       <c r="P28" t="s">
         <v>60</v>
@@ -17083,7 +15718,7 @@
       <c r="AJ28" t="s">
         <v>392</v>
       </c>
-      <c r="AK28" s="51" t="s">
+      <c r="AK28" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL28">
@@ -17097,35 +15732,35 @@
       <c r="A29" t="s">
         <v>372</v>
       </c>
-      <c r="B29" s="52">
-        <v>44136</v>
-      </c>
-      <c r="C29">
-        <v>7</v>
-      </c>
-      <c r="D29">
-        <v>7201</v>
+      <c r="B29" s="48">
+        <v>44051</v>
+      </c>
+      <c r="C29" s="50">
+        <v>13</v>
+      </c>
+      <c r="D29" s="50">
+        <v>13101</v>
       </c>
       <c r="E29" t="s">
-        <v>545</v>
+        <v>263</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s">
-        <v>546</v>
+        <v>264</v>
       </c>
       <c r="H29">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I29" t="s">
-        <v>474</v>
+        <v>265</v>
       </c>
       <c r="K29" t="s">
-        <v>547</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s">
-        <v>484</v>
+        <v>143</v>
       </c>
       <c r="P29" t="s">
         <v>35</v>
@@ -17164,7 +15799,7 @@
       <c r="AJ29" t="s">
         <v>390</v>
       </c>
-      <c r="AK29" s="51" t="s">
+      <c r="AK29" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL29">
@@ -17178,35 +15813,35 @@
       <c r="A30" t="s">
         <v>372</v>
       </c>
-      <c r="B30" s="52">
-        <v>44136</v>
-      </c>
-      <c r="C30">
-        <v>7</v>
-      </c>
-      <c r="D30">
-        <v>7101</v>
+      <c r="B30" s="48">
+        <v>44051</v>
+      </c>
+      <c r="C30" s="50">
+        <v>13</v>
+      </c>
+      <c r="D30" s="50">
+        <v>13101</v>
       </c>
       <c r="E30" t="s">
-        <v>553</v>
+        <v>263</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s">
-        <v>554</v>
+        <v>274</v>
       </c>
       <c r="H30">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I30" t="s">
-        <v>32</v>
+        <v>265</v>
       </c>
       <c r="K30" t="s">
-        <v>555</v>
+        <v>275</v>
       </c>
       <c r="M30" t="s">
-        <v>34</v>
+        <v>276</v>
       </c>
       <c r="P30" t="s">
         <v>60</v>
@@ -17242,7 +15877,7 @@
       <c r="AJ30" t="s">
         <v>390</v>
       </c>
-      <c r="AK30" s="51" t="s">
+      <c r="AK30" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL30">
@@ -17256,35 +15891,32 @@
       <c r="A31" t="s">
         <v>372</v>
       </c>
-      <c r="B31" s="52">
-        <v>44177</v>
-      </c>
-      <c r="C31">
-        <v>7</v>
-      </c>
-      <c r="D31">
-        <v>7105</v>
+      <c r="B31" s="48">
+        <v>44052</v>
+      </c>
+      <c r="C31" s="50">
+        <v>13</v>
+      </c>
+      <c r="D31" s="50">
+        <v>13116</v>
       </c>
       <c r="E31" t="s">
-        <v>609</v>
+        <v>278</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s">
-        <v>611</v>
-      </c>
-      <c r="H31">
-        <v>36</v>
+        <v>279</v>
       </c>
       <c r="I31" t="s">
         <v>32</v>
       </c>
       <c r="K31" t="s">
-        <v>612</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s">
-        <v>34</v>
+        <v>281</v>
       </c>
       <c r="P31" t="s">
         <v>282</v>
@@ -17320,7 +15952,7 @@
       <c r="AJ31" t="s">
         <v>390</v>
       </c>
-      <c r="AK31" s="51" t="s">
+      <c r="AK31" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL31">
@@ -17335,34 +15967,40 @@
         <v>372</v>
       </c>
       <c r="B32" s="48">
-        <v>43878</v>
+        <v>44065</v>
       </c>
       <c r="C32" s="50">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D32" s="50">
-        <v>13119</v>
+        <v>7401</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>287</v>
       </c>
       <c r="F32" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="H32">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I32" t="s">
         <v>32</v>
       </c>
+      <c r="J32" t="s">
+        <v>289</v>
+      </c>
       <c r="K32" t="s">
-        <v>77</v>
+        <v>290</v>
+      </c>
+      <c r="L32" t="s">
+        <v>89</v>
       </c>
       <c r="M32" t="s">
-        <v>34</v>
+        <v>291</v>
       </c>
       <c r="P32" t="s">
         <v>35</v>
@@ -17404,7 +16042,7 @@
       <c r="AJ32" t="s">
         <v>396</v>
       </c>
-      <c r="AK32" s="51" t="s">
+      <c r="AK32" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL32">
@@ -17419,31 +16057,28 @@
         <v>372</v>
       </c>
       <c r="B33" s="48">
-        <v>43906</v>
+        <v>44079</v>
       </c>
       <c r="C33" s="50">
         <v>13</v>
       </c>
       <c r="D33" s="50">
-        <v>13301</v>
+        <v>13112</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>299</v>
       </c>
       <c r="F33" t="s">
         <v>75</v>
       </c>
       <c r="G33" t="s">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H33">
-        <v>24</v>
-      </c>
-      <c r="I33" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="K33" t="s">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="M33" t="s">
         <v>34</v>
@@ -17476,7 +16111,7 @@
       <c r="AJ33" t="s">
         <v>390</v>
       </c>
-      <c r="AK33" s="51" t="s">
+      <c r="AK33" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL33">
@@ -17488,37 +16123,37 @@
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="B34" s="48">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="C34" s="50">
         <v>13</v>
       </c>
       <c r="D34" s="50">
-        <v>13301</v>
-      </c>
-      <c r="E34" t="s">
-        <v>149</v>
+        <v>13502</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>376</v>
       </c>
       <c r="F34" t="s">
         <v>75</v>
       </c>
       <c r="G34" t="s">
-        <v>172</v>
+        <v>308</v>
       </c>
       <c r="H34">
-        <v>38</v>
-      </c>
-      <c r="I34" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="J34" t="s">
+        <v>309</v>
       </c>
       <c r="K34" t="s">
-        <v>173</v>
+        <v>310</v>
       </c>
       <c r="M34" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="P34" t="s">
         <v>311</v>
@@ -17545,7 +16180,7 @@
       <c r="AJ34" t="s">
         <v>390</v>
       </c>
-      <c r="AK34" s="51" t="s">
+      <c r="AK34" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL34">
@@ -17557,37 +16192,40 @@
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="B35" s="48">
-        <v>44047</v>
+        <v>44010</v>
       </c>
       <c r="C35" s="50">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D35" s="50">
-        <v>13120</v>
+        <v>4106</v>
       </c>
       <c r="E35" t="s">
-        <v>246</v>
+        <v>314</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="G35" t="s">
-        <v>247</v>
+        <v>315</v>
       </c>
       <c r="H35">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I35" t="s">
-        <v>248</v>
+        <v>32</v>
       </c>
       <c r="K35" t="s">
-        <v>249</v>
+        <v>316</v>
+      </c>
+      <c r="L35" t="s">
+        <v>89</v>
       </c>
       <c r="M35" t="s">
-        <v>34</v>
+        <v>281</v>
       </c>
       <c r="P35" t="s">
         <v>311</v>
@@ -17620,7 +16258,7 @@
       <c r="AJ35" t="s">
         <v>395</v>
       </c>
-      <c r="AK35" s="51" t="s">
+      <c r="AK35" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL35">
@@ -17632,37 +16270,37 @@
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="B36" s="48">
-        <v>44051</v>
+        <v>44045</v>
       </c>
       <c r="C36" s="50">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D36" s="50">
-        <v>13101</v>
+        <v>10403</v>
       </c>
       <c r="E36" t="s">
-        <v>263</v>
+        <v>378</v>
       </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>321</v>
       </c>
       <c r="G36" t="s">
-        <v>264</v>
+        <v>322</v>
       </c>
       <c r="H36">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="K36" t="s">
-        <v>266</v>
+        <v>323</v>
       </c>
       <c r="M36" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="P36" t="s">
         <v>311</v>
@@ -17692,7 +16330,7 @@
       <c r="AJ36" t="s">
         <v>400</v>
       </c>
-      <c r="AK36" s="51" t="s">
+      <c r="AK36" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL36">
@@ -17704,37 +16342,37 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="B37" s="48">
-        <v>44051</v>
+        <v>43870</v>
       </c>
       <c r="C37" s="50">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D37" s="50">
-        <v>13101</v>
+        <v>6306</v>
       </c>
       <c r="E37" t="s">
-        <v>263</v>
+        <v>328</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="G37" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="H37">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="I37" t="s">
-        <v>265</v>
+        <v>37</v>
       </c>
       <c r="K37" t="s">
-        <v>275</v>
+        <v>330</v>
       </c>
       <c r="M37" t="s">
-        <v>276</v>
+        <v>331</v>
       </c>
       <c r="P37" t="s">
         <v>332</v>
@@ -17767,7 +16405,7 @@
       <c r="AJ37" t="s">
         <v>389</v>
       </c>
-      <c r="AK37" s="51" t="s">
+      <c r="AK37" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL37">
@@ -17779,34 +16417,34 @@
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="B38" s="48">
-        <v>44052</v>
+        <v>43883</v>
       </c>
       <c r="C38" s="50">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D38" s="50">
-        <v>13116</v>
+        <v>5804</v>
       </c>
       <c r="E38" t="s">
-        <v>278</v>
+        <v>97</v>
       </c>
       <c r="F38" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="G38" t="s">
-        <v>279</v>
-      </c>
-      <c r="I38" t="s">
-        <v>32</v>
+        <v>336</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="M38" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="P38" t="s">
         <v>338</v>
@@ -17830,7 +16468,7 @@
       <c r="AJ38" t="s">
         <v>392</v>
       </c>
-      <c r="AK38" s="51" t="s">
+      <c r="AK38" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL38">
@@ -17842,34 +16480,34 @@
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="B39" s="48">
-        <v>44079</v>
+        <v>43883</v>
       </c>
       <c r="C39" s="50">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D39" s="50">
-        <v>13112</v>
+        <v>5804</v>
       </c>
       <c r="E39" t="s">
-        <v>299</v>
+        <v>97</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="G39" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="H39">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="K39" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="M39" t="s">
-        <v>34</v>
+        <v>331</v>
       </c>
       <c r="P39" t="s">
         <v>338</v>
@@ -17893,7 +16531,7 @@
       <c r="AJ39" t="s">
         <v>392</v>
       </c>
-      <c r="AK39" s="51" t="s">
+      <c r="AK39" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL39">
@@ -17905,37 +16543,37 @@
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>372</v>
-      </c>
-      <c r="B40" s="52">
-        <v>44082</v>
-      </c>
-      <c r="C40">
-        <v>13</v>
-      </c>
-      <c r="D40">
-        <v>13302</v>
+        <v>327</v>
+      </c>
+      <c r="B40" s="48">
+        <v>43910</v>
+      </c>
+      <c r="C40" s="50">
+        <v>3</v>
+      </c>
+      <c r="D40" s="50">
+        <v>3202</v>
       </c>
       <c r="E40" t="s">
-        <v>457</v>
+        <v>157</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="G40" t="s">
-        <v>458</v>
+        <v>342</v>
       </c>
       <c r="H40">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="I40" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K40" t="s">
-        <v>459</v>
+        <v>343</v>
       </c>
       <c r="M40" t="s">
-        <v>143</v>
+        <v>344</v>
       </c>
       <c r="P40" t="s">
         <v>338</v>
@@ -17962,7 +16600,7 @@
       <c r="AJ40" t="s">
         <v>393</v>
       </c>
-      <c r="AK40" s="51" t="s">
+      <c r="AK40" s="53" t="s">
         <v>401</v>
       </c>
       <c r="AL40">
@@ -17976,41 +16614,35 @@
       <c r="A41" t="s">
         <v>372</v>
       </c>
-      <c r="B41" s="52">
-        <v>44149</v>
+      <c r="B41" s="56">
+        <v>44082</v>
       </c>
       <c r="C41">
         <v>13</v>
       </c>
       <c r="D41">
-        <v>13401</v>
+        <v>13302</v>
       </c>
       <c r="E41" t="s">
-        <v>565</v>
+        <v>457</v>
       </c>
       <c r="F41" t="s">
         <v>75</v>
       </c>
       <c r="G41" t="s">
-        <v>566</v>
+        <v>458</v>
       </c>
       <c r="H41">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I41" t="s">
         <v>32</v>
       </c>
-      <c r="J41" t="s">
-        <v>567</v>
-      </c>
       <c r="K41" t="s">
-        <v>568</v>
-      </c>
-      <c r="L41" t="s">
-        <v>569</v>
+        <v>459</v>
       </c>
       <c r="M41" t="s">
-        <v>476</v>
+        <v>143</v>
       </c>
       <c r="P41" t="s">
         <v>35</v>
@@ -18047,32 +16679,29 @@
       <c r="A42" t="s">
         <v>372</v>
       </c>
-      <c r="B42" s="52">
-        <v>44170</v>
+      <c r="B42" s="56">
+        <v>44082</v>
       </c>
       <c r="C42">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D42">
-        <v>13122</v>
+        <v>5109</v>
       </c>
       <c r="E42" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="F42" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="G42" t="s">
-        <v>603</v>
+        <v>465</v>
       </c>
       <c r="H42">
-        <v>28</v>
-      </c>
-      <c r="I42" t="s">
-        <v>474</v>
+        <v>46</v>
       </c>
       <c r="K42" t="s">
-        <v>604</v>
+        <v>466</v>
       </c>
       <c r="M42" t="s">
         <v>34</v>
@@ -18107,40 +16736,37 @@
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>372</v>
-      </c>
-      <c r="B43" s="52">
-        <v>44188</v>
+        <v>471</v>
+      </c>
+      <c r="B43" s="56">
+        <v>44088</v>
       </c>
       <c r="C43">
         <v>13</v>
       </c>
       <c r="D43">
-        <v>13101</v>
+        <v>13125</v>
       </c>
       <c r="E43" t="s">
-        <v>263</v>
+        <v>472</v>
       </c>
       <c r="F43" t="s">
         <v>75</v>
       </c>
       <c r="G43" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="H43">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I43" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" t="s">
-        <v>637</v>
+        <v>474</v>
       </c>
       <c r="K43" t="s">
-        <v>638</v>
+        <v>475</v>
       </c>
       <c r="M43" t="s">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="P43" t="s">
         <v>60</v>
@@ -18186,7 +16812,7 @@
       <c r="A44" t="s">
         <v>471</v>
       </c>
-      <c r="B44" s="52">
+      <c r="B44" s="56">
         <v>44088</v>
       </c>
       <c r="C44">
@@ -18202,19 +16828,22 @@
         <v>75</v>
       </c>
       <c r="G44" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="H44">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I44" t="s">
-        <v>474</v>
+        <v>32</v>
       </c>
       <c r="K44" t="s">
-        <v>475</v>
+        <v>483</v>
+      </c>
+      <c r="L44" t="s">
+        <v>135</v>
       </c>
       <c r="M44" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="P44" t="s">
         <v>60</v>
@@ -18258,40 +16887,40 @@
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>471</v>
-      </c>
-      <c r="B45" s="52">
-        <v>44088</v>
+        <v>372</v>
+      </c>
+      <c r="B45" s="56">
+        <v>44096</v>
       </c>
       <c r="C45">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D45">
-        <v>13125</v>
+        <v>7301</v>
       </c>
       <c r="E45" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="F45" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="G45" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="H45">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I45" t="s">
-        <v>32</v>
+        <v>474</v>
       </c>
       <c r="K45" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="L45" t="s">
-        <v>135</v>
+        <v>479</v>
       </c>
       <c r="M45" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="P45" t="s">
         <v>137</v>
@@ -18329,37 +16958,37 @@
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>306</v>
-      </c>
-      <c r="B46" s="48">
-        <v>43941</v>
-      </c>
-      <c r="C46" s="50">
-        <v>13</v>
-      </c>
-      <c r="D46" s="50">
-        <v>13502</v>
-      </c>
-      <c r="E46" s="49" t="s">
-        <v>376</v>
+        <v>372</v>
+      </c>
+      <c r="B46" s="56">
+        <v>44105</v>
+      </c>
+      <c r="C46">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>11101</v>
+      </c>
+      <c r="E46" t="s">
+        <v>497</v>
       </c>
       <c r="F46" t="s">
-        <v>75</v>
+        <v>498</v>
       </c>
       <c r="G46" t="s">
-        <v>308</v>
+        <v>499</v>
       </c>
       <c r="H46">
-        <v>34</v>
-      </c>
-      <c r="J46" t="s">
-        <v>309</v>
+        <v>21</v>
       </c>
       <c r="K46" t="s">
-        <v>310</v>
+        <v>500</v>
+      </c>
+      <c r="L46" t="s">
+        <v>479</v>
       </c>
       <c r="M46" t="s">
-        <v>34</v>
+        <v>501</v>
       </c>
       <c r="P46" t="s">
         <v>60</v>
@@ -18402,35 +17031,32 @@
       <c r="A47" t="s">
         <v>372</v>
       </c>
-      <c r="B47" s="52">
-        <v>44150</v>
+      <c r="B47" s="56">
+        <v>44110</v>
       </c>
       <c r="C47">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D47">
-        <v>13130</v>
+        <v>16205</v>
       </c>
       <c r="E47" t="s">
-        <v>575</v>
+        <v>508</v>
       </c>
       <c r="F47" t="s">
-        <v>75</v>
+        <v>415</v>
       </c>
       <c r="G47" t="s">
-        <v>577</v>
+        <v>509</v>
       </c>
       <c r="H47">
-        <v>52</v>
-      </c>
-      <c r="I47" t="s">
-        <v>474</v>
+        <v>42</v>
       </c>
       <c r="K47" t="s">
-        <v>578</v>
+        <v>510</v>
       </c>
       <c r="M47" t="s">
-        <v>34</v>
+        <v>511</v>
       </c>
       <c r="P47" t="s">
         <v>512</v>
@@ -18476,32 +17102,35 @@
       <c r="A48" t="s">
         <v>372</v>
       </c>
-      <c r="B48" s="52">
-        <v>44110</v>
+      <c r="B48" s="56">
+        <v>44115</v>
       </c>
       <c r="C48">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D48">
-        <v>16205</v>
+        <v>3101</v>
       </c>
       <c r="E48" t="s">
-        <v>508</v>
+        <v>419</v>
       </c>
       <c r="F48" t="s">
-        <v>415</v>
+        <v>158</v>
       </c>
       <c r="G48" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="H48">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="I48" t="s">
+        <v>520</v>
       </c>
       <c r="K48" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="M48" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="P48" t="s">
         <v>512</v>
@@ -18547,35 +17176,38 @@
       <c r="A49" t="s">
         <v>372</v>
       </c>
-      <c r="B49" s="48">
-        <v>43840</v>
-      </c>
-      <c r="C49" s="50">
-        <v>6</v>
-      </c>
-      <c r="D49" s="50">
-        <v>6116</v>
+      <c r="B49" s="57">
+        <v>44120</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>5101</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
-      </c>
-      <c r="F49" s="59" t="s">
-        <v>47</v>
+        <v>98</v>
+      </c>
+      <c r="F49" t="s">
+        <v>98</v>
       </c>
       <c r="G49" t="s">
-        <v>48</v>
+        <v>527</v>
       </c>
       <c r="H49">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="I49" t="s">
-        <v>32</v>
+        <v>474</v>
       </c>
       <c r="K49" t="s">
-        <v>49</v>
+        <v>528</v>
+      </c>
+      <c r="L49" t="s">
+        <v>479</v>
       </c>
       <c r="M49" t="s">
-        <v>34</v>
+        <v>529</v>
       </c>
       <c r="P49" t="s">
         <v>530</v>
@@ -18616,37 +17248,37 @@
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>372</v>
-      </c>
-      <c r="B50" s="48">
-        <v>43860</v>
-      </c>
-      <c r="C50" s="50">
-        <v>6</v>
-      </c>
-      <c r="D50" s="50">
-        <v>6115</v>
+        <v>471</v>
+      </c>
+      <c r="B50" s="56">
+        <v>44124</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2201</v>
       </c>
       <c r="E50" t="s">
-        <v>67</v>
-      </c>
-      <c r="F50" s="59" t="s">
-        <v>47</v>
+        <v>422</v>
+      </c>
+      <c r="F50" t="s">
+        <v>423</v>
       </c>
       <c r="G50" t="s">
-        <v>68</v>
+        <v>534</v>
       </c>
       <c r="H50">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I50" t="s">
-        <v>32</v>
+        <v>535</v>
       </c>
       <c r="K50" t="s">
-        <v>69</v>
+        <v>536</v>
       </c>
       <c r="M50" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="P50" t="s">
         <v>512</v>
@@ -18683,35 +17315,35 @@
       <c r="A51" t="s">
         <v>372</v>
       </c>
-      <c r="B51" s="48">
-        <v>43887</v>
-      </c>
-      <c r="C51" s="50">
-        <v>6</v>
-      </c>
-      <c r="D51" s="50">
-        <v>6115</v>
+      <c r="B51" s="56">
+        <v>44136</v>
+      </c>
+      <c r="C51">
+        <v>14</v>
+      </c>
+      <c r="D51">
+        <v>1401</v>
       </c>
       <c r="E51" t="s">
-        <v>67</v>
-      </c>
-      <c r="F51" s="59" t="s">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="F51" t="s">
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>106</v>
+        <v>540</v>
       </c>
       <c r="H51">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I51" t="s">
-        <v>32</v>
+        <v>474</v>
       </c>
       <c r="K51" t="s">
-        <v>107</v>
+        <v>541</v>
       </c>
       <c r="M51" t="s">
-        <v>108</v>
+        <v>522</v>
       </c>
       <c r="P51" t="s">
         <v>512</v>
@@ -18754,35 +17386,35 @@
       <c r="A52" t="s">
         <v>372</v>
       </c>
-      <c r="B52" s="48">
-        <v>43905</v>
-      </c>
-      <c r="C52" s="50">
-        <v>6</v>
-      </c>
-      <c r="D52" s="50">
-        <v>6117</v>
-      </c>
-      <c r="E52" s="49" t="s">
-        <v>377</v>
-      </c>
-      <c r="F52" s="59" t="s">
-        <v>47</v>
+      <c r="B52" s="56">
+        <v>44136</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>7201</v>
+      </c>
+      <c r="E52" t="s">
+        <v>545</v>
+      </c>
+      <c r="F52" t="s">
+        <v>56</v>
       </c>
       <c r="G52" t="s">
-        <v>141</v>
+        <v>546</v>
       </c>
       <c r="H52">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I52" t="s">
-        <v>32</v>
+        <v>474</v>
       </c>
       <c r="K52" t="s">
-        <v>142</v>
+        <v>547</v>
       </c>
       <c r="M52" t="s">
-        <v>143</v>
+        <v>484</v>
       </c>
       <c r="P52" t="s">
         <v>530</v>
@@ -18825,35 +17457,35 @@
       <c r="A53" t="s">
         <v>372</v>
       </c>
-      <c r="B53" s="48">
-        <v>43932</v>
-      </c>
-      <c r="C53" s="50">
-        <v>6</v>
-      </c>
-      <c r="D53" s="50">
-        <v>6205</v>
+      <c r="B53" s="56">
+        <v>44136</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>7101</v>
       </c>
       <c r="E53" t="s">
-        <v>164</v>
-      </c>
-      <c r="F53" s="59" t="s">
-        <v>47</v>
+        <v>553</v>
+      </c>
+      <c r="F53" t="s">
+        <v>56</v>
       </c>
       <c r="G53" t="s">
-        <v>165</v>
+        <v>554</v>
       </c>
       <c r="H53">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
         <v>32</v>
       </c>
       <c r="K53" t="s">
-        <v>166</v>
+        <v>555</v>
       </c>
       <c r="M53" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="P53" t="s">
         <v>35</v>
@@ -18893,35 +17525,35 @@
       <c r="A54" t="s">
         <v>372</v>
       </c>
-      <c r="B54" s="48">
-        <v>44017</v>
-      </c>
-      <c r="C54" s="50">
-        <v>6</v>
-      </c>
-      <c r="D54" s="50">
-        <v>6105</v>
+      <c r="B54" s="56">
+        <v>44138</v>
+      </c>
+      <c r="C54">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>14108</v>
       </c>
       <c r="E54" t="s">
-        <v>238</v>
-      </c>
-      <c r="F54" s="59" t="s">
-        <v>47</v>
+        <v>433</v>
+      </c>
+      <c r="F54" t="s">
+        <v>430</v>
       </c>
       <c r="G54" t="s">
-        <v>239</v>
+        <v>559</v>
       </c>
       <c r="H54">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I54" t="s">
         <v>32</v>
       </c>
       <c r="K54" t="s">
-        <v>240</v>
+        <v>560</v>
       </c>
       <c r="M54" t="s">
-        <v>241</v>
+        <v>34</v>
       </c>
       <c r="P54" t="s">
         <v>35</v>
@@ -18962,37 +17594,43 @@
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>327</v>
-      </c>
-      <c r="B55" s="48">
-        <v>43870</v>
-      </c>
-      <c r="C55" s="50">
-        <v>6</v>
-      </c>
-      <c r="D55" s="50">
-        <v>6306</v>
+        <v>372</v>
+      </c>
+      <c r="B55" s="56">
+        <v>44149</v>
+      </c>
+      <c r="C55">
+        <v>13</v>
+      </c>
+      <c r="D55">
+        <v>13401</v>
       </c>
       <c r="E55" t="s">
-        <v>328</v>
-      </c>
-      <c r="F55" s="59" t="s">
-        <v>47</v>
+        <v>565</v>
+      </c>
+      <c r="F55" t="s">
+        <v>75</v>
       </c>
       <c r="G55" t="s">
-        <v>329</v>
+        <v>566</v>
       </c>
       <c r="H55">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="I55" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="J55" t="s">
+        <v>567</v>
       </c>
       <c r="K55" t="s">
-        <v>330</v>
+        <v>568</v>
+      </c>
+      <c r="L55" t="s">
+        <v>569</v>
       </c>
       <c r="M55" t="s">
-        <v>331</v>
+        <v>476</v>
       </c>
       <c r="P55" t="s">
         <v>530</v>
@@ -19038,35 +17676,35 @@
       <c r="A56" t="s">
         <v>372</v>
       </c>
-      <c r="B56" s="48">
-        <v>43890</v>
-      </c>
-      <c r="C56" s="50">
-        <v>1</v>
-      </c>
-      <c r="D56" s="50">
-        <v>1107</v>
+      <c r="B56" s="56">
+        <v>44150</v>
+      </c>
+      <c r="C56">
+        <v>13</v>
+      </c>
+      <c r="D56">
+        <v>13130</v>
       </c>
       <c r="E56" t="s">
-        <v>112</v>
+        <v>575</v>
       </c>
       <c r="F56" t="s">
-        <v>113</v>
+        <v>576</v>
       </c>
       <c r="G56" t="s">
-        <v>114</v>
+        <v>577</v>
       </c>
       <c r="H56">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I56" t="s">
-        <v>32</v>
+        <v>474</v>
       </c>
       <c r="K56" t="s">
-        <v>115</v>
+        <v>578</v>
       </c>
       <c r="M56" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="P56" t="s">
         <v>35</v>
@@ -19115,32 +17753,35 @@
       <c r="A57" t="s">
         <v>372</v>
       </c>
-      <c r="B57" s="48">
-        <v>43883</v>
-      </c>
-      <c r="C57" s="50">
+      <c r="B57" s="56">
+        <v>44155</v>
+      </c>
+      <c r="C57">
         <v>5</v>
       </c>
-      <c r="D57" s="50">
-        <v>5804</v>
+      <c r="D57">
+        <v>5701</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>585</v>
       </c>
       <c r="F57" t="s">
-        <v>98</v>
+        <v>406</v>
       </c>
       <c r="G57" t="s">
-        <v>99</v>
+        <v>586</v>
       </c>
       <c r="H57">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I57" t="s">
         <v>32</v>
       </c>
+      <c r="J57" t="s">
+        <v>587</v>
+      </c>
       <c r="K57" t="s">
-        <v>100</v>
+        <v>588</v>
       </c>
       <c r="M57" t="s">
         <v>87</v>
@@ -19186,38 +17827,32 @@
       <c r="A58" t="s">
         <v>372</v>
       </c>
-      <c r="B58" s="48">
-        <v>43895</v>
-      </c>
-      <c r="C58" s="50">
+      <c r="B58" s="56">
+        <v>44157</v>
+      </c>
+      <c r="C58">
         <v>5</v>
       </c>
-      <c r="D58" s="50">
-        <v>5301</v>
+      <c r="D58">
+        <v>5101</v>
       </c>
       <c r="E58" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="F58" t="s">
         <v>98</v>
       </c>
       <c r="G58" t="s">
-        <v>124</v>
+        <v>593</v>
       </c>
       <c r="H58">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I58" t="s">
         <v>32</v>
       </c>
-      <c r="J58" t="s">
-        <v>125</v>
-      </c>
       <c r="K58" t="s">
-        <v>126</v>
-      </c>
-      <c r="L58" t="s">
-        <v>40</v>
+        <v>594</v>
       </c>
       <c r="M58" t="s">
         <v>34</v>
@@ -19260,32 +17895,32 @@
       <c r="A59" t="s">
         <v>372</v>
       </c>
-      <c r="B59" s="48">
-        <v>43981</v>
-      </c>
-      <c r="C59" s="50">
-        <v>5</v>
-      </c>
-      <c r="D59" s="50">
-        <v>5101</v>
+      <c r="B59" s="56">
+        <v>44163</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>10101</v>
       </c>
       <c r="E59" t="s">
-        <v>98</v>
+        <v>448</v>
       </c>
       <c r="F59" t="s">
-        <v>98</v>
+        <v>321</v>
       </c>
       <c r="G59" t="s">
-        <v>204</v>
+        <v>597</v>
       </c>
       <c r="H59">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I59" t="s">
         <v>32</v>
       </c>
       <c r="K59" t="s">
-        <v>205</v>
+        <v>598</v>
       </c>
       <c r="M59" t="s">
         <v>34</v>
@@ -19334,35 +17969,35 @@
       <c r="A60" t="s">
         <v>372</v>
       </c>
-      <c r="B60" s="48">
-        <v>44049</v>
-      </c>
-      <c r="C60" s="50">
-        <v>5</v>
-      </c>
-      <c r="D60" s="50">
-        <v>5804</v>
+      <c r="B60" s="56">
+        <v>44170</v>
+      </c>
+      <c r="C60">
+        <v>13</v>
+      </c>
+      <c r="D60">
+        <v>13122</v>
       </c>
       <c r="E60" t="s">
-        <v>97</v>
+        <v>440</v>
       </c>
       <c r="F60" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="G60" t="s">
-        <v>254</v>
+        <v>603</v>
       </c>
       <c r="H60">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I60" t="s">
-        <v>32</v>
+        <v>474</v>
       </c>
       <c r="K60" t="s">
-        <v>255</v>
+        <v>604</v>
       </c>
       <c r="M60" t="s">
-        <v>256</v>
+        <v>34</v>
       </c>
       <c r="P60" t="s">
         <v>35</v>
@@ -19402,29 +18037,32 @@
       <c r="A61" t="s">
         <v>372</v>
       </c>
-      <c r="B61" s="52">
-        <v>44082</v>
+      <c r="B61" s="56">
+        <v>44177</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D61">
-        <v>5109</v>
+        <v>7105</v>
       </c>
       <c r="E61" t="s">
-        <v>405</v>
+        <v>609</v>
       </c>
       <c r="F61" t="s">
-        <v>98</v>
+        <v>610</v>
       </c>
       <c r="G61" t="s">
-        <v>465</v>
+        <v>611</v>
       </c>
       <c r="H61">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="I61" t="s">
+        <v>32</v>
       </c>
       <c r="K61" t="s">
-        <v>466</v>
+        <v>612</v>
       </c>
       <c r="M61" t="s">
         <v>34</v>
@@ -19467,38 +18105,35 @@
       <c r="A62" t="s">
         <v>372</v>
       </c>
-      <c r="B62" s="53">
-        <v>44120</v>
+      <c r="B62" s="56">
+        <v>44179</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D62">
-        <v>5101</v>
+        <v>10101</v>
       </c>
       <c r="E62" t="s">
-        <v>98</v>
+        <v>448</v>
       </c>
       <c r="F62" t="s">
-        <v>98</v>
+        <v>321</v>
       </c>
       <c r="G62" t="s">
-        <v>527</v>
+        <v>616</v>
       </c>
       <c r="H62">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I62" t="s">
         <v>474</v>
       </c>
       <c r="K62" t="s">
-        <v>528</v>
-      </c>
-      <c r="L62" t="s">
-        <v>479</v>
+        <v>617</v>
       </c>
       <c r="M62" t="s">
-        <v>529</v>
+        <v>476</v>
       </c>
       <c r="P62" t="s">
         <v>530</v>
@@ -19544,35 +18179,35 @@
       <c r="A63" t="s">
         <v>372</v>
       </c>
-      <c r="B63" s="52">
-        <v>44157</v>
+      <c r="B63" s="56">
+        <v>44180</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D63">
-        <v>5101</v>
+        <v>8108</v>
       </c>
       <c r="E63" t="s">
-        <v>98</v>
+        <v>621</v>
       </c>
       <c r="F63" t="s">
-        <v>98</v>
+        <v>622</v>
       </c>
       <c r="G63" t="s">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="H63">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="I63" t="s">
-        <v>32</v>
+        <v>474</v>
       </c>
       <c r="K63" t="s">
-        <v>594</v>
+        <v>624</v>
       </c>
       <c r="M63" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="P63" t="s">
         <v>35</v>
@@ -19616,40 +18251,40 @@
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>372</v>
-      </c>
-      <c r="B64" s="52">
-        <v>44189</v>
+        <v>327</v>
+      </c>
+      <c r="B64" s="56">
+        <v>44135</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D64">
-        <v>5109</v>
+        <v>14101</v>
       </c>
       <c r="E64" t="s">
-        <v>405</v>
+        <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>98</v>
+        <v>430</v>
       </c>
       <c r="G64" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="H64">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I64" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K64" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="L64" t="s">
-        <v>135</v>
+        <v>479</v>
       </c>
       <c r="M64" t="s">
-        <v>87</v>
+        <v>631</v>
       </c>
       <c r="P64" t="s">
         <v>632</v>
@@ -19692,32 +18327,38 @@
       <c r="A65" t="s">
         <v>372</v>
       </c>
-      <c r="B65" s="52">
-        <v>44189</v>
+      <c r="B65" s="56">
+        <v>44188</v>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D65">
-        <v>5502</v>
+        <v>13101</v>
       </c>
       <c r="E65" t="s">
-        <v>652</v>
+        <v>263</v>
       </c>
       <c r="F65" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="G65" t="s">
-        <v>653</v>
+        <v>455</v>
       </c>
       <c r="H65">
-        <v>46</v>
+        <v>22</v>
+      </c>
+      <c r="I65" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" t="s">
+        <v>637</v>
       </c>
       <c r="K65" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="M65" t="s">
-        <v>34</v>
+        <v>511</v>
       </c>
       <c r="P65" t="s">
         <v>35</v>
@@ -19761,34 +18402,40 @@
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>327</v>
-      </c>
-      <c r="B66" s="48">
-        <v>43883</v>
-      </c>
-      <c r="C66" s="50">
+        <v>372</v>
+      </c>
+      <c r="B66" s="56">
+        <v>44189</v>
+      </c>
+      <c r="C66">
         <v>5</v>
       </c>
-      <c r="D66" s="50">
-        <v>5804</v>
+      <c r="D66">
+        <v>5109</v>
       </c>
       <c r="E66" t="s">
-        <v>97</v>
+        <v>405</v>
       </c>
       <c r="F66" t="s">
         <v>98</v>
       </c>
       <c r="G66" t="s">
-        <v>336</v>
+        <v>645</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="I66" t="s">
+        <v>32</v>
       </c>
       <c r="K66" t="s">
-        <v>337</v>
+        <v>646</v>
+      </c>
+      <c r="L66" t="s">
+        <v>135</v>
       </c>
       <c r="M66" t="s">
-        <v>331</v>
+        <v>87</v>
       </c>
       <c r="P66" t="s">
         <v>35</v>
@@ -19835,34 +18482,34 @@
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>327</v>
-      </c>
-      <c r="B67" s="48">
-        <v>43883</v>
-      </c>
-      <c r="C67" s="50">
+        <v>372</v>
+      </c>
+      <c r="B67" s="56">
+        <v>44189</v>
+      </c>
+      <c r="C67">
         <v>5</v>
       </c>
-      <c r="D67" s="50">
-        <v>5804</v>
+      <c r="D67">
+        <v>5502</v>
       </c>
       <c r="E67" t="s">
-        <v>97</v>
+        <v>652</v>
       </c>
       <c r="F67" t="s">
         <v>98</v>
       </c>
       <c r="G67" t="s">
-        <v>340</v>
+        <v>653</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="K67" t="s">
-        <v>341</v>
+        <v>654</v>
       </c>
       <c r="M67" t="s">
-        <v>331</v>
+        <v>34</v>
       </c>
       <c r="P67" t="s">
         <v>35</v>
@@ -19905,38 +18552,35 @@
       <c r="A68" t="s">
         <v>372</v>
       </c>
-      <c r="B68" s="52">
-        <v>44155</v>
+      <c r="B68" s="56">
+        <v>44193</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D68">
-        <v>5701</v>
+        <v>10107</v>
       </c>
       <c r="E68" t="s">
-        <v>585</v>
+        <v>659</v>
       </c>
       <c r="F68" t="s">
-        <v>98</v>
+        <v>321</v>
       </c>
       <c r="G68" t="s">
-        <v>586</v>
+        <v>660</v>
       </c>
       <c r="H68">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="I68" t="s">
         <v>32</v>
       </c>
-      <c r="J68" t="s">
-        <v>587</v>
-      </c>
       <c r="K68" t="s">
-        <v>588</v>
+        <v>661</v>
       </c>
       <c r="M68" t="s">
-        <v>87</v>
+        <v>476</v>
       </c>
       <c r="P68" t="s">
         <v>60</v>
@@ -19976,9 +18620,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M68">
-    <sortCondition ref="F2:F68"/>
-  </sortState>
   <hyperlinks>
     <hyperlink ref="AK2" r:id="rId1" xr:uid="{B452CC8E-E69F-4969-93E3-3E1D8738E19E}"/>
     <hyperlink ref="AK3:AK40" r:id="rId2" display="https://www.agenciainformativaudem.com/wp-content/uploads/2017/10/Asset-15.png" xr:uid="{EFEC0E8B-7E2B-4106-92F4-EE199DF97763}"/>
@@ -19987,7 +18628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4600B6F2-BF33-4125-91E8-8A44BB4B67A1}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>

--- a/Femicidios 2020.xlsx
+++ b/Femicidios 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-RIESGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92640036-D2DF-4173-AF97-782195A3679D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE046A73-9178-400F-A830-5255509AB3B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FEMICIDIOS 2020" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,7 @@
     <sheet name="RED" sheetId="4" r:id="rId3"/>
     <sheet name="MINMUJER" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -2460,15 +2450,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12686,7 +12676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D2F743-D653-482D-A9CF-63545896FD5D}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -12721,12 +12711,12 @@
       <c r="G1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="56" t="s">
         <v>371</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31">
@@ -13325,8 +13315,8 @@
   </sheetPr>
   <dimension ref="A1:AM68"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16614,7 +16604,7 @@
       <c r="A41" t="s">
         <v>372</v>
       </c>
-      <c r="B41" s="56">
+      <c r="B41" s="54">
         <v>44082</v>
       </c>
       <c r="C41">
@@ -16679,7 +16669,7 @@
       <c r="A42" t="s">
         <v>372</v>
       </c>
-      <c r="B42" s="56">
+      <c r="B42" s="54">
         <v>44082</v>
       </c>
       <c r="C42">
@@ -16738,7 +16728,7 @@
       <c r="A43" t="s">
         <v>471</v>
       </c>
-      <c r="B43" s="56">
+      <c r="B43" s="54">
         <v>44088</v>
       </c>
       <c r="C43">
@@ -16812,7 +16802,7 @@
       <c r="A44" t="s">
         <v>471</v>
       </c>
-      <c r="B44" s="56">
+      <c r="B44" s="54">
         <v>44088</v>
       </c>
       <c r="C44">
@@ -16889,7 +16879,7 @@
       <c r="A45" t="s">
         <v>372</v>
       </c>
-      <c r="B45" s="56">
+      <c r="B45" s="54">
         <v>44096</v>
       </c>
       <c r="C45">
@@ -16960,7 +16950,7 @@
       <c r="A46" t="s">
         <v>372</v>
       </c>
-      <c r="B46" s="56">
+      <c r="B46" s="54">
         <v>44105</v>
       </c>
       <c r="C46">
@@ -17031,7 +17021,7 @@
       <c r="A47" t="s">
         <v>372</v>
       </c>
-      <c r="B47" s="56">
+      <c r="B47" s="54">
         <v>44110</v>
       </c>
       <c r="C47">
@@ -17102,7 +17092,7 @@
       <c r="A48" t="s">
         <v>372</v>
       </c>
-      <c r="B48" s="56">
+      <c r="B48" s="54">
         <v>44115</v>
       </c>
       <c r="C48">
@@ -17176,7 +17166,7 @@
       <c r="A49" t="s">
         <v>372</v>
       </c>
-      <c r="B49" s="57">
+      <c r="B49" s="55">
         <v>44120</v>
       </c>
       <c r="C49">
@@ -17250,7 +17240,7 @@
       <c r="A50" t="s">
         <v>471</v>
       </c>
-      <c r="B50" s="56">
+      <c r="B50" s="54">
         <v>44124</v>
       </c>
       <c r="C50">
@@ -17315,7 +17305,7 @@
       <c r="A51" t="s">
         <v>372</v>
       </c>
-      <c r="B51" s="56">
+      <c r="B51" s="54">
         <v>44136</v>
       </c>
       <c r="C51">
@@ -17386,7 +17376,7 @@
       <c r="A52" t="s">
         <v>372</v>
       </c>
-      <c r="B52" s="56">
+      <c r="B52" s="54">
         <v>44136</v>
       </c>
       <c r="C52">
@@ -17457,7 +17447,7 @@
       <c r="A53" t="s">
         <v>372</v>
       </c>
-      <c r="B53" s="56">
+      <c r="B53" s="54">
         <v>44136</v>
       </c>
       <c r="C53">
@@ -17525,7 +17515,7 @@
       <c r="A54" t="s">
         <v>372</v>
       </c>
-      <c r="B54" s="56">
+      <c r="B54" s="54">
         <v>44138</v>
       </c>
       <c r="C54">
@@ -17596,7 +17586,7 @@
       <c r="A55" t="s">
         <v>372</v>
       </c>
-      <c r="B55" s="56">
+      <c r="B55" s="54">
         <v>44149</v>
       </c>
       <c r="C55">
@@ -17676,7 +17666,7 @@
       <c r="A56" t="s">
         <v>372</v>
       </c>
-      <c r="B56" s="56">
+      <c r="B56" s="54">
         <v>44150</v>
       </c>
       <c r="C56">
@@ -17753,7 +17743,7 @@
       <c r="A57" t="s">
         <v>372</v>
       </c>
-      <c r="B57" s="56">
+      <c r="B57" s="54">
         <v>44155</v>
       </c>
       <c r="C57">
@@ -17827,7 +17817,7 @@
       <c r="A58" t="s">
         <v>372</v>
       </c>
-      <c r="B58" s="56">
+      <c r="B58" s="54">
         <v>44157</v>
       </c>
       <c r="C58">
@@ -17895,7 +17885,7 @@
       <c r="A59" t="s">
         <v>372</v>
       </c>
-      <c r="B59" s="56">
+      <c r="B59" s="54">
         <v>44163</v>
       </c>
       <c r="C59">
@@ -17969,7 +17959,7 @@
       <c r="A60" t="s">
         <v>372</v>
       </c>
-      <c r="B60" s="56">
+      <c r="B60" s="54">
         <v>44170</v>
       </c>
       <c r="C60">
@@ -18037,7 +18027,7 @@
       <c r="A61" t="s">
         <v>372</v>
       </c>
-      <c r="B61" s="56">
+      <c r="B61" s="54">
         <v>44177</v>
       </c>
       <c r="C61">
@@ -18105,7 +18095,7 @@
       <c r="A62" t="s">
         <v>372</v>
       </c>
-      <c r="B62" s="56">
+      <c r="B62" s="54">
         <v>44179</v>
       </c>
       <c r="C62">
@@ -18179,7 +18169,7 @@
       <c r="A63" t="s">
         <v>372</v>
       </c>
-      <c r="B63" s="56">
+      <c r="B63" s="54">
         <v>44180</v>
       </c>
       <c r="C63">
@@ -18253,7 +18243,7 @@
       <c r="A64" t="s">
         <v>327</v>
       </c>
-      <c r="B64" s="56">
+      <c r="B64" s="54">
         <v>44135</v>
       </c>
       <c r="C64">
@@ -18327,7 +18317,7 @@
       <c r="A65" t="s">
         <v>372</v>
       </c>
-      <c r="B65" s="56">
+      <c r="B65" s="54">
         <v>44188</v>
       </c>
       <c r="C65">
@@ -18404,7 +18394,7 @@
       <c r="A66" t="s">
         <v>372</v>
       </c>
-      <c r="B66" s="56">
+      <c r="B66" s="54">
         <v>44189</v>
       </c>
       <c r="C66">
@@ -18484,7 +18474,7 @@
       <c r="A67" t="s">
         <v>372</v>
       </c>
-      <c r="B67" s="56">
+      <c r="B67" s="54">
         <v>44189</v>
       </c>
       <c r="C67">
@@ -18552,7 +18542,7 @@
       <c r="A68" t="s">
         <v>372</v>
       </c>
-      <c r="B68" s="56">
+      <c r="B68" s="54">
         <v>44193</v>
       </c>
       <c r="C68">
@@ -18621,8 +18611,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AK2" r:id="rId1" xr:uid="{B452CC8E-E69F-4969-93E3-3E1D8738E19E}"/>
-    <hyperlink ref="AK3:AK40" r:id="rId2" display="https://www.agenciainformativaudem.com/wp-content/uploads/2017/10/Asset-15.png" xr:uid="{EFEC0E8B-7E2B-4106-92F4-EE199DF97763}"/>
+    <hyperlink ref="AK3:AK40" r:id="rId1" display="https://www.agenciainformativaudem.com/wp-content/uploads/2017/10/Asset-15.png" xr:uid="{EFEC0E8B-7E2B-4106-92F4-EE199DF97763}"/>
+    <hyperlink ref="AK2" r:id="rId2" xr:uid="{B452CC8E-E69F-4969-93E3-3E1D8738E19E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Femicidios 2020.xlsx
+++ b/Femicidios 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-RIESGOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-RIESGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE046A73-9178-400F-A830-5255509AB3B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB21AED-1C8B-4150-BC24-9AA1A1C4BA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9072" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FEMICIDIOS 2020" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="673">
   <si>
     <t>FEMICIDIOS 2020</t>
   </si>
@@ -2092,6 +2092,21 @@
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/d/df/Escudo_de_Los_Lagos.svg</t>
+  </si>
+  <si>
+    <t>Edad3</t>
+  </si>
+  <si>
+    <t>Nacionalidad4</t>
+  </si>
+  <si>
+    <t>Ocupación5</t>
+  </si>
+  <si>
+    <t>Columna14</t>
+  </si>
+  <si>
+    <t>Columna15</t>
   </si>
 </sst>
 </file>
@@ -2465,7 +2480,49 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2476,6 +2533,76 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED6A8849-605B-4A23-821C-E5A9197363C1}" name="Tabla_RED" displayName="Tabla_RED" ref="A1:AM68" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:AM68" xr:uid="{54A0130B-34CB-4B76-91EB-0AAE22021486}"/>
+  <tableColumns count="39">
+    <tableColumn id="1" xr3:uid="{295819E2-C44F-4620-A4E3-14BAD15D31A4}" name="Tipo"/>
+    <tableColumn id="2" xr3:uid="{23950132-12A0-4B4E-BC02-1AF91947A44A}" name="Fecha" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{06E6131C-9361-4B48-9336-66AA7A679130}" name="Codreg"/>
+    <tableColumn id="4" xr3:uid="{139B71BA-795D-405C-AF49-845A77872E00}" name="Codcom"/>
+    <tableColumn id="5" xr3:uid="{D901EB6A-77CB-4DE6-B4E2-AC101FA75285}" name="Comuna"/>
+    <tableColumn id="6" xr3:uid="{A486D213-1D72-42DA-BFBD-AD6BB39DBEE6}" name="Región"/>
+    <tableColumn id="7" xr3:uid="{4A0CF97C-10C9-42B3-82C7-85384F44A0F7}" name="Nombre víctima"/>
+    <tableColumn id="8" xr3:uid="{80B5E5E5-5BD4-4F0A-BA0B-701805365916}" name="Edad"/>
+    <tableColumn id="9" xr3:uid="{B8C768FF-7BBD-4009-A2BB-C4BDE19CDCB4}" name="Nacionalidad"/>
+    <tableColumn id="10" xr3:uid="{367C11FD-290E-4F47-A35A-EC90AA04BE92}" name="Ocupación"/>
+    <tableColumn id="11" xr3:uid="{45C91FE3-8AA6-4B39-9A4F-BDEA9F58CED6}" name="Información sobre el hecho"/>
+    <tableColumn id="12" xr3:uid="{83E043BE-F033-4CBB-823D-81C134131F23}" name="Violencia sexual"/>
+    <tableColumn id="13" xr3:uid="{F8C44A01-49A2-49B1-8C42-18B5C868026A}" name="Relación víctima-femicida"/>
+    <tableColumn id="14" xr3:uid="{84350ADA-FE87-44D5-9E1E-566E377ACB16}" name="Columna14"/>
+    <tableColumn id="15" xr3:uid="{DC9B25BF-C81F-4D5E-A507-84D205395F8B}" name="Columna15"/>
+    <tableColumn id="16" xr3:uid="{3046C2AD-3DDC-4167-AD75-98359C974335}" name="Categoría Red Chilena"/>
+    <tableColumn id="17" xr3:uid="{AB565CDA-C591-400A-B51D-731CEE95C967}" name="Nombre femicida"/>
+    <tableColumn id="18" xr3:uid="{13960CB1-D4AB-4A4E-B070-3BA78B4FD9FB}" name="Edad3"/>
+    <tableColumn id="19" xr3:uid="{ACB69A62-C21A-4E5C-92B6-965A74F32395}" name="Nacionalidad4"/>
+    <tableColumn id="20" xr3:uid="{D1ECC15C-0106-413E-AB9D-88B9436D4ED2}" name="Ocupación5"/>
+    <tableColumn id="21" xr3:uid="{0DB6F77C-3350-432A-85CC-39835983113E}" name="Suicidio"/>
+    <tableColumn id="22" xr3:uid="{867965F3-DD41-4D7F-8597-E41B609AE9EE}" name="Confiesa delito"/>
+    <tableColumn id="23" xr3:uid="{18ECEA38-8793-419B-A353-F705C5A04B83}" name="Antecedentes al hecho"/>
+    <tableColumn id="24" xr3:uid="{B1CCF39E-0C5B-432F-972E-AE5AB7227EB6}" name="Antecedentes ley VIF"/>
+    <tableColumn id="25" xr3:uid="{3BDDEC4A-2FC6-44E8-9B8F-6BE88D419DFC}" name="Sernam"/>
+    <tableColumn id="26" xr3:uid="{CB0DCD76-6E9B-47E4-8C7E-85F65DB67352}" name="Tipificación penal"/>
+    <tableColumn id="27" xr3:uid="{29B8A8EE-FE67-44E1-AD8C-04A89037F9B2}" name="Tipificación penal adicional"/>
+    <tableColumn id="28" xr3:uid="{EEC7B37E-A3B7-4BAA-A04F-F43890BDE528}" name="Situación judicial: estado causa"/>
+    <tableColumn id="29" xr3:uid="{653A766C-5EE6-46B5-A445-882B02E5FE4F}" name="Situacion judicial: fecha"/>
+    <tableColumn id="30" xr3:uid="{922563C2-4D32-4800-A3BC-748E2DA4C698}" name="Situación judicial: estado femicida"/>
+    <tableColumn id="31" xr3:uid="{10C6D131-EBCE-4762-8426-7F53FFF39031}" name="Tribunal"/>
+    <tableColumn id="32" xr3:uid="{1AF3E29B-700E-4DF0-B577-E62695B45F95}" name="Sentencia"/>
+    <tableColumn id="33" xr3:uid="{46D08CCE-B4BE-481D-BC34-AC6C2D3C8DA0}" name="Sentencia penal adicional"/>
+    <tableColumn id="34" xr3:uid="{005A1337-837C-4964-872B-DE876C6D03BD}" name="Información medios 1"/>
+    <tableColumn id="35" xr3:uid="{2988CB74-1DFD-4A3D-93C9-DED154FE7A83}" name="Información medios 2"/>
+    <tableColumn id="36" xr3:uid="{F0E11519-5661-491E-9926-44CDAE6A118D}" name="Escudo Región"/>
+    <tableColumn id="37" xr3:uid="{415DDE2E-AB38-444B-9DA2-0A25864AD038}" name="Escudo Comuna"/>
+    <tableColumn id="38" xr3:uid="{C09774BA-14EA-4BE2-8CBE-52D2ADD8B15E}" name="LAT"/>
+    <tableColumn id="39" xr3:uid="{47FBC07C-539E-4F3A-BE9F-CB3DFF6629D8}" name="LON"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D8340A8C-34F5-4F85-BE64-10EACAF1475F}" name="Tabla_MINMUJER" displayName="Tabla_MINMUJER" ref="A1:M43" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:M43" xr:uid="{5537D96D-3C16-40CC-8AAE-45CBA186FB36}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{1762F601-CFF2-4D51-8F59-B0065B855E7B}" name="id"/>
+    <tableColumn id="2" xr3:uid="{8EDA89FC-F19D-4EE3-80C7-B4A62DE5C5A1}" name="Fecha"/>
+    <tableColumn id="3" xr3:uid="{548CADD7-70FC-4236-8074-22CAD4D1D853}" name="Codreg"/>
+    <tableColumn id="4" xr3:uid="{D9F4E3F9-088A-4FEB-A861-342D3BD89216}" name="Codcom"/>
+    <tableColumn id="5" xr3:uid="{25AD7B8A-6375-4315-BBB5-42C6601F52CE}" name="Comuna"/>
+    <tableColumn id="6" xr3:uid="{AD613E24-3FA0-4A73-9EA6-DF5677AC7431}" name="Región"/>
+    <tableColumn id="7" xr3:uid="{B91B9F73-C9F8-430F-A880-90DF250E6519}" name="Nombre víctima"/>
+    <tableColumn id="8" xr3:uid="{5ECAAC77-6697-4CBF-8D20-9C2F4D19B205}" name="Edad"/>
+    <tableColumn id="9" xr3:uid="{1DDC06C4-D71D-4530-BA81-C76209535407}" name="Información sobre el hecho"/>
+    <tableColumn id="10" xr3:uid="{C278E3EE-78EF-43F5-95A7-5A1DEB4DC332}" name="Escudo Región"/>
+    <tableColumn id="11" xr3:uid="{26FC6225-C4BD-40B8-9701-779D0ACE4D54}" name="Escudo Comuna"/>
+    <tableColumn id="12" xr3:uid="{D6BDAF9F-C96F-4DEF-9E64-0363C798116E}" name="LAT"/>
+    <tableColumn id="13" xr3:uid="{4CF18261-7AE6-4894-880A-C152A453C914}" name="LON"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2786,41 +2913,41 @@
       <selection pane="bottomLeft" activeCell="AR4" sqref="AR4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="42" width="4.42578125" customWidth="1"/>
-    <col min="43" max="43" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.7109375" customWidth="1"/>
-    <col min="45" max="45" width="13.28515625" customWidth="1"/>
-    <col min="46" max="46" width="11.7109375" customWidth="1"/>
-    <col min="47" max="47" width="27.28515625" customWidth="1"/>
-    <col min="48" max="48" width="14.28515625" customWidth="1"/>
-    <col min="49" max="49" width="9.28515625" customWidth="1"/>
-    <col min="50" max="50" width="14.7109375" customWidth="1"/>
-    <col min="51" max="51" width="42.7109375" customWidth="1"/>
-    <col min="52" max="52" width="15.140625" customWidth="1"/>
-    <col min="53" max="53" width="21.28515625" customWidth="1"/>
-    <col min="54" max="55" width="16.7109375" customWidth="1"/>
-    <col min="57" max="57" width="27.140625" customWidth="1"/>
-    <col min="58" max="58" width="7.42578125" customWidth="1"/>
-    <col min="59" max="59" width="12.7109375" customWidth="1"/>
-    <col min="61" max="61" width="7.42578125" customWidth="1"/>
-    <col min="62" max="62" width="7.140625" customWidth="1"/>
-    <col min="63" max="63" width="21.42578125" customWidth="1"/>
-    <col min="65" max="65" width="5.7109375" customWidth="1"/>
+    <col min="1" max="42" width="4.44140625" customWidth="1"/>
+    <col min="43" max="43" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.6640625" customWidth="1"/>
+    <col min="45" max="45" width="13.33203125" customWidth="1"/>
+    <col min="46" max="46" width="11.6640625" customWidth="1"/>
+    <col min="47" max="47" width="27.33203125" customWidth="1"/>
+    <col min="48" max="48" width="14.33203125" customWidth="1"/>
+    <col min="49" max="49" width="9.33203125" customWidth="1"/>
+    <col min="50" max="50" width="14.6640625" customWidth="1"/>
+    <col min="51" max="51" width="42.6640625" customWidth="1"/>
+    <col min="52" max="52" width="15.109375" customWidth="1"/>
+    <col min="53" max="53" width="21.33203125" customWidth="1"/>
+    <col min="54" max="55" width="16.6640625" customWidth="1"/>
+    <col min="57" max="57" width="27.109375" customWidth="1"/>
+    <col min="58" max="58" width="7.44140625" customWidth="1"/>
+    <col min="59" max="59" width="12.6640625" customWidth="1"/>
+    <col min="61" max="61" width="7.44140625" customWidth="1"/>
+    <col min="62" max="62" width="7.109375" customWidth="1"/>
+    <col min="63" max="63" width="21.44140625" customWidth="1"/>
+    <col min="65" max="65" width="5.6640625" customWidth="1"/>
     <col min="66" max="66" width="12" customWidth="1"/>
-    <col min="67" max="67" width="15.28515625" customWidth="1"/>
-    <col min="68" max="68" width="13.28515625" customWidth="1"/>
+    <col min="67" max="67" width="15.33203125" customWidth="1"/>
+    <col min="68" max="68" width="13.33203125" customWidth="1"/>
     <col min="69" max="69" width="14" customWidth="1"/>
-    <col min="70" max="70" width="17.28515625" customWidth="1"/>
-    <col min="71" max="71" width="24.42578125" customWidth="1"/>
-    <col min="72" max="72" width="14.42578125" customWidth="1"/>
-    <col min="73" max="73" width="16.28515625" customWidth="1"/>
-    <col min="74" max="74" width="33.42578125" customWidth="1"/>
-    <col min="75" max="75" width="34.140625" customWidth="1"/>
+    <col min="70" max="70" width="17.33203125" customWidth="1"/>
+    <col min="71" max="71" width="24.44140625" customWidth="1"/>
+    <col min="72" max="72" width="14.44140625" customWidth="1"/>
+    <col min="73" max="73" width="16.33203125" customWidth="1"/>
+    <col min="74" max="74" width="33.44140625" customWidth="1"/>
+    <col min="75" max="75" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2899,7 +3026,7 @@
       <c r="BW1" s="7"/>
       <c r="BX1" s="7"/>
     </row>
-    <row r="2" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2978,7 +3105,7 @@
       <c r="BW2" s="7"/>
       <c r="BX2" s="7"/>
     </row>
-    <row r="3" spans="1:76" s="43" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:76" s="43" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -3118,7 +3245,7 @@
       </c>
       <c r="BX3" s="12"/>
     </row>
-    <row r="4" spans="1:76" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:76" ht="51" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -3242,7 +3369,7 @@
       </c>
       <c r="BX4" s="19"/>
     </row>
-    <row r="5" spans="1:76" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:76" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -3364,7 +3491,7 @@
       </c>
       <c r="BX5" s="20"/>
     </row>
-    <row r="6" spans="1:76" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:76" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -3486,7 +3613,7 @@
       </c>
       <c r="BX6" s="20"/>
     </row>
-    <row r="7" spans="1:76" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:76" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -3606,7 +3733,7 @@
       </c>
       <c r="BX7" s="20"/>
     </row>
-    <row r="8" spans="1:76" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:76" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -3732,7 +3859,7 @@
       </c>
       <c r="BX8" s="20"/>
     </row>
-    <row r="9" spans="1:76" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:76" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -3858,7 +3985,7 @@
       </c>
       <c r="BX9" s="20"/>
     </row>
-    <row r="10" spans="1:76" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:76" ht="61.2" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -3976,7 +4103,7 @@
       </c>
       <c r="BX10" s="20"/>
     </row>
-    <row r="11" spans="1:76" ht="45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:76" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -4096,7 +4223,7 @@
       <c r="BW11" s="13"/>
       <c r="BX11" s="20"/>
     </row>
-    <row r="12" spans="1:76" ht="135" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:76" ht="112.2" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -4220,7 +4347,7 @@
       </c>
       <c r="BX12" s="20"/>
     </row>
-    <row r="13" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -4348,7 +4475,7 @@
       </c>
       <c r="BX13" s="20"/>
     </row>
-    <row r="14" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -4464,7 +4591,7 @@
       </c>
       <c r="BX14" s="20"/>
     </row>
-    <row r="15" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -4586,7 +4713,7 @@
       </c>
       <c r="BX15" s="20"/>
     </row>
-    <row r="16" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -4710,7 +4837,7 @@
       </c>
       <c r="BX16" s="25"/>
     </row>
-    <row r="17" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -4830,7 +4957,7 @@
       </c>
       <c r="BX17" s="20"/>
     </row>
-    <row r="18" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -4956,7 +5083,7 @@
       </c>
       <c r="BX18" s="20"/>
     </row>
-    <row r="19" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -5078,7 +5205,7 @@
       </c>
       <c r="BX19" s="20"/>
     </row>
-    <row r="20" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -5200,7 +5327,7 @@
       </c>
       <c r="BX20" s="20"/>
     </row>
-    <row r="21" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -5328,7 +5455,7 @@
       </c>
       <c r="BX21" s="20"/>
     </row>
-    <row r="22" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>19</v>
       </c>
@@ -5442,7 +5569,7 @@
       </c>
       <c r="BX22" s="20"/>
     </row>
-    <row r="23" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -5564,7 +5691,7 @@
       </c>
       <c r="BX23" s="20"/>
     </row>
-    <row r="24" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>21</v>
       </c>
@@ -5688,7 +5815,7 @@
       </c>
       <c r="BX24" s="20"/>
     </row>
-    <row r="25" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>22</v>
       </c>
@@ -5808,7 +5935,7 @@
       </c>
       <c r="BX25" s="20"/>
     </row>
-    <row r="26" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>23</v>
       </c>
@@ -5932,7 +6059,7 @@
       </c>
       <c r="BX26" s="20"/>
     </row>
-    <row r="27" spans="1:76" ht="45" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:76" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>24</v>
       </c>
@@ -6052,7 +6179,7 @@
       </c>
       <c r="BX27" s="20"/>
     </row>
-    <row r="28" spans="1:76" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:76" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>25</v>
       </c>
@@ -6174,7 +6301,7 @@
       </c>
       <c r="BX28" s="20"/>
     </row>
-    <row r="29" spans="1:76" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:76" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>26</v>
       </c>
@@ -6296,7 +6423,7 @@
       </c>
       <c r="BX29" s="20"/>
     </row>
-    <row r="30" spans="1:76" ht="123.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:76" ht="102" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>27</v>
       </c>
@@ -6418,7 +6545,7 @@
       </c>
       <c r="BX30" s="20"/>
     </row>
-    <row r="31" spans="1:76" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:76" ht="61.2" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>28</v>
       </c>
@@ -6538,7 +6665,7 @@
       </c>
       <c r="BX31" s="20"/>
     </row>
-    <row r="32" spans="1:76" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:76" ht="61.2" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>29</v>
       </c>
@@ -6656,7 +6783,7 @@
       <c r="BW32" s="13"/>
       <c r="BX32" s="20"/>
     </row>
-    <row r="33" spans="1:76" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:76" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>30</v>
       </c>
@@ -6772,7 +6899,7 @@
       </c>
       <c r="BX33" s="20"/>
     </row>
-    <row r="34" spans="1:76" ht="90" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:76" ht="71.400000000000006" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>31</v>
       </c>
@@ -6898,7 +7025,7 @@
       </c>
       <c r="BX34" s="20"/>
     </row>
-    <row r="35" spans="1:76" ht="45" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:76" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>32</v>
       </c>
@@ -7010,7 +7137,7 @@
       </c>
       <c r="BX35" s="20"/>
     </row>
-    <row r="36" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
@@ -7088,7 +7215,7 @@
       <c r="BW36" s="13"/>
       <c r="BX36" s="20"/>
     </row>
-    <row r="37" spans="1:76" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:76" ht="61.2" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>1</v>
       </c>
@@ -7200,7 +7327,7 @@
       <c r="BW37" s="29"/>
       <c r="BX37" s="20"/>
     </row>
-    <row r="38" spans="1:76" ht="45" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:76" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>2</v>
       </c>
@@ -7318,7 +7445,7 @@
       </c>
       <c r="BX38" s="20"/>
     </row>
-    <row r="39" spans="1:76" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:76" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>3</v>
       </c>
@@ -7432,7 +7559,7 @@
       <c r="BW39" s="13"/>
       <c r="BX39" s="20"/>
     </row>
-    <row r="40" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -7510,7 +7637,7 @@
       <c r="BW40" s="13"/>
       <c r="BX40" s="20"/>
     </row>
-    <row r="41" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -7588,7 +7715,7 @@
       <c r="BW41" s="13"/>
       <c r="BX41" s="20"/>
     </row>
-    <row r="42" spans="1:76" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:76" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>1</v>
       </c>
@@ -7704,7 +7831,7 @@
       </c>
       <c r="BX42" s="20"/>
     </row>
-    <row r="43" spans="1:76" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:76" ht="61.2" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>2</v>
       </c>
@@ -7812,7 +7939,7 @@
       </c>
       <c r="BX43" s="20"/>
     </row>
-    <row r="44" spans="1:76" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:76" ht="61.2" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>3</v>
       </c>
@@ -7920,7 +8047,7 @@
       </c>
       <c r="BX44" s="20"/>
     </row>
-    <row r="45" spans="1:76" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:76" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>4</v>
       </c>
@@ -8032,4562 +8159,4562 @@
       </c>
       <c r="BX45" s="20"/>
     </row>
-    <row r="46" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR46" s="32"/>
       <c r="AV46" s="32"/>
       <c r="AY46" s="33"/>
     </row>
-    <row r="47" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR47" s="32"/>
       <c r="AV47" s="32"/>
       <c r="AY47" s="33"/>
     </row>
-    <row r="48" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR48" s="32"/>
       <c r="AV48" s="32"/>
       <c r="AY48" s="33"/>
     </row>
-    <row r="49" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR49" s="32"/>
       <c r="AV49" s="32"/>
       <c r="AY49" s="33"/>
     </row>
-    <row r="50" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR50" s="32"/>
       <c r="AV50" s="32"/>
       <c r="AY50" s="33"/>
     </row>
-    <row r="51" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR51" s="32"/>
       <c r="AV51" s="32"/>
       <c r="AY51" s="33"/>
     </row>
-    <row r="52" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR52" s="32"/>
       <c r="AV52" s="32"/>
       <c r="AY52" s="33"/>
     </row>
-    <row r="53" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR53" s="32"/>
       <c r="AV53" s="32"/>
       <c r="AY53" s="33"/>
     </row>
-    <row r="54" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR54" s="32"/>
       <c r="AV54" s="32"/>
       <c r="AY54" s="33"/>
     </row>
-    <row r="55" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR55" s="32"/>
       <c r="AV55" s="32"/>
       <c r="AY55" s="33"/>
     </row>
-    <row r="56" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR56" s="32"/>
       <c r="AV56" s="32"/>
       <c r="AY56" s="33"/>
     </row>
-    <row r="57" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR57" s="32"/>
       <c r="AV57" s="32"/>
       <c r="AY57" s="33"/>
     </row>
-    <row r="58" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR58" s="32"/>
       <c r="AV58" s="32"/>
       <c r="AY58" s="33"/>
     </row>
-    <row r="59" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR59" s="32"/>
       <c r="AV59" s="32"/>
       <c r="AY59" s="33"/>
     </row>
-    <row r="60" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR60" s="32"/>
       <c r="AV60" s="32"/>
       <c r="AY60" s="33"/>
     </row>
-    <row r="61" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR61" s="32"/>
       <c r="AV61" s="32"/>
       <c r="AY61" s="33"/>
     </row>
-    <row r="62" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR62" s="32"/>
       <c r="AV62" s="32"/>
       <c r="AY62" s="33"/>
     </row>
-    <row r="63" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR63" s="32"/>
       <c r="AV63" s="32"/>
       <c r="AY63" s="33"/>
     </row>
-    <row r="64" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR64" s="32"/>
       <c r="AV64" s="32"/>
       <c r="AY64" s="33"/>
     </row>
-    <row r="65" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR65" s="32"/>
       <c r="AV65" s="32"/>
       <c r="AY65" s="33"/>
     </row>
-    <row r="66" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR66" s="32"/>
       <c r="AV66" s="32"/>
       <c r="AY66" s="33"/>
     </row>
-    <row r="67" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR67" s="32"/>
       <c r="AV67" s="32"/>
       <c r="AY67" s="33"/>
     </row>
-    <row r="68" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR68" s="32"/>
       <c r="AV68" s="32"/>
       <c r="AY68" s="33"/>
     </row>
-    <row r="69" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR69" s="32"/>
       <c r="AV69" s="32"/>
       <c r="AY69" s="33"/>
     </row>
-    <row r="70" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR70" s="32"/>
       <c r="AV70" s="32"/>
       <c r="AY70" s="33"/>
     </row>
-    <row r="71" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR71" s="32"/>
       <c r="AV71" s="32"/>
       <c r="AY71" s="33"/>
     </row>
-    <row r="72" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR72" s="32"/>
       <c r="AV72" s="32"/>
       <c r="AY72" s="33"/>
     </row>
-    <row r="73" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR73" s="32"/>
       <c r="AV73" s="32"/>
       <c r="AY73" s="33"/>
     </row>
-    <row r="74" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR74" s="32"/>
       <c r="AV74" s="32"/>
       <c r="AY74" s="33"/>
     </row>
-    <row r="75" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR75" s="32"/>
       <c r="AV75" s="32"/>
       <c r="AY75" s="33"/>
     </row>
-    <row r="76" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR76" s="32"/>
       <c r="AV76" s="32"/>
       <c r="AY76" s="33"/>
     </row>
-    <row r="77" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR77" s="32"/>
       <c r="AV77" s="32"/>
       <c r="AY77" s="33"/>
     </row>
-    <row r="78" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR78" s="32"/>
       <c r="AV78" s="32"/>
       <c r="AY78" s="33"/>
     </row>
-    <row r="79" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR79" s="32"/>
       <c r="AV79" s="32"/>
       <c r="AY79" s="33"/>
     </row>
-    <row r="80" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR80" s="32"/>
       <c r="AV80" s="32"/>
       <c r="AY80" s="33"/>
     </row>
-    <row r="81" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR81" s="32"/>
       <c r="AV81" s="32"/>
       <c r="AY81" s="33"/>
     </row>
-    <row r="82" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR82" s="32"/>
       <c r="AV82" s="32"/>
       <c r="AY82" s="33"/>
     </row>
-    <row r="83" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR83" s="32"/>
       <c r="AV83" s="32"/>
       <c r="AY83" s="33"/>
     </row>
-    <row r="84" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR84" s="32"/>
       <c r="AV84" s="32"/>
       <c r="AY84" s="33"/>
     </row>
-    <row r="85" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR85" s="32"/>
       <c r="AV85" s="32"/>
       <c r="AY85" s="33"/>
     </row>
-    <row r="86" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR86" s="32"/>
       <c r="AV86" s="32"/>
       <c r="AY86" s="33"/>
     </row>
-    <row r="87" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR87" s="32"/>
       <c r="AV87" s="32"/>
       <c r="AY87" s="33"/>
     </row>
-    <row r="88" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR88" s="32"/>
       <c r="AV88" s="32"/>
       <c r="AY88" s="33"/>
     </row>
-    <row r="89" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR89" s="32"/>
       <c r="AV89" s="32"/>
       <c r="AY89" s="33"/>
     </row>
-    <row r="90" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR90" s="32"/>
       <c r="AV90" s="32"/>
       <c r="AY90" s="33"/>
     </row>
-    <row r="91" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR91" s="32"/>
       <c r="AV91" s="32"/>
       <c r="AY91" s="33"/>
     </row>
-    <row r="92" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR92" s="32"/>
       <c r="AV92" s="32"/>
       <c r="AY92" s="33"/>
     </row>
-    <row r="93" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR93" s="32"/>
       <c r="AV93" s="32"/>
       <c r="AY93" s="33"/>
     </row>
-    <row r="94" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR94" s="32"/>
       <c r="AV94" s="32"/>
       <c r="AY94" s="33"/>
     </row>
-    <row r="95" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR95" s="32"/>
       <c r="AV95" s="32"/>
       <c r="AY95" s="33"/>
     </row>
-    <row r="96" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR96" s="32"/>
       <c r="AV96" s="32"/>
       <c r="AY96" s="33"/>
     </row>
-    <row r="97" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR97" s="32"/>
       <c r="AV97" s="32"/>
       <c r="AY97" s="33"/>
     </row>
-    <row r="98" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR98" s="32"/>
       <c r="AV98" s="32"/>
       <c r="AY98" s="33"/>
     </row>
-    <row r="99" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR99" s="32"/>
       <c r="AV99" s="32"/>
       <c r="AY99" s="33"/>
     </row>
-    <row r="100" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR100" s="32"/>
       <c r="AV100" s="32"/>
       <c r="AY100" s="33"/>
     </row>
-    <row r="101" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR101" s="32"/>
       <c r="AV101" s="32"/>
       <c r="AY101" s="33"/>
     </row>
-    <row r="102" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR102" s="32"/>
       <c r="AV102" s="32"/>
       <c r="AY102" s="33"/>
     </row>
-    <row r="103" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR103" s="32"/>
       <c r="AV103" s="32"/>
       <c r="AY103" s="33"/>
     </row>
-    <row r="104" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR104" s="32"/>
       <c r="AV104" s="32"/>
       <c r="AY104" s="33"/>
     </row>
-    <row r="105" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR105" s="32"/>
       <c r="AV105" s="32"/>
       <c r="AY105" s="33"/>
     </row>
-    <row r="106" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR106" s="32"/>
       <c r="AV106" s="32"/>
       <c r="AY106" s="33"/>
     </row>
-    <row r="107" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR107" s="32"/>
       <c r="AV107" s="32"/>
       <c r="AY107" s="33"/>
     </row>
-    <row r="108" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR108" s="32"/>
       <c r="AV108" s="32"/>
       <c r="AY108" s="33"/>
     </row>
-    <row r="109" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR109" s="32"/>
       <c r="AV109" s="32"/>
       <c r="AY109" s="33"/>
     </row>
-    <row r="110" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR110" s="32"/>
       <c r="AV110" s="32"/>
       <c r="AY110" s="33"/>
     </row>
-    <row r="111" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR111" s="32"/>
       <c r="AV111" s="32"/>
       <c r="AY111" s="33"/>
     </row>
-    <row r="112" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR112" s="32"/>
       <c r="AV112" s="32"/>
       <c r="AY112" s="33"/>
     </row>
-    <row r="113" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR113" s="32"/>
       <c r="AV113" s="32"/>
       <c r="AY113" s="33"/>
     </row>
-    <row r="114" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR114" s="32"/>
       <c r="AV114" s="32"/>
       <c r="AY114" s="33"/>
     </row>
-    <row r="115" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR115" s="32"/>
       <c r="AV115" s="32"/>
       <c r="AY115" s="33"/>
     </row>
-    <row r="116" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR116" s="32"/>
       <c r="AV116" s="32"/>
       <c r="AY116" s="33"/>
     </row>
-    <row r="117" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR117" s="32"/>
       <c r="AV117" s="32"/>
       <c r="AY117" s="33"/>
     </row>
-    <row r="118" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR118" s="32"/>
       <c r="AV118" s="32"/>
       <c r="AY118" s="33"/>
     </row>
-    <row r="119" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR119" s="32"/>
       <c r="AV119" s="32"/>
       <c r="AY119" s="33"/>
     </row>
-    <row r="120" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR120" s="32"/>
       <c r="AV120" s="32"/>
       <c r="AY120" s="33"/>
     </row>
-    <row r="121" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR121" s="32"/>
       <c r="AV121" s="32"/>
       <c r="AY121" s="33"/>
     </row>
-    <row r="122" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR122" s="32"/>
       <c r="AV122" s="32"/>
       <c r="AY122" s="33"/>
     </row>
-    <row r="123" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR123" s="32"/>
       <c r="AV123" s="32"/>
       <c r="AY123" s="33"/>
     </row>
-    <row r="124" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR124" s="32"/>
       <c r="AV124" s="32"/>
       <c r="AY124" s="33"/>
     </row>
-    <row r="125" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR125" s="32"/>
       <c r="AV125" s="32"/>
       <c r="AY125" s="33"/>
     </row>
-    <row r="126" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR126" s="32"/>
       <c r="AV126" s="32"/>
       <c r="AY126" s="33"/>
     </row>
-    <row r="127" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR127" s="32"/>
       <c r="AV127" s="32"/>
       <c r="AY127" s="33"/>
     </row>
-    <row r="128" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR128" s="32"/>
       <c r="AV128" s="32"/>
       <c r="AY128" s="33"/>
     </row>
-    <row r="129" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR129" s="32"/>
       <c r="AV129" s="32"/>
       <c r="AY129" s="33"/>
     </row>
-    <row r="130" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR130" s="32"/>
       <c r="AV130" s="32"/>
       <c r="AY130" s="33"/>
     </row>
-    <row r="131" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR131" s="32"/>
       <c r="AV131" s="32"/>
       <c r="AY131" s="33"/>
     </row>
-    <row r="132" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR132" s="32"/>
       <c r="AV132" s="32"/>
       <c r="AY132" s="33"/>
     </row>
-    <row r="133" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR133" s="32"/>
       <c r="AV133" s="32"/>
       <c r="AY133" s="33"/>
     </row>
-    <row r="134" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR134" s="32"/>
       <c r="AV134" s="32"/>
       <c r="AY134" s="33"/>
     </row>
-    <row r="135" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR135" s="32"/>
       <c r="AV135" s="32"/>
       <c r="AY135" s="33"/>
     </row>
-    <row r="136" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR136" s="32"/>
       <c r="AV136" s="32"/>
       <c r="AY136" s="33"/>
     </row>
-    <row r="137" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR137" s="32"/>
       <c r="AV137" s="32"/>
       <c r="AY137" s="33"/>
     </row>
-    <row r="138" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR138" s="32"/>
       <c r="AV138" s="32"/>
       <c r="AY138" s="33"/>
     </row>
-    <row r="139" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR139" s="32"/>
       <c r="AV139" s="32"/>
       <c r="AY139" s="33"/>
     </row>
-    <row r="140" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR140" s="32"/>
       <c r="AV140" s="32"/>
       <c r="AY140" s="33"/>
     </row>
-    <row r="141" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR141" s="32"/>
       <c r="AV141" s="32"/>
       <c r="AY141" s="33"/>
     </row>
-    <row r="142" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR142" s="32"/>
       <c r="AV142" s="32"/>
       <c r="AY142" s="33"/>
     </row>
-    <row r="143" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR143" s="32"/>
       <c r="AV143" s="32"/>
       <c r="AY143" s="33"/>
     </row>
-    <row r="144" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR144" s="32"/>
       <c r="AV144" s="32"/>
       <c r="AY144" s="33"/>
     </row>
-    <row r="145" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR145" s="32"/>
       <c r="AV145" s="32"/>
       <c r="AY145" s="33"/>
     </row>
-    <row r="146" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR146" s="32"/>
       <c r="AV146" s="32"/>
       <c r="AY146" s="33"/>
     </row>
-    <row r="147" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR147" s="32"/>
       <c r="AV147" s="32"/>
       <c r="AY147" s="33"/>
     </row>
-    <row r="148" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR148" s="32"/>
       <c r="AV148" s="32"/>
       <c r="AY148" s="33"/>
     </row>
-    <row r="149" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR149" s="32"/>
       <c r="AV149" s="32"/>
       <c r="AY149" s="33"/>
     </row>
-    <row r="150" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR150" s="32"/>
       <c r="AV150" s="32"/>
       <c r="AY150" s="33"/>
     </row>
-    <row r="151" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR151" s="32"/>
       <c r="AV151" s="32"/>
       <c r="AY151" s="33"/>
     </row>
-    <row r="152" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR152" s="32"/>
       <c r="AV152" s="32"/>
       <c r="AY152" s="33"/>
     </row>
-    <row r="153" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR153" s="32"/>
       <c r="AV153" s="32"/>
       <c r="AY153" s="33"/>
     </row>
-    <row r="154" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR154" s="32"/>
       <c r="AV154" s="32"/>
       <c r="AY154" s="33"/>
     </row>
-    <row r="155" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR155" s="32"/>
       <c r="AV155" s="32"/>
       <c r="AY155" s="33"/>
     </row>
-    <row r="156" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR156" s="32"/>
       <c r="AV156" s="32"/>
       <c r="AY156" s="33"/>
     </row>
-    <row r="157" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR157" s="32"/>
       <c r="AV157" s="32"/>
       <c r="AY157" s="33"/>
     </row>
-    <row r="158" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR158" s="32"/>
       <c r="AV158" s="32"/>
       <c r="AY158" s="33"/>
     </row>
-    <row r="159" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR159" s="32"/>
       <c r="AV159" s="32"/>
       <c r="AY159" s="33"/>
     </row>
-    <row r="160" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR160" s="32"/>
       <c r="AV160" s="32"/>
       <c r="AY160" s="33"/>
     </row>
-    <row r="161" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR161" s="32"/>
       <c r="AV161" s="32"/>
       <c r="AY161" s="33"/>
     </row>
-    <row r="162" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR162" s="32"/>
       <c r="AV162" s="32"/>
       <c r="AY162" s="33"/>
     </row>
-    <row r="163" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR163" s="32"/>
       <c r="AV163" s="32"/>
       <c r="AY163" s="33"/>
     </row>
-    <row r="164" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR164" s="32"/>
       <c r="AV164" s="32"/>
       <c r="AY164" s="33"/>
     </row>
-    <row r="165" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR165" s="32"/>
       <c r="AV165" s="32"/>
       <c r="AY165" s="33"/>
     </row>
-    <row r="166" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR166" s="32"/>
       <c r="AV166" s="32"/>
       <c r="AY166" s="33"/>
     </row>
-    <row r="167" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR167" s="32"/>
       <c r="AV167" s="32"/>
       <c r="AY167" s="33"/>
     </row>
-    <row r="168" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR168" s="32"/>
       <c r="AV168" s="32"/>
       <c r="AY168" s="33"/>
     </row>
-    <row r="169" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR169" s="32"/>
       <c r="AV169" s="32"/>
       <c r="AY169" s="33"/>
     </row>
-    <row r="170" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR170" s="32"/>
       <c r="AV170" s="32"/>
       <c r="AY170" s="33"/>
     </row>
-    <row r="171" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR171" s="32"/>
       <c r="AV171" s="32"/>
       <c r="AY171" s="33"/>
     </row>
-    <row r="172" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR172" s="32"/>
       <c r="AV172" s="32"/>
       <c r="AY172" s="33"/>
     </row>
-    <row r="173" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR173" s="32"/>
       <c r="AV173" s="32"/>
       <c r="AY173" s="33"/>
     </row>
-    <row r="174" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR174" s="32"/>
       <c r="AV174" s="32"/>
       <c r="AY174" s="33"/>
     </row>
-    <row r="175" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR175" s="32"/>
       <c r="AV175" s="32"/>
       <c r="AY175" s="33"/>
     </row>
-    <row r="176" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR176" s="32"/>
       <c r="AV176" s="32"/>
       <c r="AY176" s="33"/>
     </row>
-    <row r="177" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR177" s="32"/>
       <c r="AV177" s="32"/>
       <c r="AY177" s="33"/>
     </row>
-    <row r="178" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR178" s="32"/>
       <c r="AV178" s="32"/>
       <c r="AY178" s="33"/>
     </row>
-    <row r="179" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR179" s="32"/>
       <c r="AV179" s="32"/>
       <c r="AY179" s="33"/>
     </row>
-    <row r="180" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR180" s="32"/>
       <c r="AV180" s="32"/>
       <c r="AY180" s="33"/>
     </row>
-    <row r="181" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR181" s="32"/>
       <c r="AV181" s="32"/>
       <c r="AY181" s="33"/>
     </row>
-    <row r="182" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR182" s="32"/>
       <c r="AV182" s="32"/>
       <c r="AY182" s="33"/>
     </row>
-    <row r="183" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR183" s="32"/>
       <c r="AV183" s="32"/>
       <c r="AY183" s="33"/>
     </row>
-    <row r="184" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR184" s="32"/>
       <c r="AV184" s="32"/>
       <c r="AY184" s="33"/>
     </row>
-    <row r="185" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR185" s="32"/>
       <c r="AV185" s="32"/>
       <c r="AY185" s="33"/>
     </row>
-    <row r="186" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR186" s="32"/>
       <c r="AV186" s="32"/>
       <c r="AY186" s="33"/>
     </row>
-    <row r="187" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR187" s="32"/>
       <c r="AV187" s="32"/>
       <c r="AY187" s="33"/>
     </row>
-    <row r="188" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR188" s="32"/>
       <c r="AV188" s="32"/>
       <c r="AY188" s="33"/>
     </row>
-    <row r="189" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR189" s="32"/>
       <c r="AV189" s="32"/>
       <c r="AY189" s="33"/>
     </row>
-    <row r="190" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR190" s="32"/>
       <c r="AV190" s="32"/>
       <c r="AY190" s="33"/>
     </row>
-    <row r="191" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR191" s="32"/>
       <c r="AV191" s="32"/>
       <c r="AY191" s="33"/>
     </row>
-    <row r="192" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR192" s="32"/>
       <c r="AV192" s="32"/>
       <c r="AY192" s="33"/>
     </row>
-    <row r="193" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR193" s="32"/>
       <c r="AV193" s="32"/>
       <c r="AY193" s="33"/>
     </row>
-    <row r="194" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR194" s="32"/>
       <c r="AV194" s="32"/>
       <c r="AY194" s="33"/>
     </row>
-    <row r="195" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR195" s="32"/>
       <c r="AV195" s="32"/>
       <c r="AY195" s="33"/>
     </row>
-    <row r="196" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR196" s="32"/>
       <c r="AV196" s="32"/>
       <c r="AY196" s="33"/>
     </row>
-    <row r="197" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR197" s="32"/>
       <c r="AV197" s="32"/>
       <c r="AY197" s="33"/>
     </row>
-    <row r="198" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR198" s="32"/>
       <c r="AV198" s="32"/>
       <c r="AY198" s="33"/>
     </row>
-    <row r="199" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR199" s="32"/>
       <c r="AV199" s="32"/>
       <c r="AY199" s="33"/>
     </row>
-    <row r="200" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR200" s="32"/>
       <c r="AV200" s="32"/>
       <c r="AY200" s="33"/>
     </row>
-    <row r="201" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR201" s="32"/>
       <c r="AV201" s="32"/>
       <c r="AY201" s="33"/>
     </row>
-    <row r="202" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR202" s="32"/>
       <c r="AV202" s="32"/>
       <c r="AY202" s="33"/>
     </row>
-    <row r="203" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR203" s="32"/>
       <c r="AV203" s="32"/>
       <c r="AY203" s="33"/>
     </row>
-    <row r="204" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR204" s="32"/>
       <c r="AV204" s="32"/>
       <c r="AY204" s="33"/>
     </row>
-    <row r="205" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR205" s="32"/>
       <c r="AV205" s="32"/>
       <c r="AY205" s="33"/>
     </row>
-    <row r="206" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR206" s="32"/>
       <c r="AV206" s="32"/>
       <c r="AY206" s="33"/>
     </row>
-    <row r="207" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR207" s="32"/>
       <c r="AV207" s="32"/>
       <c r="AY207" s="33"/>
     </row>
-    <row r="208" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR208" s="32"/>
       <c r="AV208" s="32"/>
       <c r="AY208" s="33"/>
     </row>
-    <row r="209" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR209" s="32"/>
       <c r="AV209" s="32"/>
       <c r="AY209" s="33"/>
     </row>
-    <row r="210" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR210" s="32"/>
       <c r="AV210" s="32"/>
       <c r="AY210" s="33"/>
     </row>
-    <row r="211" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR211" s="32"/>
       <c r="AV211" s="32"/>
       <c r="AY211" s="33"/>
     </row>
-    <row r="212" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR212" s="32"/>
       <c r="AV212" s="32"/>
       <c r="AY212" s="33"/>
     </row>
-    <row r="213" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR213" s="32"/>
       <c r="AV213" s="32"/>
       <c r="AY213" s="33"/>
     </row>
-    <row r="214" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR214" s="32"/>
       <c r="AV214" s="32"/>
       <c r="AY214" s="33"/>
     </row>
-    <row r="215" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR215" s="32"/>
       <c r="AV215" s="32"/>
       <c r="AY215" s="33"/>
     </row>
-    <row r="216" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR216" s="32"/>
       <c r="AV216" s="32"/>
       <c r="AY216" s="33"/>
     </row>
-    <row r="217" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR217" s="32"/>
       <c r="AV217" s="32"/>
       <c r="AY217" s="33"/>
     </row>
-    <row r="218" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR218" s="32"/>
       <c r="AV218" s="32"/>
       <c r="AY218" s="33"/>
     </row>
-    <row r="219" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR219" s="32"/>
       <c r="AV219" s="32"/>
       <c r="AY219" s="33"/>
     </row>
-    <row r="220" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR220" s="32"/>
       <c r="AV220" s="32"/>
       <c r="AY220" s="33"/>
     </row>
-    <row r="221" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR221" s="32"/>
       <c r="AV221" s="32"/>
       <c r="AY221" s="33"/>
     </row>
-    <row r="222" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR222" s="32"/>
       <c r="AV222" s="32"/>
       <c r="AY222" s="33"/>
     </row>
-    <row r="223" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR223" s="32"/>
       <c r="AV223" s="32"/>
       <c r="AY223" s="33"/>
     </row>
-    <row r="224" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR224" s="32"/>
       <c r="AV224" s="32"/>
       <c r="AY224" s="33"/>
     </row>
-    <row r="225" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR225" s="32"/>
       <c r="AV225" s="32"/>
       <c r="AY225" s="33"/>
     </row>
-    <row r="226" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR226" s="32"/>
       <c r="AV226" s="32"/>
       <c r="AY226" s="33"/>
     </row>
-    <row r="227" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR227" s="32"/>
       <c r="AV227" s="32"/>
       <c r="AY227" s="33"/>
     </row>
-    <row r="228" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR228" s="32"/>
       <c r="AV228" s="32"/>
       <c r="AY228" s="33"/>
     </row>
-    <row r="229" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR229" s="32"/>
       <c r="AV229" s="32"/>
       <c r="AY229" s="33"/>
     </row>
-    <row r="230" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR230" s="32"/>
       <c r="AV230" s="32"/>
       <c r="AY230" s="33"/>
     </row>
-    <row r="231" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR231" s="32"/>
       <c r="AV231" s="32"/>
       <c r="AY231" s="33"/>
     </row>
-    <row r="232" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR232" s="32"/>
       <c r="AV232" s="32"/>
       <c r="AY232" s="33"/>
     </row>
-    <row r="233" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR233" s="32"/>
       <c r="AV233" s="32"/>
       <c r="AY233" s="33"/>
     </row>
-    <row r="234" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR234" s="32"/>
       <c r="AV234" s="32"/>
       <c r="AY234" s="33"/>
     </row>
-    <row r="235" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR235" s="32"/>
       <c r="AV235" s="32"/>
       <c r="AY235" s="33"/>
     </row>
-    <row r="236" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR236" s="32"/>
       <c r="AV236" s="32"/>
       <c r="AY236" s="33"/>
     </row>
-    <row r="237" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR237" s="32"/>
       <c r="AV237" s="32"/>
       <c r="AY237" s="33"/>
     </row>
-    <row r="238" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR238" s="32"/>
       <c r="AV238" s="32"/>
       <c r="AY238" s="33"/>
     </row>
-    <row r="239" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR239" s="32"/>
       <c r="AV239" s="32"/>
       <c r="AY239" s="33"/>
     </row>
-    <row r="240" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR240" s="32"/>
       <c r="AV240" s="32"/>
       <c r="AY240" s="33"/>
     </row>
-    <row r="241" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR241" s="32"/>
       <c r="AV241" s="32"/>
       <c r="AY241" s="33"/>
     </row>
-    <row r="242" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR242" s="32"/>
       <c r="AV242" s="32"/>
       <c r="AY242" s="33"/>
     </row>
-    <row r="243" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR243" s="32"/>
       <c r="AV243" s="32"/>
       <c r="AY243" s="33"/>
     </row>
-    <row r="244" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR244" s="32"/>
       <c r="AV244" s="32"/>
       <c r="AY244" s="33"/>
     </row>
-    <row r="245" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR245" s="32"/>
       <c r="AV245" s="32"/>
       <c r="AY245" s="33"/>
     </row>
-    <row r="246" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR246" s="32"/>
       <c r="AV246" s="32"/>
       <c r="AY246" s="33"/>
     </row>
-    <row r="247" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR247" s="32"/>
       <c r="AV247" s="32"/>
       <c r="AY247" s="33"/>
     </row>
-    <row r="248" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR248" s="32"/>
       <c r="AV248" s="32"/>
       <c r="AY248" s="33"/>
     </row>
-    <row r="249" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR249" s="32"/>
       <c r="AV249" s="32"/>
       <c r="AY249" s="33"/>
     </row>
-    <row r="250" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR250" s="32"/>
       <c r="AV250" s="32"/>
       <c r="AY250" s="33"/>
     </row>
-    <row r="251" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR251" s="32"/>
       <c r="AV251" s="32"/>
       <c r="AY251" s="33"/>
     </row>
-    <row r="252" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR252" s="32"/>
       <c r="AV252" s="32"/>
       <c r="AY252" s="33"/>
     </row>
-    <row r="253" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR253" s="32"/>
       <c r="AV253" s="32"/>
       <c r="AY253" s="33"/>
     </row>
-    <row r="254" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR254" s="32"/>
       <c r="AV254" s="32"/>
       <c r="AY254" s="33"/>
     </row>
-    <row r="255" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR255" s="32"/>
       <c r="AV255" s="32"/>
       <c r="AY255" s="33"/>
     </row>
-    <row r="256" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR256" s="32"/>
       <c r="AV256" s="32"/>
       <c r="AY256" s="33"/>
     </row>
-    <row r="257" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR257" s="32"/>
       <c r="AV257" s="32"/>
       <c r="AY257" s="33"/>
     </row>
-    <row r="258" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR258" s="32"/>
       <c r="AV258" s="32"/>
       <c r="AY258" s="33"/>
     </row>
-    <row r="259" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR259" s="32"/>
       <c r="AV259" s="32"/>
       <c r="AY259" s="33"/>
     </row>
-    <row r="260" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR260" s="32"/>
       <c r="AV260" s="32"/>
       <c r="AY260" s="33"/>
     </row>
-    <row r="261" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR261" s="32"/>
       <c r="AV261" s="32"/>
       <c r="AY261" s="33"/>
     </row>
-    <row r="262" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR262" s="32"/>
       <c r="AV262" s="32"/>
       <c r="AY262" s="33"/>
     </row>
-    <row r="263" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR263" s="32"/>
       <c r="AV263" s="32"/>
       <c r="AY263" s="33"/>
     </row>
-    <row r="264" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR264" s="32"/>
       <c r="AV264" s="32"/>
       <c r="AY264" s="33"/>
     </row>
-    <row r="265" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR265" s="32"/>
       <c r="AV265" s="32"/>
       <c r="AY265" s="33"/>
     </row>
-    <row r="266" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR266" s="32"/>
       <c r="AV266" s="32"/>
       <c r="AY266" s="33"/>
     </row>
-    <row r="267" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR267" s="32"/>
       <c r="AV267" s="32"/>
       <c r="AY267" s="33"/>
     </row>
-    <row r="268" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR268" s="32"/>
       <c r="AV268" s="32"/>
       <c r="AY268" s="33"/>
     </row>
-    <row r="269" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR269" s="32"/>
       <c r="AV269" s="32"/>
       <c r="AY269" s="33"/>
     </row>
-    <row r="270" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR270" s="32"/>
       <c r="AV270" s="32"/>
       <c r="AY270" s="33"/>
     </row>
-    <row r="271" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR271" s="32"/>
       <c r="AV271" s="32"/>
       <c r="AY271" s="33"/>
     </row>
-    <row r="272" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR272" s="32"/>
       <c r="AV272" s="32"/>
       <c r="AY272" s="33"/>
     </row>
-    <row r="273" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR273" s="32"/>
       <c r="AV273" s="32"/>
       <c r="AY273" s="33"/>
     </row>
-    <row r="274" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR274" s="32"/>
       <c r="AV274" s="32"/>
       <c r="AY274" s="33"/>
     </row>
-    <row r="275" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR275" s="32"/>
       <c r="AV275" s="32"/>
       <c r="AY275" s="33"/>
     </row>
-    <row r="276" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR276" s="32"/>
       <c r="AV276" s="32"/>
       <c r="AY276" s="33"/>
     </row>
-    <row r="277" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR277" s="32"/>
       <c r="AV277" s="32"/>
       <c r="AY277" s="33"/>
     </row>
-    <row r="278" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR278" s="32"/>
       <c r="AV278" s="32"/>
       <c r="AY278" s="33"/>
     </row>
-    <row r="279" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR279" s="32"/>
       <c r="AV279" s="32"/>
       <c r="AY279" s="33"/>
     </row>
-    <row r="280" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR280" s="32"/>
       <c r="AV280" s="32"/>
       <c r="AY280" s="33"/>
     </row>
-    <row r="281" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR281" s="32"/>
       <c r="AV281" s="32"/>
       <c r="AY281" s="33"/>
     </row>
-    <row r="282" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR282" s="32"/>
       <c r="AV282" s="32"/>
       <c r="AY282" s="33"/>
     </row>
-    <row r="283" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR283" s="32"/>
       <c r="AV283" s="32"/>
       <c r="AY283" s="33"/>
     </row>
-    <row r="284" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR284" s="32"/>
       <c r="AV284" s="32"/>
       <c r="AY284" s="33"/>
     </row>
-    <row r="285" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR285" s="32"/>
       <c r="AV285" s="32"/>
       <c r="AY285" s="33"/>
     </row>
-    <row r="286" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR286" s="32"/>
       <c r="AV286" s="32"/>
       <c r="AY286" s="33"/>
     </row>
-    <row r="287" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR287" s="32"/>
       <c r="AV287" s="32"/>
       <c r="AY287" s="33"/>
     </row>
-    <row r="288" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR288" s="32"/>
       <c r="AV288" s="32"/>
       <c r="AY288" s="33"/>
     </row>
-    <row r="289" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR289" s="32"/>
       <c r="AV289" s="32"/>
       <c r="AY289" s="33"/>
     </row>
-    <row r="290" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR290" s="32"/>
       <c r="AV290" s="32"/>
       <c r="AY290" s="33"/>
     </row>
-    <row r="291" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR291" s="32"/>
       <c r="AV291" s="32"/>
       <c r="AY291" s="33"/>
     </row>
-    <row r="292" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR292" s="32"/>
       <c r="AV292" s="32"/>
       <c r="AY292" s="33"/>
     </row>
-    <row r="293" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR293" s="32"/>
       <c r="AV293" s="32"/>
       <c r="AY293" s="33"/>
     </row>
-    <row r="294" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR294" s="32"/>
       <c r="AV294" s="32"/>
       <c r="AY294" s="33"/>
     </row>
-    <row r="295" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR295" s="32"/>
       <c r="AV295" s="32"/>
       <c r="AY295" s="33"/>
     </row>
-    <row r="296" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR296" s="32"/>
       <c r="AV296" s="32"/>
       <c r="AY296" s="33"/>
     </row>
-    <row r="297" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR297" s="32"/>
       <c r="AV297" s="32"/>
       <c r="AY297" s="33"/>
     </row>
-    <row r="298" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR298" s="32"/>
       <c r="AV298" s="32"/>
       <c r="AY298" s="33"/>
     </row>
-    <row r="299" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR299" s="32"/>
       <c r="AV299" s="32"/>
       <c r="AY299" s="33"/>
     </row>
-    <row r="300" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR300" s="32"/>
       <c r="AV300" s="32"/>
       <c r="AY300" s="33"/>
     </row>
-    <row r="301" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR301" s="32"/>
       <c r="AV301" s="32"/>
       <c r="AY301" s="33"/>
     </row>
-    <row r="302" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR302" s="32"/>
       <c r="AV302" s="32"/>
       <c r="AY302" s="33"/>
     </row>
-    <row r="303" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR303" s="32"/>
       <c r="AV303" s="32"/>
       <c r="AY303" s="33"/>
     </row>
-    <row r="304" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR304" s="32"/>
       <c r="AV304" s="32"/>
       <c r="AY304" s="33"/>
     </row>
-    <row r="305" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR305" s="32"/>
       <c r="AV305" s="32"/>
       <c r="AY305" s="33"/>
     </row>
-    <row r="306" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR306" s="32"/>
       <c r="AV306" s="32"/>
       <c r="AY306" s="33"/>
     </row>
-    <row r="307" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR307" s="32"/>
       <c r="AV307" s="32"/>
       <c r="AY307" s="33"/>
     </row>
-    <row r="308" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR308" s="32"/>
       <c r="AV308" s="32"/>
       <c r="AY308" s="33"/>
     </row>
-    <row r="309" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR309" s="32"/>
       <c r="AV309" s="32"/>
       <c r="AY309" s="33"/>
     </row>
-    <row r="310" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR310" s="32"/>
       <c r="AV310" s="32"/>
       <c r="AY310" s="33"/>
     </row>
-    <row r="311" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR311" s="32"/>
       <c r="AV311" s="32"/>
       <c r="AY311" s="33"/>
     </row>
-    <row r="312" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR312" s="32"/>
       <c r="AV312" s="32"/>
       <c r="AY312" s="33"/>
     </row>
-    <row r="313" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR313" s="32"/>
       <c r="AV313" s="32"/>
       <c r="AY313" s="33"/>
     </row>
-    <row r="314" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR314" s="32"/>
       <c r="AV314" s="32"/>
       <c r="AY314" s="33"/>
     </row>
-    <row r="315" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR315" s="32"/>
       <c r="AV315" s="32"/>
       <c r="AY315" s="33"/>
     </row>
-    <row r="316" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR316" s="32"/>
       <c r="AV316" s="32"/>
       <c r="AY316" s="33"/>
     </row>
-    <row r="317" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR317" s="32"/>
       <c r="AV317" s="32"/>
       <c r="AY317" s="33"/>
     </row>
-    <row r="318" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR318" s="32"/>
       <c r="AV318" s="32"/>
       <c r="AY318" s="33"/>
     </row>
-    <row r="319" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR319" s="32"/>
       <c r="AV319" s="32"/>
       <c r="AY319" s="33"/>
     </row>
-    <row r="320" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR320" s="32"/>
       <c r="AV320" s="32"/>
       <c r="AY320" s="33"/>
     </row>
-    <row r="321" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR321" s="32"/>
       <c r="AV321" s="32"/>
       <c r="AY321" s="33"/>
     </row>
-    <row r="322" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR322" s="32"/>
       <c r="AV322" s="32"/>
       <c r="AY322" s="33"/>
     </row>
-    <row r="323" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR323" s="32"/>
       <c r="AV323" s="32"/>
       <c r="AY323" s="33"/>
     </row>
-    <row r="324" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR324" s="32"/>
       <c r="AV324" s="32"/>
       <c r="AY324" s="33"/>
     </row>
-    <row r="325" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR325" s="32"/>
       <c r="AV325" s="32"/>
       <c r="AY325" s="33"/>
     </row>
-    <row r="326" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR326" s="32"/>
       <c r="AV326" s="32"/>
       <c r="AY326" s="33"/>
     </row>
-    <row r="327" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR327" s="32"/>
       <c r="AV327" s="32"/>
       <c r="AY327" s="33"/>
     </row>
-    <row r="328" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR328" s="32"/>
       <c r="AV328" s="32"/>
       <c r="AY328" s="33"/>
     </row>
-    <row r="329" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR329" s="32"/>
       <c r="AV329" s="32"/>
       <c r="AY329" s="33"/>
     </row>
-    <row r="330" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR330" s="32"/>
       <c r="AV330" s="32"/>
       <c r="AY330" s="33"/>
     </row>
-    <row r="331" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR331" s="32"/>
       <c r="AV331" s="32"/>
       <c r="AY331" s="33"/>
     </row>
-    <row r="332" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR332" s="32"/>
       <c r="AV332" s="32"/>
       <c r="AY332" s="33"/>
     </row>
-    <row r="333" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR333" s="32"/>
       <c r="AV333" s="32"/>
       <c r="AY333" s="33"/>
     </row>
-    <row r="334" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR334" s="32"/>
       <c r="AV334" s="32"/>
       <c r="AY334" s="33"/>
     </row>
-    <row r="335" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR335" s="32"/>
       <c r="AV335" s="32"/>
       <c r="AY335" s="33"/>
     </row>
-    <row r="336" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR336" s="32"/>
       <c r="AV336" s="32"/>
       <c r="AY336" s="33"/>
     </row>
-    <row r="337" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR337" s="32"/>
       <c r="AV337" s="32"/>
       <c r="AY337" s="33"/>
     </row>
-    <row r="338" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR338" s="32"/>
       <c r="AV338" s="32"/>
       <c r="AY338" s="33"/>
     </row>
-    <row r="339" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR339" s="32"/>
       <c r="AV339" s="32"/>
       <c r="AY339" s="33"/>
     </row>
-    <row r="340" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR340" s="32"/>
       <c r="AV340" s="32"/>
       <c r="AY340" s="33"/>
     </row>
-    <row r="341" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR341" s="32"/>
       <c r="AV341" s="32"/>
       <c r="AY341" s="33"/>
     </row>
-    <row r="342" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR342" s="32"/>
       <c r="AV342" s="32"/>
       <c r="AY342" s="33"/>
     </row>
-    <row r="343" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR343" s="32"/>
       <c r="AV343" s="32"/>
       <c r="AY343" s="33"/>
     </row>
-    <row r="344" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR344" s="32"/>
       <c r="AV344" s="32"/>
       <c r="AY344" s="33"/>
     </row>
-    <row r="345" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR345" s="32"/>
       <c r="AV345" s="32"/>
       <c r="AY345" s="33"/>
     </row>
-    <row r="346" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR346" s="32"/>
       <c r="AV346" s="32"/>
       <c r="AY346" s="33"/>
     </row>
-    <row r="347" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR347" s="32"/>
       <c r="AV347" s="32"/>
       <c r="AY347" s="33"/>
     </row>
-    <row r="348" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR348" s="32"/>
       <c r="AV348" s="32"/>
       <c r="AY348" s="33"/>
     </row>
-    <row r="349" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR349" s="32"/>
       <c r="AV349" s="32"/>
       <c r="AY349" s="33"/>
     </row>
-    <row r="350" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR350" s="32"/>
       <c r="AV350" s="32"/>
       <c r="AY350" s="33"/>
     </row>
-    <row r="351" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR351" s="32"/>
       <c r="AV351" s="32"/>
       <c r="AY351" s="33"/>
     </row>
-    <row r="352" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR352" s="32"/>
       <c r="AV352" s="32"/>
       <c r="AY352" s="33"/>
     </row>
-    <row r="353" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR353" s="32"/>
       <c r="AV353" s="32"/>
       <c r="AY353" s="33"/>
     </row>
-    <row r="354" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR354" s="32"/>
       <c r="AV354" s="32"/>
       <c r="AY354" s="33"/>
     </row>
-    <row r="355" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR355" s="32"/>
       <c r="AV355" s="32"/>
       <c r="AY355" s="33"/>
     </row>
-    <row r="356" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR356" s="32"/>
       <c r="AV356" s="32"/>
       <c r="AY356" s="33"/>
     </row>
-    <row r="357" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR357" s="32"/>
       <c r="AV357" s="32"/>
       <c r="AY357" s="33"/>
     </row>
-    <row r="358" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR358" s="32"/>
       <c r="AV358" s="32"/>
       <c r="AY358" s="33"/>
     </row>
-    <row r="359" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR359" s="32"/>
       <c r="AV359" s="32"/>
       <c r="AY359" s="33"/>
     </row>
-    <row r="360" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR360" s="32"/>
       <c r="AV360" s="32"/>
       <c r="AY360" s="33"/>
     </row>
-    <row r="361" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR361" s="32"/>
       <c r="AV361" s="32"/>
       <c r="AY361" s="33"/>
     </row>
-    <row r="362" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR362" s="32"/>
       <c r="AV362" s="32"/>
       <c r="AY362" s="33"/>
     </row>
-    <row r="363" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR363" s="32"/>
       <c r="AV363" s="32"/>
       <c r="AY363" s="33"/>
     </row>
-    <row r="364" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR364" s="32"/>
       <c r="AV364" s="32"/>
       <c r="AY364" s="33"/>
     </row>
-    <row r="365" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR365" s="32"/>
       <c r="AV365" s="32"/>
       <c r="AY365" s="33"/>
     </row>
-    <row r="366" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR366" s="32"/>
       <c r="AV366" s="32"/>
       <c r="AY366" s="33"/>
     </row>
-    <row r="367" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR367" s="32"/>
       <c r="AV367" s="32"/>
       <c r="AY367" s="33"/>
     </row>
-    <row r="368" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR368" s="32"/>
       <c r="AV368" s="32"/>
       <c r="AY368" s="33"/>
     </row>
-    <row r="369" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR369" s="32"/>
       <c r="AV369" s="32"/>
       <c r="AY369" s="33"/>
     </row>
-    <row r="370" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR370" s="32"/>
       <c r="AV370" s="32"/>
       <c r="AY370" s="33"/>
     </row>
-    <row r="371" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR371" s="32"/>
       <c r="AV371" s="32"/>
       <c r="AY371" s="33"/>
     </row>
-    <row r="372" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR372" s="32"/>
       <c r="AV372" s="32"/>
       <c r="AY372" s="33"/>
     </row>
-    <row r="373" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR373" s="32"/>
       <c r="AV373" s="32"/>
       <c r="AY373" s="33"/>
     </row>
-    <row r="374" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR374" s="32"/>
       <c r="AV374" s="32"/>
       <c r="AY374" s="33"/>
     </row>
-    <row r="375" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR375" s="32"/>
       <c r="AV375" s="32"/>
       <c r="AY375" s="33"/>
     </row>
-    <row r="376" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR376" s="32"/>
       <c r="AV376" s="32"/>
       <c r="AY376" s="33"/>
     </row>
-    <row r="377" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR377" s="32"/>
       <c r="AV377" s="32"/>
       <c r="AY377" s="33"/>
     </row>
-    <row r="378" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR378" s="32"/>
       <c r="AV378" s="32"/>
       <c r="AY378" s="33"/>
     </row>
-    <row r="379" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR379" s="32"/>
       <c r="AV379" s="32"/>
       <c r="AY379" s="33"/>
     </row>
-    <row r="380" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR380" s="32"/>
       <c r="AV380" s="32"/>
       <c r="AY380" s="33"/>
     </row>
-    <row r="381" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR381" s="32"/>
       <c r="AV381" s="32"/>
       <c r="AY381" s="33"/>
     </row>
-    <row r="382" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR382" s="32"/>
       <c r="AV382" s="32"/>
       <c r="AY382" s="33"/>
     </row>
-    <row r="383" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR383" s="32"/>
       <c r="AV383" s="32"/>
       <c r="AY383" s="33"/>
     </row>
-    <row r="384" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR384" s="32"/>
       <c r="AV384" s="32"/>
       <c r="AY384" s="33"/>
     </row>
-    <row r="385" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR385" s="32"/>
       <c r="AV385" s="32"/>
       <c r="AY385" s="33"/>
     </row>
-    <row r="386" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR386" s="32"/>
       <c r="AV386" s="32"/>
       <c r="AY386" s="33"/>
     </row>
-    <row r="387" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR387" s="32"/>
       <c r="AV387" s="32"/>
       <c r="AY387" s="33"/>
     </row>
-    <row r="388" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR388" s="32"/>
       <c r="AV388" s="32"/>
       <c r="AY388" s="33"/>
     </row>
-    <row r="389" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR389" s="32"/>
       <c r="AV389" s="32"/>
       <c r="AY389" s="33"/>
     </row>
-    <row r="390" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR390" s="32"/>
       <c r="AV390" s="32"/>
       <c r="AY390" s="33"/>
     </row>
-    <row r="391" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR391" s="32"/>
       <c r="AV391" s="32"/>
       <c r="AY391" s="33"/>
     </row>
-    <row r="392" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR392" s="32"/>
       <c r="AV392" s="32"/>
       <c r="AY392" s="33"/>
     </row>
-    <row r="393" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR393" s="32"/>
       <c r="AV393" s="32"/>
       <c r="AY393" s="33"/>
     </row>
-    <row r="394" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR394" s="32"/>
       <c r="AV394" s="32"/>
       <c r="AY394" s="33"/>
     </row>
-    <row r="395" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR395" s="32"/>
       <c r="AV395" s="32"/>
       <c r="AY395" s="33"/>
     </row>
-    <row r="396" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR396" s="32"/>
       <c r="AV396" s="32"/>
       <c r="AY396" s="33"/>
     </row>
-    <row r="397" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR397" s="32"/>
       <c r="AV397" s="32"/>
       <c r="AY397" s="33"/>
     </row>
-    <row r="398" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR398" s="32"/>
       <c r="AV398" s="32"/>
       <c r="AY398" s="33"/>
     </row>
-    <row r="399" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR399" s="32"/>
       <c r="AV399" s="32"/>
       <c r="AY399" s="33"/>
     </row>
-    <row r="400" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR400" s="32"/>
       <c r="AV400" s="32"/>
       <c r="AY400" s="33"/>
     </row>
-    <row r="401" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR401" s="32"/>
       <c r="AV401" s="32"/>
       <c r="AY401" s="33"/>
     </row>
-    <row r="402" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR402" s="32"/>
       <c r="AV402" s="32"/>
       <c r="AY402" s="33"/>
     </row>
-    <row r="403" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR403" s="32"/>
       <c r="AV403" s="32"/>
       <c r="AY403" s="33"/>
     </row>
-    <row r="404" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR404" s="32"/>
       <c r="AV404" s="32"/>
       <c r="AY404" s="33"/>
     </row>
-    <row r="405" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR405" s="32"/>
       <c r="AV405" s="32"/>
       <c r="AY405" s="33"/>
     </row>
-    <row r="406" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR406" s="32"/>
       <c r="AV406" s="32"/>
       <c r="AY406" s="33"/>
     </row>
-    <row r="407" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR407" s="32"/>
       <c r="AV407" s="32"/>
       <c r="AY407" s="33"/>
     </row>
-    <row r="408" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR408" s="32"/>
       <c r="AV408" s="32"/>
       <c r="AY408" s="33"/>
     </row>
-    <row r="409" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR409" s="32"/>
       <c r="AV409" s="32"/>
       <c r="AY409" s="33"/>
     </row>
-    <row r="410" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR410" s="32"/>
       <c r="AV410" s="32"/>
       <c r="AY410" s="33"/>
     </row>
-    <row r="411" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR411" s="32"/>
       <c r="AV411" s="32"/>
       <c r="AY411" s="33"/>
     </row>
-    <row r="412" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR412" s="32"/>
       <c r="AV412" s="32"/>
       <c r="AY412" s="33"/>
     </row>
-    <row r="413" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR413" s="32"/>
       <c r="AV413" s="32"/>
       <c r="AY413" s="33"/>
     </row>
-    <row r="414" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR414" s="32"/>
       <c r="AV414" s="32"/>
       <c r="AY414" s="33"/>
     </row>
-    <row r="415" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR415" s="32"/>
       <c r="AV415" s="32"/>
       <c r="AY415" s="33"/>
     </row>
-    <row r="416" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR416" s="32"/>
       <c r="AV416" s="32"/>
       <c r="AY416" s="33"/>
     </row>
-    <row r="417" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR417" s="32"/>
       <c r="AV417" s="32"/>
       <c r="AY417" s="33"/>
     </row>
-    <row r="418" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR418" s="32"/>
       <c r="AV418" s="32"/>
       <c r="AY418" s="33"/>
     </row>
-    <row r="419" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR419" s="32"/>
       <c r="AV419" s="32"/>
       <c r="AY419" s="33"/>
     </row>
-    <row r="420" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR420" s="32"/>
       <c r="AV420" s="32"/>
       <c r="AY420" s="33"/>
     </row>
-    <row r="421" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR421" s="32"/>
       <c r="AV421" s="32"/>
       <c r="AY421" s="33"/>
     </row>
-    <row r="422" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR422" s="32"/>
       <c r="AV422" s="32"/>
       <c r="AY422" s="33"/>
     </row>
-    <row r="423" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR423" s="32"/>
       <c r="AV423" s="32"/>
       <c r="AY423" s="33"/>
     </row>
-    <row r="424" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR424" s="32"/>
       <c r="AV424" s="32"/>
       <c r="AY424" s="33"/>
     </row>
-    <row r="425" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR425" s="32"/>
       <c r="AV425" s="32"/>
       <c r="AY425" s="33"/>
     </row>
-    <row r="426" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR426" s="32"/>
       <c r="AV426" s="32"/>
       <c r="AY426" s="33"/>
     </row>
-    <row r="427" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR427" s="32"/>
       <c r="AV427" s="32"/>
       <c r="AY427" s="33"/>
     </row>
-    <row r="428" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR428" s="32"/>
       <c r="AV428" s="32"/>
       <c r="AY428" s="33"/>
     </row>
-    <row r="429" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR429" s="32"/>
       <c r="AV429" s="32"/>
       <c r="AY429" s="33"/>
     </row>
-    <row r="430" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR430" s="32"/>
       <c r="AV430" s="32"/>
       <c r="AY430" s="33"/>
     </row>
-    <row r="431" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR431" s="32"/>
       <c r="AV431" s="32"/>
       <c r="AY431" s="33"/>
     </row>
-    <row r="432" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR432" s="32"/>
       <c r="AV432" s="32"/>
       <c r="AY432" s="33"/>
     </row>
-    <row r="433" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR433" s="32"/>
       <c r="AV433" s="32"/>
       <c r="AY433" s="33"/>
     </row>
-    <row r="434" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR434" s="32"/>
       <c r="AV434" s="32"/>
       <c r="AY434" s="33"/>
     </row>
-    <row r="435" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR435" s="32"/>
       <c r="AV435" s="32"/>
       <c r="AY435" s="33"/>
     </row>
-    <row r="436" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR436" s="32"/>
       <c r="AV436" s="32"/>
       <c r="AY436" s="33"/>
     </row>
-    <row r="437" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR437" s="32"/>
       <c r="AV437" s="32"/>
       <c r="AY437" s="33"/>
     </row>
-    <row r="438" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR438" s="32"/>
       <c r="AV438" s="32"/>
       <c r="AY438" s="33"/>
     </row>
-    <row r="439" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR439" s="32"/>
       <c r="AV439" s="32"/>
       <c r="AY439" s="33"/>
     </row>
-    <row r="440" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR440" s="32"/>
       <c r="AV440" s="32"/>
       <c r="AY440" s="33"/>
     </row>
-    <row r="441" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR441" s="32"/>
       <c r="AV441" s="32"/>
       <c r="AY441" s="33"/>
     </row>
-    <row r="442" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR442" s="32"/>
       <c r="AV442" s="32"/>
       <c r="AY442" s="33"/>
     </row>
-    <row r="443" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR443" s="32"/>
       <c r="AV443" s="32"/>
       <c r="AY443" s="33"/>
     </row>
-    <row r="444" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR444" s="32"/>
       <c r="AV444" s="32"/>
       <c r="AY444" s="33"/>
     </row>
-    <row r="445" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR445" s="32"/>
       <c r="AV445" s="32"/>
       <c r="AY445" s="33"/>
     </row>
-    <row r="446" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR446" s="32"/>
       <c r="AV446" s="32"/>
       <c r="AY446" s="33"/>
     </row>
-    <row r="447" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR447" s="32"/>
       <c r="AV447" s="32"/>
       <c r="AY447" s="33"/>
     </row>
-    <row r="448" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR448" s="32"/>
       <c r="AV448" s="32"/>
       <c r="AY448" s="33"/>
     </row>
-    <row r="449" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR449" s="32"/>
       <c r="AV449" s="32"/>
       <c r="AY449" s="33"/>
     </row>
-    <row r="450" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR450" s="32"/>
       <c r="AV450" s="32"/>
       <c r="AY450" s="33"/>
     </row>
-    <row r="451" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR451" s="32"/>
       <c r="AV451" s="32"/>
       <c r="AY451" s="33"/>
     </row>
-    <row r="452" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR452" s="32"/>
       <c r="AV452" s="32"/>
       <c r="AY452" s="33"/>
     </row>
-    <row r="453" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR453" s="32"/>
       <c r="AV453" s="32"/>
       <c r="AY453" s="33"/>
     </row>
-    <row r="454" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR454" s="32"/>
       <c r="AV454" s="32"/>
       <c r="AY454" s="33"/>
     </row>
-    <row r="455" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR455" s="32"/>
       <c r="AV455" s="32"/>
       <c r="AY455" s="33"/>
     </row>
-    <row r="456" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR456" s="32"/>
       <c r="AV456" s="32"/>
       <c r="AY456" s="33"/>
     </row>
-    <row r="457" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR457" s="32"/>
       <c r="AV457" s="32"/>
       <c r="AY457" s="33"/>
     </row>
-    <row r="458" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR458" s="32"/>
       <c r="AV458" s="32"/>
       <c r="AY458" s="33"/>
     </row>
-    <row r="459" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR459" s="32"/>
       <c r="AV459" s="32"/>
       <c r="AY459" s="33"/>
     </row>
-    <row r="460" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR460" s="32"/>
       <c r="AV460" s="32"/>
       <c r="AY460" s="33"/>
     </row>
-    <row r="461" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR461" s="32"/>
       <c r="AV461" s="32"/>
       <c r="AY461" s="33"/>
     </row>
-    <row r="462" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR462" s="32"/>
       <c r="AV462" s="32"/>
       <c r="AY462" s="33"/>
     </row>
-    <row r="463" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR463" s="32"/>
       <c r="AV463" s="32"/>
       <c r="AY463" s="33"/>
     </row>
-    <row r="464" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR464" s="32"/>
       <c r="AV464" s="32"/>
       <c r="AY464" s="33"/>
     </row>
-    <row r="465" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR465" s="32"/>
       <c r="AV465" s="32"/>
       <c r="AY465" s="33"/>
     </row>
-    <row r="466" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR466" s="32"/>
       <c r="AV466" s="32"/>
       <c r="AY466" s="33"/>
     </row>
-    <row r="467" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR467" s="32"/>
       <c r="AV467" s="32"/>
       <c r="AY467" s="33"/>
     </row>
-    <row r="468" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR468" s="32"/>
       <c r="AV468" s="32"/>
       <c r="AY468" s="33"/>
     </row>
-    <row r="469" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR469" s="32"/>
       <c r="AV469" s="32"/>
       <c r="AY469" s="33"/>
     </row>
-    <row r="470" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR470" s="32"/>
       <c r="AV470" s="32"/>
       <c r="AY470" s="33"/>
     </row>
-    <row r="471" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR471" s="32"/>
       <c r="AV471" s="32"/>
       <c r="AY471" s="33"/>
     </row>
-    <row r="472" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR472" s="32"/>
       <c r="AV472" s="32"/>
       <c r="AY472" s="33"/>
     </row>
-    <row r="473" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR473" s="32"/>
       <c r="AV473" s="32"/>
       <c r="AY473" s="33"/>
     </row>
-    <row r="474" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR474" s="32"/>
       <c r="AV474" s="32"/>
       <c r="AY474" s="33"/>
     </row>
-    <row r="475" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR475" s="32"/>
       <c r="AV475" s="32"/>
       <c r="AY475" s="33"/>
     </row>
-    <row r="476" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR476" s="32"/>
       <c r="AV476" s="32"/>
       <c r="AY476" s="33"/>
     </row>
-    <row r="477" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR477" s="32"/>
       <c r="AV477" s="32"/>
       <c r="AY477" s="33"/>
     </row>
-    <row r="478" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR478" s="32"/>
       <c r="AV478" s="32"/>
       <c r="AY478" s="33"/>
     </row>
-    <row r="479" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR479" s="32"/>
       <c r="AV479" s="32"/>
       <c r="AY479" s="33"/>
     </row>
-    <row r="480" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR480" s="32"/>
       <c r="AV480" s="32"/>
       <c r="AY480" s="33"/>
     </row>
-    <row r="481" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR481" s="32"/>
       <c r="AV481" s="32"/>
       <c r="AY481" s="33"/>
     </row>
-    <row r="482" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR482" s="32"/>
       <c r="AV482" s="32"/>
       <c r="AY482" s="33"/>
     </row>
-    <row r="483" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR483" s="32"/>
       <c r="AV483" s="32"/>
       <c r="AY483" s="33"/>
     </row>
-    <row r="484" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR484" s="32"/>
       <c r="AV484" s="32"/>
       <c r="AY484" s="33"/>
     </row>
-    <row r="485" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR485" s="32"/>
       <c r="AV485" s="32"/>
       <c r="AY485" s="33"/>
     </row>
-    <row r="486" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR486" s="32"/>
       <c r="AV486" s="32"/>
       <c r="AY486" s="33"/>
     </row>
-    <row r="487" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR487" s="32"/>
       <c r="AV487" s="32"/>
       <c r="AY487" s="33"/>
     </row>
-    <row r="488" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR488" s="32"/>
       <c r="AV488" s="32"/>
       <c r="AY488" s="33"/>
     </row>
-    <row r="489" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR489" s="32"/>
       <c r="AV489" s="32"/>
       <c r="AY489" s="33"/>
     </row>
-    <row r="490" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR490" s="32"/>
       <c r="AV490" s="32"/>
       <c r="AY490" s="33"/>
     </row>
-    <row r="491" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR491" s="32"/>
       <c r="AV491" s="32"/>
       <c r="AY491" s="33"/>
     </row>
-    <row r="492" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR492" s="32"/>
       <c r="AV492" s="32"/>
       <c r="AY492" s="33"/>
     </row>
-    <row r="493" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR493" s="32"/>
       <c r="AV493" s="32"/>
       <c r="AY493" s="33"/>
     </row>
-    <row r="494" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR494" s="32"/>
       <c r="AV494" s="32"/>
       <c r="AY494" s="33"/>
     </row>
-    <row r="495" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR495" s="32"/>
       <c r="AV495" s="32"/>
       <c r="AY495" s="33"/>
     </row>
-    <row r="496" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR496" s="32"/>
       <c r="AV496" s="32"/>
       <c r="AY496" s="33"/>
     </row>
-    <row r="497" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR497" s="32"/>
       <c r="AV497" s="32"/>
       <c r="AY497" s="33"/>
     </row>
-    <row r="498" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR498" s="32"/>
       <c r="AV498" s="32"/>
       <c r="AY498" s="33"/>
     </row>
-    <row r="499" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR499" s="32"/>
       <c r="AV499" s="32"/>
       <c r="AY499" s="33"/>
     </row>
-    <row r="500" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR500" s="32"/>
       <c r="AV500" s="32"/>
       <c r="AY500" s="33"/>
     </row>
-    <row r="501" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR501" s="32"/>
       <c r="AV501" s="32"/>
       <c r="AY501" s="33"/>
     </row>
-    <row r="502" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR502" s="32"/>
       <c r="AV502" s="32"/>
       <c r="AY502" s="33"/>
     </row>
-    <row r="503" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR503" s="32"/>
       <c r="AV503" s="32"/>
       <c r="AY503" s="33"/>
     </row>
-    <row r="504" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR504" s="32"/>
       <c r="AV504" s="32"/>
       <c r="AY504" s="33"/>
     </row>
-    <row r="505" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR505" s="32"/>
       <c r="AV505" s="32"/>
       <c r="AY505" s="33"/>
     </row>
-    <row r="506" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR506" s="32"/>
       <c r="AV506" s="32"/>
       <c r="AY506" s="33"/>
     </row>
-    <row r="507" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR507" s="32"/>
       <c r="AV507" s="32"/>
       <c r="AY507" s="33"/>
     </row>
-    <row r="508" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR508" s="32"/>
       <c r="AV508" s="32"/>
       <c r="AY508" s="33"/>
     </row>
-    <row r="509" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR509" s="32"/>
       <c r="AV509" s="32"/>
       <c r="AY509" s="33"/>
     </row>
-    <row r="510" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR510" s="32"/>
       <c r="AV510" s="32"/>
       <c r="AY510" s="33"/>
     </row>
-    <row r="511" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR511" s="32"/>
       <c r="AV511" s="32"/>
       <c r="AY511" s="33"/>
     </row>
-    <row r="512" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR512" s="32"/>
       <c r="AV512" s="32"/>
       <c r="AY512" s="33"/>
     </row>
-    <row r="513" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR513" s="32"/>
       <c r="AV513" s="32"/>
       <c r="AY513" s="33"/>
     </row>
-    <row r="514" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR514" s="32"/>
       <c r="AV514" s="32"/>
       <c r="AY514" s="33"/>
     </row>
-    <row r="515" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR515" s="32"/>
       <c r="AV515" s="32"/>
       <c r="AY515" s="33"/>
     </row>
-    <row r="516" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR516" s="32"/>
       <c r="AV516" s="32"/>
       <c r="AY516" s="33"/>
     </row>
-    <row r="517" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR517" s="32"/>
       <c r="AV517" s="32"/>
       <c r="AY517" s="33"/>
     </row>
-    <row r="518" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR518" s="32"/>
       <c r="AV518" s="32"/>
       <c r="AY518" s="33"/>
     </row>
-    <row r="519" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR519" s="32"/>
       <c r="AV519" s="32"/>
       <c r="AY519" s="33"/>
     </row>
-    <row r="520" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR520" s="32"/>
       <c r="AV520" s="32"/>
       <c r="AY520" s="33"/>
     </row>
-    <row r="521" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR521" s="32"/>
       <c r="AV521" s="32"/>
       <c r="AY521" s="33"/>
     </row>
-    <row r="522" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR522" s="32"/>
       <c r="AV522" s="32"/>
       <c r="AY522" s="33"/>
     </row>
-    <row r="523" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR523" s="32"/>
       <c r="AV523" s="32"/>
       <c r="AY523" s="33"/>
     </row>
-    <row r="524" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR524" s="32"/>
       <c r="AV524" s="32"/>
       <c r="AY524" s="33"/>
     </row>
-    <row r="525" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR525" s="32"/>
       <c r="AV525" s="32"/>
       <c r="AY525" s="33"/>
     </row>
-    <row r="526" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR526" s="32"/>
       <c r="AV526" s="32"/>
       <c r="AY526" s="33"/>
     </row>
-    <row r="527" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR527" s="32"/>
       <c r="AV527" s="32"/>
       <c r="AY527" s="33"/>
     </row>
-    <row r="528" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR528" s="32"/>
       <c r="AV528" s="32"/>
       <c r="AY528" s="33"/>
     </row>
-    <row r="529" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR529" s="32"/>
       <c r="AV529" s="32"/>
       <c r="AY529" s="33"/>
     </row>
-    <row r="530" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR530" s="32"/>
       <c r="AV530" s="32"/>
       <c r="AY530" s="33"/>
     </row>
-    <row r="531" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR531" s="32"/>
       <c r="AV531" s="32"/>
       <c r="AY531" s="33"/>
     </row>
-    <row r="532" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR532" s="32"/>
       <c r="AV532" s="32"/>
       <c r="AY532" s="33"/>
     </row>
-    <row r="533" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR533" s="32"/>
       <c r="AV533" s="32"/>
       <c r="AY533" s="33"/>
     </row>
-    <row r="534" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR534" s="32"/>
       <c r="AV534" s="32"/>
       <c r="AY534" s="33"/>
     </row>
-    <row r="535" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR535" s="32"/>
       <c r="AV535" s="32"/>
       <c r="AY535" s="33"/>
     </row>
-    <row r="536" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR536" s="32"/>
       <c r="AV536" s="32"/>
       <c r="AY536" s="33"/>
     </row>
-    <row r="537" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR537" s="32"/>
       <c r="AV537" s="32"/>
       <c r="AY537" s="33"/>
     </row>
-    <row r="538" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR538" s="32"/>
       <c r="AV538" s="32"/>
       <c r="AY538" s="33"/>
     </row>
-    <row r="539" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR539" s="32"/>
       <c r="AV539" s="32"/>
       <c r="AY539" s="33"/>
     </row>
-    <row r="540" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR540" s="32"/>
       <c r="AV540" s="32"/>
       <c r="AY540" s="33"/>
     </row>
-    <row r="541" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR541" s="32"/>
       <c r="AV541" s="32"/>
       <c r="AY541" s="33"/>
     </row>
-    <row r="542" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR542" s="32"/>
       <c r="AV542" s="32"/>
       <c r="AY542" s="33"/>
     </row>
-    <row r="543" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR543" s="32"/>
       <c r="AV543" s="32"/>
       <c r="AY543" s="33"/>
     </row>
-    <row r="544" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR544" s="32"/>
       <c r="AV544" s="32"/>
       <c r="AY544" s="33"/>
     </row>
-    <row r="545" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR545" s="32"/>
       <c r="AV545" s="32"/>
       <c r="AY545" s="33"/>
     </row>
-    <row r="546" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR546" s="32"/>
       <c r="AV546" s="32"/>
       <c r="AY546" s="33"/>
     </row>
-    <row r="547" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR547" s="32"/>
       <c r="AV547" s="32"/>
       <c r="AY547" s="33"/>
     </row>
-    <row r="548" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR548" s="32"/>
       <c r="AV548" s="32"/>
       <c r="AY548" s="33"/>
     </row>
-    <row r="549" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR549" s="32"/>
       <c r="AV549" s="32"/>
       <c r="AY549" s="33"/>
     </row>
-    <row r="550" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR550" s="32"/>
       <c r="AV550" s="32"/>
       <c r="AY550" s="33"/>
     </row>
-    <row r="551" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR551" s="32"/>
       <c r="AV551" s="32"/>
       <c r="AY551" s="33"/>
     </row>
-    <row r="552" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR552" s="32"/>
       <c r="AV552" s="32"/>
       <c r="AY552" s="33"/>
     </row>
-    <row r="553" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR553" s="32"/>
       <c r="AV553" s="32"/>
       <c r="AY553" s="33"/>
     </row>
-    <row r="554" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR554" s="32"/>
       <c r="AV554" s="32"/>
       <c r="AY554" s="33"/>
     </row>
-    <row r="555" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR555" s="32"/>
       <c r="AV555" s="32"/>
       <c r="AY555" s="33"/>
     </row>
-    <row r="556" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR556" s="32"/>
       <c r="AV556" s="32"/>
       <c r="AY556" s="33"/>
     </row>
-    <row r="557" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR557" s="32"/>
       <c r="AV557" s="32"/>
       <c r="AY557" s="33"/>
     </row>
-    <row r="558" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR558" s="32"/>
       <c r="AV558" s="32"/>
       <c r="AY558" s="33"/>
     </row>
-    <row r="559" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR559" s="32"/>
       <c r="AV559" s="32"/>
       <c r="AY559" s="33"/>
     </row>
-    <row r="560" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR560" s="32"/>
       <c r="AV560" s="32"/>
       <c r="AY560" s="33"/>
     </row>
-    <row r="561" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR561" s="32"/>
       <c r="AV561" s="32"/>
       <c r="AY561" s="33"/>
     </row>
-    <row r="562" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR562" s="32"/>
       <c r="AV562" s="32"/>
       <c r="AY562" s="33"/>
     </row>
-    <row r="563" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR563" s="32"/>
       <c r="AV563" s="32"/>
       <c r="AY563" s="33"/>
     </row>
-    <row r="564" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR564" s="32"/>
       <c r="AV564" s="32"/>
       <c r="AY564" s="33"/>
     </row>
-    <row r="565" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR565" s="32"/>
       <c r="AV565" s="32"/>
       <c r="AY565" s="33"/>
     </row>
-    <row r="566" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR566" s="32"/>
       <c r="AV566" s="32"/>
       <c r="AY566" s="33"/>
     </row>
-    <row r="567" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR567" s="32"/>
       <c r="AV567" s="32"/>
       <c r="AY567" s="33"/>
     </row>
-    <row r="568" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR568" s="32"/>
       <c r="AV568" s="32"/>
       <c r="AY568" s="33"/>
     </row>
-    <row r="569" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR569" s="32"/>
       <c r="AV569" s="32"/>
       <c r="AY569" s="33"/>
     </row>
-    <row r="570" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR570" s="32"/>
       <c r="AV570" s="32"/>
       <c r="AY570" s="33"/>
     </row>
-    <row r="571" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR571" s="32"/>
       <c r="AV571" s="32"/>
       <c r="AY571" s="33"/>
     </row>
-    <row r="572" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR572" s="32"/>
       <c r="AV572" s="32"/>
       <c r="AY572" s="33"/>
     </row>
-    <row r="573" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR573" s="32"/>
       <c r="AV573" s="32"/>
       <c r="AY573" s="33"/>
     </row>
-    <row r="574" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR574" s="32"/>
       <c r="AV574" s="32"/>
       <c r="AY574" s="33"/>
     </row>
-    <row r="575" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR575" s="32"/>
       <c r="AV575" s="32"/>
       <c r="AY575" s="33"/>
     </row>
-    <row r="576" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR576" s="32"/>
       <c r="AV576" s="32"/>
       <c r="AY576" s="33"/>
     </row>
-    <row r="577" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR577" s="32"/>
       <c r="AV577" s="32"/>
       <c r="AY577" s="33"/>
     </row>
-    <row r="578" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR578" s="32"/>
       <c r="AV578" s="32"/>
       <c r="AY578" s="33"/>
     </row>
-    <row r="579" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR579" s="32"/>
       <c r="AV579" s="32"/>
       <c r="AY579" s="33"/>
     </row>
-    <row r="580" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR580" s="32"/>
       <c r="AV580" s="32"/>
       <c r="AY580" s="33"/>
     </row>
-    <row r="581" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR581" s="32"/>
       <c r="AV581" s="32"/>
       <c r="AY581" s="33"/>
     </row>
-    <row r="582" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR582" s="32"/>
       <c r="AV582" s="32"/>
       <c r="AY582" s="33"/>
     </row>
-    <row r="583" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR583" s="32"/>
       <c r="AV583" s="32"/>
       <c r="AY583" s="33"/>
     </row>
-    <row r="584" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR584" s="32"/>
       <c r="AV584" s="32"/>
       <c r="AY584" s="33"/>
     </row>
-    <row r="585" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR585" s="32"/>
       <c r="AV585" s="32"/>
       <c r="AY585" s="33"/>
     </row>
-    <row r="586" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR586" s="32"/>
       <c r="AV586" s="32"/>
       <c r="AY586" s="33"/>
     </row>
-    <row r="587" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR587" s="32"/>
       <c r="AV587" s="32"/>
       <c r="AY587" s="33"/>
     </row>
-    <row r="588" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR588" s="32"/>
       <c r="AV588" s="32"/>
       <c r="AY588" s="33"/>
     </row>
-    <row r="589" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR589" s="32"/>
       <c r="AV589" s="32"/>
       <c r="AY589" s="33"/>
     </row>
-    <row r="590" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR590" s="32"/>
       <c r="AV590" s="32"/>
       <c r="AY590" s="33"/>
     </row>
-    <row r="591" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR591" s="32"/>
       <c r="AV591" s="32"/>
       <c r="AY591" s="33"/>
     </row>
-    <row r="592" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR592" s="32"/>
       <c r="AV592" s="32"/>
       <c r="AY592" s="33"/>
     </row>
-    <row r="593" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR593" s="32"/>
       <c r="AV593" s="32"/>
       <c r="AY593" s="33"/>
     </row>
-    <row r="594" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR594" s="32"/>
       <c r="AV594" s="32"/>
       <c r="AY594" s="33"/>
     </row>
-    <row r="595" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR595" s="32"/>
       <c r="AV595" s="32"/>
       <c r="AY595" s="33"/>
     </row>
-    <row r="596" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR596" s="32"/>
       <c r="AV596" s="32"/>
       <c r="AY596" s="33"/>
     </row>
-    <row r="597" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR597" s="32"/>
       <c r="AV597" s="32"/>
       <c r="AY597" s="33"/>
     </row>
-    <row r="598" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR598" s="32"/>
       <c r="AV598" s="32"/>
       <c r="AY598" s="33"/>
     </row>
-    <row r="599" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR599" s="32"/>
       <c r="AV599" s="32"/>
       <c r="AY599" s="33"/>
     </row>
-    <row r="600" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR600" s="32"/>
       <c r="AV600" s="32"/>
       <c r="AY600" s="33"/>
     </row>
-    <row r="601" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR601" s="32"/>
       <c r="AV601" s="32"/>
       <c r="AY601" s="33"/>
     </row>
-    <row r="602" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR602" s="32"/>
       <c r="AV602" s="32"/>
       <c r="AY602" s="33"/>
     </row>
-    <row r="603" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR603" s="32"/>
       <c r="AV603" s="32"/>
       <c r="AY603" s="33"/>
     </row>
-    <row r="604" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR604" s="32"/>
       <c r="AV604" s="32"/>
       <c r="AY604" s="33"/>
     </row>
-    <row r="605" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR605" s="32"/>
       <c r="AV605" s="32"/>
       <c r="AY605" s="33"/>
     </row>
-    <row r="606" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR606" s="32"/>
       <c r="AV606" s="32"/>
       <c r="AY606" s="33"/>
     </row>
-    <row r="607" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR607" s="32"/>
       <c r="AV607" s="32"/>
       <c r="AY607" s="33"/>
     </row>
-    <row r="608" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR608" s="32"/>
       <c r="AV608" s="32"/>
       <c r="AY608" s="33"/>
     </row>
-    <row r="609" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR609" s="32"/>
       <c r="AV609" s="32"/>
       <c r="AY609" s="33"/>
     </row>
-    <row r="610" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR610" s="32"/>
       <c r="AV610" s="32"/>
       <c r="AY610" s="33"/>
     </row>
-    <row r="611" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR611" s="32"/>
       <c r="AV611" s="32"/>
       <c r="AY611" s="33"/>
     </row>
-    <row r="612" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR612" s="32"/>
       <c r="AV612" s="32"/>
       <c r="AY612" s="33"/>
     </row>
-    <row r="613" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR613" s="32"/>
       <c r="AV613" s="32"/>
       <c r="AY613" s="33"/>
     </row>
-    <row r="614" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR614" s="32"/>
       <c r="AV614" s="32"/>
       <c r="AY614" s="33"/>
     </row>
-    <row r="615" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR615" s="32"/>
       <c r="AV615" s="32"/>
       <c r="AY615" s="33"/>
     </row>
-    <row r="616" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR616" s="32"/>
       <c r="AV616" s="32"/>
       <c r="AY616" s="33"/>
     </row>
-    <row r="617" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR617" s="32"/>
       <c r="AV617" s="32"/>
       <c r="AY617" s="33"/>
     </row>
-    <row r="618" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR618" s="32"/>
       <c r="AV618" s="32"/>
       <c r="AY618" s="33"/>
     </row>
-    <row r="619" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR619" s="32"/>
       <c r="AV619" s="32"/>
       <c r="AY619" s="33"/>
     </row>
-    <row r="620" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR620" s="32"/>
       <c r="AV620" s="32"/>
       <c r="AY620" s="33"/>
     </row>
-    <row r="621" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR621" s="32"/>
       <c r="AV621" s="32"/>
       <c r="AY621" s="33"/>
     </row>
-    <row r="622" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR622" s="32"/>
       <c r="AV622" s="32"/>
       <c r="AY622" s="33"/>
     </row>
-    <row r="623" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR623" s="32"/>
       <c r="AV623" s="32"/>
       <c r="AY623" s="33"/>
     </row>
-    <row r="624" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR624" s="32"/>
       <c r="AV624" s="32"/>
       <c r="AY624" s="33"/>
     </row>
-    <row r="625" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR625" s="32"/>
       <c r="AV625" s="32"/>
       <c r="AY625" s="33"/>
     </row>
-    <row r="626" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR626" s="32"/>
       <c r="AV626" s="32"/>
       <c r="AY626" s="33"/>
     </row>
-    <row r="627" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR627" s="32"/>
       <c r="AV627" s="32"/>
       <c r="AY627" s="33"/>
     </row>
-    <row r="628" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR628" s="32"/>
       <c r="AV628" s="32"/>
       <c r="AY628" s="33"/>
     </row>
-    <row r="629" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR629" s="32"/>
       <c r="AV629" s="32"/>
       <c r="AY629" s="33"/>
     </row>
-    <row r="630" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR630" s="32"/>
       <c r="AV630" s="32"/>
       <c r="AY630" s="33"/>
     </row>
-    <row r="631" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR631" s="32"/>
       <c r="AV631" s="32"/>
       <c r="AY631" s="33"/>
     </row>
-    <row r="632" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR632" s="32"/>
       <c r="AV632" s="32"/>
       <c r="AY632" s="33"/>
     </row>
-    <row r="633" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR633" s="32"/>
       <c r="AV633" s="32"/>
       <c r="AY633" s="33"/>
     </row>
-    <row r="634" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR634" s="32"/>
       <c r="AV634" s="32"/>
       <c r="AY634" s="33"/>
     </row>
-    <row r="635" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR635" s="32"/>
       <c r="AV635" s="32"/>
       <c r="AY635" s="33"/>
     </row>
-    <row r="636" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR636" s="32"/>
       <c r="AV636" s="32"/>
       <c r="AY636" s="33"/>
     </row>
-    <row r="637" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR637" s="32"/>
       <c r="AV637" s="32"/>
       <c r="AY637" s="33"/>
     </row>
-    <row r="638" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR638" s="32"/>
       <c r="AV638" s="32"/>
       <c r="AY638" s="33"/>
     </row>
-    <row r="639" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR639" s="32"/>
       <c r="AV639" s="32"/>
       <c r="AY639" s="33"/>
     </row>
-    <row r="640" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR640" s="32"/>
       <c r="AV640" s="32"/>
       <c r="AY640" s="33"/>
     </row>
-    <row r="641" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR641" s="32"/>
       <c r="AV641" s="32"/>
       <c r="AY641" s="33"/>
     </row>
-    <row r="642" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR642" s="32"/>
       <c r="AV642" s="32"/>
       <c r="AY642" s="33"/>
     </row>
-    <row r="643" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR643" s="32"/>
       <c r="AV643" s="32"/>
       <c r="AY643" s="33"/>
     </row>
-    <row r="644" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR644" s="32"/>
       <c r="AV644" s="32"/>
       <c r="AY644" s="33"/>
     </row>
-    <row r="645" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR645" s="32"/>
       <c r="AV645" s="32"/>
       <c r="AY645" s="33"/>
     </row>
-    <row r="646" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR646" s="32"/>
       <c r="AV646" s="32"/>
       <c r="AY646" s="33"/>
     </row>
-    <row r="647" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR647" s="32"/>
       <c r="AV647" s="32"/>
       <c r="AY647" s="33"/>
     </row>
-    <row r="648" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR648" s="32"/>
       <c r="AV648" s="32"/>
       <c r="AY648" s="33"/>
     </row>
-    <row r="649" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR649" s="32"/>
       <c r="AV649" s="32"/>
       <c r="AY649" s="33"/>
     </row>
-    <row r="650" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR650" s="32"/>
       <c r="AV650" s="32"/>
       <c r="AY650" s="33"/>
     </row>
-    <row r="651" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR651" s="32"/>
       <c r="AV651" s="32"/>
       <c r="AY651" s="33"/>
     </row>
-    <row r="652" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR652" s="32"/>
       <c r="AV652" s="32"/>
       <c r="AY652" s="33"/>
     </row>
-    <row r="653" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR653" s="32"/>
       <c r="AV653" s="32"/>
       <c r="AY653" s="33"/>
     </row>
-    <row r="654" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR654" s="32"/>
       <c r="AV654" s="32"/>
       <c r="AY654" s="33"/>
     </row>
-    <row r="655" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR655" s="32"/>
       <c r="AV655" s="32"/>
       <c r="AY655" s="33"/>
     </row>
-    <row r="656" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR656" s="32"/>
       <c r="AV656" s="32"/>
       <c r="AY656" s="33"/>
     </row>
-    <row r="657" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR657" s="32"/>
       <c r="AV657" s="32"/>
       <c r="AY657" s="33"/>
     </row>
-    <row r="658" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR658" s="32"/>
       <c r="AV658" s="32"/>
       <c r="AY658" s="33"/>
     </row>
-    <row r="659" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR659" s="32"/>
       <c r="AV659" s="32"/>
       <c r="AY659" s="33"/>
     </row>
-    <row r="660" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR660" s="32"/>
       <c r="AV660" s="32"/>
       <c r="AY660" s="33"/>
     </row>
-    <row r="661" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR661" s="32"/>
       <c r="AV661" s="32"/>
       <c r="AY661" s="33"/>
     </row>
-    <row r="662" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR662" s="32"/>
       <c r="AV662" s="32"/>
       <c r="AY662" s="33"/>
     </row>
-    <row r="663" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR663" s="32"/>
       <c r="AV663" s="32"/>
       <c r="AY663" s="33"/>
     </row>
-    <row r="664" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR664" s="32"/>
       <c r="AV664" s="32"/>
       <c r="AY664" s="33"/>
     </row>
-    <row r="665" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR665" s="32"/>
       <c r="AV665" s="32"/>
       <c r="AY665" s="33"/>
     </row>
-    <row r="666" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR666" s="32"/>
       <c r="AV666" s="32"/>
       <c r="AY666" s="33"/>
     </row>
-    <row r="667" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR667" s="32"/>
       <c r="AV667" s="32"/>
       <c r="AY667" s="33"/>
     </row>
-    <row r="668" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR668" s="32"/>
       <c r="AV668" s="32"/>
       <c r="AY668" s="33"/>
     </row>
-    <row r="669" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR669" s="32"/>
       <c r="AV669" s="32"/>
       <c r="AY669" s="33"/>
     </row>
-    <row r="670" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR670" s="32"/>
       <c r="AV670" s="32"/>
       <c r="AY670" s="33"/>
     </row>
-    <row r="671" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR671" s="32"/>
       <c r="AV671" s="32"/>
       <c r="AY671" s="33"/>
     </row>
-    <row r="672" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR672" s="32"/>
       <c r="AV672" s="32"/>
       <c r="AY672" s="33"/>
     </row>
-    <row r="673" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR673" s="32"/>
       <c r="AV673" s="32"/>
       <c r="AY673" s="33"/>
     </row>
-    <row r="674" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR674" s="32"/>
       <c r="AV674" s="32"/>
       <c r="AY674" s="33"/>
     </row>
-    <row r="675" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR675" s="32"/>
       <c r="AV675" s="32"/>
       <c r="AY675" s="33"/>
     </row>
-    <row r="676" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR676" s="32"/>
       <c r="AV676" s="32"/>
       <c r="AY676" s="33"/>
     </row>
-    <row r="677" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR677" s="32"/>
       <c r="AV677" s="32"/>
       <c r="AY677" s="33"/>
     </row>
-    <row r="678" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR678" s="32"/>
       <c r="AV678" s="32"/>
       <c r="AY678" s="33"/>
     </row>
-    <row r="679" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR679" s="32"/>
       <c r="AV679" s="32"/>
       <c r="AY679" s="33"/>
     </row>
-    <row r="680" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR680" s="32"/>
       <c r="AV680" s="32"/>
       <c r="AY680" s="33"/>
     </row>
-    <row r="681" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR681" s="32"/>
       <c r="AV681" s="32"/>
       <c r="AY681" s="33"/>
     </row>
-    <row r="682" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR682" s="32"/>
       <c r="AV682" s="32"/>
       <c r="AY682" s="33"/>
     </row>
-    <row r="683" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR683" s="32"/>
       <c r="AV683" s="32"/>
       <c r="AY683" s="33"/>
     </row>
-    <row r="684" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR684" s="32"/>
       <c r="AV684" s="32"/>
       <c r="AY684" s="33"/>
     </row>
-    <row r="685" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR685" s="32"/>
       <c r="AV685" s="32"/>
       <c r="AY685" s="33"/>
     </row>
-    <row r="686" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR686" s="32"/>
       <c r="AV686" s="32"/>
       <c r="AY686" s="33"/>
     </row>
-    <row r="687" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR687" s="32"/>
       <c r="AV687" s="32"/>
       <c r="AY687" s="33"/>
     </row>
-    <row r="688" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR688" s="32"/>
       <c r="AV688" s="32"/>
       <c r="AY688" s="33"/>
     </row>
-    <row r="689" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR689" s="32"/>
       <c r="AV689" s="32"/>
       <c r="AY689" s="33"/>
     </row>
-    <row r="690" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR690" s="32"/>
       <c r="AV690" s="32"/>
       <c r="AY690" s="33"/>
     </row>
-    <row r="691" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR691" s="32"/>
       <c r="AV691" s="32"/>
       <c r="AY691" s="33"/>
     </row>
-    <row r="692" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR692" s="32"/>
       <c r="AV692" s="32"/>
       <c r="AY692" s="33"/>
     </row>
-    <row r="693" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR693" s="32"/>
       <c r="AV693" s="32"/>
       <c r="AY693" s="33"/>
     </row>
-    <row r="694" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR694" s="32"/>
       <c r="AV694" s="32"/>
       <c r="AY694" s="33"/>
     </row>
-    <row r="695" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR695" s="32"/>
       <c r="AV695" s="32"/>
       <c r="AY695" s="33"/>
     </row>
-    <row r="696" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR696" s="32"/>
       <c r="AV696" s="32"/>
       <c r="AY696" s="33"/>
     </row>
-    <row r="697" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR697" s="32"/>
       <c r="AV697" s="32"/>
       <c r="AY697" s="33"/>
     </row>
-    <row r="698" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR698" s="32"/>
       <c r="AV698" s="32"/>
       <c r="AY698" s="33"/>
     </row>
-    <row r="699" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR699" s="32"/>
       <c r="AV699" s="32"/>
       <c r="AY699" s="33"/>
     </row>
-    <row r="700" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR700" s="32"/>
       <c r="AV700" s="32"/>
       <c r="AY700" s="33"/>
     </row>
-    <row r="701" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR701" s="32"/>
       <c r="AV701" s="32"/>
       <c r="AY701" s="33"/>
     </row>
-    <row r="702" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR702" s="32"/>
       <c r="AV702" s="32"/>
       <c r="AY702" s="33"/>
     </row>
-    <row r="703" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR703" s="32"/>
       <c r="AV703" s="32"/>
       <c r="AY703" s="33"/>
     </row>
-    <row r="704" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR704" s="32"/>
       <c r="AV704" s="32"/>
       <c r="AY704" s="33"/>
     </row>
-    <row r="705" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR705" s="32"/>
       <c r="AV705" s="32"/>
       <c r="AY705" s="33"/>
     </row>
-    <row r="706" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR706" s="32"/>
       <c r="AV706" s="32"/>
       <c r="AY706" s="33"/>
     </row>
-    <row r="707" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR707" s="32"/>
       <c r="AV707" s="32"/>
       <c r="AY707" s="33"/>
     </row>
-    <row r="708" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR708" s="32"/>
       <c r="AV708" s="32"/>
       <c r="AY708" s="33"/>
     </row>
-    <row r="709" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR709" s="32"/>
       <c r="AV709" s="32"/>
       <c r="AY709" s="33"/>
     </row>
-    <row r="710" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR710" s="32"/>
       <c r="AV710" s="32"/>
       <c r="AY710" s="33"/>
     </row>
-    <row r="711" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR711" s="32"/>
       <c r="AV711" s="32"/>
       <c r="AY711" s="33"/>
     </row>
-    <row r="712" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR712" s="32"/>
       <c r="AV712" s="32"/>
       <c r="AY712" s="33"/>
     </row>
-    <row r="713" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR713" s="32"/>
       <c r="AV713" s="32"/>
       <c r="AY713" s="33"/>
     </row>
-    <row r="714" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR714" s="32"/>
       <c r="AV714" s="32"/>
       <c r="AY714" s="33"/>
     </row>
-    <row r="715" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR715" s="32"/>
       <c r="AV715" s="32"/>
       <c r="AY715" s="33"/>
     </row>
-    <row r="716" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR716" s="32"/>
       <c r="AV716" s="32"/>
       <c r="AY716" s="33"/>
     </row>
-    <row r="717" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR717" s="32"/>
       <c r="AV717" s="32"/>
       <c r="AY717" s="33"/>
     </row>
-    <row r="718" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR718" s="32"/>
       <c r="AV718" s="32"/>
       <c r="AY718" s="33"/>
     </row>
-    <row r="719" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR719" s="32"/>
       <c r="AV719" s="32"/>
       <c r="AY719" s="33"/>
     </row>
-    <row r="720" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR720" s="32"/>
       <c r="AV720" s="32"/>
       <c r="AY720" s="33"/>
     </row>
-    <row r="721" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR721" s="32"/>
       <c r="AV721" s="32"/>
       <c r="AY721" s="33"/>
     </row>
-    <row r="722" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR722" s="32"/>
       <c r="AV722" s="32"/>
       <c r="AY722" s="33"/>
     </row>
-    <row r="723" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR723" s="32"/>
       <c r="AV723" s="32"/>
       <c r="AY723" s="33"/>
     </row>
-    <row r="724" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR724" s="32"/>
       <c r="AV724" s="32"/>
       <c r="AY724" s="33"/>
     </row>
-    <row r="725" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR725" s="32"/>
       <c r="AV725" s="32"/>
       <c r="AY725" s="33"/>
     </row>
-    <row r="726" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR726" s="32"/>
       <c r="AV726" s="32"/>
       <c r="AY726" s="33"/>
     </row>
-    <row r="727" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR727" s="32"/>
       <c r="AV727" s="32"/>
       <c r="AY727" s="33"/>
     </row>
-    <row r="728" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR728" s="32"/>
       <c r="AV728" s="32"/>
       <c r="AY728" s="33"/>
     </row>
-    <row r="729" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR729" s="32"/>
       <c r="AV729" s="32"/>
       <c r="AY729" s="33"/>
     </row>
-    <row r="730" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR730" s="32"/>
       <c r="AV730" s="32"/>
       <c r="AY730" s="33"/>
     </row>
-    <row r="731" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR731" s="32"/>
       <c r="AV731" s="32"/>
       <c r="AY731" s="33"/>
     </row>
-    <row r="732" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR732" s="32"/>
       <c r="AV732" s="32"/>
       <c r="AY732" s="33"/>
     </row>
-    <row r="733" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR733" s="32"/>
       <c r="AV733" s="32"/>
       <c r="AY733" s="33"/>
     </row>
-    <row r="734" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR734" s="32"/>
       <c r="AV734" s="32"/>
       <c r="AY734" s="33"/>
     </row>
-    <row r="735" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR735" s="32"/>
       <c r="AV735" s="32"/>
       <c r="AY735" s="33"/>
     </row>
-    <row r="736" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR736" s="32"/>
       <c r="AV736" s="32"/>
       <c r="AY736" s="33"/>
     </row>
-    <row r="737" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR737" s="32"/>
       <c r="AV737" s="32"/>
       <c r="AY737" s="33"/>
     </row>
-    <row r="738" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR738" s="32"/>
       <c r="AV738" s="32"/>
       <c r="AY738" s="33"/>
     </row>
-    <row r="739" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR739" s="32"/>
       <c r="AV739" s="32"/>
       <c r="AY739" s="33"/>
     </row>
-    <row r="740" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR740" s="32"/>
       <c r="AV740" s="32"/>
       <c r="AY740" s="33"/>
     </row>
-    <row r="741" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR741" s="32"/>
       <c r="AV741" s="32"/>
       <c r="AY741" s="33"/>
     </row>
-    <row r="742" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR742" s="32"/>
       <c r="AV742" s="32"/>
       <c r="AY742" s="33"/>
     </row>
-    <row r="743" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR743" s="32"/>
       <c r="AV743" s="32"/>
       <c r="AY743" s="33"/>
     </row>
-    <row r="744" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR744" s="32"/>
       <c r="AV744" s="32"/>
       <c r="AY744" s="33"/>
     </row>
-    <row r="745" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR745" s="32"/>
       <c r="AV745" s="32"/>
       <c r="AY745" s="33"/>
     </row>
-    <row r="746" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR746" s="32"/>
       <c r="AV746" s="32"/>
       <c r="AY746" s="33"/>
     </row>
-    <row r="747" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR747" s="32"/>
       <c r="AV747" s="32"/>
       <c r="AY747" s="33"/>
     </row>
-    <row r="748" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR748" s="32"/>
       <c r="AV748" s="32"/>
       <c r="AY748" s="33"/>
     </row>
-    <row r="749" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR749" s="32"/>
       <c r="AV749" s="32"/>
       <c r="AY749" s="33"/>
     </row>
-    <row r="750" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR750" s="32"/>
       <c r="AV750" s="32"/>
       <c r="AY750" s="33"/>
     </row>
-    <row r="751" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR751" s="32"/>
       <c r="AV751" s="32"/>
       <c r="AY751" s="33"/>
     </row>
-    <row r="752" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR752" s="32"/>
       <c r="AV752" s="32"/>
       <c r="AY752" s="33"/>
     </row>
-    <row r="753" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR753" s="32"/>
       <c r="AV753" s="32"/>
       <c r="AY753" s="33"/>
     </row>
-    <row r="754" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR754" s="32"/>
       <c r="AV754" s="32"/>
       <c r="AY754" s="33"/>
     </row>
-    <row r="755" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR755" s="32"/>
       <c r="AV755" s="32"/>
       <c r="AY755" s="33"/>
     </row>
-    <row r="756" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR756" s="32"/>
       <c r="AV756" s="32"/>
       <c r="AY756" s="33"/>
     </row>
-    <row r="757" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR757" s="32"/>
       <c r="AV757" s="32"/>
       <c r="AY757" s="33"/>
     </row>
-    <row r="758" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR758" s="32"/>
       <c r="AV758" s="32"/>
       <c r="AY758" s="33"/>
     </row>
-    <row r="759" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR759" s="32"/>
       <c r="AV759" s="32"/>
       <c r="AY759" s="33"/>
     </row>
-    <row r="760" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR760" s="32"/>
       <c r="AV760" s="32"/>
       <c r="AY760" s="33"/>
     </row>
-    <row r="761" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR761" s="32"/>
       <c r="AV761" s="32"/>
       <c r="AY761" s="33"/>
     </row>
-    <row r="762" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR762" s="32"/>
       <c r="AV762" s="32"/>
       <c r="AY762" s="33"/>
     </row>
-    <row r="763" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR763" s="32"/>
       <c r="AV763" s="32"/>
       <c r="AY763" s="33"/>
     </row>
-    <row r="764" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR764" s="32"/>
       <c r="AV764" s="32"/>
       <c r="AY764" s="33"/>
     </row>
-    <row r="765" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR765" s="32"/>
       <c r="AV765" s="32"/>
       <c r="AY765" s="33"/>
     </row>
-    <row r="766" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR766" s="32"/>
       <c r="AV766" s="32"/>
       <c r="AY766" s="33"/>
     </row>
-    <row r="767" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR767" s="32"/>
       <c r="AV767" s="32"/>
       <c r="AY767" s="33"/>
     </row>
-    <row r="768" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR768" s="32"/>
       <c r="AV768" s="32"/>
       <c r="AY768" s="33"/>
     </row>
-    <row r="769" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR769" s="32"/>
       <c r="AV769" s="32"/>
       <c r="AY769" s="33"/>
     </row>
-    <row r="770" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR770" s="32"/>
       <c r="AV770" s="32"/>
       <c r="AY770" s="33"/>
     </row>
-    <row r="771" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR771" s="32"/>
       <c r="AV771" s="32"/>
       <c r="AY771" s="33"/>
     </row>
-    <row r="772" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR772" s="32"/>
       <c r="AV772" s="32"/>
       <c r="AY772" s="33"/>
     </row>
-    <row r="773" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR773" s="32"/>
       <c r="AV773" s="32"/>
       <c r="AY773" s="33"/>
     </row>
-    <row r="774" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR774" s="32"/>
       <c r="AV774" s="32"/>
       <c r="AY774" s="33"/>
     </row>
-    <row r="775" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR775" s="32"/>
       <c r="AV775" s="32"/>
       <c r="AY775" s="33"/>
     </row>
-    <row r="776" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR776" s="32"/>
       <c r="AV776" s="32"/>
       <c r="AY776" s="33"/>
     </row>
-    <row r="777" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR777" s="32"/>
       <c r="AV777" s="32"/>
       <c r="AY777" s="33"/>
     </row>
-    <row r="778" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR778" s="32"/>
       <c r="AV778" s="32"/>
       <c r="AY778" s="33"/>
     </row>
-    <row r="779" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR779" s="32"/>
       <c r="AV779" s="32"/>
       <c r="AY779" s="33"/>
     </row>
-    <row r="780" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR780" s="32"/>
       <c r="AV780" s="32"/>
       <c r="AY780" s="33"/>
     </row>
-    <row r="781" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR781" s="32"/>
       <c r="AV781" s="32"/>
       <c r="AY781" s="33"/>
     </row>
-    <row r="782" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR782" s="32"/>
       <c r="AV782" s="32"/>
       <c r="AY782" s="33"/>
     </row>
-    <row r="783" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR783" s="32"/>
       <c r="AV783" s="32"/>
       <c r="AY783" s="33"/>
     </row>
-    <row r="784" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR784" s="32"/>
       <c r="AV784" s="32"/>
       <c r="AY784" s="33"/>
     </row>
-    <row r="785" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR785" s="32"/>
       <c r="AV785" s="32"/>
       <c r="AY785" s="33"/>
     </row>
-    <row r="786" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR786" s="32"/>
       <c r="AV786" s="32"/>
       <c r="AY786" s="33"/>
     </row>
-    <row r="787" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR787" s="32"/>
       <c r="AV787" s="32"/>
       <c r="AY787" s="33"/>
     </row>
-    <row r="788" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR788" s="32"/>
       <c r="AV788" s="32"/>
       <c r="AY788" s="33"/>
     </row>
-    <row r="789" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR789" s="32"/>
       <c r="AV789" s="32"/>
       <c r="AY789" s="33"/>
     </row>
-    <row r="790" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR790" s="32"/>
       <c r="AV790" s="32"/>
       <c r="AY790" s="33"/>
     </row>
-    <row r="791" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR791" s="32"/>
       <c r="AV791" s="32"/>
       <c r="AY791" s="33"/>
     </row>
-    <row r="792" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR792" s="32"/>
       <c r="AV792" s="32"/>
       <c r="AY792" s="33"/>
     </row>
-    <row r="793" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR793" s="32"/>
       <c r="AV793" s="32"/>
       <c r="AY793" s="33"/>
     </row>
-    <row r="794" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR794" s="32"/>
       <c r="AV794" s="32"/>
       <c r="AY794" s="33"/>
     </row>
-    <row r="795" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR795" s="32"/>
       <c r="AV795" s="32"/>
       <c r="AY795" s="33"/>
     </row>
-    <row r="796" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR796" s="32"/>
       <c r="AV796" s="32"/>
       <c r="AY796" s="33"/>
     </row>
-    <row r="797" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR797" s="32"/>
       <c r="AV797" s="32"/>
       <c r="AY797" s="33"/>
     </row>
-    <row r="798" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR798" s="32"/>
       <c r="AV798" s="32"/>
       <c r="AY798" s="33"/>
     </row>
-    <row r="799" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR799" s="32"/>
       <c r="AV799" s="32"/>
       <c r="AY799" s="33"/>
     </row>
-    <row r="800" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR800" s="32"/>
       <c r="AV800" s="32"/>
       <c r="AY800" s="33"/>
     </row>
-    <row r="801" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR801" s="32"/>
       <c r="AV801" s="32"/>
       <c r="AY801" s="33"/>
     </row>
-    <row r="802" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR802" s="32"/>
       <c r="AV802" s="32"/>
       <c r="AY802" s="33"/>
     </row>
-    <row r="803" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR803" s="32"/>
       <c r="AV803" s="32"/>
       <c r="AY803" s="33"/>
     </row>
-    <row r="804" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR804" s="32"/>
       <c r="AV804" s="32"/>
       <c r="AY804" s="33"/>
     </row>
-    <row r="805" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR805" s="32"/>
       <c r="AV805" s="32"/>
       <c r="AY805" s="33"/>
     </row>
-    <row r="806" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR806" s="32"/>
       <c r="AV806" s="32"/>
       <c r="AY806" s="33"/>
     </row>
-    <row r="807" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR807" s="32"/>
       <c r="AV807" s="32"/>
       <c r="AY807" s="33"/>
     </row>
-    <row r="808" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR808" s="32"/>
       <c r="AV808" s="32"/>
       <c r="AY808" s="33"/>
     </row>
-    <row r="809" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR809" s="32"/>
       <c r="AV809" s="32"/>
       <c r="AY809" s="33"/>
     </row>
-    <row r="810" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR810" s="32"/>
       <c r="AV810" s="32"/>
       <c r="AY810" s="33"/>
     </row>
-    <row r="811" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR811" s="32"/>
       <c r="AV811" s="32"/>
       <c r="AY811" s="33"/>
     </row>
-    <row r="812" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR812" s="32"/>
       <c r="AV812" s="32"/>
       <c r="AY812" s="33"/>
     </row>
-    <row r="813" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR813" s="32"/>
       <c r="AV813" s="32"/>
       <c r="AY813" s="33"/>
     </row>
-    <row r="814" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR814" s="32"/>
       <c r="AV814" s="32"/>
       <c r="AY814" s="33"/>
     </row>
-    <row r="815" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR815" s="32"/>
       <c r="AV815" s="32"/>
       <c r="AY815" s="33"/>
     </row>
-    <row r="816" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR816" s="32"/>
       <c r="AV816" s="32"/>
       <c r="AY816" s="33"/>
     </row>
-    <row r="817" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR817" s="32"/>
       <c r="AV817" s="32"/>
       <c r="AY817" s="33"/>
     </row>
-    <row r="818" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR818" s="32"/>
       <c r="AV818" s="32"/>
       <c r="AY818" s="33"/>
     </row>
-    <row r="819" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR819" s="32"/>
       <c r="AV819" s="32"/>
       <c r="AY819" s="33"/>
     </row>
-    <row r="820" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR820" s="32"/>
       <c r="AV820" s="32"/>
       <c r="AY820" s="33"/>
     </row>
-    <row r="821" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR821" s="32"/>
       <c r="AV821" s="32"/>
       <c r="AY821" s="33"/>
     </row>
-    <row r="822" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR822" s="32"/>
       <c r="AV822" s="32"/>
       <c r="AY822" s="33"/>
     </row>
-    <row r="823" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR823" s="32"/>
       <c r="AV823" s="32"/>
       <c r="AY823" s="33"/>
     </row>
-    <row r="824" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR824" s="32"/>
       <c r="AV824" s="32"/>
       <c r="AY824" s="33"/>
     </row>
-    <row r="825" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR825" s="32"/>
       <c r="AV825" s="32"/>
       <c r="AY825" s="33"/>
     </row>
-    <row r="826" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR826" s="32"/>
       <c r="AV826" s="32"/>
       <c r="AY826" s="33"/>
     </row>
-    <row r="827" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR827" s="32"/>
       <c r="AV827" s="32"/>
       <c r="AY827" s="33"/>
     </row>
-    <row r="828" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR828" s="32"/>
       <c r="AV828" s="32"/>
       <c r="AY828" s="33"/>
     </row>
-    <row r="829" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR829" s="32"/>
       <c r="AV829" s="32"/>
       <c r="AY829" s="33"/>
     </row>
-    <row r="830" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR830" s="32"/>
       <c r="AV830" s="32"/>
       <c r="AY830" s="33"/>
     </row>
-    <row r="831" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR831" s="32"/>
       <c r="AV831" s="32"/>
       <c r="AY831" s="33"/>
     </row>
-    <row r="832" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR832" s="32"/>
       <c r="AV832" s="32"/>
       <c r="AY832" s="33"/>
     </row>
-    <row r="833" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR833" s="32"/>
       <c r="AV833" s="32"/>
       <c r="AY833" s="33"/>
     </row>
-    <row r="834" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR834" s="32"/>
       <c r="AV834" s="32"/>
       <c r="AY834" s="33"/>
     </row>
-    <row r="835" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR835" s="32"/>
       <c r="AV835" s="32"/>
       <c r="AY835" s="33"/>
     </row>
-    <row r="836" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR836" s="32"/>
       <c r="AV836" s="32"/>
       <c r="AY836" s="33"/>
     </row>
-    <row r="837" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR837" s="32"/>
       <c r="AV837" s="32"/>
       <c r="AY837" s="33"/>
     </row>
-    <row r="838" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR838" s="32"/>
       <c r="AV838" s="32"/>
       <c r="AY838" s="33"/>
     </row>
-    <row r="839" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR839" s="32"/>
       <c r="AV839" s="32"/>
       <c r="AY839" s="33"/>
     </row>
-    <row r="840" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR840" s="32"/>
       <c r="AV840" s="32"/>
       <c r="AY840" s="33"/>
     </row>
-    <row r="841" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR841" s="32"/>
       <c r="AV841" s="32"/>
       <c r="AY841" s="33"/>
     </row>
-    <row r="842" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR842" s="32"/>
       <c r="AV842" s="32"/>
       <c r="AY842" s="33"/>
     </row>
-    <row r="843" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR843" s="32"/>
       <c r="AV843" s="32"/>
       <c r="AY843" s="33"/>
     </row>
-    <row r="844" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR844" s="32"/>
       <c r="AV844" s="32"/>
       <c r="AY844" s="33"/>
     </row>
-    <row r="845" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR845" s="32"/>
       <c r="AV845" s="32"/>
       <c r="AY845" s="33"/>
     </row>
-    <row r="846" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR846" s="32"/>
       <c r="AV846" s="32"/>
       <c r="AY846" s="33"/>
     </row>
-    <row r="847" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR847" s="32"/>
       <c r="AV847" s="32"/>
       <c r="AY847" s="33"/>
     </row>
-    <row r="848" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR848" s="32"/>
       <c r="AV848" s="32"/>
       <c r="AY848" s="33"/>
     </row>
-    <row r="849" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR849" s="32"/>
       <c r="AV849" s="32"/>
       <c r="AY849" s="33"/>
     </row>
-    <row r="850" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR850" s="32"/>
       <c r="AV850" s="32"/>
       <c r="AY850" s="33"/>
     </row>
-    <row r="851" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR851" s="32"/>
       <c r="AV851" s="32"/>
       <c r="AY851" s="33"/>
     </row>
-    <row r="852" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR852" s="32"/>
       <c r="AV852" s="32"/>
       <c r="AY852" s="33"/>
     </row>
-    <row r="853" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR853" s="32"/>
       <c r="AV853" s="32"/>
       <c r="AY853" s="33"/>
     </row>
-    <row r="854" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR854" s="32"/>
       <c r="AV854" s="32"/>
       <c r="AY854" s="33"/>
     </row>
-    <row r="855" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR855" s="32"/>
       <c r="AV855" s="32"/>
       <c r="AY855" s="33"/>
     </row>
-    <row r="856" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR856" s="32"/>
       <c r="AV856" s="32"/>
       <c r="AY856" s="33"/>
     </row>
-    <row r="857" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR857" s="32"/>
       <c r="AV857" s="32"/>
       <c r="AY857" s="33"/>
     </row>
-    <row r="858" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR858" s="32"/>
       <c r="AV858" s="32"/>
       <c r="AY858" s="33"/>
     </row>
-    <row r="859" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR859" s="32"/>
       <c r="AV859" s="32"/>
       <c r="AY859" s="33"/>
     </row>
-    <row r="860" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR860" s="32"/>
       <c r="AV860" s="32"/>
       <c r="AY860" s="33"/>
     </row>
-    <row r="861" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR861" s="32"/>
       <c r="AV861" s="32"/>
       <c r="AY861" s="33"/>
     </row>
-    <row r="862" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR862" s="32"/>
       <c r="AV862" s="32"/>
       <c r="AY862" s="33"/>
     </row>
-    <row r="863" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR863" s="32"/>
       <c r="AV863" s="32"/>
       <c r="AY863" s="33"/>
     </row>
-    <row r="864" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR864" s="32"/>
       <c r="AV864" s="32"/>
       <c r="AY864" s="33"/>
     </row>
-    <row r="865" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR865" s="32"/>
       <c r="AV865" s="32"/>
       <c r="AY865" s="33"/>
     </row>
-    <row r="866" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR866" s="32"/>
       <c r="AV866" s="32"/>
       <c r="AY866" s="33"/>
     </row>
-    <row r="867" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR867" s="32"/>
       <c r="AV867" s="32"/>
       <c r="AY867" s="33"/>
     </row>
-    <row r="868" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR868" s="32"/>
       <c r="AV868" s="32"/>
       <c r="AY868" s="33"/>
     </row>
-    <row r="869" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR869" s="32"/>
       <c r="AV869" s="32"/>
       <c r="AY869" s="33"/>
     </row>
-    <row r="870" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR870" s="32"/>
       <c r="AV870" s="32"/>
       <c r="AY870" s="33"/>
     </row>
-    <row r="871" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR871" s="32"/>
       <c r="AV871" s="32"/>
       <c r="AY871" s="33"/>
     </row>
-    <row r="872" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR872" s="32"/>
       <c r="AV872" s="32"/>
       <c r="AY872" s="33"/>
     </row>
-    <row r="873" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR873" s="32"/>
       <c r="AV873" s="32"/>
       <c r="AY873" s="33"/>
     </row>
-    <row r="874" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR874" s="32"/>
       <c r="AV874" s="32"/>
       <c r="AY874" s="33"/>
     </row>
-    <row r="875" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR875" s="32"/>
       <c r="AV875" s="32"/>
       <c r="AY875" s="33"/>
     </row>
-    <row r="876" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR876" s="32"/>
       <c r="AV876" s="32"/>
       <c r="AY876" s="33"/>
     </row>
-    <row r="877" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR877" s="32"/>
       <c r="AV877" s="32"/>
       <c r="AY877" s="33"/>
     </row>
-    <row r="878" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR878" s="32"/>
       <c r="AV878" s="32"/>
       <c r="AY878" s="33"/>
     </row>
-    <row r="879" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR879" s="32"/>
       <c r="AV879" s="32"/>
       <c r="AY879" s="33"/>
     </row>
-    <row r="880" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR880" s="32"/>
       <c r="AV880" s="32"/>
       <c r="AY880" s="33"/>
     </row>
-    <row r="881" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR881" s="32"/>
       <c r="AV881" s="32"/>
       <c r="AY881" s="33"/>
     </row>
-    <row r="882" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR882" s="32"/>
       <c r="AV882" s="32"/>
       <c r="AY882" s="33"/>
     </row>
-    <row r="883" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR883" s="32"/>
       <c r="AV883" s="32"/>
       <c r="AY883" s="33"/>
     </row>
-    <row r="884" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR884" s="32"/>
       <c r="AV884" s="32"/>
       <c r="AY884" s="33"/>
     </row>
-    <row r="885" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR885" s="32"/>
       <c r="AV885" s="32"/>
       <c r="AY885" s="33"/>
     </row>
-    <row r="886" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR886" s="32"/>
       <c r="AV886" s="32"/>
       <c r="AY886" s="33"/>
     </row>
-    <row r="887" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR887" s="32"/>
       <c r="AV887" s="32"/>
       <c r="AY887" s="33"/>
     </row>
-    <row r="888" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR888" s="32"/>
       <c r="AV888" s="32"/>
       <c r="AY888" s="33"/>
     </row>
-    <row r="889" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR889" s="32"/>
       <c r="AV889" s="32"/>
       <c r="AY889" s="33"/>
     </row>
-    <row r="890" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR890" s="32"/>
       <c r="AV890" s="32"/>
       <c r="AY890" s="33"/>
     </row>
-    <row r="891" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR891" s="32"/>
       <c r="AV891" s="32"/>
       <c r="AY891" s="33"/>
     </row>
-    <row r="892" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR892" s="32"/>
       <c r="AV892" s="32"/>
       <c r="AY892" s="33"/>
     </row>
-    <row r="893" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR893" s="32"/>
       <c r="AV893" s="32"/>
       <c r="AY893" s="33"/>
     </row>
-    <row r="894" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR894" s="32"/>
       <c r="AV894" s="32"/>
       <c r="AY894" s="33"/>
     </row>
-    <row r="895" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR895" s="32"/>
       <c r="AV895" s="32"/>
       <c r="AY895" s="33"/>
     </row>
-    <row r="896" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR896" s="32"/>
       <c r="AV896" s="32"/>
       <c r="AY896" s="33"/>
     </row>
-    <row r="897" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR897" s="32"/>
       <c r="AV897" s="32"/>
       <c r="AY897" s="33"/>
     </row>
-    <row r="898" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR898" s="32"/>
       <c r="AV898" s="32"/>
       <c r="AY898" s="33"/>
     </row>
-    <row r="899" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR899" s="32"/>
       <c r="AV899" s="32"/>
       <c r="AY899" s="33"/>
     </row>
-    <row r="900" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR900" s="32"/>
       <c r="AV900" s="32"/>
       <c r="AY900" s="33"/>
     </row>
-    <row r="901" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR901" s="32"/>
       <c r="AV901" s="32"/>
       <c r="AY901" s="33"/>
     </row>
-    <row r="902" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR902" s="32"/>
       <c r="AV902" s="32"/>
       <c r="AY902" s="33"/>
     </row>
-    <row r="903" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR903" s="32"/>
       <c r="AV903" s="32"/>
       <c r="AY903" s="33"/>
     </row>
-    <row r="904" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR904" s="32"/>
       <c r="AV904" s="32"/>
       <c r="AY904" s="33"/>
     </row>
-    <row r="905" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR905" s="32"/>
       <c r="AV905" s="32"/>
       <c r="AY905" s="33"/>
     </row>
-    <row r="906" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR906" s="32"/>
       <c r="AV906" s="32"/>
       <c r="AY906" s="33"/>
     </row>
-    <row r="907" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR907" s="32"/>
       <c r="AV907" s="32"/>
       <c r="AY907" s="33"/>
     </row>
-    <row r="908" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR908" s="32"/>
       <c r="AV908" s="32"/>
       <c r="AY908" s="33"/>
     </row>
-    <row r="909" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR909" s="32"/>
       <c r="AV909" s="32"/>
       <c r="AY909" s="33"/>
     </row>
-    <row r="910" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR910" s="32"/>
       <c r="AV910" s="32"/>
       <c r="AY910" s="33"/>
     </row>
-    <row r="911" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR911" s="32"/>
       <c r="AV911" s="32"/>
       <c r="AY911" s="33"/>
     </row>
-    <row r="912" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR912" s="32"/>
       <c r="AV912" s="32"/>
       <c r="AY912" s="33"/>
     </row>
-    <row r="913" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR913" s="32"/>
       <c r="AV913" s="32"/>
       <c r="AY913" s="33"/>
     </row>
-    <row r="914" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR914" s="32"/>
       <c r="AV914" s="32"/>
       <c r="AY914" s="33"/>
     </row>
-    <row r="915" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR915" s="32"/>
       <c r="AV915" s="32"/>
       <c r="AY915" s="33"/>
     </row>
-    <row r="916" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR916" s="32"/>
       <c r="AV916" s="32"/>
       <c r="AY916" s="33"/>
     </row>
-    <row r="917" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR917" s="32"/>
       <c r="AV917" s="32"/>
       <c r="AY917" s="33"/>
     </row>
-    <row r="918" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR918" s="32"/>
       <c r="AV918" s="32"/>
       <c r="AY918" s="33"/>
     </row>
-    <row r="919" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR919" s="32"/>
       <c r="AV919" s="32"/>
       <c r="AY919" s="33"/>
     </row>
-    <row r="920" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR920" s="32"/>
       <c r="AV920" s="32"/>
       <c r="AY920" s="33"/>
     </row>
-    <row r="921" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR921" s="32"/>
       <c r="AV921" s="32"/>
       <c r="AY921" s="33"/>
     </row>
-    <row r="922" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR922" s="32"/>
       <c r="AV922" s="32"/>
       <c r="AY922" s="33"/>
     </row>
-    <row r="923" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR923" s="32"/>
       <c r="AV923" s="32"/>
       <c r="AY923" s="33"/>
     </row>
-    <row r="924" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR924" s="32"/>
       <c r="AV924" s="32"/>
       <c r="AY924" s="33"/>
     </row>
-    <row r="925" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR925" s="32"/>
       <c r="AV925" s="32"/>
       <c r="AY925" s="33"/>
     </row>
-    <row r="926" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR926" s="32"/>
       <c r="AV926" s="32"/>
       <c r="AY926" s="33"/>
     </row>
-    <row r="927" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR927" s="32"/>
       <c r="AV927" s="32"/>
       <c r="AY927" s="33"/>
     </row>
-    <row r="928" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR928" s="32"/>
       <c r="AV928" s="32"/>
       <c r="AY928" s="33"/>
     </row>
-    <row r="929" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR929" s="32"/>
       <c r="AV929" s="32"/>
       <c r="AY929" s="33"/>
     </row>
-    <row r="930" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR930" s="32"/>
       <c r="AV930" s="32"/>
       <c r="AY930" s="33"/>
     </row>
-    <row r="931" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR931" s="32"/>
       <c r="AV931" s="32"/>
       <c r="AY931" s="33"/>
     </row>
-    <row r="932" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR932" s="32"/>
       <c r="AV932" s="32"/>
       <c r="AY932" s="33"/>
     </row>
-    <row r="933" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR933" s="32"/>
       <c r="AV933" s="32"/>
       <c r="AY933" s="33"/>
     </row>
-    <row r="934" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR934" s="32"/>
       <c r="AV934" s="32"/>
       <c r="AY934" s="33"/>
     </row>
-    <row r="935" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR935" s="32"/>
       <c r="AV935" s="32"/>
       <c r="AY935" s="33"/>
     </row>
-    <row r="936" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR936" s="32"/>
       <c r="AV936" s="32"/>
       <c r="AY936" s="33"/>
     </row>
-    <row r="937" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR937" s="32"/>
       <c r="AV937" s="32"/>
       <c r="AY937" s="33"/>
     </row>
-    <row r="938" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR938" s="32"/>
       <c r="AV938" s="32"/>
       <c r="AY938" s="33"/>
     </row>
-    <row r="939" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR939" s="32"/>
       <c r="AV939" s="32"/>
       <c r="AY939" s="33"/>
     </row>
-    <row r="940" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR940" s="32"/>
       <c r="AV940" s="32"/>
       <c r="AY940" s="33"/>
     </row>
-    <row r="941" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR941" s="32"/>
       <c r="AV941" s="32"/>
       <c r="AY941" s="33"/>
     </row>
-    <row r="942" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR942" s="32"/>
       <c r="AV942" s="32"/>
       <c r="AY942" s="33"/>
     </row>
-    <row r="943" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR943" s="32"/>
       <c r="AV943" s="32"/>
       <c r="AY943" s="33"/>
     </row>
-    <row r="944" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR944" s="32"/>
       <c r="AV944" s="32"/>
       <c r="AY944" s="33"/>
     </row>
-    <row r="945" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR945" s="32"/>
       <c r="AV945" s="32"/>
       <c r="AY945" s="33"/>
     </row>
-    <row r="946" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR946" s="32"/>
       <c r="AV946" s="32"/>
       <c r="AY946" s="33"/>
     </row>
-    <row r="947" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR947" s="32"/>
       <c r="AV947" s="32"/>
       <c r="AY947" s="33"/>
     </row>
-    <row r="948" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR948" s="32"/>
       <c r="AV948" s="32"/>
       <c r="AY948" s="33"/>
     </row>
-    <row r="949" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR949" s="32"/>
       <c r="AV949" s="32"/>
       <c r="AY949" s="33"/>
     </row>
-    <row r="950" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR950" s="32"/>
       <c r="AV950" s="32"/>
       <c r="AY950" s="33"/>
     </row>
-    <row r="951" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR951" s="32"/>
       <c r="AV951" s="32"/>
       <c r="AY951" s="33"/>
     </row>
-    <row r="952" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR952" s="32"/>
       <c r="AV952" s="32"/>
       <c r="AY952" s="33"/>
     </row>
-    <row r="953" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR953" s="32"/>
       <c r="AV953" s="32"/>
       <c r="AY953" s="33"/>
     </row>
-    <row r="954" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR954" s="32"/>
       <c r="AV954" s="32"/>
       <c r="AY954" s="33"/>
     </row>
-    <row r="955" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR955" s="32"/>
       <c r="AV955" s="32"/>
       <c r="AY955" s="33"/>
     </row>
-    <row r="956" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR956" s="32"/>
       <c r="AV956" s="32"/>
       <c r="AY956" s="33"/>
     </row>
-    <row r="957" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AR957" s="32"/>
       <c r="AV957" s="32"/>
       <c r="AY957" s="33"/>
@@ -12680,18 +12807,18 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>2</v>
@@ -12718,7 +12845,7 @@
       <c r="K1" s="57"/>
       <c r="L1" s="57"/>
     </row>
-    <row r="2" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -12741,7 +12868,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -12764,7 +12891,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -12787,7 +12914,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40">
         <v>4</v>
       </c>
@@ -12810,7 +12937,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42">
         <v>5</v>
       </c>
@@ -12833,7 +12960,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>6</v>
       </c>
@@ -12856,7 +12983,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>7</v>
       </c>
@@ -12879,7 +13006,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -12902,7 +13029,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>9</v>
       </c>
@@ -12925,7 +13052,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>10</v>
       </c>
@@ -12948,7 +13075,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>11</v>
       </c>
@@ -12971,7 +13098,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>12</v>
       </c>
@@ -12994,7 +13121,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>13</v>
       </c>
@@ -13017,7 +13144,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>14</v>
       </c>
@@ -13040,7 +13167,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>15</v>
       </c>
@@ -13063,7 +13190,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>16</v>
       </c>
@@ -13086,7 +13213,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>17</v>
       </c>
@@ -13109,7 +13236,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>18</v>
       </c>
@@ -13132,7 +13259,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>19</v>
       </c>
@@ -13155,7 +13282,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>20</v>
       </c>
@@ -13179,7 +13306,7 @@
       </c>
       <c r="H21" s="31"/>
     </row>
-    <row r="22" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>21</v>
       </c>
@@ -13203,7 +13330,7 @@
       </c>
       <c r="H22" s="31"/>
     </row>
-    <row r="23" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>22</v>
       </c>
@@ -13227,7 +13354,7 @@
       </c>
       <c r="H23" s="31"/>
     </row>
-    <row r="24" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31">
         <v>23</v>
       </c>
@@ -13251,7 +13378,7 @@
       </c>
       <c r="H24" s="31"/>
     </row>
-    <row r="25" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31">
         <v>24</v>
       </c>
@@ -13276,7 +13403,7 @@
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
     </row>
-    <row r="26" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>32</v>
       </c>
@@ -13315,29 +13442,43 @@
   </sheetPr>
   <dimension ref="A1:AM68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.85546875" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.88671875" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" customWidth="1"/>
+    <col min="13" max="13" width="24.77734375" customWidth="1"/>
+    <col min="14" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.33203125" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="13.21875" customWidth="1"/>
+    <col min="22" max="22" width="15.77734375" customWidth="1"/>
+    <col min="23" max="23" width="22.6640625" customWidth="1"/>
+    <col min="24" max="24" width="21.109375" customWidth="1"/>
     <col min="26" max="26" width="20" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="41" customWidth="1"/>
-    <col min="29" max="29" width="16.28515625" customWidth="1"/>
-    <col min="30" max="30" width="27.28515625" customWidth="1"/>
-    <col min="33" max="33" width="29.140625" customWidth="1"/>
+    <col min="28" max="28" width="30.33203125" customWidth="1"/>
+    <col min="29" max="29" width="23.44140625" customWidth="1"/>
+    <col min="30" max="30" width="32.33203125" customWidth="1"/>
+    <col min="33" max="33" width="29.109375" customWidth="1"/>
+    <col min="34" max="35" width="21.44140625" customWidth="1"/>
+    <col min="36" max="36" width="16.109375" customWidth="1"/>
+    <col min="37" max="37" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>373</v>
       </c>
@@ -13377,6 +13518,12 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="49" t="s">
+        <v>671</v>
+      </c>
+      <c r="O1" s="49" t="s">
+        <v>672</v>
+      </c>
       <c r="P1" t="s">
         <v>12</v>
       </c>
@@ -13384,13 +13531,13 @@
         <v>13</v>
       </c>
       <c r="R1" t="s">
-        <v>6</v>
+        <v>668</v>
       </c>
       <c r="S1" t="s">
-        <v>7</v>
+        <v>669</v>
       </c>
       <c r="T1" t="s">
-        <v>8</v>
+        <v>670</v>
       </c>
       <c r="U1" t="s">
         <v>14</v>
@@ -13450,7 +13597,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>372</v>
       </c>
@@ -13536,7 +13683,7 @@
         <v>-73.174690886400001</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>372</v>
       </c>
@@ -13620,7 +13767,7 @@
         <v>-70.659196161799997</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>372</v>
       </c>
@@ -13704,7 +13851,7 @@
         <v>-71.646628858900002</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>372</v>
       </c>
@@ -13785,7 +13932,7 @@
         <v>-70.718956870400007</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>372</v>
       </c>
@@ -13875,7 +14022,7 @@
         <v>-70.809757554800001</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>372</v>
       </c>
@@ -13964,7 +14111,7 @@
         <v>-72.097788240200003</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>372</v>
       </c>
@@ -14042,7 +14189,7 @@
         <v>-71.330163502000005</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>372</v>
       </c>
@@ -14123,7 +14270,7 @@
         <v>-70.718956870400007</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>372</v>
       </c>
@@ -14210,7 +14357,7 @@
         <v>-70.0109621438</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>372</v>
       </c>
@@ -14303,7 +14450,7 @@
         <v>-70.243562478499996</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>372</v>
       </c>
@@ -14378,7 +14525,7 @@
         <v>-72.025446149800004</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -14462,7 +14609,7 @@
         <v>-71.123127304999997</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>372</v>
       </c>
@@ -14549,7 +14696,7 @@
         <v>-70.616098163900006</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>372</v>
       </c>
@@ -14629,7 +14776,7 @@
         <v>-69.186038925800005</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>372</v>
       </c>
@@ -14718,7 +14865,7 @@
         <v>-71.820769024399993</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>372</v>
       </c>
@@ -14801,7 +14948,7 @@
         <v>-70.616098163900006</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>372</v>
       </c>
@@ -14884,7 +15031,7 @@
         <v>-69.971491087100006</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>372</v>
       </c>
@@ -14976,7 +15123,7 @@
         <v>-71.060820861899998</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>372</v>
       </c>
@@ -15048,7 +15195,7 @@
         <v>-73.125584144399994</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>372</v>
       </c>
@@ -15131,7 +15278,7 @@
         <v>-71.753339855299998</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>372</v>
       </c>
@@ -15217,7 +15364,7 @@
         <v>-72.2757990108</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>372</v>
       </c>
@@ -15298,7 +15445,7 @@
         <v>-72.233593646100005</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>372</v>
       </c>
@@ -15385,7 +15532,7 @@
         <v>-71.992299397099998</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>372</v>
       </c>
@@ -15466,7 +15613,7 @@
         <v>-73.104958492799994</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>372</v>
       </c>
@@ -15550,7 +15697,7 @@
         <v>-70.923634825500002</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>372</v>
       </c>
@@ -15634,7 +15781,7 @@
         <v>-70.599127450699996</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>372</v>
       </c>
@@ -15718,7 +15865,7 @@
         <v>-71.330163502000005</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>372</v>
       </c>
@@ -15799,7 +15946,7 @@
         <v>-70.656954396499998</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>372</v>
       </c>
@@ -15877,7 +16024,7 @@
         <v>-70.656954396499998</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>372</v>
       </c>
@@ -15952,7 +16099,7 @@
         <v>-70.690008354499994</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>372</v>
       </c>
@@ -16042,7 +16189,7 @@
         <v>-71.332567138900004</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>372</v>
       </c>
@@ -16111,7 +16258,7 @@
         <v>-70.6372519122</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>306</v>
       </c>
@@ -16180,7 +16327,7 @@
         <v>-71.056442506400003</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>306</v>
       </c>
@@ -16258,7 +16405,7 @@
         <v>-70.381457830900004</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>306</v>
       </c>
@@ -16330,7 +16477,7 @@
         <v>-72.377516028900004</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>327</v>
       </c>
@@ -16405,7 +16552,7 @@
         <v>-71.352913090200005</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>327</v>
       </c>
@@ -16468,7 +16615,7 @@
         <v>-71.330163502000005</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>327</v>
       </c>
@@ -16531,7 +16678,7 @@
         <v>-71.330163502000005</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>327</v>
       </c>
@@ -16600,7 +16747,7 @@
         <v>-69.186038925800005</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>372</v>
       </c>
@@ -16665,7 +16812,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>372</v>
       </c>
@@ -16724,7 +16871,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>471</v>
       </c>
@@ -16798,7 +16945,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>471</v>
       </c>
@@ -16875,7 +17022,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>372</v>
       </c>
@@ -16946,7 +17093,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>372</v>
       </c>
@@ -17017,7 +17164,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>372</v>
       </c>
@@ -17088,7 +17235,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>372</v>
       </c>
@@ -17162,7 +17309,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>372</v>
       </c>
@@ -17236,7 +17383,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>471</v>
       </c>
@@ -17301,7 +17448,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>372</v>
       </c>
@@ -17372,7 +17519,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>372</v>
       </c>
@@ -17443,7 +17590,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>372</v>
       </c>
@@ -17511,7 +17658,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>372</v>
       </c>
@@ -17582,7 +17729,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>372</v>
       </c>
@@ -17662,7 +17809,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>372</v>
       </c>
@@ -17739,7 +17886,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>372</v>
       </c>
@@ -17813,7 +17960,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>372</v>
       </c>
@@ -17881,7 +18028,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>372</v>
       </c>
@@ -17955,7 +18102,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>372</v>
       </c>
@@ -18023,7 +18170,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>372</v>
       </c>
@@ -18091,7 +18238,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>372</v>
       </c>
@@ -18165,7 +18312,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>372</v>
       </c>
@@ -18239,7 +18386,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>327</v>
       </c>
@@ -18313,7 +18460,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>372</v>
       </c>
@@ -18390,7 +18537,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>372</v>
       </c>
@@ -18470,7 +18617,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>372</v>
       </c>
@@ -18538,7 +18685,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>372</v>
       </c>
@@ -18615,6 +18762,9 @@
     <hyperlink ref="AK2" r:id="rId2" xr:uid="{B452CC8E-E69F-4969-93E3-3E1D8738E19E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -18625,21 +18775,23 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" customWidth="1"/>
+    <col min="9" max="9" width="65.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>375</v>
       </c>
@@ -18680,7 +18832,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18721,7 +18873,7 @@
         <v>-73.174690886400001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18759,7 +18911,7 @@
         <v>-70.659196161799997</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18797,7 +18949,7 @@
         <v>-70.718956870400007</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18835,7 +18987,7 @@
         <v>-70.809757554800001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18873,7 +19025,7 @@
         <v>-72.097788240200003</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -18911,7 +19063,7 @@
         <v>-70.718956870400007</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -18949,7 +19101,7 @@
         <v>-70.243562478499996</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -18987,7 +19139,7 @@
         <v>-71.123127304999997</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -19025,7 +19177,7 @@
         <v>-70.616098163900006</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -19063,7 +19215,7 @@
         <v>-69.186038925800005</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -19101,7 +19253,7 @@
         <v>-71.820769024399993</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -19139,7 +19291,7 @@
         <v>-70.616098163900006</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -19177,7 +19329,7 @@
         <v>-69.971491087100006</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -19215,7 +19367,7 @@
         <v>-71.060820861899998</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -19253,7 +19405,7 @@
         <v>-71.753339855299998</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -19291,7 +19443,7 @@
         <v>-72.2757990108</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -19329,7 +19481,7 @@
         <v>-72.233593646100005</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -19367,7 +19519,7 @@
         <v>-71.992299397099998</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -19405,7 +19557,7 @@
         <v>-73.104958492799994</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -19443,7 +19595,7 @@
         <v>-70.923634825500002</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -19481,7 +19633,7 @@
         <v>-70.599127450699996</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -19519,7 +19671,7 @@
         <v>-70.656954396499998</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -19557,7 +19709,7 @@
         <v>-71.330163502000005</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -19595,7 +19747,7 @@
         <v>-71.332567138900004</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>32</v>
       </c>
@@ -19633,7 +19785,7 @@
         <v>-70.6372519122</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>33</v>
       </c>
@@ -19665,7 +19817,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>34</v>
       </c>
@@ -19697,7 +19849,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>35</v>
       </c>
@@ -19729,7 +19881,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>36</v>
       </c>
@@ -19761,7 +19913,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>37</v>
       </c>
@@ -19793,7 +19945,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>38</v>
       </c>
@@ -19825,7 +19977,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>39</v>
       </c>
@@ -19857,7 +20009,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>40</v>
       </c>
@@ -19889,7 +20041,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>41</v>
       </c>
@@ -19921,7 +20073,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>42</v>
       </c>
@@ -19953,7 +20105,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>43</v>
       </c>
@@ -19985,7 +20137,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>44</v>
       </c>
@@ -20017,7 +20169,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>45</v>
       </c>
@@ -20049,7 +20201,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>46</v>
       </c>
@@ -20081,7 +20233,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>47</v>
       </c>
@@ -20113,7 +20265,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>48</v>
       </c>
@@ -20145,7 +20297,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>49</v>
       </c>
@@ -20179,5 +20331,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Femicidios 2020.xlsx
+++ b/Femicidios 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-RIESGOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-RIESGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB21AED-1C8B-4150-BC24-9AA1A1C4BA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D803CF31-8308-4CBE-A275-85E016EC7CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9072" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FEMICIDIOS 2020" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="672">
   <si>
     <t>FEMICIDIOS 2020</t>
   </si>
@@ -1915,9 +1915,6 @@
   </si>
   <si>
     <t>https://www.meganoticias.cl/nacional/320901-femicidio-penalolen-joven-agresor-cuchillo-detenido-fiscalia-emx01.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colín </t>
   </si>
   <si>
     <t xml:space="preserve">Maule </t>
@@ -2501,6 +2498,9 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2519,9 +2519,6 @@
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2536,11 +2533,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED6A8849-605B-4A23-821C-E5A9197363C1}" name="Tabla_RED" displayName="Tabla_RED" ref="A1:AM68" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED6A8849-605B-4A23-821C-E5A9197363C1}" name="Tabla_RED" displayName="Tabla_RED" ref="A1:AM68" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:AM68" xr:uid="{54A0130B-34CB-4B76-91EB-0AAE22021486}"/>
   <tableColumns count="39">
     <tableColumn id="1" xr3:uid="{295819E2-C44F-4620-A4E3-14BAD15D31A4}" name="Tipo"/>
-    <tableColumn id="2" xr3:uid="{23950132-12A0-4B4E-BC02-1AF91947A44A}" name="Fecha" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{23950132-12A0-4B4E-BC02-1AF91947A44A}" name="Fecha" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{06E6131C-9361-4B48-9336-66AA7A679130}" name="Codreg"/>
     <tableColumn id="4" xr3:uid="{139B71BA-795D-405C-AF49-845A77872E00}" name="Codcom"/>
     <tableColumn id="5" xr3:uid="{D901EB6A-77CB-4DE6-B4E2-AC101FA75285}" name="Comuna"/>
@@ -2913,41 +2910,41 @@
       <selection pane="bottomLeft" activeCell="AR4" sqref="AR4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="42" width="4.44140625" customWidth="1"/>
-    <col min="43" max="43" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.6640625" customWidth="1"/>
-    <col min="45" max="45" width="13.33203125" customWidth="1"/>
-    <col min="46" max="46" width="11.6640625" customWidth="1"/>
-    <col min="47" max="47" width="27.33203125" customWidth="1"/>
-    <col min="48" max="48" width="14.33203125" customWidth="1"/>
-    <col min="49" max="49" width="9.33203125" customWidth="1"/>
-    <col min="50" max="50" width="14.6640625" customWidth="1"/>
-    <col min="51" max="51" width="42.6640625" customWidth="1"/>
-    <col min="52" max="52" width="15.109375" customWidth="1"/>
-    <col min="53" max="53" width="21.33203125" customWidth="1"/>
-    <col min="54" max="55" width="16.6640625" customWidth="1"/>
-    <col min="57" max="57" width="27.109375" customWidth="1"/>
-    <col min="58" max="58" width="7.44140625" customWidth="1"/>
-    <col min="59" max="59" width="12.6640625" customWidth="1"/>
-    <col min="61" max="61" width="7.44140625" customWidth="1"/>
-    <col min="62" max="62" width="7.109375" customWidth="1"/>
-    <col min="63" max="63" width="21.44140625" customWidth="1"/>
-    <col min="65" max="65" width="5.6640625" customWidth="1"/>
+    <col min="1" max="42" width="4.42578125" customWidth="1"/>
+    <col min="43" max="43" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.7109375" customWidth="1"/>
+    <col min="45" max="45" width="13.28515625" customWidth="1"/>
+    <col min="46" max="46" width="11.7109375" customWidth="1"/>
+    <col min="47" max="47" width="27.28515625" customWidth="1"/>
+    <col min="48" max="48" width="14.28515625" customWidth="1"/>
+    <col min="49" max="49" width="9.28515625" customWidth="1"/>
+    <col min="50" max="50" width="14.7109375" customWidth="1"/>
+    <col min="51" max="51" width="42.7109375" customWidth="1"/>
+    <col min="52" max="52" width="15.140625" customWidth="1"/>
+    <col min="53" max="53" width="21.28515625" customWidth="1"/>
+    <col min="54" max="55" width="16.7109375" customWidth="1"/>
+    <col min="57" max="57" width="27.140625" customWidth="1"/>
+    <col min="58" max="58" width="7.42578125" customWidth="1"/>
+    <col min="59" max="59" width="12.7109375" customWidth="1"/>
+    <col min="61" max="61" width="7.42578125" customWidth="1"/>
+    <col min="62" max="62" width="7.140625" customWidth="1"/>
+    <col min="63" max="63" width="21.42578125" customWidth="1"/>
+    <col min="65" max="65" width="5.7109375" customWidth="1"/>
     <col min="66" max="66" width="12" customWidth="1"/>
-    <col min="67" max="67" width="15.33203125" customWidth="1"/>
-    <col min="68" max="68" width="13.33203125" customWidth="1"/>
+    <col min="67" max="67" width="15.28515625" customWidth="1"/>
+    <col min="68" max="68" width="13.28515625" customWidth="1"/>
     <col min="69" max="69" width="14" customWidth="1"/>
-    <col min="70" max="70" width="17.33203125" customWidth="1"/>
-    <col min="71" max="71" width="24.44140625" customWidth="1"/>
-    <col min="72" max="72" width="14.44140625" customWidth="1"/>
-    <col min="73" max="73" width="16.33203125" customWidth="1"/>
-    <col min="74" max="74" width="33.44140625" customWidth="1"/>
-    <col min="75" max="75" width="34.109375" customWidth="1"/>
+    <col min="70" max="70" width="17.28515625" customWidth="1"/>
+    <col min="71" max="71" width="24.42578125" customWidth="1"/>
+    <col min="72" max="72" width="14.42578125" customWidth="1"/>
+    <col min="73" max="73" width="16.28515625" customWidth="1"/>
+    <col min="74" max="74" width="33.42578125" customWidth="1"/>
+    <col min="75" max="75" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3026,7 +3023,7 @@
       <c r="BW1" s="7"/>
       <c r="BX1" s="7"/>
     </row>
-    <row r="2" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3105,7 +3102,7 @@
       <c r="BW2" s="7"/>
       <c r="BX2" s="7"/>
     </row>
-    <row r="3" spans="1:76" s="43" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:76" s="43" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -3245,7 +3242,7 @@
       </c>
       <c r="BX3" s="12"/>
     </row>
-    <row r="4" spans="1:76" ht="51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:76" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -3369,7 +3366,7 @@
       </c>
       <c r="BX4" s="19"/>
     </row>
-    <row r="5" spans="1:76" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:76" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -3491,7 +3488,7 @@
       </c>
       <c r="BX5" s="20"/>
     </row>
-    <row r="6" spans="1:76" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:76" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -3613,7 +3610,7 @@
       </c>
       <c r="BX6" s="20"/>
     </row>
-    <row r="7" spans="1:76" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:76" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -3733,7 +3730,7 @@
       </c>
       <c r="BX7" s="20"/>
     </row>
-    <row r="8" spans="1:76" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:76" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -3859,7 +3856,7 @@
       </c>
       <c r="BX8" s="20"/>
     </row>
-    <row r="9" spans="1:76" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:76" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -3985,7 +3982,7 @@
       </c>
       <c r="BX9" s="20"/>
     </row>
-    <row r="10" spans="1:76" ht="61.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:76" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -4103,7 +4100,7 @@
       </c>
       <c r="BX10" s="20"/>
     </row>
-    <row r="11" spans="1:76" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:76" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -4223,7 +4220,7 @@
       <c r="BW11" s="13"/>
       <c r="BX11" s="20"/>
     </row>
-    <row r="12" spans="1:76" ht="112.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:76" ht="135" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -4347,7 +4344,7 @@
       </c>
       <c r="BX12" s="20"/>
     </row>
-    <row r="13" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -4475,7 +4472,7 @@
       </c>
       <c r="BX13" s="20"/>
     </row>
-    <row r="14" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -4591,7 +4588,7 @@
       </c>
       <c r="BX14" s="20"/>
     </row>
-    <row r="15" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -4713,7 +4710,7 @@
       </c>
       <c r="BX15" s="20"/>
     </row>
-    <row r="16" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -4837,7 +4834,7 @@
       </c>
       <c r="BX16" s="25"/>
     </row>
-    <row r="17" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -4957,7 +4954,7 @@
       </c>
       <c r="BX17" s="20"/>
     </row>
-    <row r="18" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -5083,7 +5080,7 @@
       </c>
       <c r="BX18" s="20"/>
     </row>
-    <row r="19" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -5205,7 +5202,7 @@
       </c>
       <c r="BX19" s="20"/>
     </row>
-    <row r="20" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -5327,7 +5324,7 @@
       </c>
       <c r="BX20" s="20"/>
     </row>
-    <row r="21" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -5455,7 +5452,7 @@
       </c>
       <c r="BX21" s="20"/>
     </row>
-    <row r="22" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>19</v>
       </c>
@@ -5569,7 +5566,7 @@
       </c>
       <c r="BX22" s="20"/>
     </row>
-    <row r="23" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -5691,7 +5688,7 @@
       </c>
       <c r="BX23" s="20"/>
     </row>
-    <row r="24" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>21</v>
       </c>
@@ -5815,7 +5812,7 @@
       </c>
       <c r="BX24" s="20"/>
     </row>
-    <row r="25" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>22</v>
       </c>
@@ -5935,7 +5932,7 @@
       </c>
       <c r="BX25" s="20"/>
     </row>
-    <row r="26" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>23</v>
       </c>
@@ -6059,7 +6056,7 @@
       </c>
       <c r="BX26" s="20"/>
     </row>
-    <row r="27" spans="1:76" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:76" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>24</v>
       </c>
@@ -6179,7 +6176,7 @@
       </c>
       <c r="BX27" s="20"/>
     </row>
-    <row r="28" spans="1:76" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:76" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>25</v>
       </c>
@@ -6301,7 +6298,7 @@
       </c>
       <c r="BX28" s="20"/>
     </row>
-    <row r="29" spans="1:76" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:76" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>26</v>
       </c>
@@ -6423,7 +6420,7 @@
       </c>
       <c r="BX29" s="20"/>
     </row>
-    <row r="30" spans="1:76" ht="102" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:76" ht="123.75" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>27</v>
       </c>
@@ -6545,7 +6542,7 @@
       </c>
       <c r="BX30" s="20"/>
     </row>
-    <row r="31" spans="1:76" ht="61.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:76" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>28</v>
       </c>
@@ -6665,7 +6662,7 @@
       </c>
       <c r="BX31" s="20"/>
     </row>
-    <row r="32" spans="1:76" ht="61.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:76" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>29</v>
       </c>
@@ -6783,7 +6780,7 @@
       <c r="BW32" s="13"/>
       <c r="BX32" s="20"/>
     </row>
-    <row r="33" spans="1:76" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:76" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>30</v>
       </c>
@@ -6899,7 +6896,7 @@
       </c>
       <c r="BX33" s="20"/>
     </row>
-    <row r="34" spans="1:76" ht="71.400000000000006" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:76" ht="90" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>31</v>
       </c>
@@ -7025,7 +7022,7 @@
       </c>
       <c r="BX34" s="20"/>
     </row>
-    <row r="35" spans="1:76" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:76" ht="45" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>32</v>
       </c>
@@ -7137,7 +7134,7 @@
       </c>
       <c r="BX35" s="20"/>
     </row>
-    <row r="36" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
@@ -7215,7 +7212,7 @@
       <c r="BW36" s="13"/>
       <c r="BX36" s="20"/>
     </row>
-    <row r="37" spans="1:76" ht="61.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:76" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
         <v>1</v>
       </c>
@@ -7327,7 +7324,7 @@
       <c r="BW37" s="29"/>
       <c r="BX37" s="20"/>
     </row>
-    <row r="38" spans="1:76" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:76" ht="45" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
         <v>2</v>
       </c>
@@ -7445,7 +7442,7 @@
       </c>
       <c r="BX38" s="20"/>
     </row>
-    <row r="39" spans="1:76" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:76" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
         <v>3</v>
       </c>
@@ -7559,7 +7556,7 @@
       <c r="BW39" s="13"/>
       <c r="BX39" s="20"/>
     </row>
-    <row r="40" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -7637,7 +7634,7 @@
       <c r="BW40" s="13"/>
       <c r="BX40" s="20"/>
     </row>
-    <row r="41" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -7715,7 +7712,7 @@
       <c r="BW41" s="13"/>
       <c r="BX41" s="20"/>
     </row>
-    <row r="42" spans="1:76" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:76" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
         <v>1</v>
       </c>
@@ -7831,7 +7828,7 @@
       </c>
       <c r="BX42" s="20"/>
     </row>
-    <row r="43" spans="1:76" ht="61.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:76" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
         <v>2</v>
       </c>
@@ -7939,7 +7936,7 @@
       </c>
       <c r="BX43" s="20"/>
     </row>
-    <row r="44" spans="1:76" ht="61.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:76" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <v>3</v>
       </c>
@@ -8047,7 +8044,7 @@
       </c>
       <c r="BX44" s="20"/>
     </row>
-    <row r="45" spans="1:76" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:76" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
         <v>4</v>
       </c>
@@ -8159,4562 +8156,4562 @@
       </c>
       <c r="BX45" s="20"/>
     </row>
-    <row r="46" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR46" s="32"/>
       <c r="AV46" s="32"/>
       <c r="AY46" s="33"/>
     </row>
-    <row r="47" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR47" s="32"/>
       <c r="AV47" s="32"/>
       <c r="AY47" s="33"/>
     </row>
-    <row r="48" spans="1:76" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR48" s="32"/>
       <c r="AV48" s="32"/>
       <c r="AY48" s="33"/>
     </row>
-    <row r="49" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR49" s="32"/>
       <c r="AV49" s="32"/>
       <c r="AY49" s="33"/>
     </row>
-    <row r="50" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR50" s="32"/>
       <c r="AV50" s="32"/>
       <c r="AY50" s="33"/>
     </row>
-    <row r="51" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR51" s="32"/>
       <c r="AV51" s="32"/>
       <c r="AY51" s="33"/>
     </row>
-    <row r="52" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR52" s="32"/>
       <c r="AV52" s="32"/>
       <c r="AY52" s="33"/>
     </row>
-    <row r="53" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR53" s="32"/>
       <c r="AV53" s="32"/>
       <c r="AY53" s="33"/>
     </row>
-    <row r="54" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR54" s="32"/>
       <c r="AV54" s="32"/>
       <c r="AY54" s="33"/>
     </row>
-    <row r="55" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR55" s="32"/>
       <c r="AV55" s="32"/>
       <c r="AY55" s="33"/>
     </row>
-    <row r="56" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR56" s="32"/>
       <c r="AV56" s="32"/>
       <c r="AY56" s="33"/>
     </row>
-    <row r="57" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR57" s="32"/>
       <c r="AV57" s="32"/>
       <c r="AY57" s="33"/>
     </row>
-    <row r="58" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR58" s="32"/>
       <c r="AV58" s="32"/>
       <c r="AY58" s="33"/>
     </row>
-    <row r="59" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR59" s="32"/>
       <c r="AV59" s="32"/>
       <c r="AY59" s="33"/>
     </row>
-    <row r="60" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR60" s="32"/>
       <c r="AV60" s="32"/>
       <c r="AY60" s="33"/>
     </row>
-    <row r="61" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR61" s="32"/>
       <c r="AV61" s="32"/>
       <c r="AY61" s="33"/>
     </row>
-    <row r="62" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR62" s="32"/>
       <c r="AV62" s="32"/>
       <c r="AY62" s="33"/>
     </row>
-    <row r="63" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR63" s="32"/>
       <c r="AV63" s="32"/>
       <c r="AY63" s="33"/>
     </row>
-    <row r="64" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR64" s="32"/>
       <c r="AV64" s="32"/>
       <c r="AY64" s="33"/>
     </row>
-    <row r="65" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR65" s="32"/>
       <c r="AV65" s="32"/>
       <c r="AY65" s="33"/>
     </row>
-    <row r="66" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR66" s="32"/>
       <c r="AV66" s="32"/>
       <c r="AY66" s="33"/>
     </row>
-    <row r="67" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR67" s="32"/>
       <c r="AV67" s="32"/>
       <c r="AY67" s="33"/>
     </row>
-    <row r="68" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR68" s="32"/>
       <c r="AV68" s="32"/>
       <c r="AY68" s="33"/>
     </row>
-    <row r="69" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR69" s="32"/>
       <c r="AV69" s="32"/>
       <c r="AY69" s="33"/>
     </row>
-    <row r="70" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR70" s="32"/>
       <c r="AV70" s="32"/>
       <c r="AY70" s="33"/>
     </row>
-    <row r="71" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR71" s="32"/>
       <c r="AV71" s="32"/>
       <c r="AY71" s="33"/>
     </row>
-    <row r="72" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR72" s="32"/>
       <c r="AV72" s="32"/>
       <c r="AY72" s="33"/>
     </row>
-    <row r="73" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR73" s="32"/>
       <c r="AV73" s="32"/>
       <c r="AY73" s="33"/>
     </row>
-    <row r="74" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR74" s="32"/>
       <c r="AV74" s="32"/>
       <c r="AY74" s="33"/>
     </row>
-    <row r="75" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR75" s="32"/>
       <c r="AV75" s="32"/>
       <c r="AY75" s="33"/>
     </row>
-    <row r="76" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR76" s="32"/>
       <c r="AV76" s="32"/>
       <c r="AY76" s="33"/>
     </row>
-    <row r="77" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR77" s="32"/>
       <c r="AV77" s="32"/>
       <c r="AY77" s="33"/>
     </row>
-    <row r="78" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR78" s="32"/>
       <c r="AV78" s="32"/>
       <c r="AY78" s="33"/>
     </row>
-    <row r="79" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR79" s="32"/>
       <c r="AV79" s="32"/>
       <c r="AY79" s="33"/>
     </row>
-    <row r="80" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR80" s="32"/>
       <c r="AV80" s="32"/>
       <c r="AY80" s="33"/>
     </row>
-    <row r="81" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR81" s="32"/>
       <c r="AV81" s="32"/>
       <c r="AY81" s="33"/>
     </row>
-    <row r="82" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR82" s="32"/>
       <c r="AV82" s="32"/>
       <c r="AY82" s="33"/>
     </row>
-    <row r="83" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR83" s="32"/>
       <c r="AV83" s="32"/>
       <c r="AY83" s="33"/>
     </row>
-    <row r="84" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR84" s="32"/>
       <c r="AV84" s="32"/>
       <c r="AY84" s="33"/>
     </row>
-    <row r="85" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR85" s="32"/>
       <c r="AV85" s="32"/>
       <c r="AY85" s="33"/>
     </row>
-    <row r="86" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR86" s="32"/>
       <c r="AV86" s="32"/>
       <c r="AY86" s="33"/>
     </row>
-    <row r="87" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR87" s="32"/>
       <c r="AV87" s="32"/>
       <c r="AY87" s="33"/>
     </row>
-    <row r="88" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR88" s="32"/>
       <c r="AV88" s="32"/>
       <c r="AY88" s="33"/>
     </row>
-    <row r="89" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR89" s="32"/>
       <c r="AV89" s="32"/>
       <c r="AY89" s="33"/>
     </row>
-    <row r="90" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR90" s="32"/>
       <c r="AV90" s="32"/>
       <c r="AY90" s="33"/>
     </row>
-    <row r="91" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR91" s="32"/>
       <c r="AV91" s="32"/>
       <c r="AY91" s="33"/>
     </row>
-    <row r="92" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR92" s="32"/>
       <c r="AV92" s="32"/>
       <c r="AY92" s="33"/>
     </row>
-    <row r="93" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR93" s="32"/>
       <c r="AV93" s="32"/>
       <c r="AY93" s="33"/>
     </row>
-    <row r="94" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR94" s="32"/>
       <c r="AV94" s="32"/>
       <c r="AY94" s="33"/>
     </row>
-    <row r="95" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR95" s="32"/>
       <c r="AV95" s="32"/>
       <c r="AY95" s="33"/>
     </row>
-    <row r="96" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR96" s="32"/>
       <c r="AV96" s="32"/>
       <c r="AY96" s="33"/>
     </row>
-    <row r="97" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR97" s="32"/>
       <c r="AV97" s="32"/>
       <c r="AY97" s="33"/>
     </row>
-    <row r="98" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR98" s="32"/>
       <c r="AV98" s="32"/>
       <c r="AY98" s="33"/>
     </row>
-    <row r="99" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR99" s="32"/>
       <c r="AV99" s="32"/>
       <c r="AY99" s="33"/>
     </row>
-    <row r="100" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR100" s="32"/>
       <c r="AV100" s="32"/>
       <c r="AY100" s="33"/>
     </row>
-    <row r="101" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR101" s="32"/>
       <c r="AV101" s="32"/>
       <c r="AY101" s="33"/>
     </row>
-    <row r="102" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR102" s="32"/>
       <c r="AV102" s="32"/>
       <c r="AY102" s="33"/>
     </row>
-    <row r="103" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR103" s="32"/>
       <c r="AV103" s="32"/>
       <c r="AY103" s="33"/>
     </row>
-    <row r="104" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR104" s="32"/>
       <c r="AV104" s="32"/>
       <c r="AY104" s="33"/>
     </row>
-    <row r="105" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR105" s="32"/>
       <c r="AV105" s="32"/>
       <c r="AY105" s="33"/>
     </row>
-    <row r="106" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR106" s="32"/>
       <c r="AV106" s="32"/>
       <c r="AY106" s="33"/>
     </row>
-    <row r="107" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR107" s="32"/>
       <c r="AV107" s="32"/>
       <c r="AY107" s="33"/>
     </row>
-    <row r="108" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR108" s="32"/>
       <c r="AV108" s="32"/>
       <c r="AY108" s="33"/>
     </row>
-    <row r="109" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR109" s="32"/>
       <c r="AV109" s="32"/>
       <c r="AY109" s="33"/>
     </row>
-    <row r="110" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR110" s="32"/>
       <c r="AV110" s="32"/>
       <c r="AY110" s="33"/>
     </row>
-    <row r="111" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR111" s="32"/>
       <c r="AV111" s="32"/>
       <c r="AY111" s="33"/>
     </row>
-    <row r="112" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR112" s="32"/>
       <c r="AV112" s="32"/>
       <c r="AY112" s="33"/>
     </row>
-    <row r="113" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR113" s="32"/>
       <c r="AV113" s="32"/>
       <c r="AY113" s="33"/>
     </row>
-    <row r="114" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR114" s="32"/>
       <c r="AV114" s="32"/>
       <c r="AY114" s="33"/>
     </row>
-    <row r="115" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR115" s="32"/>
       <c r="AV115" s="32"/>
       <c r="AY115" s="33"/>
     </row>
-    <row r="116" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR116" s="32"/>
       <c r="AV116" s="32"/>
       <c r="AY116" s="33"/>
     </row>
-    <row r="117" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR117" s="32"/>
       <c r="AV117" s="32"/>
       <c r="AY117" s="33"/>
     </row>
-    <row r="118" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR118" s="32"/>
       <c r="AV118" s="32"/>
       <c r="AY118" s="33"/>
     </row>
-    <row r="119" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR119" s="32"/>
       <c r="AV119" s="32"/>
       <c r="AY119" s="33"/>
     </row>
-    <row r="120" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR120" s="32"/>
       <c r="AV120" s="32"/>
       <c r="AY120" s="33"/>
     </row>
-    <row r="121" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR121" s="32"/>
       <c r="AV121" s="32"/>
       <c r="AY121" s="33"/>
     </row>
-    <row r="122" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR122" s="32"/>
       <c r="AV122" s="32"/>
       <c r="AY122" s="33"/>
     </row>
-    <row r="123" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR123" s="32"/>
       <c r="AV123" s="32"/>
       <c r="AY123" s="33"/>
     </row>
-    <row r="124" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR124" s="32"/>
       <c r="AV124" s="32"/>
       <c r="AY124" s="33"/>
     </row>
-    <row r="125" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR125" s="32"/>
       <c r="AV125" s="32"/>
       <c r="AY125" s="33"/>
     </row>
-    <row r="126" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR126" s="32"/>
       <c r="AV126" s="32"/>
       <c r="AY126" s="33"/>
     </row>
-    <row r="127" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR127" s="32"/>
       <c r="AV127" s="32"/>
       <c r="AY127" s="33"/>
     </row>
-    <row r="128" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR128" s="32"/>
       <c r="AV128" s="32"/>
       <c r="AY128" s="33"/>
     </row>
-    <row r="129" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR129" s="32"/>
       <c r="AV129" s="32"/>
       <c r="AY129" s="33"/>
     </row>
-    <row r="130" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR130" s="32"/>
       <c r="AV130" s="32"/>
       <c r="AY130" s="33"/>
     </row>
-    <row r="131" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR131" s="32"/>
       <c r="AV131" s="32"/>
       <c r="AY131" s="33"/>
     </row>
-    <row r="132" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR132" s="32"/>
       <c r="AV132" s="32"/>
       <c r="AY132" s="33"/>
     </row>
-    <row r="133" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR133" s="32"/>
       <c r="AV133" s="32"/>
       <c r="AY133" s="33"/>
     </row>
-    <row r="134" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR134" s="32"/>
       <c r="AV134" s="32"/>
       <c r="AY134" s="33"/>
     </row>
-    <row r="135" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR135" s="32"/>
       <c r="AV135" s="32"/>
       <c r="AY135" s="33"/>
     </row>
-    <row r="136" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR136" s="32"/>
       <c r="AV136" s="32"/>
       <c r="AY136" s="33"/>
     </row>
-    <row r="137" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR137" s="32"/>
       <c r="AV137" s="32"/>
       <c r="AY137" s="33"/>
     </row>
-    <row r="138" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR138" s="32"/>
       <c r="AV138" s="32"/>
       <c r="AY138" s="33"/>
     </row>
-    <row r="139" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR139" s="32"/>
       <c r="AV139" s="32"/>
       <c r="AY139" s="33"/>
     </row>
-    <row r="140" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR140" s="32"/>
       <c r="AV140" s="32"/>
       <c r="AY140" s="33"/>
     </row>
-    <row r="141" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR141" s="32"/>
       <c r="AV141" s="32"/>
       <c r="AY141" s="33"/>
     </row>
-    <row r="142" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR142" s="32"/>
       <c r="AV142" s="32"/>
       <c r="AY142" s="33"/>
     </row>
-    <row r="143" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR143" s="32"/>
       <c r="AV143" s="32"/>
       <c r="AY143" s="33"/>
     </row>
-    <row r="144" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR144" s="32"/>
       <c r="AV144" s="32"/>
       <c r="AY144" s="33"/>
     </row>
-    <row r="145" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR145" s="32"/>
       <c r="AV145" s="32"/>
       <c r="AY145" s="33"/>
     </row>
-    <row r="146" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR146" s="32"/>
       <c r="AV146" s="32"/>
       <c r="AY146" s="33"/>
     </row>
-    <row r="147" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR147" s="32"/>
       <c r="AV147" s="32"/>
       <c r="AY147" s="33"/>
     </row>
-    <row r="148" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR148" s="32"/>
       <c r="AV148" s="32"/>
       <c r="AY148" s="33"/>
     </row>
-    <row r="149" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR149" s="32"/>
       <c r="AV149" s="32"/>
       <c r="AY149" s="33"/>
     </row>
-    <row r="150" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR150" s="32"/>
       <c r="AV150" s="32"/>
       <c r="AY150" s="33"/>
     </row>
-    <row r="151" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR151" s="32"/>
       <c r="AV151" s="32"/>
       <c r="AY151" s="33"/>
     </row>
-    <row r="152" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR152" s="32"/>
       <c r="AV152" s="32"/>
       <c r="AY152" s="33"/>
     </row>
-    <row r="153" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR153" s="32"/>
       <c r="AV153" s="32"/>
       <c r="AY153" s="33"/>
     </row>
-    <row r="154" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR154" s="32"/>
       <c r="AV154" s="32"/>
       <c r="AY154" s="33"/>
     </row>
-    <row r="155" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR155" s="32"/>
       <c r="AV155" s="32"/>
       <c r="AY155" s="33"/>
     </row>
-    <row r="156" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR156" s="32"/>
       <c r="AV156" s="32"/>
       <c r="AY156" s="33"/>
     </row>
-    <row r="157" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR157" s="32"/>
       <c r="AV157" s="32"/>
       <c r="AY157" s="33"/>
     </row>
-    <row r="158" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR158" s="32"/>
       <c r="AV158" s="32"/>
       <c r="AY158" s="33"/>
     </row>
-    <row r="159" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR159" s="32"/>
       <c r="AV159" s="32"/>
       <c r="AY159" s="33"/>
     </row>
-    <row r="160" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR160" s="32"/>
       <c r="AV160" s="32"/>
       <c r="AY160" s="33"/>
     </row>
-    <row r="161" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR161" s="32"/>
       <c r="AV161" s="32"/>
       <c r="AY161" s="33"/>
     </row>
-    <row r="162" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR162" s="32"/>
       <c r="AV162" s="32"/>
       <c r="AY162" s="33"/>
     </row>
-    <row r="163" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR163" s="32"/>
       <c r="AV163" s="32"/>
       <c r="AY163" s="33"/>
     </row>
-    <row r="164" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR164" s="32"/>
       <c r="AV164" s="32"/>
       <c r="AY164" s="33"/>
     </row>
-    <row r="165" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR165" s="32"/>
       <c r="AV165" s="32"/>
       <c r="AY165" s="33"/>
     </row>
-    <row r="166" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR166" s="32"/>
       <c r="AV166" s="32"/>
       <c r="AY166" s="33"/>
     </row>
-    <row r="167" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR167" s="32"/>
       <c r="AV167" s="32"/>
       <c r="AY167" s="33"/>
     </row>
-    <row r="168" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR168" s="32"/>
       <c r="AV168" s="32"/>
       <c r="AY168" s="33"/>
     </row>
-    <row r="169" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR169" s="32"/>
       <c r="AV169" s="32"/>
       <c r="AY169" s="33"/>
     </row>
-    <row r="170" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR170" s="32"/>
       <c r="AV170" s="32"/>
       <c r="AY170" s="33"/>
     </row>
-    <row r="171" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR171" s="32"/>
       <c r="AV171" s="32"/>
       <c r="AY171" s="33"/>
     </row>
-    <row r="172" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR172" s="32"/>
       <c r="AV172" s="32"/>
       <c r="AY172" s="33"/>
     </row>
-    <row r="173" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR173" s="32"/>
       <c r="AV173" s="32"/>
       <c r="AY173" s="33"/>
     </row>
-    <row r="174" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR174" s="32"/>
       <c r="AV174" s="32"/>
       <c r="AY174" s="33"/>
     </row>
-    <row r="175" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR175" s="32"/>
       <c r="AV175" s="32"/>
       <c r="AY175" s="33"/>
     </row>
-    <row r="176" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR176" s="32"/>
       <c r="AV176" s="32"/>
       <c r="AY176" s="33"/>
     </row>
-    <row r="177" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR177" s="32"/>
       <c r="AV177" s="32"/>
       <c r="AY177" s="33"/>
     </row>
-    <row r="178" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR178" s="32"/>
       <c r="AV178" s="32"/>
       <c r="AY178" s="33"/>
     </row>
-    <row r="179" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR179" s="32"/>
       <c r="AV179" s="32"/>
       <c r="AY179" s="33"/>
     </row>
-    <row r="180" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR180" s="32"/>
       <c r="AV180" s="32"/>
       <c r="AY180" s="33"/>
     </row>
-    <row r="181" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR181" s="32"/>
       <c r="AV181" s="32"/>
       <c r="AY181" s="33"/>
     </row>
-    <row r="182" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR182" s="32"/>
       <c r="AV182" s="32"/>
       <c r="AY182" s="33"/>
     </row>
-    <row r="183" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR183" s="32"/>
       <c r="AV183" s="32"/>
       <c r="AY183" s="33"/>
     </row>
-    <row r="184" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR184" s="32"/>
       <c r="AV184" s="32"/>
       <c r="AY184" s="33"/>
     </row>
-    <row r="185" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR185" s="32"/>
       <c r="AV185" s="32"/>
       <c r="AY185" s="33"/>
     </row>
-    <row r="186" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR186" s="32"/>
       <c r="AV186" s="32"/>
       <c r="AY186" s="33"/>
     </row>
-    <row r="187" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR187" s="32"/>
       <c r="AV187" s="32"/>
       <c r="AY187" s="33"/>
     </row>
-    <row r="188" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR188" s="32"/>
       <c r="AV188" s="32"/>
       <c r="AY188" s="33"/>
     </row>
-    <row r="189" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR189" s="32"/>
       <c r="AV189" s="32"/>
       <c r="AY189" s="33"/>
     </row>
-    <row r="190" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR190" s="32"/>
       <c r="AV190" s="32"/>
       <c r="AY190" s="33"/>
     </row>
-    <row r="191" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR191" s="32"/>
       <c r="AV191" s="32"/>
       <c r="AY191" s="33"/>
     </row>
-    <row r="192" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR192" s="32"/>
       <c r="AV192" s="32"/>
       <c r="AY192" s="33"/>
     </row>
-    <row r="193" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR193" s="32"/>
       <c r="AV193" s="32"/>
       <c r="AY193" s="33"/>
     </row>
-    <row r="194" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR194" s="32"/>
       <c r="AV194" s="32"/>
       <c r="AY194" s="33"/>
     </row>
-    <row r="195" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR195" s="32"/>
       <c r="AV195" s="32"/>
       <c r="AY195" s="33"/>
     </row>
-    <row r="196" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR196" s="32"/>
       <c r="AV196" s="32"/>
       <c r="AY196" s="33"/>
     </row>
-    <row r="197" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR197" s="32"/>
       <c r="AV197" s="32"/>
       <c r="AY197" s="33"/>
     </row>
-    <row r="198" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR198" s="32"/>
       <c r="AV198" s="32"/>
       <c r="AY198" s="33"/>
     </row>
-    <row r="199" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR199" s="32"/>
       <c r="AV199" s="32"/>
       <c r="AY199" s="33"/>
     </row>
-    <row r="200" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR200" s="32"/>
       <c r="AV200" s="32"/>
       <c r="AY200" s="33"/>
     </row>
-    <row r="201" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR201" s="32"/>
       <c r="AV201" s="32"/>
       <c r="AY201" s="33"/>
     </row>
-    <row r="202" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR202" s="32"/>
       <c r="AV202" s="32"/>
       <c r="AY202" s="33"/>
     </row>
-    <row r="203" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR203" s="32"/>
       <c r="AV203" s="32"/>
       <c r="AY203" s="33"/>
     </row>
-    <row r="204" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR204" s="32"/>
       <c r="AV204" s="32"/>
       <c r="AY204" s="33"/>
     </row>
-    <row r="205" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR205" s="32"/>
       <c r="AV205" s="32"/>
       <c r="AY205" s="33"/>
     </row>
-    <row r="206" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR206" s="32"/>
       <c r="AV206" s="32"/>
       <c r="AY206" s="33"/>
     </row>
-    <row r="207" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR207" s="32"/>
       <c r="AV207" s="32"/>
       <c r="AY207" s="33"/>
     </row>
-    <row r="208" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR208" s="32"/>
       <c r="AV208" s="32"/>
       <c r="AY208" s="33"/>
     </row>
-    <row r="209" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR209" s="32"/>
       <c r="AV209" s="32"/>
       <c r="AY209" s="33"/>
     </row>
-    <row r="210" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR210" s="32"/>
       <c r="AV210" s="32"/>
       <c r="AY210" s="33"/>
     </row>
-    <row r="211" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR211" s="32"/>
       <c r="AV211" s="32"/>
       <c r="AY211" s="33"/>
     </row>
-    <row r="212" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR212" s="32"/>
       <c r="AV212" s="32"/>
       <c r="AY212" s="33"/>
     </row>
-    <row r="213" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR213" s="32"/>
       <c r="AV213" s="32"/>
       <c r="AY213" s="33"/>
     </row>
-    <row r="214" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR214" s="32"/>
       <c r="AV214" s="32"/>
       <c r="AY214" s="33"/>
     </row>
-    <row r="215" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR215" s="32"/>
       <c r="AV215" s="32"/>
       <c r="AY215" s="33"/>
     </row>
-    <row r="216" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR216" s="32"/>
       <c r="AV216" s="32"/>
       <c r="AY216" s="33"/>
     </row>
-    <row r="217" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR217" s="32"/>
       <c r="AV217" s="32"/>
       <c r="AY217" s="33"/>
     </row>
-    <row r="218" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR218" s="32"/>
       <c r="AV218" s="32"/>
       <c r="AY218" s="33"/>
     </row>
-    <row r="219" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR219" s="32"/>
       <c r="AV219" s="32"/>
       <c r="AY219" s="33"/>
     </row>
-    <row r="220" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR220" s="32"/>
       <c r="AV220" s="32"/>
       <c r="AY220" s="33"/>
     </row>
-    <row r="221" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR221" s="32"/>
       <c r="AV221" s="32"/>
       <c r="AY221" s="33"/>
     </row>
-    <row r="222" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR222" s="32"/>
       <c r="AV222" s="32"/>
       <c r="AY222" s="33"/>
     </row>
-    <row r="223" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR223" s="32"/>
       <c r="AV223" s="32"/>
       <c r="AY223" s="33"/>
     </row>
-    <row r="224" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR224" s="32"/>
       <c r="AV224" s="32"/>
       <c r="AY224" s="33"/>
     </row>
-    <row r="225" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR225" s="32"/>
       <c r="AV225" s="32"/>
       <c r="AY225" s="33"/>
     </row>
-    <row r="226" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR226" s="32"/>
       <c r="AV226" s="32"/>
       <c r="AY226" s="33"/>
     </row>
-    <row r="227" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR227" s="32"/>
       <c r="AV227" s="32"/>
       <c r="AY227" s="33"/>
     </row>
-    <row r="228" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR228" s="32"/>
       <c r="AV228" s="32"/>
       <c r="AY228" s="33"/>
     </row>
-    <row r="229" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR229" s="32"/>
       <c r="AV229" s="32"/>
       <c r="AY229" s="33"/>
     </row>
-    <row r="230" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR230" s="32"/>
       <c r="AV230" s="32"/>
       <c r="AY230" s="33"/>
     </row>
-    <row r="231" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR231" s="32"/>
       <c r="AV231" s="32"/>
       <c r="AY231" s="33"/>
     </row>
-    <row r="232" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR232" s="32"/>
       <c r="AV232" s="32"/>
       <c r="AY232" s="33"/>
     </row>
-    <row r="233" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR233" s="32"/>
       <c r="AV233" s="32"/>
       <c r="AY233" s="33"/>
     </row>
-    <row r="234" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR234" s="32"/>
       <c r="AV234" s="32"/>
       <c r="AY234" s="33"/>
     </row>
-    <row r="235" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR235" s="32"/>
       <c r="AV235" s="32"/>
       <c r="AY235" s="33"/>
     </row>
-    <row r="236" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR236" s="32"/>
       <c r="AV236" s="32"/>
       <c r="AY236" s="33"/>
     </row>
-    <row r="237" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR237" s="32"/>
       <c r="AV237" s="32"/>
       <c r="AY237" s="33"/>
     </row>
-    <row r="238" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR238" s="32"/>
       <c r="AV238" s="32"/>
       <c r="AY238" s="33"/>
     </row>
-    <row r="239" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR239" s="32"/>
       <c r="AV239" s="32"/>
       <c r="AY239" s="33"/>
     </row>
-    <row r="240" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR240" s="32"/>
       <c r="AV240" s="32"/>
       <c r="AY240" s="33"/>
     </row>
-    <row r="241" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR241" s="32"/>
       <c r="AV241" s="32"/>
       <c r="AY241" s="33"/>
     </row>
-    <row r="242" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR242" s="32"/>
       <c r="AV242" s="32"/>
       <c r="AY242" s="33"/>
     </row>
-    <row r="243" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR243" s="32"/>
       <c r="AV243" s="32"/>
       <c r="AY243" s="33"/>
     </row>
-    <row r="244" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR244" s="32"/>
       <c r="AV244" s="32"/>
       <c r="AY244" s="33"/>
     </row>
-    <row r="245" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR245" s="32"/>
       <c r="AV245" s="32"/>
       <c r="AY245" s="33"/>
     </row>
-    <row r="246" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR246" s="32"/>
       <c r="AV246" s="32"/>
       <c r="AY246" s="33"/>
     </row>
-    <row r="247" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR247" s="32"/>
       <c r="AV247" s="32"/>
       <c r="AY247" s="33"/>
     </row>
-    <row r="248" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR248" s="32"/>
       <c r="AV248" s="32"/>
       <c r="AY248" s="33"/>
     </row>
-    <row r="249" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR249" s="32"/>
       <c r="AV249" s="32"/>
       <c r="AY249" s="33"/>
     </row>
-    <row r="250" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR250" s="32"/>
       <c r="AV250" s="32"/>
       <c r="AY250" s="33"/>
     </row>
-    <row r="251" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR251" s="32"/>
       <c r="AV251" s="32"/>
       <c r="AY251" s="33"/>
     </row>
-    <row r="252" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR252" s="32"/>
       <c r="AV252" s="32"/>
       <c r="AY252" s="33"/>
     </row>
-    <row r="253" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR253" s="32"/>
       <c r="AV253" s="32"/>
       <c r="AY253" s="33"/>
     </row>
-    <row r="254" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR254" s="32"/>
       <c r="AV254" s="32"/>
       <c r="AY254" s="33"/>
     </row>
-    <row r="255" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR255" s="32"/>
       <c r="AV255" s="32"/>
       <c r="AY255" s="33"/>
     </row>
-    <row r="256" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR256" s="32"/>
       <c r="AV256" s="32"/>
       <c r="AY256" s="33"/>
     </row>
-    <row r="257" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR257" s="32"/>
       <c r="AV257" s="32"/>
       <c r="AY257" s="33"/>
     </row>
-    <row r="258" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR258" s="32"/>
       <c r="AV258" s="32"/>
       <c r="AY258" s="33"/>
     </row>
-    <row r="259" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR259" s="32"/>
       <c r="AV259" s="32"/>
       <c r="AY259" s="33"/>
     </row>
-    <row r="260" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR260" s="32"/>
       <c r="AV260" s="32"/>
       <c r="AY260" s="33"/>
     </row>
-    <row r="261" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR261" s="32"/>
       <c r="AV261" s="32"/>
       <c r="AY261" s="33"/>
     </row>
-    <row r="262" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR262" s="32"/>
       <c r="AV262" s="32"/>
       <c r="AY262" s="33"/>
     </row>
-    <row r="263" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR263" s="32"/>
       <c r="AV263" s="32"/>
       <c r="AY263" s="33"/>
     </row>
-    <row r="264" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR264" s="32"/>
       <c r="AV264" s="32"/>
       <c r="AY264" s="33"/>
     </row>
-    <row r="265" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR265" s="32"/>
       <c r="AV265" s="32"/>
       <c r="AY265" s="33"/>
     </row>
-    <row r="266" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR266" s="32"/>
       <c r="AV266" s="32"/>
       <c r="AY266" s="33"/>
     </row>
-    <row r="267" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR267" s="32"/>
       <c r="AV267" s="32"/>
       <c r="AY267" s="33"/>
     </row>
-    <row r="268" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR268" s="32"/>
       <c r="AV268" s="32"/>
       <c r="AY268" s="33"/>
     </row>
-    <row r="269" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR269" s="32"/>
       <c r="AV269" s="32"/>
       <c r="AY269" s="33"/>
     </row>
-    <row r="270" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR270" s="32"/>
       <c r="AV270" s="32"/>
       <c r="AY270" s="33"/>
     </row>
-    <row r="271" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR271" s="32"/>
       <c r="AV271" s="32"/>
       <c r="AY271" s="33"/>
     </row>
-    <row r="272" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR272" s="32"/>
       <c r="AV272" s="32"/>
       <c r="AY272" s="33"/>
     </row>
-    <row r="273" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR273" s="32"/>
       <c r="AV273" s="32"/>
       <c r="AY273" s="33"/>
     </row>
-    <row r="274" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR274" s="32"/>
       <c r="AV274" s="32"/>
       <c r="AY274" s="33"/>
     </row>
-    <row r="275" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR275" s="32"/>
       <c r="AV275" s="32"/>
       <c r="AY275" s="33"/>
     </row>
-    <row r="276" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR276" s="32"/>
       <c r="AV276" s="32"/>
       <c r="AY276" s="33"/>
     </row>
-    <row r="277" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR277" s="32"/>
       <c r="AV277" s="32"/>
       <c r="AY277" s="33"/>
     </row>
-    <row r="278" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR278" s="32"/>
       <c r="AV278" s="32"/>
       <c r="AY278" s="33"/>
     </row>
-    <row r="279" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR279" s="32"/>
       <c r="AV279" s="32"/>
       <c r="AY279" s="33"/>
     </row>
-    <row r="280" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR280" s="32"/>
       <c r="AV280" s="32"/>
       <c r="AY280" s="33"/>
     </row>
-    <row r="281" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR281" s="32"/>
       <c r="AV281" s="32"/>
       <c r="AY281" s="33"/>
     </row>
-    <row r="282" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR282" s="32"/>
       <c r="AV282" s="32"/>
       <c r="AY282" s="33"/>
     </row>
-    <row r="283" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR283" s="32"/>
       <c r="AV283" s="32"/>
       <c r="AY283" s="33"/>
     </row>
-    <row r="284" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR284" s="32"/>
       <c r="AV284" s="32"/>
       <c r="AY284" s="33"/>
     </row>
-    <row r="285" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR285" s="32"/>
       <c r="AV285" s="32"/>
       <c r="AY285" s="33"/>
     </row>
-    <row r="286" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR286" s="32"/>
       <c r="AV286" s="32"/>
       <c r="AY286" s="33"/>
     </row>
-    <row r="287" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR287" s="32"/>
       <c r="AV287" s="32"/>
       <c r="AY287" s="33"/>
     </row>
-    <row r="288" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR288" s="32"/>
       <c r="AV288" s="32"/>
       <c r="AY288" s="33"/>
     </row>
-    <row r="289" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR289" s="32"/>
       <c r="AV289" s="32"/>
       <c r="AY289" s="33"/>
     </row>
-    <row r="290" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR290" s="32"/>
       <c r="AV290" s="32"/>
       <c r="AY290" s="33"/>
     </row>
-    <row r="291" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR291" s="32"/>
       <c r="AV291" s="32"/>
       <c r="AY291" s="33"/>
     </row>
-    <row r="292" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR292" s="32"/>
       <c r="AV292" s="32"/>
       <c r="AY292" s="33"/>
     </row>
-    <row r="293" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR293" s="32"/>
       <c r="AV293" s="32"/>
       <c r="AY293" s="33"/>
     </row>
-    <row r="294" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR294" s="32"/>
       <c r="AV294" s="32"/>
       <c r="AY294" s="33"/>
     </row>
-    <row r="295" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR295" s="32"/>
       <c r="AV295" s="32"/>
       <c r="AY295" s="33"/>
     </row>
-    <row r="296" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR296" s="32"/>
       <c r="AV296" s="32"/>
       <c r="AY296" s="33"/>
     </row>
-    <row r="297" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR297" s="32"/>
       <c r="AV297" s="32"/>
       <c r="AY297" s="33"/>
     </row>
-    <row r="298" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR298" s="32"/>
       <c r="AV298" s="32"/>
       <c r="AY298" s="33"/>
     </row>
-    <row r="299" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR299" s="32"/>
       <c r="AV299" s="32"/>
       <c r="AY299" s="33"/>
     </row>
-    <row r="300" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR300" s="32"/>
       <c r="AV300" s="32"/>
       <c r="AY300" s="33"/>
     </row>
-    <row r="301" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR301" s="32"/>
       <c r="AV301" s="32"/>
       <c r="AY301" s="33"/>
     </row>
-    <row r="302" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR302" s="32"/>
       <c r="AV302" s="32"/>
       <c r="AY302" s="33"/>
     </row>
-    <row r="303" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR303" s="32"/>
       <c r="AV303" s="32"/>
       <c r="AY303" s="33"/>
     </row>
-    <row r="304" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR304" s="32"/>
       <c r="AV304" s="32"/>
       <c r="AY304" s="33"/>
     </row>
-    <row r="305" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR305" s="32"/>
       <c r="AV305" s="32"/>
       <c r="AY305" s="33"/>
     </row>
-    <row r="306" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR306" s="32"/>
       <c r="AV306" s="32"/>
       <c r="AY306" s="33"/>
     </row>
-    <row r="307" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR307" s="32"/>
       <c r="AV307" s="32"/>
       <c r="AY307" s="33"/>
     </row>
-    <row r="308" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR308" s="32"/>
       <c r="AV308" s="32"/>
       <c r="AY308" s="33"/>
     </row>
-    <row r="309" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR309" s="32"/>
       <c r="AV309" s="32"/>
       <c r="AY309" s="33"/>
     </row>
-    <row r="310" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR310" s="32"/>
       <c r="AV310" s="32"/>
       <c r="AY310" s="33"/>
     </row>
-    <row r="311" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR311" s="32"/>
       <c r="AV311" s="32"/>
       <c r="AY311" s="33"/>
     </row>
-    <row r="312" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR312" s="32"/>
       <c r="AV312" s="32"/>
       <c r="AY312" s="33"/>
     </row>
-    <row r="313" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR313" s="32"/>
       <c r="AV313" s="32"/>
       <c r="AY313" s="33"/>
     </row>
-    <row r="314" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR314" s="32"/>
       <c r="AV314" s="32"/>
       <c r="AY314" s="33"/>
     </row>
-    <row r="315" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR315" s="32"/>
       <c r="AV315" s="32"/>
       <c r="AY315" s="33"/>
     </row>
-    <row r="316" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR316" s="32"/>
       <c r="AV316" s="32"/>
       <c r="AY316" s="33"/>
     </row>
-    <row r="317" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR317" s="32"/>
       <c r="AV317" s="32"/>
       <c r="AY317" s="33"/>
     </row>
-    <row r="318" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR318" s="32"/>
       <c r="AV318" s="32"/>
       <c r="AY318" s="33"/>
     </row>
-    <row r="319" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR319" s="32"/>
       <c r="AV319" s="32"/>
       <c r="AY319" s="33"/>
     </row>
-    <row r="320" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR320" s="32"/>
       <c r="AV320" s="32"/>
       <c r="AY320" s="33"/>
     </row>
-    <row r="321" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR321" s="32"/>
       <c r="AV321" s="32"/>
       <c r="AY321" s="33"/>
     </row>
-    <row r="322" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR322" s="32"/>
       <c r="AV322" s="32"/>
       <c r="AY322" s="33"/>
     </row>
-    <row r="323" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR323" s="32"/>
       <c r="AV323" s="32"/>
       <c r="AY323" s="33"/>
     </row>
-    <row r="324" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR324" s="32"/>
       <c r="AV324" s="32"/>
       <c r="AY324" s="33"/>
     </row>
-    <row r="325" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR325" s="32"/>
       <c r="AV325" s="32"/>
       <c r="AY325" s="33"/>
     </row>
-    <row r="326" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR326" s="32"/>
       <c r="AV326" s="32"/>
       <c r="AY326" s="33"/>
     </row>
-    <row r="327" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR327" s="32"/>
       <c r="AV327" s="32"/>
       <c r="AY327" s="33"/>
     </row>
-    <row r="328" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR328" s="32"/>
       <c r="AV328" s="32"/>
       <c r="AY328" s="33"/>
     </row>
-    <row r="329" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR329" s="32"/>
       <c r="AV329" s="32"/>
       <c r="AY329" s="33"/>
     </row>
-    <row r="330" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR330" s="32"/>
       <c r="AV330" s="32"/>
       <c r="AY330" s="33"/>
     </row>
-    <row r="331" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR331" s="32"/>
       <c r="AV331" s="32"/>
       <c r="AY331" s="33"/>
     </row>
-    <row r="332" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR332" s="32"/>
       <c r="AV332" s="32"/>
       <c r="AY332" s="33"/>
     </row>
-    <row r="333" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR333" s="32"/>
       <c r="AV333" s="32"/>
       <c r="AY333" s="33"/>
     </row>
-    <row r="334" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR334" s="32"/>
       <c r="AV334" s="32"/>
       <c r="AY334" s="33"/>
     </row>
-    <row r="335" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR335" s="32"/>
       <c r="AV335" s="32"/>
       <c r="AY335" s="33"/>
     </row>
-    <row r="336" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR336" s="32"/>
       <c r="AV336" s="32"/>
       <c r="AY336" s="33"/>
     </row>
-    <row r="337" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR337" s="32"/>
       <c r="AV337" s="32"/>
       <c r="AY337" s="33"/>
     </row>
-    <row r="338" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR338" s="32"/>
       <c r="AV338" s="32"/>
       <c r="AY338" s="33"/>
     </row>
-    <row r="339" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR339" s="32"/>
       <c r="AV339" s="32"/>
       <c r="AY339" s="33"/>
     </row>
-    <row r="340" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR340" s="32"/>
       <c r="AV340" s="32"/>
       <c r="AY340" s="33"/>
     </row>
-    <row r="341" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR341" s="32"/>
       <c r="AV341" s="32"/>
       <c r="AY341" s="33"/>
     </row>
-    <row r="342" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR342" s="32"/>
       <c r="AV342" s="32"/>
       <c r="AY342" s="33"/>
     </row>
-    <row r="343" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR343" s="32"/>
       <c r="AV343" s="32"/>
       <c r="AY343" s="33"/>
     </row>
-    <row r="344" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR344" s="32"/>
       <c r="AV344" s="32"/>
       <c r="AY344" s="33"/>
     </row>
-    <row r="345" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR345" s="32"/>
       <c r="AV345" s="32"/>
       <c r="AY345" s="33"/>
     </row>
-    <row r="346" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR346" s="32"/>
       <c r="AV346" s="32"/>
       <c r="AY346" s="33"/>
     </row>
-    <row r="347" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR347" s="32"/>
       <c r="AV347" s="32"/>
       <c r="AY347" s="33"/>
     </row>
-    <row r="348" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR348" s="32"/>
       <c r="AV348" s="32"/>
       <c r="AY348" s="33"/>
     </row>
-    <row r="349" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR349" s="32"/>
       <c r="AV349" s="32"/>
       <c r="AY349" s="33"/>
     </row>
-    <row r="350" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR350" s="32"/>
       <c r="AV350" s="32"/>
       <c r="AY350" s="33"/>
     </row>
-    <row r="351" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR351" s="32"/>
       <c r="AV351" s="32"/>
       <c r="AY351" s="33"/>
     </row>
-    <row r="352" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR352" s="32"/>
       <c r="AV352" s="32"/>
       <c r="AY352" s="33"/>
     </row>
-    <row r="353" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR353" s="32"/>
       <c r="AV353" s="32"/>
       <c r="AY353" s="33"/>
     </row>
-    <row r="354" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR354" s="32"/>
       <c r="AV354" s="32"/>
       <c r="AY354" s="33"/>
     </row>
-    <row r="355" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR355" s="32"/>
       <c r="AV355" s="32"/>
       <c r="AY355" s="33"/>
     </row>
-    <row r="356" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR356" s="32"/>
       <c r="AV356" s="32"/>
       <c r="AY356" s="33"/>
     </row>
-    <row r="357" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR357" s="32"/>
       <c r="AV357" s="32"/>
       <c r="AY357" s="33"/>
     </row>
-    <row r="358" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR358" s="32"/>
       <c r="AV358" s="32"/>
       <c r="AY358" s="33"/>
     </row>
-    <row r="359" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR359" s="32"/>
       <c r="AV359" s="32"/>
       <c r="AY359" s="33"/>
     </row>
-    <row r="360" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR360" s="32"/>
       <c r="AV360" s="32"/>
       <c r="AY360" s="33"/>
     </row>
-    <row r="361" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR361" s="32"/>
       <c r="AV361" s="32"/>
       <c r="AY361" s="33"/>
     </row>
-    <row r="362" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR362" s="32"/>
       <c r="AV362" s="32"/>
       <c r="AY362" s="33"/>
     </row>
-    <row r="363" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR363" s="32"/>
       <c r="AV363" s="32"/>
       <c r="AY363" s="33"/>
     </row>
-    <row r="364" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR364" s="32"/>
       <c r="AV364" s="32"/>
       <c r="AY364" s="33"/>
     </row>
-    <row r="365" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR365" s="32"/>
       <c r="AV365" s="32"/>
       <c r="AY365" s="33"/>
     </row>
-    <row r="366" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR366" s="32"/>
       <c r="AV366" s="32"/>
       <c r="AY366" s="33"/>
     </row>
-    <row r="367" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR367" s="32"/>
       <c r="AV367" s="32"/>
       <c r="AY367" s="33"/>
     </row>
-    <row r="368" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR368" s="32"/>
       <c r="AV368" s="32"/>
       <c r="AY368" s="33"/>
     </row>
-    <row r="369" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR369" s="32"/>
       <c r="AV369" s="32"/>
       <c r="AY369" s="33"/>
     </row>
-    <row r="370" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR370" s="32"/>
       <c r="AV370" s="32"/>
       <c r="AY370" s="33"/>
     </row>
-    <row r="371" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR371" s="32"/>
       <c r="AV371" s="32"/>
       <c r="AY371" s="33"/>
     </row>
-    <row r="372" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR372" s="32"/>
       <c r="AV372" s="32"/>
       <c r="AY372" s="33"/>
     </row>
-    <row r="373" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR373" s="32"/>
       <c r="AV373" s="32"/>
       <c r="AY373" s="33"/>
     </row>
-    <row r="374" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR374" s="32"/>
       <c r="AV374" s="32"/>
       <c r="AY374" s="33"/>
     </row>
-    <row r="375" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR375" s="32"/>
       <c r="AV375" s="32"/>
       <c r="AY375" s="33"/>
     </row>
-    <row r="376" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR376" s="32"/>
       <c r="AV376" s="32"/>
       <c r="AY376" s="33"/>
     </row>
-    <row r="377" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR377" s="32"/>
       <c r="AV377" s="32"/>
       <c r="AY377" s="33"/>
     </row>
-    <row r="378" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR378" s="32"/>
       <c r="AV378" s="32"/>
       <c r="AY378" s="33"/>
     </row>
-    <row r="379" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR379" s="32"/>
       <c r="AV379" s="32"/>
       <c r="AY379" s="33"/>
     </row>
-    <row r="380" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR380" s="32"/>
       <c r="AV380" s="32"/>
       <c r="AY380" s="33"/>
     </row>
-    <row r="381" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR381" s="32"/>
       <c r="AV381" s="32"/>
       <c r="AY381" s="33"/>
     </row>
-    <row r="382" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR382" s="32"/>
       <c r="AV382" s="32"/>
       <c r="AY382" s="33"/>
     </row>
-    <row r="383" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR383" s="32"/>
       <c r="AV383" s="32"/>
       <c r="AY383" s="33"/>
     </row>
-    <row r="384" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR384" s="32"/>
       <c r="AV384" s="32"/>
       <c r="AY384" s="33"/>
     </row>
-    <row r="385" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR385" s="32"/>
       <c r="AV385" s="32"/>
       <c r="AY385" s="33"/>
     </row>
-    <row r="386" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR386" s="32"/>
       <c r="AV386" s="32"/>
       <c r="AY386" s="33"/>
     </row>
-    <row r="387" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR387" s="32"/>
       <c r="AV387" s="32"/>
       <c r="AY387" s="33"/>
     </row>
-    <row r="388" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR388" s="32"/>
       <c r="AV388" s="32"/>
       <c r="AY388" s="33"/>
     </row>
-    <row r="389" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR389" s="32"/>
       <c r="AV389" s="32"/>
       <c r="AY389" s="33"/>
     </row>
-    <row r="390" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR390" s="32"/>
       <c r="AV390" s="32"/>
       <c r="AY390" s="33"/>
     </row>
-    <row r="391" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR391" s="32"/>
       <c r="AV391" s="32"/>
       <c r="AY391" s="33"/>
     </row>
-    <row r="392" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR392" s="32"/>
       <c r="AV392" s="32"/>
       <c r="AY392" s="33"/>
     </row>
-    <row r="393" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR393" s="32"/>
       <c r="AV393" s="32"/>
       <c r="AY393" s="33"/>
     </row>
-    <row r="394" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR394" s="32"/>
       <c r="AV394" s="32"/>
       <c r="AY394" s="33"/>
     </row>
-    <row r="395" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR395" s="32"/>
       <c r="AV395" s="32"/>
       <c r="AY395" s="33"/>
     </row>
-    <row r="396" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR396" s="32"/>
       <c r="AV396" s="32"/>
       <c r="AY396" s="33"/>
     </row>
-    <row r="397" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR397" s="32"/>
       <c r="AV397" s="32"/>
       <c r="AY397" s="33"/>
     </row>
-    <row r="398" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR398" s="32"/>
       <c r="AV398" s="32"/>
       <c r="AY398" s="33"/>
     </row>
-    <row r="399" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR399" s="32"/>
       <c r="AV399" s="32"/>
       <c r="AY399" s="33"/>
     </row>
-    <row r="400" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR400" s="32"/>
       <c r="AV400" s="32"/>
       <c r="AY400" s="33"/>
     </row>
-    <row r="401" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR401" s="32"/>
       <c r="AV401" s="32"/>
       <c r="AY401" s="33"/>
     </row>
-    <row r="402" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR402" s="32"/>
       <c r="AV402" s="32"/>
       <c r="AY402" s="33"/>
     </row>
-    <row r="403" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR403" s="32"/>
       <c r="AV403" s="32"/>
       <c r="AY403" s="33"/>
     </row>
-    <row r="404" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR404" s="32"/>
       <c r="AV404" s="32"/>
       <c r="AY404" s="33"/>
     </row>
-    <row r="405" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR405" s="32"/>
       <c r="AV405" s="32"/>
       <c r="AY405" s="33"/>
     </row>
-    <row r="406" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR406" s="32"/>
       <c r="AV406" s="32"/>
       <c r="AY406" s="33"/>
     </row>
-    <row r="407" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR407" s="32"/>
       <c r="AV407" s="32"/>
       <c r="AY407" s="33"/>
     </row>
-    <row r="408" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR408" s="32"/>
       <c r="AV408" s="32"/>
       <c r="AY408" s="33"/>
     </row>
-    <row r="409" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR409" s="32"/>
       <c r="AV409" s="32"/>
       <c r="AY409" s="33"/>
     </row>
-    <row r="410" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR410" s="32"/>
       <c r="AV410" s="32"/>
       <c r="AY410" s="33"/>
     </row>
-    <row r="411" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR411" s="32"/>
       <c r="AV411" s="32"/>
       <c r="AY411" s="33"/>
     </row>
-    <row r="412" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR412" s="32"/>
       <c r="AV412" s="32"/>
       <c r="AY412" s="33"/>
     </row>
-    <row r="413" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR413" s="32"/>
       <c r="AV413" s="32"/>
       <c r="AY413" s="33"/>
     </row>
-    <row r="414" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR414" s="32"/>
       <c r="AV414" s="32"/>
       <c r="AY414" s="33"/>
     </row>
-    <row r="415" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR415" s="32"/>
       <c r="AV415" s="32"/>
       <c r="AY415" s="33"/>
     </row>
-    <row r="416" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR416" s="32"/>
       <c r="AV416" s="32"/>
       <c r="AY416" s="33"/>
     </row>
-    <row r="417" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR417" s="32"/>
       <c r="AV417" s="32"/>
       <c r="AY417" s="33"/>
     </row>
-    <row r="418" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR418" s="32"/>
       <c r="AV418" s="32"/>
       <c r="AY418" s="33"/>
     </row>
-    <row r="419" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR419" s="32"/>
       <c r="AV419" s="32"/>
       <c r="AY419" s="33"/>
     </row>
-    <row r="420" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR420" s="32"/>
       <c r="AV420" s="32"/>
       <c r="AY420" s="33"/>
     </row>
-    <row r="421" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR421" s="32"/>
       <c r="AV421" s="32"/>
       <c r="AY421" s="33"/>
     </row>
-    <row r="422" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR422" s="32"/>
       <c r="AV422" s="32"/>
       <c r="AY422" s="33"/>
     </row>
-    <row r="423" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR423" s="32"/>
       <c r="AV423" s="32"/>
       <c r="AY423" s="33"/>
     </row>
-    <row r="424" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR424" s="32"/>
       <c r="AV424" s="32"/>
       <c r="AY424" s="33"/>
     </row>
-    <row r="425" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR425" s="32"/>
       <c r="AV425" s="32"/>
       <c r="AY425" s="33"/>
     </row>
-    <row r="426" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR426" s="32"/>
       <c r="AV426" s="32"/>
       <c r="AY426" s="33"/>
     </row>
-    <row r="427" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR427" s="32"/>
       <c r="AV427" s="32"/>
       <c r="AY427" s="33"/>
     </row>
-    <row r="428" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR428" s="32"/>
       <c r="AV428" s="32"/>
       <c r="AY428" s="33"/>
     </row>
-    <row r="429" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR429" s="32"/>
       <c r="AV429" s="32"/>
       <c r="AY429" s="33"/>
     </row>
-    <row r="430" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR430" s="32"/>
       <c r="AV430" s="32"/>
       <c r="AY430" s="33"/>
     </row>
-    <row r="431" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR431" s="32"/>
       <c r="AV431" s="32"/>
       <c r="AY431" s="33"/>
     </row>
-    <row r="432" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR432" s="32"/>
       <c r="AV432" s="32"/>
       <c r="AY432" s="33"/>
     </row>
-    <row r="433" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR433" s="32"/>
       <c r="AV433" s="32"/>
       <c r="AY433" s="33"/>
     </row>
-    <row r="434" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR434" s="32"/>
       <c r="AV434" s="32"/>
       <c r="AY434" s="33"/>
     </row>
-    <row r="435" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR435" s="32"/>
       <c r="AV435" s="32"/>
       <c r="AY435" s="33"/>
     </row>
-    <row r="436" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR436" s="32"/>
       <c r="AV436" s="32"/>
       <c r="AY436" s="33"/>
     </row>
-    <row r="437" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR437" s="32"/>
       <c r="AV437" s="32"/>
       <c r="AY437" s="33"/>
     </row>
-    <row r="438" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR438" s="32"/>
       <c r="AV438" s="32"/>
       <c r="AY438" s="33"/>
     </row>
-    <row r="439" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR439" s="32"/>
       <c r="AV439" s="32"/>
       <c r="AY439" s="33"/>
     </row>
-    <row r="440" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR440" s="32"/>
       <c r="AV440" s="32"/>
       <c r="AY440" s="33"/>
     </row>
-    <row r="441" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR441" s="32"/>
       <c r="AV441" s="32"/>
       <c r="AY441" s="33"/>
     </row>
-    <row r="442" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR442" s="32"/>
       <c r="AV442" s="32"/>
       <c r="AY442" s="33"/>
     </row>
-    <row r="443" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR443" s="32"/>
       <c r="AV443" s="32"/>
       <c r="AY443" s="33"/>
     </row>
-    <row r="444" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR444" s="32"/>
       <c r="AV444" s="32"/>
       <c r="AY444" s="33"/>
     </row>
-    <row r="445" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR445" s="32"/>
       <c r="AV445" s="32"/>
       <c r="AY445" s="33"/>
     </row>
-    <row r="446" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR446" s="32"/>
       <c r="AV446" s="32"/>
       <c r="AY446" s="33"/>
     </row>
-    <row r="447" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR447" s="32"/>
       <c r="AV447" s="32"/>
       <c r="AY447" s="33"/>
     </row>
-    <row r="448" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR448" s="32"/>
       <c r="AV448" s="32"/>
       <c r="AY448" s="33"/>
     </row>
-    <row r="449" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR449" s="32"/>
       <c r="AV449" s="32"/>
       <c r="AY449" s="33"/>
     </row>
-    <row r="450" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR450" s="32"/>
       <c r="AV450" s="32"/>
       <c r="AY450" s="33"/>
     </row>
-    <row r="451" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR451" s="32"/>
       <c r="AV451" s="32"/>
       <c r="AY451" s="33"/>
     </row>
-    <row r="452" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR452" s="32"/>
       <c r="AV452" s="32"/>
       <c r="AY452" s="33"/>
     </row>
-    <row r="453" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR453" s="32"/>
       <c r="AV453" s="32"/>
       <c r="AY453" s="33"/>
     </row>
-    <row r="454" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR454" s="32"/>
       <c r="AV454" s="32"/>
       <c r="AY454" s="33"/>
     </row>
-    <row r="455" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR455" s="32"/>
       <c r="AV455" s="32"/>
       <c r="AY455" s="33"/>
     </row>
-    <row r="456" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR456" s="32"/>
       <c r="AV456" s="32"/>
       <c r="AY456" s="33"/>
     </row>
-    <row r="457" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR457" s="32"/>
       <c r="AV457" s="32"/>
       <c r="AY457" s="33"/>
     </row>
-    <row r="458" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR458" s="32"/>
       <c r="AV458" s="32"/>
       <c r="AY458" s="33"/>
     </row>
-    <row r="459" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR459" s="32"/>
       <c r="AV459" s="32"/>
       <c r="AY459" s="33"/>
     </row>
-    <row r="460" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR460" s="32"/>
       <c r="AV460" s="32"/>
       <c r="AY460" s="33"/>
     </row>
-    <row r="461" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR461" s="32"/>
       <c r="AV461" s="32"/>
       <c r="AY461" s="33"/>
     </row>
-    <row r="462" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR462" s="32"/>
       <c r="AV462" s="32"/>
       <c r="AY462" s="33"/>
     </row>
-    <row r="463" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR463" s="32"/>
       <c r="AV463" s="32"/>
       <c r="AY463" s="33"/>
     </row>
-    <row r="464" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR464" s="32"/>
       <c r="AV464" s="32"/>
       <c r="AY464" s="33"/>
     </row>
-    <row r="465" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR465" s="32"/>
       <c r="AV465" s="32"/>
       <c r="AY465" s="33"/>
     </row>
-    <row r="466" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR466" s="32"/>
       <c r="AV466" s="32"/>
       <c r="AY466" s="33"/>
     </row>
-    <row r="467" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR467" s="32"/>
       <c r="AV467" s="32"/>
       <c r="AY467" s="33"/>
     </row>
-    <row r="468" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR468" s="32"/>
       <c r="AV468" s="32"/>
       <c r="AY468" s="33"/>
     </row>
-    <row r="469" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR469" s="32"/>
       <c r="AV469" s="32"/>
       <c r="AY469" s="33"/>
     </row>
-    <row r="470" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR470" s="32"/>
       <c r="AV470" s="32"/>
       <c r="AY470" s="33"/>
     </row>
-    <row r="471" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR471" s="32"/>
       <c r="AV471" s="32"/>
       <c r="AY471" s="33"/>
     </row>
-    <row r="472" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR472" s="32"/>
       <c r="AV472" s="32"/>
       <c r="AY472" s="33"/>
     </row>
-    <row r="473" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR473" s="32"/>
       <c r="AV473" s="32"/>
       <c r="AY473" s="33"/>
     </row>
-    <row r="474" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR474" s="32"/>
       <c r="AV474" s="32"/>
       <c r="AY474" s="33"/>
     </row>
-    <row r="475" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR475" s="32"/>
       <c r="AV475" s="32"/>
       <c r="AY475" s="33"/>
     </row>
-    <row r="476" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR476" s="32"/>
       <c r="AV476" s="32"/>
       <c r="AY476" s="33"/>
     </row>
-    <row r="477" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR477" s="32"/>
       <c r="AV477" s="32"/>
       <c r="AY477" s="33"/>
     </row>
-    <row r="478" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR478" s="32"/>
       <c r="AV478" s="32"/>
       <c r="AY478" s="33"/>
     </row>
-    <row r="479" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR479" s="32"/>
       <c r="AV479" s="32"/>
       <c r="AY479" s="33"/>
     </row>
-    <row r="480" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR480" s="32"/>
       <c r="AV480" s="32"/>
       <c r="AY480" s="33"/>
     </row>
-    <row r="481" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR481" s="32"/>
       <c r="AV481" s="32"/>
       <c r="AY481" s="33"/>
     </row>
-    <row r="482" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR482" s="32"/>
       <c r="AV482" s="32"/>
       <c r="AY482" s="33"/>
     </row>
-    <row r="483" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR483" s="32"/>
       <c r="AV483" s="32"/>
       <c r="AY483" s="33"/>
     </row>
-    <row r="484" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR484" s="32"/>
       <c r="AV484" s="32"/>
       <c r="AY484" s="33"/>
     </row>
-    <row r="485" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR485" s="32"/>
       <c r="AV485" s="32"/>
       <c r="AY485" s="33"/>
     </row>
-    <row r="486" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR486" s="32"/>
       <c r="AV486" s="32"/>
       <c r="AY486" s="33"/>
     </row>
-    <row r="487" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR487" s="32"/>
       <c r="AV487" s="32"/>
       <c r="AY487" s="33"/>
     </row>
-    <row r="488" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR488" s="32"/>
       <c r="AV488" s="32"/>
       <c r="AY488" s="33"/>
     </row>
-    <row r="489" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR489" s="32"/>
       <c r="AV489" s="32"/>
       <c r="AY489" s="33"/>
     </row>
-    <row r="490" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR490" s="32"/>
       <c r="AV490" s="32"/>
       <c r="AY490" s="33"/>
     </row>
-    <row r="491" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR491" s="32"/>
       <c r="AV491" s="32"/>
       <c r="AY491" s="33"/>
     </row>
-    <row r="492" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR492" s="32"/>
       <c r="AV492" s="32"/>
       <c r="AY492" s="33"/>
     </row>
-    <row r="493" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR493" s="32"/>
       <c r="AV493" s="32"/>
       <c r="AY493" s="33"/>
     </row>
-    <row r="494" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR494" s="32"/>
       <c r="AV494" s="32"/>
       <c r="AY494" s="33"/>
     </row>
-    <row r="495" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR495" s="32"/>
       <c r="AV495" s="32"/>
       <c r="AY495" s="33"/>
     </row>
-    <row r="496" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR496" s="32"/>
       <c r="AV496" s="32"/>
       <c r="AY496" s="33"/>
     </row>
-    <row r="497" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR497" s="32"/>
       <c r="AV497" s="32"/>
       <c r="AY497" s="33"/>
     </row>
-    <row r="498" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR498" s="32"/>
       <c r="AV498" s="32"/>
       <c r="AY498" s="33"/>
     </row>
-    <row r="499" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR499" s="32"/>
       <c r="AV499" s="32"/>
       <c r="AY499" s="33"/>
     </row>
-    <row r="500" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR500" s="32"/>
       <c r="AV500" s="32"/>
       <c r="AY500" s="33"/>
     </row>
-    <row r="501" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR501" s="32"/>
       <c r="AV501" s="32"/>
       <c r="AY501" s="33"/>
     </row>
-    <row r="502" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR502" s="32"/>
       <c r="AV502" s="32"/>
       <c r="AY502" s="33"/>
     </row>
-    <row r="503" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR503" s="32"/>
       <c r="AV503" s="32"/>
       <c r="AY503" s="33"/>
     </row>
-    <row r="504" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR504" s="32"/>
       <c r="AV504" s="32"/>
       <c r="AY504" s="33"/>
     </row>
-    <row r="505" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR505" s="32"/>
       <c r="AV505" s="32"/>
       <c r="AY505" s="33"/>
     </row>
-    <row r="506" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR506" s="32"/>
       <c r="AV506" s="32"/>
       <c r="AY506" s="33"/>
     </row>
-    <row r="507" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR507" s="32"/>
       <c r="AV507" s="32"/>
       <c r="AY507" s="33"/>
     </row>
-    <row r="508" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR508" s="32"/>
       <c r="AV508" s="32"/>
       <c r="AY508" s="33"/>
     </row>
-    <row r="509" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR509" s="32"/>
       <c r="AV509" s="32"/>
       <c r="AY509" s="33"/>
     </row>
-    <row r="510" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR510" s="32"/>
       <c r="AV510" s="32"/>
       <c r="AY510" s="33"/>
     </row>
-    <row r="511" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR511" s="32"/>
       <c r="AV511" s="32"/>
       <c r="AY511" s="33"/>
     </row>
-    <row r="512" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR512" s="32"/>
       <c r="AV512" s="32"/>
       <c r="AY512" s="33"/>
     </row>
-    <row r="513" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR513" s="32"/>
       <c r="AV513" s="32"/>
       <c r="AY513" s="33"/>
     </row>
-    <row r="514" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR514" s="32"/>
       <c r="AV514" s="32"/>
       <c r="AY514" s="33"/>
     </row>
-    <row r="515" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR515" s="32"/>
       <c r="AV515" s="32"/>
       <c r="AY515" s="33"/>
     </row>
-    <row r="516" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR516" s="32"/>
       <c r="AV516" s="32"/>
       <c r="AY516" s="33"/>
     </row>
-    <row r="517" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR517" s="32"/>
       <c r="AV517" s="32"/>
       <c r="AY517" s="33"/>
     </row>
-    <row r="518" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR518" s="32"/>
       <c r="AV518" s="32"/>
       <c r="AY518" s="33"/>
     </row>
-    <row r="519" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR519" s="32"/>
       <c r="AV519" s="32"/>
       <c r="AY519" s="33"/>
     </row>
-    <row r="520" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR520" s="32"/>
       <c r="AV520" s="32"/>
       <c r="AY520" s="33"/>
     </row>
-    <row r="521" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR521" s="32"/>
       <c r="AV521" s="32"/>
       <c r="AY521" s="33"/>
     </row>
-    <row r="522" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR522" s="32"/>
       <c r="AV522" s="32"/>
       <c r="AY522" s="33"/>
     </row>
-    <row r="523" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR523" s="32"/>
       <c r="AV523" s="32"/>
       <c r="AY523" s="33"/>
     </row>
-    <row r="524" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR524" s="32"/>
       <c r="AV524" s="32"/>
       <c r="AY524" s="33"/>
     </row>
-    <row r="525" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR525" s="32"/>
       <c r="AV525" s="32"/>
       <c r="AY525" s="33"/>
     </row>
-    <row r="526" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR526" s="32"/>
       <c r="AV526" s="32"/>
       <c r="AY526" s="33"/>
     </row>
-    <row r="527" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR527" s="32"/>
       <c r="AV527" s="32"/>
       <c r="AY527" s="33"/>
     </row>
-    <row r="528" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR528" s="32"/>
       <c r="AV528" s="32"/>
       <c r="AY528" s="33"/>
     </row>
-    <row r="529" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR529" s="32"/>
       <c r="AV529" s="32"/>
       <c r="AY529" s="33"/>
     </row>
-    <row r="530" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR530" s="32"/>
       <c r="AV530" s="32"/>
       <c r="AY530" s="33"/>
     </row>
-    <row r="531" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR531" s="32"/>
       <c r="AV531" s="32"/>
       <c r="AY531" s="33"/>
     </row>
-    <row r="532" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR532" s="32"/>
       <c r="AV532" s="32"/>
       <c r="AY532" s="33"/>
     </row>
-    <row r="533" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR533" s="32"/>
       <c r="AV533" s="32"/>
       <c r="AY533" s="33"/>
     </row>
-    <row r="534" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR534" s="32"/>
       <c r="AV534" s="32"/>
       <c r="AY534" s="33"/>
     </row>
-    <row r="535" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR535" s="32"/>
       <c r="AV535" s="32"/>
       <c r="AY535" s="33"/>
     </row>
-    <row r="536" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR536" s="32"/>
       <c r="AV536" s="32"/>
       <c r="AY536" s="33"/>
     </row>
-    <row r="537" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR537" s="32"/>
       <c r="AV537" s="32"/>
       <c r="AY537" s="33"/>
     </row>
-    <row r="538" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR538" s="32"/>
       <c r="AV538" s="32"/>
       <c r="AY538" s="33"/>
     </row>
-    <row r="539" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR539" s="32"/>
       <c r="AV539" s="32"/>
       <c r="AY539" s="33"/>
     </row>
-    <row r="540" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR540" s="32"/>
       <c r="AV540" s="32"/>
       <c r="AY540" s="33"/>
     </row>
-    <row r="541" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR541" s="32"/>
       <c r="AV541" s="32"/>
       <c r="AY541" s="33"/>
     </row>
-    <row r="542" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR542" s="32"/>
       <c r="AV542" s="32"/>
       <c r="AY542" s="33"/>
     </row>
-    <row r="543" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR543" s="32"/>
       <c r="AV543" s="32"/>
       <c r="AY543" s="33"/>
     </row>
-    <row r="544" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR544" s="32"/>
       <c r="AV544" s="32"/>
       <c r="AY544" s="33"/>
     </row>
-    <row r="545" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR545" s="32"/>
       <c r="AV545" s="32"/>
       <c r="AY545" s="33"/>
     </row>
-    <row r="546" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR546" s="32"/>
       <c r="AV546" s="32"/>
       <c r="AY546" s="33"/>
     </row>
-    <row r="547" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR547" s="32"/>
       <c r="AV547" s="32"/>
       <c r="AY547" s="33"/>
     </row>
-    <row r="548" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR548" s="32"/>
       <c r="AV548" s="32"/>
       <c r="AY548" s="33"/>
     </row>
-    <row r="549" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR549" s="32"/>
       <c r="AV549" s="32"/>
       <c r="AY549" s="33"/>
     </row>
-    <row r="550" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR550" s="32"/>
       <c r="AV550" s="32"/>
       <c r="AY550" s="33"/>
     </row>
-    <row r="551" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR551" s="32"/>
       <c r="AV551" s="32"/>
       <c r="AY551" s="33"/>
     </row>
-    <row r="552" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR552" s="32"/>
       <c r="AV552" s="32"/>
       <c r="AY552" s="33"/>
     </row>
-    <row r="553" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR553" s="32"/>
       <c r="AV553" s="32"/>
       <c r="AY553" s="33"/>
     </row>
-    <row r="554" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR554" s="32"/>
       <c r="AV554" s="32"/>
       <c r="AY554" s="33"/>
     </row>
-    <row r="555" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR555" s="32"/>
       <c r="AV555" s="32"/>
       <c r="AY555" s="33"/>
     </row>
-    <row r="556" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR556" s="32"/>
       <c r="AV556" s="32"/>
       <c r="AY556" s="33"/>
     </row>
-    <row r="557" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR557" s="32"/>
       <c r="AV557" s="32"/>
       <c r="AY557" s="33"/>
     </row>
-    <row r="558" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR558" s="32"/>
       <c r="AV558" s="32"/>
       <c r="AY558" s="33"/>
     </row>
-    <row r="559" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR559" s="32"/>
       <c r="AV559" s="32"/>
       <c r="AY559" s="33"/>
     </row>
-    <row r="560" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR560" s="32"/>
       <c r="AV560" s="32"/>
       <c r="AY560" s="33"/>
     </row>
-    <row r="561" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR561" s="32"/>
       <c r="AV561" s="32"/>
       <c r="AY561" s="33"/>
     </row>
-    <row r="562" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR562" s="32"/>
       <c r="AV562" s="32"/>
       <c r="AY562" s="33"/>
     </row>
-    <row r="563" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR563" s="32"/>
       <c r="AV563" s="32"/>
       <c r="AY563" s="33"/>
     </row>
-    <row r="564" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR564" s="32"/>
       <c r="AV564" s="32"/>
       <c r="AY564" s="33"/>
     </row>
-    <row r="565" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR565" s="32"/>
       <c r="AV565" s="32"/>
       <c r="AY565" s="33"/>
     </row>
-    <row r="566" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR566" s="32"/>
       <c r="AV566" s="32"/>
       <c r="AY566" s="33"/>
     </row>
-    <row r="567" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR567" s="32"/>
       <c r="AV567" s="32"/>
       <c r="AY567" s="33"/>
     </row>
-    <row r="568" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR568" s="32"/>
       <c r="AV568" s="32"/>
       <c r="AY568" s="33"/>
     </row>
-    <row r="569" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR569" s="32"/>
       <c r="AV569" s="32"/>
       <c r="AY569" s="33"/>
     </row>
-    <row r="570" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR570" s="32"/>
       <c r="AV570" s="32"/>
       <c r="AY570" s="33"/>
     </row>
-    <row r="571" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR571" s="32"/>
       <c r="AV571" s="32"/>
       <c r="AY571" s="33"/>
     </row>
-    <row r="572" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR572" s="32"/>
       <c r="AV572" s="32"/>
       <c r="AY572" s="33"/>
     </row>
-    <row r="573" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR573" s="32"/>
       <c r="AV573" s="32"/>
       <c r="AY573" s="33"/>
     </row>
-    <row r="574" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR574" s="32"/>
       <c r="AV574" s="32"/>
       <c r="AY574" s="33"/>
     </row>
-    <row r="575" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR575" s="32"/>
       <c r="AV575" s="32"/>
       <c r="AY575" s="33"/>
     </row>
-    <row r="576" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR576" s="32"/>
       <c r="AV576" s="32"/>
       <c r="AY576" s="33"/>
     </row>
-    <row r="577" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR577" s="32"/>
       <c r="AV577" s="32"/>
       <c r="AY577" s="33"/>
     </row>
-    <row r="578" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR578" s="32"/>
       <c r="AV578" s="32"/>
       <c r="AY578" s="33"/>
     </row>
-    <row r="579" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR579" s="32"/>
       <c r="AV579" s="32"/>
       <c r="AY579" s="33"/>
     </row>
-    <row r="580" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR580" s="32"/>
       <c r="AV580" s="32"/>
       <c r="AY580" s="33"/>
     </row>
-    <row r="581" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR581" s="32"/>
       <c r="AV581" s="32"/>
       <c r="AY581" s="33"/>
     </row>
-    <row r="582" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR582" s="32"/>
       <c r="AV582" s="32"/>
       <c r="AY582" s="33"/>
     </row>
-    <row r="583" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR583" s="32"/>
       <c r="AV583" s="32"/>
       <c r="AY583" s="33"/>
     </row>
-    <row r="584" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR584" s="32"/>
       <c r="AV584" s="32"/>
       <c r="AY584" s="33"/>
     </row>
-    <row r="585" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR585" s="32"/>
       <c r="AV585" s="32"/>
       <c r="AY585" s="33"/>
     </row>
-    <row r="586" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR586" s="32"/>
       <c r="AV586" s="32"/>
       <c r="AY586" s="33"/>
     </row>
-    <row r="587" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR587" s="32"/>
       <c r="AV587" s="32"/>
       <c r="AY587" s="33"/>
     </row>
-    <row r="588" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR588" s="32"/>
       <c r="AV588" s="32"/>
       <c r="AY588" s="33"/>
     </row>
-    <row r="589" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR589" s="32"/>
       <c r="AV589" s="32"/>
       <c r="AY589" s="33"/>
     </row>
-    <row r="590" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR590" s="32"/>
       <c r="AV590" s="32"/>
       <c r="AY590" s="33"/>
     </row>
-    <row r="591" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR591" s="32"/>
       <c r="AV591" s="32"/>
       <c r="AY591" s="33"/>
     </row>
-    <row r="592" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR592" s="32"/>
       <c r="AV592" s="32"/>
       <c r="AY592" s="33"/>
     </row>
-    <row r="593" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR593" s="32"/>
       <c r="AV593" s="32"/>
       <c r="AY593" s="33"/>
     </row>
-    <row r="594" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR594" s="32"/>
       <c r="AV594" s="32"/>
       <c r="AY594" s="33"/>
     </row>
-    <row r="595" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR595" s="32"/>
       <c r="AV595" s="32"/>
       <c r="AY595" s="33"/>
     </row>
-    <row r="596" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR596" s="32"/>
       <c r="AV596" s="32"/>
       <c r="AY596" s="33"/>
     </row>
-    <row r="597" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR597" s="32"/>
       <c r="AV597" s="32"/>
       <c r="AY597" s="33"/>
     </row>
-    <row r="598" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR598" s="32"/>
       <c r="AV598" s="32"/>
       <c r="AY598" s="33"/>
     </row>
-    <row r="599" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR599" s="32"/>
       <c r="AV599" s="32"/>
       <c r="AY599" s="33"/>
     </row>
-    <row r="600" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR600" s="32"/>
       <c r="AV600" s="32"/>
       <c r="AY600" s="33"/>
     </row>
-    <row r="601" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR601" s="32"/>
       <c r="AV601" s="32"/>
       <c r="AY601" s="33"/>
     </row>
-    <row r="602" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR602" s="32"/>
       <c r="AV602" s="32"/>
       <c r="AY602" s="33"/>
     </row>
-    <row r="603" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR603" s="32"/>
       <c r="AV603" s="32"/>
       <c r="AY603" s="33"/>
     </row>
-    <row r="604" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR604" s="32"/>
       <c r="AV604" s="32"/>
       <c r="AY604" s="33"/>
     </row>
-    <row r="605" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR605" s="32"/>
       <c r="AV605" s="32"/>
       <c r="AY605" s="33"/>
     </row>
-    <row r="606" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR606" s="32"/>
       <c r="AV606" s="32"/>
       <c r="AY606" s="33"/>
     </row>
-    <row r="607" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR607" s="32"/>
       <c r="AV607" s="32"/>
       <c r="AY607" s="33"/>
     </row>
-    <row r="608" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR608" s="32"/>
       <c r="AV608" s="32"/>
       <c r="AY608" s="33"/>
     </row>
-    <row r="609" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR609" s="32"/>
       <c r="AV609" s="32"/>
       <c r="AY609" s="33"/>
     </row>
-    <row r="610" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR610" s="32"/>
       <c r="AV610" s="32"/>
       <c r="AY610" s="33"/>
     </row>
-    <row r="611" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR611" s="32"/>
       <c r="AV611" s="32"/>
       <c r="AY611" s="33"/>
     </row>
-    <row r="612" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR612" s="32"/>
       <c r="AV612" s="32"/>
       <c r="AY612" s="33"/>
     </row>
-    <row r="613" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR613" s="32"/>
       <c r="AV613" s="32"/>
       <c r="AY613" s="33"/>
     </row>
-    <row r="614" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR614" s="32"/>
       <c r="AV614" s="32"/>
       <c r="AY614" s="33"/>
     </row>
-    <row r="615" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR615" s="32"/>
       <c r="AV615" s="32"/>
       <c r="AY615" s="33"/>
     </row>
-    <row r="616" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR616" s="32"/>
       <c r="AV616" s="32"/>
       <c r="AY616" s="33"/>
     </row>
-    <row r="617" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR617" s="32"/>
       <c r="AV617" s="32"/>
       <c r="AY617" s="33"/>
     </row>
-    <row r="618" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR618" s="32"/>
       <c r="AV618" s="32"/>
       <c r="AY618" s="33"/>
     </row>
-    <row r="619" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR619" s="32"/>
       <c r="AV619" s="32"/>
       <c r="AY619" s="33"/>
     </row>
-    <row r="620" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR620" s="32"/>
       <c r="AV620" s="32"/>
       <c r="AY620" s="33"/>
     </row>
-    <row r="621" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR621" s="32"/>
       <c r="AV621" s="32"/>
       <c r="AY621" s="33"/>
     </row>
-    <row r="622" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR622" s="32"/>
       <c r="AV622" s="32"/>
       <c r="AY622" s="33"/>
     </row>
-    <row r="623" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR623" s="32"/>
       <c r="AV623" s="32"/>
       <c r="AY623" s="33"/>
     </row>
-    <row r="624" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR624" s="32"/>
       <c r="AV624" s="32"/>
       <c r="AY624" s="33"/>
     </row>
-    <row r="625" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR625" s="32"/>
       <c r="AV625" s="32"/>
       <c r="AY625" s="33"/>
     </row>
-    <row r="626" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR626" s="32"/>
       <c r="AV626" s="32"/>
       <c r="AY626" s="33"/>
     </row>
-    <row r="627" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR627" s="32"/>
       <c r="AV627" s="32"/>
       <c r="AY627" s="33"/>
     </row>
-    <row r="628" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR628" s="32"/>
       <c r="AV628" s="32"/>
       <c r="AY628" s="33"/>
     </row>
-    <row r="629" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR629" s="32"/>
       <c r="AV629" s="32"/>
       <c r="AY629" s="33"/>
     </row>
-    <row r="630" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR630" s="32"/>
       <c r="AV630" s="32"/>
       <c r="AY630" s="33"/>
     </row>
-    <row r="631" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR631" s="32"/>
       <c r="AV631" s="32"/>
       <c r="AY631" s="33"/>
     </row>
-    <row r="632" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR632" s="32"/>
       <c r="AV632" s="32"/>
       <c r="AY632" s="33"/>
     </row>
-    <row r="633" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR633" s="32"/>
       <c r="AV633" s="32"/>
       <c r="AY633" s="33"/>
     </row>
-    <row r="634" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR634" s="32"/>
       <c r="AV634" s="32"/>
       <c r="AY634" s="33"/>
     </row>
-    <row r="635" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR635" s="32"/>
       <c r="AV635" s="32"/>
       <c r="AY635" s="33"/>
     </row>
-    <row r="636" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR636" s="32"/>
       <c r="AV636" s="32"/>
       <c r="AY636" s="33"/>
     </row>
-    <row r="637" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR637" s="32"/>
       <c r="AV637" s="32"/>
       <c r="AY637" s="33"/>
     </row>
-    <row r="638" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR638" s="32"/>
       <c r="AV638" s="32"/>
       <c r="AY638" s="33"/>
     </row>
-    <row r="639" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR639" s="32"/>
       <c r="AV639" s="32"/>
       <c r="AY639" s="33"/>
     </row>
-    <row r="640" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR640" s="32"/>
       <c r="AV640" s="32"/>
       <c r="AY640" s="33"/>
     </row>
-    <row r="641" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR641" s="32"/>
       <c r="AV641" s="32"/>
       <c r="AY641" s="33"/>
     </row>
-    <row r="642" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR642" s="32"/>
       <c r="AV642" s="32"/>
       <c r="AY642" s="33"/>
     </row>
-    <row r="643" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR643" s="32"/>
       <c r="AV643" s="32"/>
       <c r="AY643" s="33"/>
     </row>
-    <row r="644" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR644" s="32"/>
       <c r="AV644" s="32"/>
       <c r="AY644" s="33"/>
     </row>
-    <row r="645" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR645" s="32"/>
       <c r="AV645" s="32"/>
       <c r="AY645" s="33"/>
     </row>
-    <row r="646" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR646" s="32"/>
       <c r="AV646" s="32"/>
       <c r="AY646" s="33"/>
     </row>
-    <row r="647" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR647" s="32"/>
       <c r="AV647" s="32"/>
       <c r="AY647" s="33"/>
     </row>
-    <row r="648" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR648" s="32"/>
       <c r="AV648" s="32"/>
       <c r="AY648" s="33"/>
     </row>
-    <row r="649" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR649" s="32"/>
       <c r="AV649" s="32"/>
       <c r="AY649" s="33"/>
     </row>
-    <row r="650" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR650" s="32"/>
       <c r="AV650" s="32"/>
       <c r="AY650" s="33"/>
     </row>
-    <row r="651" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR651" s="32"/>
       <c r="AV651" s="32"/>
       <c r="AY651" s="33"/>
     </row>
-    <row r="652" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR652" s="32"/>
       <c r="AV652" s="32"/>
       <c r="AY652" s="33"/>
     </row>
-    <row r="653" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR653" s="32"/>
       <c r="AV653" s="32"/>
       <c r="AY653" s="33"/>
     </row>
-    <row r="654" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR654" s="32"/>
       <c r="AV654" s="32"/>
       <c r="AY654" s="33"/>
     </row>
-    <row r="655" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR655" s="32"/>
       <c r="AV655" s="32"/>
       <c r="AY655" s="33"/>
     </row>
-    <row r="656" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR656" s="32"/>
       <c r="AV656" s="32"/>
       <c r="AY656" s="33"/>
     </row>
-    <row r="657" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR657" s="32"/>
       <c r="AV657" s="32"/>
       <c r="AY657" s="33"/>
     </row>
-    <row r="658" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR658" s="32"/>
       <c r="AV658" s="32"/>
       <c r="AY658" s="33"/>
     </row>
-    <row r="659" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR659" s="32"/>
       <c r="AV659" s="32"/>
       <c r="AY659" s="33"/>
     </row>
-    <row r="660" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR660" s="32"/>
       <c r="AV660" s="32"/>
       <c r="AY660" s="33"/>
     </row>
-    <row r="661" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR661" s="32"/>
       <c r="AV661" s="32"/>
       <c r="AY661" s="33"/>
     </row>
-    <row r="662" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR662" s="32"/>
       <c r="AV662" s="32"/>
       <c r="AY662" s="33"/>
     </row>
-    <row r="663" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR663" s="32"/>
       <c r="AV663" s="32"/>
       <c r="AY663" s="33"/>
     </row>
-    <row r="664" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR664" s="32"/>
       <c r="AV664" s="32"/>
       <c r="AY664" s="33"/>
     </row>
-    <row r="665" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR665" s="32"/>
       <c r="AV665" s="32"/>
       <c r="AY665" s="33"/>
     </row>
-    <row r="666" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR666" s="32"/>
       <c r="AV666" s="32"/>
       <c r="AY666" s="33"/>
     </row>
-    <row r="667" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR667" s="32"/>
       <c r="AV667" s="32"/>
       <c r="AY667" s="33"/>
     </row>
-    <row r="668" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR668" s="32"/>
       <c r="AV668" s="32"/>
       <c r="AY668" s="33"/>
     </row>
-    <row r="669" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR669" s="32"/>
       <c r="AV669" s="32"/>
       <c r="AY669" s="33"/>
     </row>
-    <row r="670" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR670" s="32"/>
       <c r="AV670" s="32"/>
       <c r="AY670" s="33"/>
     </row>
-    <row r="671" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR671" s="32"/>
       <c r="AV671" s="32"/>
       <c r="AY671" s="33"/>
     </row>
-    <row r="672" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR672" s="32"/>
       <c r="AV672" s="32"/>
       <c r="AY672" s="33"/>
     </row>
-    <row r="673" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR673" s="32"/>
       <c r="AV673" s="32"/>
       <c r="AY673" s="33"/>
     </row>
-    <row r="674" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR674" s="32"/>
       <c r="AV674" s="32"/>
       <c r="AY674" s="33"/>
     </row>
-    <row r="675" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR675" s="32"/>
       <c r="AV675" s="32"/>
       <c r="AY675" s="33"/>
     </row>
-    <row r="676" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR676" s="32"/>
       <c r="AV676" s="32"/>
       <c r="AY676" s="33"/>
     </row>
-    <row r="677" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR677" s="32"/>
       <c r="AV677" s="32"/>
       <c r="AY677" s="33"/>
     </row>
-    <row r="678" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR678" s="32"/>
       <c r="AV678" s="32"/>
       <c r="AY678" s="33"/>
     </row>
-    <row r="679" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR679" s="32"/>
       <c r="AV679" s="32"/>
       <c r="AY679" s="33"/>
     </row>
-    <row r="680" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR680" s="32"/>
       <c r="AV680" s="32"/>
       <c r="AY680" s="33"/>
     </row>
-    <row r="681" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR681" s="32"/>
       <c r="AV681" s="32"/>
       <c r="AY681" s="33"/>
     </row>
-    <row r="682" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR682" s="32"/>
       <c r="AV682" s="32"/>
       <c r="AY682" s="33"/>
     </row>
-    <row r="683" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR683" s="32"/>
       <c r="AV683" s="32"/>
       <c r="AY683" s="33"/>
     </row>
-    <row r="684" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR684" s="32"/>
       <c r="AV684" s="32"/>
       <c r="AY684" s="33"/>
     </row>
-    <row r="685" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR685" s="32"/>
       <c r="AV685" s="32"/>
       <c r="AY685" s="33"/>
     </row>
-    <row r="686" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR686" s="32"/>
       <c r="AV686" s="32"/>
       <c r="AY686" s="33"/>
     </row>
-    <row r="687" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR687" s="32"/>
       <c r="AV687" s="32"/>
       <c r="AY687" s="33"/>
     </row>
-    <row r="688" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR688" s="32"/>
       <c r="AV688" s="32"/>
       <c r="AY688" s="33"/>
     </row>
-    <row r="689" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR689" s="32"/>
       <c r="AV689" s="32"/>
       <c r="AY689" s="33"/>
     </row>
-    <row r="690" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR690" s="32"/>
       <c r="AV690" s="32"/>
       <c r="AY690" s="33"/>
     </row>
-    <row r="691" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR691" s="32"/>
       <c r="AV691" s="32"/>
       <c r="AY691" s="33"/>
     </row>
-    <row r="692" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR692" s="32"/>
       <c r="AV692" s="32"/>
       <c r="AY692" s="33"/>
     </row>
-    <row r="693" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR693" s="32"/>
       <c r="AV693" s="32"/>
       <c r="AY693" s="33"/>
     </row>
-    <row r="694" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR694" s="32"/>
       <c r="AV694" s="32"/>
       <c r="AY694" s="33"/>
     </row>
-    <row r="695" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR695" s="32"/>
       <c r="AV695" s="32"/>
       <c r="AY695" s="33"/>
     </row>
-    <row r="696" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR696" s="32"/>
       <c r="AV696" s="32"/>
       <c r="AY696" s="33"/>
     </row>
-    <row r="697" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR697" s="32"/>
       <c r="AV697" s="32"/>
       <c r="AY697" s="33"/>
     </row>
-    <row r="698" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR698" s="32"/>
       <c r="AV698" s="32"/>
       <c r="AY698" s="33"/>
     </row>
-    <row r="699" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR699" s="32"/>
       <c r="AV699" s="32"/>
       <c r="AY699" s="33"/>
     </row>
-    <row r="700" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR700" s="32"/>
       <c r="AV700" s="32"/>
       <c r="AY700" s="33"/>
     </row>
-    <row r="701" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR701" s="32"/>
       <c r="AV701" s="32"/>
       <c r="AY701" s="33"/>
     </row>
-    <row r="702" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR702" s="32"/>
       <c r="AV702" s="32"/>
       <c r="AY702" s="33"/>
     </row>
-    <row r="703" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR703" s="32"/>
       <c r="AV703" s="32"/>
       <c r="AY703" s="33"/>
     </row>
-    <row r="704" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR704" s="32"/>
       <c r="AV704" s="32"/>
       <c r="AY704" s="33"/>
     </row>
-    <row r="705" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR705" s="32"/>
       <c r="AV705" s="32"/>
       <c r="AY705" s="33"/>
     </row>
-    <row r="706" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR706" s="32"/>
       <c r="AV706" s="32"/>
       <c r="AY706" s="33"/>
     </row>
-    <row r="707" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR707" s="32"/>
       <c r="AV707" s="32"/>
       <c r="AY707" s="33"/>
     </row>
-    <row r="708" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR708" s="32"/>
       <c r="AV708" s="32"/>
       <c r="AY708" s="33"/>
     </row>
-    <row r="709" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR709" s="32"/>
       <c r="AV709" s="32"/>
       <c r="AY709" s="33"/>
     </row>
-    <row r="710" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR710" s="32"/>
       <c r="AV710" s="32"/>
       <c r="AY710" s="33"/>
     </row>
-    <row r="711" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR711" s="32"/>
       <c r="AV711" s="32"/>
       <c r="AY711" s="33"/>
     </row>
-    <row r="712" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR712" s="32"/>
       <c r="AV712" s="32"/>
       <c r="AY712" s="33"/>
     </row>
-    <row r="713" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR713" s="32"/>
       <c r="AV713" s="32"/>
       <c r="AY713" s="33"/>
     </row>
-    <row r="714" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR714" s="32"/>
       <c r="AV714" s="32"/>
       <c r="AY714" s="33"/>
     </row>
-    <row r="715" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR715" s="32"/>
       <c r="AV715" s="32"/>
       <c r="AY715" s="33"/>
     </row>
-    <row r="716" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR716" s="32"/>
       <c r="AV716" s="32"/>
       <c r="AY716" s="33"/>
     </row>
-    <row r="717" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR717" s="32"/>
       <c r="AV717" s="32"/>
       <c r="AY717" s="33"/>
     </row>
-    <row r="718" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR718" s="32"/>
       <c r="AV718" s="32"/>
       <c r="AY718" s="33"/>
     </row>
-    <row r="719" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR719" s="32"/>
       <c r="AV719" s="32"/>
       <c r="AY719" s="33"/>
     </row>
-    <row r="720" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR720" s="32"/>
       <c r="AV720" s="32"/>
       <c r="AY720" s="33"/>
     </row>
-    <row r="721" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR721" s="32"/>
       <c r="AV721" s="32"/>
       <c r="AY721" s="33"/>
     </row>
-    <row r="722" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR722" s="32"/>
       <c r="AV722" s="32"/>
       <c r="AY722" s="33"/>
     </row>
-    <row r="723" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR723" s="32"/>
       <c r="AV723" s="32"/>
       <c r="AY723" s="33"/>
     </row>
-    <row r="724" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR724" s="32"/>
       <c r="AV724" s="32"/>
       <c r="AY724" s="33"/>
     </row>
-    <row r="725" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR725" s="32"/>
       <c r="AV725" s="32"/>
       <c r="AY725" s="33"/>
     </row>
-    <row r="726" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR726" s="32"/>
       <c r="AV726" s="32"/>
       <c r="AY726" s="33"/>
     </row>
-    <row r="727" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR727" s="32"/>
       <c r="AV727" s="32"/>
       <c r="AY727" s="33"/>
     </row>
-    <row r="728" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR728" s="32"/>
       <c r="AV728" s="32"/>
       <c r="AY728" s="33"/>
     </row>
-    <row r="729" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR729" s="32"/>
       <c r="AV729" s="32"/>
       <c r="AY729" s="33"/>
     </row>
-    <row r="730" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR730" s="32"/>
       <c r="AV730" s="32"/>
       <c r="AY730" s="33"/>
     </row>
-    <row r="731" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR731" s="32"/>
       <c r="AV731" s="32"/>
       <c r="AY731" s="33"/>
     </row>
-    <row r="732" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR732" s="32"/>
       <c r="AV732" s="32"/>
       <c r="AY732" s="33"/>
     </row>
-    <row r="733" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR733" s="32"/>
       <c r="AV733" s="32"/>
       <c r="AY733" s="33"/>
     </row>
-    <row r="734" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR734" s="32"/>
       <c r="AV734" s="32"/>
       <c r="AY734" s="33"/>
     </row>
-    <row r="735" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR735" s="32"/>
       <c r="AV735" s="32"/>
       <c r="AY735" s="33"/>
     </row>
-    <row r="736" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR736" s="32"/>
       <c r="AV736" s="32"/>
       <c r="AY736" s="33"/>
     </row>
-    <row r="737" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR737" s="32"/>
       <c r="AV737" s="32"/>
       <c r="AY737" s="33"/>
     </row>
-    <row r="738" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR738" s="32"/>
       <c r="AV738" s="32"/>
       <c r="AY738" s="33"/>
     </row>
-    <row r="739" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR739" s="32"/>
       <c r="AV739" s="32"/>
       <c r="AY739" s="33"/>
     </row>
-    <row r="740" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR740" s="32"/>
       <c r="AV740" s="32"/>
       <c r="AY740" s="33"/>
     </row>
-    <row r="741" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR741" s="32"/>
       <c r="AV741" s="32"/>
       <c r="AY741" s="33"/>
     </row>
-    <row r="742" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR742" s="32"/>
       <c r="AV742" s="32"/>
       <c r="AY742" s="33"/>
     </row>
-    <row r="743" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR743" s="32"/>
       <c r="AV743" s="32"/>
       <c r="AY743" s="33"/>
     </row>
-    <row r="744" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR744" s="32"/>
       <c r="AV744" s="32"/>
       <c r="AY744" s="33"/>
     </row>
-    <row r="745" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR745" s="32"/>
       <c r="AV745" s="32"/>
       <c r="AY745" s="33"/>
     </row>
-    <row r="746" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR746" s="32"/>
       <c r="AV746" s="32"/>
       <c r="AY746" s="33"/>
     </row>
-    <row r="747" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR747" s="32"/>
       <c r="AV747" s="32"/>
       <c r="AY747" s="33"/>
     </row>
-    <row r="748" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR748" s="32"/>
       <c r="AV748" s="32"/>
       <c r="AY748" s="33"/>
     </row>
-    <row r="749" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR749" s="32"/>
       <c r="AV749" s="32"/>
       <c r="AY749" s="33"/>
     </row>
-    <row r="750" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR750" s="32"/>
       <c r="AV750" s="32"/>
       <c r="AY750" s="33"/>
     </row>
-    <row r="751" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR751" s="32"/>
       <c r="AV751" s="32"/>
       <c r="AY751" s="33"/>
     </row>
-    <row r="752" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR752" s="32"/>
       <c r="AV752" s="32"/>
       <c r="AY752" s="33"/>
     </row>
-    <row r="753" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR753" s="32"/>
       <c r="AV753" s="32"/>
       <c r="AY753" s="33"/>
     </row>
-    <row r="754" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR754" s="32"/>
       <c r="AV754" s="32"/>
       <c r="AY754" s="33"/>
     </row>
-    <row r="755" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR755" s="32"/>
       <c r="AV755" s="32"/>
       <c r="AY755" s="33"/>
     </row>
-    <row r="756" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR756" s="32"/>
       <c r="AV756" s="32"/>
       <c r="AY756" s="33"/>
     </row>
-    <row r="757" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR757" s="32"/>
       <c r="AV757" s="32"/>
       <c r="AY757" s="33"/>
     </row>
-    <row r="758" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR758" s="32"/>
       <c r="AV758" s="32"/>
       <c r="AY758" s="33"/>
     </row>
-    <row r="759" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR759" s="32"/>
       <c r="AV759" s="32"/>
       <c r="AY759" s="33"/>
     </row>
-    <row r="760" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR760" s="32"/>
       <c r="AV760" s="32"/>
       <c r="AY760" s="33"/>
     </row>
-    <row r="761" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR761" s="32"/>
       <c r="AV761" s="32"/>
       <c r="AY761" s="33"/>
     </row>
-    <row r="762" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR762" s="32"/>
       <c r="AV762" s="32"/>
       <c r="AY762" s="33"/>
     </row>
-    <row r="763" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR763" s="32"/>
       <c r="AV763" s="32"/>
       <c r="AY763" s="33"/>
     </row>
-    <row r="764" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR764" s="32"/>
       <c r="AV764" s="32"/>
       <c r="AY764" s="33"/>
     </row>
-    <row r="765" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR765" s="32"/>
       <c r="AV765" s="32"/>
       <c r="AY765" s="33"/>
     </row>
-    <row r="766" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR766" s="32"/>
       <c r="AV766" s="32"/>
       <c r="AY766" s="33"/>
     </row>
-    <row r="767" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR767" s="32"/>
       <c r="AV767" s="32"/>
       <c r="AY767" s="33"/>
     </row>
-    <row r="768" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR768" s="32"/>
       <c r="AV768" s="32"/>
       <c r="AY768" s="33"/>
     </row>
-    <row r="769" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR769" s="32"/>
       <c r="AV769" s="32"/>
       <c r="AY769" s="33"/>
     </row>
-    <row r="770" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR770" s="32"/>
       <c r="AV770" s="32"/>
       <c r="AY770" s="33"/>
     </row>
-    <row r="771" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR771" s="32"/>
       <c r="AV771" s="32"/>
       <c r="AY771" s="33"/>
     </row>
-    <row r="772" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR772" s="32"/>
       <c r="AV772" s="32"/>
       <c r="AY772" s="33"/>
     </row>
-    <row r="773" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR773" s="32"/>
       <c r="AV773" s="32"/>
       <c r="AY773" s="33"/>
     </row>
-    <row r="774" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR774" s="32"/>
       <c r="AV774" s="32"/>
       <c r="AY774" s="33"/>
     </row>
-    <row r="775" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR775" s="32"/>
       <c r="AV775" s="32"/>
       <c r="AY775" s="33"/>
     </row>
-    <row r="776" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR776" s="32"/>
       <c r="AV776" s="32"/>
       <c r="AY776" s="33"/>
     </row>
-    <row r="777" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR777" s="32"/>
       <c r="AV777" s="32"/>
       <c r="AY777" s="33"/>
     </row>
-    <row r="778" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR778" s="32"/>
       <c r="AV778" s="32"/>
       <c r="AY778" s="33"/>
     </row>
-    <row r="779" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR779" s="32"/>
       <c r="AV779" s="32"/>
       <c r="AY779" s="33"/>
     </row>
-    <row r="780" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR780" s="32"/>
       <c r="AV780" s="32"/>
       <c r="AY780" s="33"/>
     </row>
-    <row r="781" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR781" s="32"/>
       <c r="AV781" s="32"/>
       <c r="AY781" s="33"/>
     </row>
-    <row r="782" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR782" s="32"/>
       <c r="AV782" s="32"/>
       <c r="AY782" s="33"/>
     </row>
-    <row r="783" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR783" s="32"/>
       <c r="AV783" s="32"/>
       <c r="AY783" s="33"/>
     </row>
-    <row r="784" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR784" s="32"/>
       <c r="AV784" s="32"/>
       <c r="AY784" s="33"/>
     </row>
-    <row r="785" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR785" s="32"/>
       <c r="AV785" s="32"/>
       <c r="AY785" s="33"/>
     </row>
-    <row r="786" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR786" s="32"/>
       <c r="AV786" s="32"/>
       <c r="AY786" s="33"/>
     </row>
-    <row r="787" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR787" s="32"/>
       <c r="AV787" s="32"/>
       <c r="AY787" s="33"/>
     </row>
-    <row r="788" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR788" s="32"/>
       <c r="AV788" s="32"/>
       <c r="AY788" s="33"/>
     </row>
-    <row r="789" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR789" s="32"/>
       <c r="AV789" s="32"/>
       <c r="AY789" s="33"/>
     </row>
-    <row r="790" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR790" s="32"/>
       <c r="AV790" s="32"/>
       <c r="AY790" s="33"/>
     </row>
-    <row r="791" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR791" s="32"/>
       <c r="AV791" s="32"/>
       <c r="AY791" s="33"/>
     </row>
-    <row r="792" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR792" s="32"/>
       <c r="AV792" s="32"/>
       <c r="AY792" s="33"/>
     </row>
-    <row r="793" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR793" s="32"/>
       <c r="AV793" s="32"/>
       <c r="AY793" s="33"/>
     </row>
-    <row r="794" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR794" s="32"/>
       <c r="AV794" s="32"/>
       <c r="AY794" s="33"/>
     </row>
-    <row r="795" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR795" s="32"/>
       <c r="AV795" s="32"/>
       <c r="AY795" s="33"/>
     </row>
-    <row r="796" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR796" s="32"/>
       <c r="AV796" s="32"/>
       <c r="AY796" s="33"/>
     </row>
-    <row r="797" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR797" s="32"/>
       <c r="AV797" s="32"/>
       <c r="AY797" s="33"/>
     </row>
-    <row r="798" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR798" s="32"/>
       <c r="AV798" s="32"/>
       <c r="AY798" s="33"/>
     </row>
-    <row r="799" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR799" s="32"/>
       <c r="AV799" s="32"/>
       <c r="AY799" s="33"/>
     </row>
-    <row r="800" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR800" s="32"/>
       <c r="AV800" s="32"/>
       <c r="AY800" s="33"/>
     </row>
-    <row r="801" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR801" s="32"/>
       <c r="AV801" s="32"/>
       <c r="AY801" s="33"/>
     </row>
-    <row r="802" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR802" s="32"/>
       <c r="AV802" s="32"/>
       <c r="AY802" s="33"/>
     </row>
-    <row r="803" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR803" s="32"/>
       <c r="AV803" s="32"/>
       <c r="AY803" s="33"/>
     </row>
-    <row r="804" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR804" s="32"/>
       <c r="AV804" s="32"/>
       <c r="AY804" s="33"/>
     </row>
-    <row r="805" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR805" s="32"/>
       <c r="AV805" s="32"/>
       <c r="AY805" s="33"/>
     </row>
-    <row r="806" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR806" s="32"/>
       <c r="AV806" s="32"/>
       <c r="AY806" s="33"/>
     </row>
-    <row r="807" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR807" s="32"/>
       <c r="AV807" s="32"/>
       <c r="AY807" s="33"/>
     </row>
-    <row r="808" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR808" s="32"/>
       <c r="AV808" s="32"/>
       <c r="AY808" s="33"/>
     </row>
-    <row r="809" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR809" s="32"/>
       <c r="AV809" s="32"/>
       <c r="AY809" s="33"/>
     </row>
-    <row r="810" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR810" s="32"/>
       <c r="AV810" s="32"/>
       <c r="AY810" s="33"/>
     </row>
-    <row r="811" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR811" s="32"/>
       <c r="AV811" s="32"/>
       <c r="AY811" s="33"/>
     </row>
-    <row r="812" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR812" s="32"/>
       <c r="AV812" s="32"/>
       <c r="AY812" s="33"/>
     </row>
-    <row r="813" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR813" s="32"/>
       <c r="AV813" s="32"/>
       <c r="AY813" s="33"/>
     </row>
-    <row r="814" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR814" s="32"/>
       <c r="AV814" s="32"/>
       <c r="AY814" s="33"/>
     </row>
-    <row r="815" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR815" s="32"/>
       <c r="AV815" s="32"/>
       <c r="AY815" s="33"/>
     </row>
-    <row r="816" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR816" s="32"/>
       <c r="AV816" s="32"/>
       <c r="AY816" s="33"/>
     </row>
-    <row r="817" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR817" s="32"/>
       <c r="AV817" s="32"/>
       <c r="AY817" s="33"/>
     </row>
-    <row r="818" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR818" s="32"/>
       <c r="AV818" s="32"/>
       <c r="AY818" s="33"/>
     </row>
-    <row r="819" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR819" s="32"/>
       <c r="AV819" s="32"/>
       <c r="AY819" s="33"/>
     </row>
-    <row r="820" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR820" s="32"/>
       <c r="AV820" s="32"/>
       <c r="AY820" s="33"/>
     </row>
-    <row r="821" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR821" s="32"/>
       <c r="AV821" s="32"/>
       <c r="AY821" s="33"/>
     </row>
-    <row r="822" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR822" s="32"/>
       <c r="AV822" s="32"/>
       <c r="AY822" s="33"/>
     </row>
-    <row r="823" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR823" s="32"/>
       <c r="AV823" s="32"/>
       <c r="AY823" s="33"/>
     </row>
-    <row r="824" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR824" s="32"/>
       <c r="AV824" s="32"/>
       <c r="AY824" s="33"/>
     </row>
-    <row r="825" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR825" s="32"/>
       <c r="AV825" s="32"/>
       <c r="AY825" s="33"/>
     </row>
-    <row r="826" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR826" s="32"/>
       <c r="AV826" s="32"/>
       <c r="AY826" s="33"/>
     </row>
-    <row r="827" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR827" s="32"/>
       <c r="AV827" s="32"/>
       <c r="AY827" s="33"/>
     </row>
-    <row r="828" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR828" s="32"/>
       <c r="AV828" s="32"/>
       <c r="AY828" s="33"/>
     </row>
-    <row r="829" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR829" s="32"/>
       <c r="AV829" s="32"/>
       <c r="AY829" s="33"/>
     </row>
-    <row r="830" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR830" s="32"/>
       <c r="AV830" s="32"/>
       <c r="AY830" s="33"/>
     </row>
-    <row r="831" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR831" s="32"/>
       <c r="AV831" s="32"/>
       <c r="AY831" s="33"/>
     </row>
-    <row r="832" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR832" s="32"/>
       <c r="AV832" s="32"/>
       <c r="AY832" s="33"/>
     </row>
-    <row r="833" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR833" s="32"/>
       <c r="AV833" s="32"/>
       <c r="AY833" s="33"/>
     </row>
-    <row r="834" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR834" s="32"/>
       <c r="AV834" s="32"/>
       <c r="AY834" s="33"/>
     </row>
-    <row r="835" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR835" s="32"/>
       <c r="AV835" s="32"/>
       <c r="AY835" s="33"/>
     </row>
-    <row r="836" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR836" s="32"/>
       <c r="AV836" s="32"/>
       <c r="AY836" s="33"/>
     </row>
-    <row r="837" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR837" s="32"/>
       <c r="AV837" s="32"/>
       <c r="AY837" s="33"/>
     </row>
-    <row r="838" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR838" s="32"/>
       <c r="AV838" s="32"/>
       <c r="AY838" s="33"/>
     </row>
-    <row r="839" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR839" s="32"/>
       <c r="AV839" s="32"/>
       <c r="AY839" s="33"/>
     </row>
-    <row r="840" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR840" s="32"/>
       <c r="AV840" s="32"/>
       <c r="AY840" s="33"/>
     </row>
-    <row r="841" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR841" s="32"/>
       <c r="AV841" s="32"/>
       <c r="AY841" s="33"/>
     </row>
-    <row r="842" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR842" s="32"/>
       <c r="AV842" s="32"/>
       <c r="AY842" s="33"/>
     </row>
-    <row r="843" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR843" s="32"/>
       <c r="AV843" s="32"/>
       <c r="AY843" s="33"/>
     </row>
-    <row r="844" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR844" s="32"/>
       <c r="AV844" s="32"/>
       <c r="AY844" s="33"/>
     </row>
-    <row r="845" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR845" s="32"/>
       <c r="AV845" s="32"/>
       <c r="AY845" s="33"/>
     </row>
-    <row r="846" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR846" s="32"/>
       <c r="AV846" s="32"/>
       <c r="AY846" s="33"/>
     </row>
-    <row r="847" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR847" s="32"/>
       <c r="AV847" s="32"/>
       <c r="AY847" s="33"/>
     </row>
-    <row r="848" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR848" s="32"/>
       <c r="AV848" s="32"/>
       <c r="AY848" s="33"/>
     </row>
-    <row r="849" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR849" s="32"/>
       <c r="AV849" s="32"/>
       <c r="AY849" s="33"/>
     </row>
-    <row r="850" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR850" s="32"/>
       <c r="AV850" s="32"/>
       <c r="AY850" s="33"/>
     </row>
-    <row r="851" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR851" s="32"/>
       <c r="AV851" s="32"/>
       <c r="AY851" s="33"/>
     </row>
-    <row r="852" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR852" s="32"/>
       <c r="AV852" s="32"/>
       <c r="AY852" s="33"/>
     </row>
-    <row r="853" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR853" s="32"/>
       <c r="AV853" s="32"/>
       <c r="AY853" s="33"/>
     </row>
-    <row r="854" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR854" s="32"/>
       <c r="AV854" s="32"/>
       <c r="AY854" s="33"/>
     </row>
-    <row r="855" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR855" s="32"/>
       <c r="AV855" s="32"/>
       <c r="AY855" s="33"/>
     </row>
-    <row r="856" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR856" s="32"/>
       <c r="AV856" s="32"/>
       <c r="AY856" s="33"/>
     </row>
-    <row r="857" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR857" s="32"/>
       <c r="AV857" s="32"/>
       <c r="AY857" s="33"/>
     </row>
-    <row r="858" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR858" s="32"/>
       <c r="AV858" s="32"/>
       <c r="AY858" s="33"/>
     </row>
-    <row r="859" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR859" s="32"/>
       <c r="AV859" s="32"/>
       <c r="AY859" s="33"/>
     </row>
-    <row r="860" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR860" s="32"/>
       <c r="AV860" s="32"/>
       <c r="AY860" s="33"/>
     </row>
-    <row r="861" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR861" s="32"/>
       <c r="AV861" s="32"/>
       <c r="AY861" s="33"/>
     </row>
-    <row r="862" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR862" s="32"/>
       <c r="AV862" s="32"/>
       <c r="AY862" s="33"/>
     </row>
-    <row r="863" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR863" s="32"/>
       <c r="AV863" s="32"/>
       <c r="AY863" s="33"/>
     </row>
-    <row r="864" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR864" s="32"/>
       <c r="AV864" s="32"/>
       <c r="AY864" s="33"/>
     </row>
-    <row r="865" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR865" s="32"/>
       <c r="AV865" s="32"/>
       <c r="AY865" s="33"/>
     </row>
-    <row r="866" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR866" s="32"/>
       <c r="AV866" s="32"/>
       <c r="AY866" s="33"/>
     </row>
-    <row r="867" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR867" s="32"/>
       <c r="AV867" s="32"/>
       <c r="AY867" s="33"/>
     </row>
-    <row r="868" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR868" s="32"/>
       <c r="AV868" s="32"/>
       <c r="AY868" s="33"/>
     </row>
-    <row r="869" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR869" s="32"/>
       <c r="AV869" s="32"/>
       <c r="AY869" s="33"/>
     </row>
-    <row r="870" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR870" s="32"/>
       <c r="AV870" s="32"/>
       <c r="AY870" s="33"/>
     </row>
-    <row r="871" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR871" s="32"/>
       <c r="AV871" s="32"/>
       <c r="AY871" s="33"/>
     </row>
-    <row r="872" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR872" s="32"/>
       <c r="AV872" s="32"/>
       <c r="AY872" s="33"/>
     </row>
-    <row r="873" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR873" s="32"/>
       <c r="AV873" s="32"/>
       <c r="AY873" s="33"/>
     </row>
-    <row r="874" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR874" s="32"/>
       <c r="AV874" s="32"/>
       <c r="AY874" s="33"/>
     </row>
-    <row r="875" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR875" s="32"/>
       <c r="AV875" s="32"/>
       <c r="AY875" s="33"/>
     </row>
-    <row r="876" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR876" s="32"/>
       <c r="AV876" s="32"/>
       <c r="AY876" s="33"/>
     </row>
-    <row r="877" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR877" s="32"/>
       <c r="AV877" s="32"/>
       <c r="AY877" s="33"/>
     </row>
-    <row r="878" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR878" s="32"/>
       <c r="AV878" s="32"/>
       <c r="AY878" s="33"/>
     </row>
-    <row r="879" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR879" s="32"/>
       <c r="AV879" s="32"/>
       <c r="AY879" s="33"/>
     </row>
-    <row r="880" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR880" s="32"/>
       <c r="AV880" s="32"/>
       <c r="AY880" s="33"/>
     </row>
-    <row r="881" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR881" s="32"/>
       <c r="AV881" s="32"/>
       <c r="AY881" s="33"/>
     </row>
-    <row r="882" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR882" s="32"/>
       <c r="AV882" s="32"/>
       <c r="AY882" s="33"/>
     </row>
-    <row r="883" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR883" s="32"/>
       <c r="AV883" s="32"/>
       <c r="AY883" s="33"/>
     </row>
-    <row r="884" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR884" s="32"/>
       <c r="AV884" s="32"/>
       <c r="AY884" s="33"/>
     </row>
-    <row r="885" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR885" s="32"/>
       <c r="AV885" s="32"/>
       <c r="AY885" s="33"/>
     </row>
-    <row r="886" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR886" s="32"/>
       <c r="AV886" s="32"/>
       <c r="AY886" s="33"/>
     </row>
-    <row r="887" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR887" s="32"/>
       <c r="AV887" s="32"/>
       <c r="AY887" s="33"/>
     </row>
-    <row r="888" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR888" s="32"/>
       <c r="AV888" s="32"/>
       <c r="AY888" s="33"/>
     </row>
-    <row r="889" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR889" s="32"/>
       <c r="AV889" s="32"/>
       <c r="AY889" s="33"/>
     </row>
-    <row r="890" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR890" s="32"/>
       <c r="AV890" s="32"/>
       <c r="AY890" s="33"/>
     </row>
-    <row r="891" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR891" s="32"/>
       <c r="AV891" s="32"/>
       <c r="AY891" s="33"/>
     </row>
-    <row r="892" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR892" s="32"/>
       <c r="AV892" s="32"/>
       <c r="AY892" s="33"/>
     </row>
-    <row r="893" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR893" s="32"/>
       <c r="AV893" s="32"/>
       <c r="AY893" s="33"/>
     </row>
-    <row r="894" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR894" s="32"/>
       <c r="AV894" s="32"/>
       <c r="AY894" s="33"/>
     </row>
-    <row r="895" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR895" s="32"/>
       <c r="AV895" s="32"/>
       <c r="AY895" s="33"/>
     </row>
-    <row r="896" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR896" s="32"/>
       <c r="AV896" s="32"/>
       <c r="AY896" s="33"/>
     </row>
-    <row r="897" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR897" s="32"/>
       <c r="AV897" s="32"/>
       <c r="AY897" s="33"/>
     </row>
-    <row r="898" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR898" s="32"/>
       <c r="AV898" s="32"/>
       <c r="AY898" s="33"/>
     </row>
-    <row r="899" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR899" s="32"/>
       <c r="AV899" s="32"/>
       <c r="AY899" s="33"/>
     </row>
-    <row r="900" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR900" s="32"/>
       <c r="AV900" s="32"/>
       <c r="AY900" s="33"/>
     </row>
-    <row r="901" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR901" s="32"/>
       <c r="AV901" s="32"/>
       <c r="AY901" s="33"/>
     </row>
-    <row r="902" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR902" s="32"/>
       <c r="AV902" s="32"/>
       <c r="AY902" s="33"/>
     </row>
-    <row r="903" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR903" s="32"/>
       <c r="AV903" s="32"/>
       <c r="AY903" s="33"/>
     </row>
-    <row r="904" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR904" s="32"/>
       <c r="AV904" s="32"/>
       <c r="AY904" s="33"/>
     </row>
-    <row r="905" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR905" s="32"/>
       <c r="AV905" s="32"/>
       <c r="AY905" s="33"/>
     </row>
-    <row r="906" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR906" s="32"/>
       <c r="AV906" s="32"/>
       <c r="AY906" s="33"/>
     </row>
-    <row r="907" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR907" s="32"/>
       <c r="AV907" s="32"/>
       <c r="AY907" s="33"/>
     </row>
-    <row r="908" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR908" s="32"/>
       <c r="AV908" s="32"/>
       <c r="AY908" s="33"/>
     </row>
-    <row r="909" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR909" s="32"/>
       <c r="AV909" s="32"/>
       <c r="AY909" s="33"/>
     </row>
-    <row r="910" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR910" s="32"/>
       <c r="AV910" s="32"/>
       <c r="AY910" s="33"/>
     </row>
-    <row r="911" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR911" s="32"/>
       <c r="AV911" s="32"/>
       <c r="AY911" s="33"/>
     </row>
-    <row r="912" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR912" s="32"/>
       <c r="AV912" s="32"/>
       <c r="AY912" s="33"/>
     </row>
-    <row r="913" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR913" s="32"/>
       <c r="AV913" s="32"/>
       <c r="AY913" s="33"/>
     </row>
-    <row r="914" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR914" s="32"/>
       <c r="AV914" s="32"/>
       <c r="AY914" s="33"/>
     </row>
-    <row r="915" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR915" s="32"/>
       <c r="AV915" s="32"/>
       <c r="AY915" s="33"/>
     </row>
-    <row r="916" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR916" s="32"/>
       <c r="AV916" s="32"/>
       <c r="AY916" s="33"/>
     </row>
-    <row r="917" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR917" s="32"/>
       <c r="AV917" s="32"/>
       <c r="AY917" s="33"/>
     </row>
-    <row r="918" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR918" s="32"/>
       <c r="AV918" s="32"/>
       <c r="AY918" s="33"/>
     </row>
-    <row r="919" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR919" s="32"/>
       <c r="AV919" s="32"/>
       <c r="AY919" s="33"/>
     </row>
-    <row r="920" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR920" s="32"/>
       <c r="AV920" s="32"/>
       <c r="AY920" s="33"/>
     </row>
-    <row r="921" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR921" s="32"/>
       <c r="AV921" s="32"/>
       <c r="AY921" s="33"/>
     </row>
-    <row r="922" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR922" s="32"/>
       <c r="AV922" s="32"/>
       <c r="AY922" s="33"/>
     </row>
-    <row r="923" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR923" s="32"/>
       <c r="AV923" s="32"/>
       <c r="AY923" s="33"/>
     </row>
-    <row r="924" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR924" s="32"/>
       <c r="AV924" s="32"/>
       <c r="AY924" s="33"/>
     </row>
-    <row r="925" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR925" s="32"/>
       <c r="AV925" s="32"/>
       <c r="AY925" s="33"/>
     </row>
-    <row r="926" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR926" s="32"/>
       <c r="AV926" s="32"/>
       <c r="AY926" s="33"/>
     </row>
-    <row r="927" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR927" s="32"/>
       <c r="AV927" s="32"/>
       <c r="AY927" s="33"/>
     </row>
-    <row r="928" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR928" s="32"/>
       <c r="AV928" s="32"/>
       <c r="AY928" s="33"/>
     </row>
-    <row r="929" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR929" s="32"/>
       <c r="AV929" s="32"/>
       <c r="AY929" s="33"/>
     </row>
-    <row r="930" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR930" s="32"/>
       <c r="AV930" s="32"/>
       <c r="AY930" s="33"/>
     </row>
-    <row r="931" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR931" s="32"/>
       <c r="AV931" s="32"/>
       <c r="AY931" s="33"/>
     </row>
-    <row r="932" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR932" s="32"/>
       <c r="AV932" s="32"/>
       <c r="AY932" s="33"/>
     </row>
-    <row r="933" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR933" s="32"/>
       <c r="AV933" s="32"/>
       <c r="AY933" s="33"/>
     </row>
-    <row r="934" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR934" s="32"/>
       <c r="AV934" s="32"/>
       <c r="AY934" s="33"/>
     </row>
-    <row r="935" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR935" s="32"/>
       <c r="AV935" s="32"/>
       <c r="AY935" s="33"/>
     </row>
-    <row r="936" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR936" s="32"/>
       <c r="AV936" s="32"/>
       <c r="AY936" s="33"/>
     </row>
-    <row r="937" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR937" s="32"/>
       <c r="AV937" s="32"/>
       <c r="AY937" s="33"/>
     </row>
-    <row r="938" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR938" s="32"/>
       <c r="AV938" s="32"/>
       <c r="AY938" s="33"/>
     </row>
-    <row r="939" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR939" s="32"/>
       <c r="AV939" s="32"/>
       <c r="AY939" s="33"/>
     </row>
-    <row r="940" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR940" s="32"/>
       <c r="AV940" s="32"/>
       <c r="AY940" s="33"/>
     </row>
-    <row r="941" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR941" s="32"/>
       <c r="AV941" s="32"/>
       <c r="AY941" s="33"/>
     </row>
-    <row r="942" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR942" s="32"/>
       <c r="AV942" s="32"/>
       <c r="AY942" s="33"/>
     </row>
-    <row r="943" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR943" s="32"/>
       <c r="AV943" s="32"/>
       <c r="AY943" s="33"/>
     </row>
-    <row r="944" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR944" s="32"/>
       <c r="AV944" s="32"/>
       <c r="AY944" s="33"/>
     </row>
-    <row r="945" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR945" s="32"/>
       <c r="AV945" s="32"/>
       <c r="AY945" s="33"/>
     </row>
-    <row r="946" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR946" s="32"/>
       <c r="AV946" s="32"/>
       <c r="AY946" s="33"/>
     </row>
-    <row r="947" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR947" s="32"/>
       <c r="AV947" s="32"/>
       <c r="AY947" s="33"/>
     </row>
-    <row r="948" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR948" s="32"/>
       <c r="AV948" s="32"/>
       <c r="AY948" s="33"/>
     </row>
-    <row r="949" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR949" s="32"/>
       <c r="AV949" s="32"/>
       <c r="AY949" s="33"/>
     </row>
-    <row r="950" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR950" s="32"/>
       <c r="AV950" s="32"/>
       <c r="AY950" s="33"/>
     </row>
-    <row r="951" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR951" s="32"/>
       <c r="AV951" s="32"/>
       <c r="AY951" s="33"/>
     </row>
-    <row r="952" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR952" s="32"/>
       <c r="AV952" s="32"/>
       <c r="AY952" s="33"/>
     </row>
-    <row r="953" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR953" s="32"/>
       <c r="AV953" s="32"/>
       <c r="AY953" s="33"/>
     </row>
-    <row r="954" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR954" s="32"/>
       <c r="AV954" s="32"/>
       <c r="AY954" s="33"/>
     </row>
-    <row r="955" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR955" s="32"/>
       <c r="AV955" s="32"/>
       <c r="AY955" s="33"/>
     </row>
-    <row r="956" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR956" s="32"/>
       <c r="AV956" s="32"/>
       <c r="AY956" s="33"/>
     </row>
-    <row r="957" spans="44:51" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR957" s="32"/>
       <c r="AV957" s="32"/>
       <c r="AY957" s="33"/>
@@ -12807,18 +12804,18 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" customWidth="1"/>
-    <col min="7" max="7" width="37.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>2</v>
@@ -12845,7 +12842,7 @@
       <c r="K1" s="57"/>
       <c r="L1" s="57"/>
     </row>
-    <row r="2" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -12868,7 +12865,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -12891,7 +12888,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -12914,7 +12911,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="40">
         <v>4</v>
       </c>
@@ -12937,7 +12934,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="42">
         <v>5</v>
       </c>
@@ -12960,7 +12957,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31">
         <v>6</v>
       </c>
@@ -12983,7 +12980,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31">
         <v>7</v>
       </c>
@@ -13006,7 +13003,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -13029,7 +13026,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
         <v>9</v>
       </c>
@@ -13052,7 +13049,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31">
         <v>10</v>
       </c>
@@ -13075,7 +13072,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="31">
         <v>11</v>
       </c>
@@ -13098,7 +13095,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="31">
         <v>12</v>
       </c>
@@ -13121,7 +13118,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31">
         <v>13</v>
       </c>
@@ -13144,7 +13141,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31">
         <v>14</v>
       </c>
@@ -13167,7 +13164,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31">
         <v>15</v>
       </c>
@@ -13190,7 +13187,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31">
         <v>16</v>
       </c>
@@ -13213,7 +13210,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31">
         <v>17</v>
       </c>
@@ -13236,7 +13233,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31">
         <v>18</v>
       </c>
@@ -13259,7 +13256,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="31">
         <v>19</v>
       </c>
@@ -13282,7 +13279,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31">
         <v>20</v>
       </c>
@@ -13306,7 +13303,7 @@
       </c>
       <c r="H21" s="31"/>
     </row>
-    <row r="22" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31">
         <v>21</v>
       </c>
@@ -13330,7 +13327,7 @@
       </c>
       <c r="H22" s="31"/>
     </row>
-    <row r="23" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31">
         <v>22</v>
       </c>
@@ -13354,7 +13351,7 @@
       </c>
       <c r="H23" s="31"/>
     </row>
-    <row r="24" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31">
         <v>23</v>
       </c>
@@ -13378,7 +13375,7 @@
       </c>
       <c r="H24" s="31"/>
     </row>
-    <row r="25" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31">
         <v>24</v>
       </c>
@@ -13403,7 +13400,7 @@
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
     </row>
-    <row r="26" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="31">
         <v>32</v>
       </c>
@@ -13442,43 +13439,43 @@
   </sheetPr>
   <dimension ref="A1:AM68"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.88671875" customWidth="1"/>
-    <col min="12" max="12" width="22.88671875" customWidth="1"/>
-    <col min="13" max="13" width="24.77734375" customWidth="1"/>
-    <col min="14" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.85546875" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" customWidth="1"/>
+    <col min="14" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" customWidth="1"/>
     <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="20" max="20" width="13.21875" customWidth="1"/>
-    <col min="22" max="22" width="15.77734375" customWidth="1"/>
-    <col min="23" max="23" width="22.6640625" customWidth="1"/>
-    <col min="24" max="24" width="21.109375" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="22.7109375" customWidth="1"/>
+    <col min="24" max="24" width="21.140625" customWidth="1"/>
     <col min="26" max="26" width="20" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="41" customWidth="1"/>
-    <col min="28" max="28" width="30.33203125" customWidth="1"/>
-    <col min="29" max="29" width="23.44140625" customWidth="1"/>
-    <col min="30" max="30" width="32.33203125" customWidth="1"/>
-    <col min="33" max="33" width="29.109375" customWidth="1"/>
-    <col min="34" max="35" width="21.44140625" customWidth="1"/>
-    <col min="36" max="36" width="16.109375" customWidth="1"/>
-    <col min="37" max="37" width="17.21875" customWidth="1"/>
+    <col min="28" max="28" width="30.28515625" customWidth="1"/>
+    <col min="29" max="29" width="23.42578125" customWidth="1"/>
+    <col min="30" max="30" width="32.28515625" customWidth="1"/>
+    <col min="33" max="33" width="29.140625" customWidth="1"/>
+    <col min="34" max="35" width="21.42578125" customWidth="1"/>
+    <col min="36" max="36" width="16.140625" customWidth="1"/>
+    <col min="37" max="37" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>373</v>
       </c>
@@ -13519,10 +13516,10 @@
         <v>11</v>
       </c>
       <c r="N1" s="49" t="s">
+        <v>670</v>
+      </c>
+      <c r="O1" s="49" t="s">
         <v>671</v>
-      </c>
-      <c r="O1" s="49" t="s">
-        <v>672</v>
       </c>
       <c r="P1" t="s">
         <v>12</v>
@@ -13531,13 +13528,13 @@
         <v>13</v>
       </c>
       <c r="R1" t="s">
+        <v>667</v>
+      </c>
+      <c r="S1" t="s">
         <v>668</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>669</v>
-      </c>
-      <c r="T1" t="s">
-        <v>670</v>
       </c>
       <c r="U1" t="s">
         <v>14</v>
@@ -13597,7 +13594,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>372</v>
       </c>
@@ -13683,7 +13680,7 @@
         <v>-73.174690886400001</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>372</v>
       </c>
@@ -13767,7 +13764,7 @@
         <v>-70.659196161799997</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>372</v>
       </c>
@@ -13851,7 +13848,7 @@
         <v>-71.646628858900002</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>372</v>
       </c>
@@ -13932,7 +13929,7 @@
         <v>-70.718956870400007</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>372</v>
       </c>
@@ -14022,7 +14019,7 @@
         <v>-70.809757554800001</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>372</v>
       </c>
@@ -14111,7 +14108,7 @@
         <v>-72.097788240200003</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>372</v>
       </c>
@@ -14189,7 +14186,7 @@
         <v>-71.330163502000005</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>372</v>
       </c>
@@ -14270,7 +14267,7 @@
         <v>-70.718956870400007</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>372</v>
       </c>
@@ -14357,7 +14354,7 @@
         <v>-70.0109621438</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>372</v>
       </c>
@@ -14450,7 +14447,7 @@
         <v>-70.243562478499996</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>372</v>
       </c>
@@ -14525,7 +14522,7 @@
         <v>-72.025446149800004</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -14609,7 +14606,7 @@
         <v>-71.123127304999997</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>372</v>
       </c>
@@ -14696,7 +14693,7 @@
         <v>-70.616098163900006</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>372</v>
       </c>
@@ -14776,7 +14773,7 @@
         <v>-69.186038925800005</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>372</v>
       </c>
@@ -14865,7 +14862,7 @@
         <v>-71.820769024399993</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>372</v>
       </c>
@@ -14948,7 +14945,7 @@
         <v>-70.616098163900006</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>372</v>
       </c>
@@ -15031,7 +15028,7 @@
         <v>-69.971491087100006</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>372</v>
       </c>
@@ -15123,7 +15120,7 @@
         <v>-71.060820861899998</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>372</v>
       </c>
@@ -15195,7 +15192,7 @@
         <v>-73.125584144399994</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>372</v>
       </c>
@@ -15278,7 +15275,7 @@
         <v>-71.753339855299998</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>372</v>
       </c>
@@ -15364,7 +15361,7 @@
         <v>-72.2757990108</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>372</v>
       </c>
@@ -15445,7 +15442,7 @@
         <v>-72.233593646100005</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>372</v>
       </c>
@@ -15532,7 +15529,7 @@
         <v>-71.992299397099998</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>372</v>
       </c>
@@ -15613,7 +15610,7 @@
         <v>-73.104958492799994</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>372</v>
       </c>
@@ -15697,7 +15694,7 @@
         <v>-70.923634825500002</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>372</v>
       </c>
@@ -15781,7 +15778,7 @@
         <v>-70.599127450699996</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>372</v>
       </c>
@@ -15865,7 +15862,7 @@
         <v>-71.330163502000005</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>372</v>
       </c>
@@ -15946,7 +15943,7 @@
         <v>-70.656954396499998</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>372</v>
       </c>
@@ -16024,7 +16021,7 @@
         <v>-70.656954396499998</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>372</v>
       </c>
@@ -16099,7 +16096,7 @@
         <v>-70.690008354499994</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>372</v>
       </c>
@@ -16189,7 +16186,7 @@
         <v>-71.332567138900004</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>372</v>
       </c>
@@ -16258,7 +16255,7 @@
         <v>-70.6372519122</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>306</v>
       </c>
@@ -16327,7 +16324,7 @@
         <v>-71.056442506400003</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>306</v>
       </c>
@@ -16405,7 +16402,7 @@
         <v>-70.381457830900004</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>306</v>
       </c>
@@ -16477,7 +16474,7 @@
         <v>-72.377516028900004</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>327</v>
       </c>
@@ -16552,7 +16549,7 @@
         <v>-71.352913090200005</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>327</v>
       </c>
@@ -16615,7 +16612,7 @@
         <v>-71.330163502000005</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>327</v>
       </c>
@@ -16678,7 +16675,7 @@
         <v>-71.330163502000005</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>327</v>
       </c>
@@ -16747,7 +16744,7 @@
         <v>-69.186038925800005</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>372</v>
       </c>
@@ -16812,7 +16809,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>372</v>
       </c>
@@ -16871,7 +16868,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>471</v>
       </c>
@@ -16945,7 +16942,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>471</v>
       </c>
@@ -17022,7 +17019,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>372</v>
       </c>
@@ -17093,7 +17090,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>372</v>
       </c>
@@ -17164,7 +17161,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>372</v>
       </c>
@@ -17235,7 +17232,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>372</v>
       </c>
@@ -17309,7 +17306,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>372</v>
       </c>
@@ -17383,7 +17380,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>471</v>
       </c>
@@ -17448,7 +17445,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>372</v>
       </c>
@@ -17519,7 +17516,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>372</v>
       </c>
@@ -17590,7 +17587,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>372</v>
       </c>
@@ -17658,7 +17655,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>372</v>
       </c>
@@ -17729,7 +17726,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>372</v>
       </c>
@@ -17809,7 +17806,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>372</v>
       </c>
@@ -17886,7 +17883,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>372</v>
       </c>
@@ -17960,7 +17957,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>372</v>
       </c>
@@ -18028,7 +18025,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>372</v>
       </c>
@@ -18102,7 +18099,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>372</v>
       </c>
@@ -18170,7 +18167,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>372</v>
       </c>
@@ -18184,13 +18181,13 @@
         <v>7105</v>
       </c>
       <c r="E61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" t="s">
         <v>609</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>610</v>
-      </c>
-      <c r="G61" t="s">
-        <v>611</v>
       </c>
       <c r="H61">
         <v>36</v>
@@ -18199,7 +18196,7 @@
         <v>32</v>
       </c>
       <c r="K61" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M61" t="s">
         <v>34</v>
@@ -18208,7 +18205,7 @@
         <v>35</v>
       </c>
       <c r="Q61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="U61" t="s">
         <v>504</v>
@@ -18226,10 +18223,10 @@
         <v>480</v>
       </c>
       <c r="AH61" t="s">
+        <v>613</v>
+      </c>
+      <c r="AI61" t="s">
         <v>614</v>
-      </c>
-      <c r="AI61" t="s">
-        <v>615</v>
       </c>
       <c r="AJ61" t="s">
         <v>396</v>
@@ -18238,7 +18235,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>372</v>
       </c>
@@ -18258,7 +18255,7 @@
         <v>321</v>
       </c>
       <c r="G62" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H62">
         <v>54</v>
@@ -18267,7 +18264,7 @@
         <v>474</v>
       </c>
       <c r="K62" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M62" t="s">
         <v>476</v>
@@ -18276,7 +18273,7 @@
         <v>530</v>
       </c>
       <c r="Q62" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="R62">
         <v>23</v>
@@ -18300,10 +18297,10 @@
         <v>480</v>
       </c>
       <c r="AH62" t="s">
+        <v>618</v>
+      </c>
+      <c r="AI62" t="s">
         <v>619</v>
-      </c>
-      <c r="AI62" t="s">
-        <v>620</v>
       </c>
       <c r="AJ62" t="s">
         <v>452</v>
@@ -18312,7 +18309,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>372</v>
       </c>
@@ -18326,13 +18323,13 @@
         <v>8108</v>
       </c>
       <c r="E63" t="s">
+        <v>620</v>
+      </c>
+      <c r="F63" t="s">
         <v>621</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>622</v>
-      </c>
-      <c r="G63" t="s">
-        <v>623</v>
       </c>
       <c r="H63">
         <v>66</v>
@@ -18341,7 +18338,7 @@
         <v>474</v>
       </c>
       <c r="K63" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M63" t="s">
         <v>143</v>
@@ -18350,7 +18347,7 @@
         <v>35</v>
       </c>
       <c r="Q63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="R63">
         <v>73</v>
@@ -18362,7 +18359,7 @@
         <v>479</v>
       </c>
       <c r="X63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z63" t="s">
         <v>146</v>
@@ -18374,10 +18371,10 @@
         <v>516</v>
       </c>
       <c r="AH63" t="s">
+        <v>626</v>
+      </c>
+      <c r="AI63" t="s">
         <v>627</v>
-      </c>
-      <c r="AI63" t="s">
-        <v>628</v>
       </c>
       <c r="AJ63" t="s">
         <v>391</v>
@@ -18386,7 +18383,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>327</v>
       </c>
@@ -18406,7 +18403,7 @@
         <v>430</v>
       </c>
       <c r="G64" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H64">
         <v>25</v>
@@ -18415,19 +18412,19 @@
         <v>37</v>
       </c>
       <c r="K64" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L64" t="s">
         <v>479</v>
       </c>
       <c r="M64" t="s">
+        <v>630</v>
+      </c>
+      <c r="P64" t="s">
         <v>631</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>632</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>633</v>
       </c>
       <c r="R64">
         <v>58</v>
@@ -18439,7 +18436,7 @@
         <v>504</v>
       </c>
       <c r="Z64" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AB64" t="s">
         <v>516</v>
@@ -18448,10 +18445,10 @@
         <v>516</v>
       </c>
       <c r="AH64" t="s">
+        <v>634</v>
+      </c>
+      <c r="AI64" t="s">
         <v>635</v>
-      </c>
-      <c r="AI64" t="s">
-        <v>636</v>
       </c>
       <c r="AJ64" t="s">
         <v>387</v>
@@ -18460,7 +18457,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>372</v>
       </c>
@@ -18489,10 +18486,10 @@
         <v>32</v>
       </c>
       <c r="J65" t="s">
+        <v>636</v>
+      </c>
+      <c r="K65" t="s">
         <v>637</v>
-      </c>
-      <c r="K65" t="s">
-        <v>638</v>
       </c>
       <c r="M65" t="s">
         <v>511</v>
@@ -18501,19 +18498,19 @@
         <v>35</v>
       </c>
       <c r="Q65" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="R65">
         <v>36</v>
       </c>
       <c r="S65" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="U65" t="s">
         <v>38</v>
       </c>
       <c r="X65" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="Z65" t="s">
         <v>146</v>
@@ -18522,13 +18519,13 @@
         <v>505</v>
       </c>
       <c r="AD65" t="s">
+        <v>641</v>
+      </c>
+      <c r="AH65" t="s">
         <v>642</v>
       </c>
-      <c r="AH65" t="s">
+      <c r="AI65" t="s">
         <v>643</v>
-      </c>
-      <c r="AI65" t="s">
-        <v>644</v>
       </c>
       <c r="AJ65" t="s">
         <v>390</v>
@@ -18537,7 +18534,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>372</v>
       </c>
@@ -18557,7 +18554,7 @@
         <v>98</v>
       </c>
       <c r="G66" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H66">
         <v>40</v>
@@ -18566,7 +18563,7 @@
         <v>32</v>
       </c>
       <c r="K66" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L66" t="s">
         <v>135</v>
@@ -18578,7 +18575,7 @@
         <v>35</v>
       </c>
       <c r="Q66" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="R66">
         <v>30</v>
@@ -18590,13 +18587,13 @@
         <v>38</v>
       </c>
       <c r="X66" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Z66" t="s">
         <v>146</v>
       </c>
       <c r="AA66" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AB66" t="s">
         <v>462</v>
@@ -18605,10 +18602,10 @@
         <v>462</v>
       </c>
       <c r="AH66" t="s">
+        <v>649</v>
+      </c>
+      <c r="AI66" t="s">
         <v>650</v>
-      </c>
-      <c r="AI66" t="s">
-        <v>651</v>
       </c>
       <c r="AJ66" t="s">
         <v>392</v>
@@ -18617,7 +18614,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>372</v>
       </c>
@@ -18631,19 +18628,19 @@
         <v>5502</v>
       </c>
       <c r="E67" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F67" t="s">
         <v>98</v>
       </c>
       <c r="G67" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H67">
         <v>46</v>
       </c>
       <c r="K67" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M67" t="s">
         <v>34</v>
@@ -18661,7 +18658,7 @@
         <v>89</v>
       </c>
       <c r="X67" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Z67" t="s">
         <v>146</v>
@@ -18670,13 +18667,13 @@
         <v>271</v>
       </c>
       <c r="AD67" t="s">
+        <v>655</v>
+      </c>
+      <c r="AH67" t="s">
         <v>656</v>
       </c>
-      <c r="AH67" t="s">
+      <c r="AI67" t="s">
         <v>657</v>
-      </c>
-      <c r="AI67" t="s">
-        <v>658</v>
       </c>
       <c r="AJ67" t="s">
         <v>392</v>
@@ -18685,7 +18682,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>372</v>
       </c>
@@ -18699,13 +18696,13 @@
         <v>10107</v>
       </c>
       <c r="E68" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F68" t="s">
         <v>321</v>
       </c>
       <c r="G68" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H68">
         <v>89</v>
@@ -18714,7 +18711,7 @@
         <v>32</v>
       </c>
       <c r="K68" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M68" t="s">
         <v>476</v>
@@ -18723,7 +18720,7 @@
         <v>60</v>
       </c>
       <c r="Q68" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="R68">
         <v>53</v>
@@ -18738,19 +18735,19 @@
         <v>63</v>
       </c>
       <c r="AB68" t="s">
+        <v>662</v>
+      </c>
+      <c r="AD68" t="s">
         <v>663</v>
       </c>
-      <c r="AD68" t="s">
+      <c r="AH68" t="s">
         <v>664</v>
       </c>
-      <c r="AH68" t="s">
+      <c r="AI68" t="s">
         <v>665</v>
       </c>
-      <c r="AI68" t="s">
+      <c r="AJ68" t="s">
         <v>666</v>
-      </c>
-      <c r="AJ68" t="s">
-        <v>667</v>
       </c>
       <c r="AK68" t="s">
         <v>401</v>
@@ -18775,23 +18772,23 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" customWidth="1"/>
-    <col min="9" max="9" width="65.44140625" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
-    <col min="11" max="11" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="65.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
         <v>375</v>
       </c>
@@ -18832,7 +18829,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18873,7 +18870,7 @@
         <v>-73.174690886400001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18911,7 +18908,7 @@
         <v>-70.659196161799997</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18949,7 +18946,7 @@
         <v>-70.718956870400007</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18987,7 +18984,7 @@
         <v>-70.809757554800001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -19025,7 +19022,7 @@
         <v>-72.097788240200003</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -19063,7 +19060,7 @@
         <v>-70.718956870400007</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -19101,7 +19098,7 @@
         <v>-70.243562478499996</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -19139,7 +19136,7 @@
         <v>-71.123127304999997</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -19177,7 +19174,7 @@
         <v>-70.616098163900006</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -19215,7 +19212,7 @@
         <v>-69.186038925800005</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -19253,7 +19250,7 @@
         <v>-71.820769024399993</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -19291,7 +19288,7 @@
         <v>-70.616098163900006</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -19329,7 +19326,7 @@
         <v>-69.971491087100006</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -19367,7 +19364,7 @@
         <v>-71.060820861899998</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -19405,7 +19402,7 @@
         <v>-71.753339855299998</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -19443,7 +19440,7 @@
         <v>-72.2757990108</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -19481,7 +19478,7 @@
         <v>-72.233593646100005</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -19519,7 +19516,7 @@
         <v>-71.992299397099998</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -19557,7 +19554,7 @@
         <v>-73.104958492799994</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -19595,7 +19592,7 @@
         <v>-70.923634825500002</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -19633,7 +19630,7 @@
         <v>-70.599127450699996</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -19671,7 +19668,7 @@
         <v>-70.656954396499998</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -19709,7 +19706,7 @@
         <v>-71.330163502000005</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -19747,7 +19744,7 @@
         <v>-71.332567138900004</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>32</v>
       </c>
@@ -19785,7 +19782,7 @@
         <v>-70.6372519122</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>33</v>
       </c>
@@ -19817,7 +19814,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>34</v>
       </c>
@@ -19849,7 +19846,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>35</v>
       </c>
@@ -19881,7 +19878,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>36</v>
       </c>
@@ -19913,7 +19910,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>37</v>
       </c>
@@ -19945,7 +19942,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>38</v>
       </c>
@@ -19977,7 +19974,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>39</v>
       </c>
@@ -20009,7 +20006,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>40</v>
       </c>
@@ -20041,7 +20038,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>41</v>
       </c>
@@ -20073,7 +20070,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>42</v>
       </c>
@@ -20105,7 +20102,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>43</v>
       </c>
@@ -20137,7 +20134,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>44</v>
       </c>
@@ -20169,7 +20166,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>45</v>
       </c>
@@ -20201,7 +20198,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>46</v>
       </c>
@@ -20233,7 +20230,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>47</v>
       </c>
@@ -20265,7 +20262,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>48</v>
       </c>
@@ -20297,7 +20294,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>49</v>
       </c>

--- a/Femicidios 2020.xlsx
+++ b/Femicidios 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-RIESGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D803CF31-8308-4CBE-A275-85E016EC7CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933EB857-D881-4B66-BC16-A679D6CFFBCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FEMICIDIOS 2020" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="677">
   <si>
     <t>FEMICIDIOS 2020</t>
   </si>
@@ -1547,9 +1547,6 @@
     <t>Carlos Gabriel Venegas Aguilar</t>
   </si>
   <si>
-    <t xml:space="preserve">Prision preventiva </t>
-  </si>
-  <si>
     <t>https://www.soychile.cl/Santiago/Sociedad/2020/09/15/673386/Fiscalia-y-PDI-indagan-parricidio-en-Quilicura-joven-habria-asesinado-a-punaladas-a-su-madre-y-su-hermana.aspx</t>
   </si>
   <si>
@@ -1599,9 +1596,6 @@
     <t xml:space="preserve">Cristián Díaz Vargas </t>
   </si>
   <si>
-    <t xml:space="preserve">Argentino </t>
-  </si>
-  <si>
     <t xml:space="preserve">No </t>
   </si>
   <si>
@@ -1632,9 +1626,6 @@
     <t xml:space="preserve">Ricardo Neira </t>
   </si>
   <si>
-    <t xml:space="preserve">Chileno </t>
-  </si>
-  <si>
     <t xml:space="preserve">Femicidio íntimo </t>
   </si>
   <si>
@@ -1662,9 +1653,6 @@
     <t xml:space="preserve">Kevin Lerma Daza </t>
   </si>
   <si>
-    <t xml:space="preserve">Colombiano </t>
-  </si>
-  <si>
     <t>https://www.biobiochile.cl/noticias/nacional/region-de-atacama/2020/10/11/femicidio-en-copiapo-mujer-muere-apunalada-y-su-conviviente-esta-profugo.shtml</t>
   </si>
   <si>
@@ -1686,9 +1674,6 @@
     <t xml:space="preserve">Lindorfo José Salgado Silva </t>
   </si>
   <si>
-    <t>antecedentes por porte de arma</t>
-  </si>
-  <si>
     <t>https://web.observador.cl/en-prision-quedo-hombre-por-violacion-con-homicidio-de-mujer-de-63-anos-en-valparaiso/</t>
   </si>
   <si>
@@ -1983,9 +1968,6 @@
     <t xml:space="preserve">Desconocido </t>
   </si>
   <si>
-    <t xml:space="preserve">Crimen Transfóbico </t>
-  </si>
-  <si>
     <t xml:space="preserve">Víctor Hugo Abarca Díaz </t>
   </si>
   <si>
@@ -2007,9 +1989,6 @@
     <t xml:space="preserve">Carlos Humberto Méndez González (alias Igor Yaroslac González González) </t>
   </si>
   <si>
-    <t xml:space="preserve">Mexicano </t>
-  </si>
-  <si>
     <t xml:space="preserve">Femicida en México en 2009, de donde escapó para ingresar a Chile con nombre falso </t>
   </si>
   <si>
@@ -2104,6 +2083,42 @@
   </si>
   <si>
     <t>Columna15</t>
+  </si>
+  <si>
+    <t>No Informada</t>
+  </si>
+  <si>
+    <t>No Informado</t>
+  </si>
+  <si>
+    <t>Sin Información</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crimen transfóbico </t>
+  </si>
+  <si>
+    <t>M.U.C.D. (medios protegen su identidad)</t>
+  </si>
+  <si>
+    <t>L.O.A. (medios protegen su identidad)</t>
+  </si>
+  <si>
+    <t>Medios protegen su identidad</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Mexicana</t>
+  </si>
+  <si>
+    <t>No Informados</t>
+  </si>
+  <si>
+    <t>Antecedentes por porte de arma</t>
+  </si>
+  <si>
+    <t>Detenido y formalizado</t>
   </si>
 </sst>
 </file>
@@ -13439,8 +13454,8 @@
   </sheetPr>
   <dimension ref="A1:AM68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13516,10 +13531,10 @@
         <v>11</v>
       </c>
       <c r="N1" s="49" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="O1" s="49" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="P1" t="s">
         <v>12</v>
@@ -13528,13 +13543,13 @@
         <v>13</v>
       </c>
       <c r="R1" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="S1" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="T1" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="U1" t="s">
         <v>14</v>
@@ -13622,9 +13637,15 @@
       <c r="I2" t="s">
         <v>32</v>
       </c>
+      <c r="J2" t="s">
+        <v>665</v>
+      </c>
       <c r="K2" t="s">
         <v>33</v>
       </c>
+      <c r="L2" t="s">
+        <v>667</v>
+      </c>
       <c r="M2" t="s">
         <v>34</v>
       </c>
@@ -13638,16 +13659,25 @@
         <v>49</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
+        <v>665</v>
       </c>
       <c r="U2" t="s">
         <v>38</v>
       </c>
+      <c r="V2" t="s">
+        <v>666</v>
+      </c>
       <c r="W2" t="s">
         <v>39</v>
       </c>
+      <c r="X2" t="s">
+        <v>674</v>
+      </c>
       <c r="Y2" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="Z2" t="s">
         <v>41</v>
@@ -13708,9 +13738,15 @@
       <c r="I3" t="s">
         <v>32</v>
       </c>
+      <c r="J3" t="s">
+        <v>665</v>
+      </c>
       <c r="K3" t="s">
         <v>49</v>
       </c>
+      <c r="L3" t="s">
+        <v>667</v>
+      </c>
       <c r="M3" t="s">
         <v>34</v>
       </c>
@@ -13724,16 +13760,25 @@
         <v>51</v>
       </c>
       <c r="S3" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T3" t="s">
+        <v>665</v>
       </c>
       <c r="U3" t="s">
         <v>51</v>
       </c>
+      <c r="V3" t="s">
+        <v>666</v>
+      </c>
       <c r="W3" t="s">
         <v>52</v>
       </c>
+      <c r="X3" t="s">
+        <v>674</v>
+      </c>
       <c r="Y3" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="Z3" t="s">
         <v>41</v>
@@ -13792,9 +13837,15 @@
       <c r="I4" t="s">
         <v>32</v>
       </c>
+      <c r="J4" t="s">
+        <v>665</v>
+      </c>
       <c r="K4" t="s">
         <v>58</v>
       </c>
+      <c r="L4" t="s">
+        <v>667</v>
+      </c>
       <c r="M4" t="s">
         <v>59</v>
       </c>
@@ -13808,13 +13859,22 @@
         <v>31</v>
       </c>
       <c r="S4" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T4" t="s">
+        <v>665</v>
       </c>
       <c r="U4" t="s">
         <v>38</v>
       </c>
+      <c r="V4" t="s">
+        <v>666</v>
+      </c>
       <c r="W4" t="s">
         <v>62</v>
+      </c>
+      <c r="X4" t="s">
+        <v>674</v>
       </c>
       <c r="Y4" t="s">
         <v>38</v>
@@ -13876,9 +13936,15 @@
       <c r="I5" t="s">
         <v>32</v>
       </c>
+      <c r="J5" t="s">
+        <v>665</v>
+      </c>
       <c r="K5" t="s">
         <v>69</v>
       </c>
+      <c r="L5" t="s">
+        <v>667</v>
+      </c>
       <c r="M5" t="s">
         <v>34</v>
       </c>
@@ -13892,13 +13958,25 @@
         <v>56</v>
       </c>
       <c r="S5" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T5" t="s">
+        <v>665</v>
       </c>
       <c r="U5" t="s">
         <v>51</v>
       </c>
+      <c r="V5" t="s">
+        <v>666</v>
+      </c>
+      <c r="W5" t="s">
+        <v>674</v>
+      </c>
+      <c r="X5" t="s">
+        <v>674</v>
+      </c>
       <c r="Y5" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="Z5" t="s">
         <v>41</v>
@@ -13957,9 +14035,15 @@
       <c r="I6" t="s">
         <v>32</v>
       </c>
+      <c r="J6" t="s">
+        <v>665</v>
+      </c>
       <c r="K6" t="s">
         <v>77</v>
       </c>
+      <c r="L6" t="s">
+        <v>667</v>
+      </c>
       <c r="M6" t="s">
         <v>34</v>
       </c>
@@ -13973,7 +14057,7 @@
         <v>40</v>
       </c>
       <c r="S6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T6" t="s">
         <v>79</v>
@@ -13982,13 +14066,16 @@
         <v>51</v>
       </c>
       <c r="V6" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="W6" t="s">
         <v>80</v>
       </c>
+      <c r="X6" t="s">
+        <v>674</v>
+      </c>
       <c r="Y6" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="Z6" t="s">
         <v>41</v>
@@ -14047,9 +14134,15 @@
       <c r="I7" t="s">
         <v>32</v>
       </c>
+      <c r="J7" t="s">
+        <v>665</v>
+      </c>
       <c r="K7" t="s">
         <v>86</v>
       </c>
+      <c r="L7" t="s">
+        <v>667</v>
+      </c>
       <c r="M7" t="s">
         <v>87</v>
       </c>
@@ -14057,14 +14150,23 @@
         <v>35</v>
       </c>
       <c r="Q7" t="s">
-        <v>88</v>
+        <v>671</v>
       </c>
       <c r="R7">
         <v>35</v>
       </c>
+      <c r="S7" t="s">
+        <v>665</v>
+      </c>
+      <c r="T7" t="s">
+        <v>665</v>
+      </c>
       <c r="U7" t="s">
         <v>89</v>
       </c>
+      <c r="V7" t="s">
+        <v>666</v>
+      </c>
       <c r="W7" t="s">
         <v>90</v>
       </c>
@@ -14072,7 +14174,7 @@
         <v>91</v>
       </c>
       <c r="Y7" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="Z7" t="s">
         <v>41</v>
@@ -14081,7 +14183,7 @@
         <v>92</v>
       </c>
       <c r="AB7" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="AC7" s="48">
         <v>43878</v>
@@ -14136,9 +14238,15 @@
       <c r="I8" t="s">
         <v>32</v>
       </c>
+      <c r="J8" t="s">
+        <v>665</v>
+      </c>
       <c r="K8" t="s">
         <v>100</v>
       </c>
+      <c r="L8" t="s">
+        <v>667</v>
+      </c>
       <c r="M8" t="s">
         <v>87</v>
       </c>
@@ -14146,13 +14254,28 @@
         <v>35</v>
       </c>
       <c r="Q8" t="s">
-        <v>88</v>
+        <v>671</v>
+      </c>
+      <c r="R8" t="s">
+        <v>665</v>
+      </c>
+      <c r="S8" t="s">
+        <v>665</v>
+      </c>
+      <c r="T8" t="s">
+        <v>665</v>
       </c>
       <c r="U8" t="s">
         <v>38</v>
       </c>
+      <c r="V8" t="s">
+        <v>666</v>
+      </c>
       <c r="W8" t="s">
         <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>674</v>
       </c>
       <c r="Y8" t="s">
         <v>38</v>
@@ -14214,9 +14337,15 @@
       <c r="I9" t="s">
         <v>32</v>
       </c>
+      <c r="J9" t="s">
+        <v>665</v>
+      </c>
       <c r="K9" t="s">
         <v>107</v>
       </c>
+      <c r="L9" t="s">
+        <v>667</v>
+      </c>
       <c r="M9" t="s">
         <v>108</v>
       </c>
@@ -14230,7 +14359,10 @@
         <v>18</v>
       </c>
       <c r="S9" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T9" t="s">
+        <v>665</v>
       </c>
       <c r="U9" t="s">
         <v>38</v>
@@ -14238,8 +14370,14 @@
       <c r="V9" t="s">
         <v>38</v>
       </c>
+      <c r="W9" t="s">
+        <v>674</v>
+      </c>
+      <c r="X9" t="s">
+        <v>674</v>
+      </c>
       <c r="Y9" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="Z9" t="s">
         <v>110</v>
@@ -14295,9 +14433,15 @@
       <c r="I10" t="s">
         <v>32</v>
       </c>
+      <c r="J10" t="s">
+        <v>665</v>
+      </c>
       <c r="K10" t="s">
         <v>115</v>
       </c>
+      <c r="L10" t="s">
+        <v>667</v>
+      </c>
       <c r="M10" t="s">
         <v>116</v>
       </c>
@@ -14311,7 +14455,10 @@
         <v>17</v>
       </c>
       <c r="S10" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T10" t="s">
+        <v>665</v>
       </c>
       <c r="U10" t="s">
         <v>38</v>
@@ -14321,6 +14468,9 @@
       </c>
       <c r="W10" t="s">
         <v>118</v>
+      </c>
+      <c r="X10" t="s">
+        <v>674</v>
       </c>
       <c r="Y10" t="s">
         <v>38</v>
@@ -14389,7 +14539,7 @@
         <v>126</v>
       </c>
       <c r="L11" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="M11" t="s">
         <v>34</v>
@@ -14404,7 +14554,7 @@
         <v>42</v>
       </c>
       <c r="S11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T11" t="s">
         <v>125</v>
@@ -14415,8 +14565,14 @@
       <c r="V11" t="s">
         <v>38</v>
       </c>
+      <c r="W11" t="s">
+        <v>674</v>
+      </c>
+      <c r="X11" t="s">
+        <v>674</v>
+      </c>
       <c r="Y11" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="Z11" t="s">
         <v>128</v>
@@ -14475,11 +14631,14 @@
       <c r="I12" t="s">
         <v>32</v>
       </c>
+      <c r="J12" t="s">
+        <v>665</v>
+      </c>
       <c r="K12" t="s">
         <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>564</v>
       </c>
       <c r="M12" t="s">
         <v>136</v>
@@ -14490,14 +14649,35 @@
       <c r="Q12" t="s">
         <v>136</v>
       </c>
+      <c r="R12" t="s">
+        <v>665</v>
+      </c>
       <c r="S12" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T12" t="s">
+        <v>665</v>
+      </c>
+      <c r="U12" t="s">
+        <v>666</v>
+      </c>
+      <c r="V12" t="s">
+        <v>666</v>
+      </c>
+      <c r="W12" t="s">
+        <v>674</v>
+      </c>
+      <c r="X12" t="s">
+        <v>674</v>
       </c>
       <c r="Y12" t="s">
         <v>38</v>
       </c>
       <c r="Z12" t="s">
         <v>92</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>667</v>
       </c>
       <c r="AC12" s="48"/>
       <c r="AD12" t="s">
@@ -14550,9 +14730,15 @@
       <c r="I13" t="s">
         <v>32</v>
       </c>
+      <c r="J13" t="s">
+        <v>665</v>
+      </c>
       <c r="K13" t="s">
         <v>142</v>
       </c>
+      <c r="L13" t="s">
+        <v>667</v>
+      </c>
       <c r="M13" t="s">
         <v>143</v>
       </c>
@@ -14566,16 +14752,25 @@
         <v>41</v>
       </c>
       <c r="S13" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T13" t="s">
+        <v>665</v>
       </c>
       <c r="U13" t="s">
         <v>51</v>
       </c>
+      <c r="V13" t="s">
+        <v>666</v>
+      </c>
       <c r="W13" t="s">
         <v>145</v>
       </c>
+      <c r="X13" t="s">
+        <v>674</v>
+      </c>
       <c r="Y13" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="Z13" t="s">
         <v>146</v>
@@ -14634,9 +14829,15 @@
       <c r="I14" t="s">
         <v>32</v>
       </c>
+      <c r="J14" t="s">
+        <v>665</v>
+      </c>
       <c r="K14" t="s">
         <v>151</v>
       </c>
+      <c r="L14" t="s">
+        <v>667</v>
+      </c>
       <c r="M14" t="s">
         <v>34</v>
       </c>
@@ -14650,16 +14851,25 @@
         <v>22</v>
       </c>
       <c r="S14" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T14" t="s">
+        <v>665</v>
       </c>
       <c r="U14" t="s">
         <v>38</v>
       </c>
+      <c r="V14" t="s">
+        <v>666</v>
+      </c>
+      <c r="W14" t="s">
+        <v>674</v>
+      </c>
       <c r="X14" t="s">
         <v>153</v>
       </c>
       <c r="Y14" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="Z14" t="s">
         <v>146</v>
@@ -14721,9 +14931,15 @@
       <c r="I15" t="s">
         <v>32</v>
       </c>
+      <c r="J15" t="s">
+        <v>665</v>
+      </c>
       <c r="K15" t="s">
         <v>160</v>
       </c>
+      <c r="L15" t="s">
+        <v>667</v>
+      </c>
       <c r="M15" t="s">
         <v>34</v>
       </c>
@@ -14733,14 +14949,29 @@
       <c r="Q15" t="s">
         <v>161</v>
       </c>
+      <c r="R15" t="s">
+        <v>665</v>
+      </c>
       <c r="S15" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T15" t="s">
+        <v>665</v>
       </c>
       <c r="U15" t="s">
-        <v>40</v>
+        <v>89</v>
+      </c>
+      <c r="V15" t="s">
+        <v>666</v>
+      </c>
+      <c r="W15" t="s">
+        <v>674</v>
+      </c>
+      <c r="X15" t="s">
+        <v>674</v>
       </c>
       <c r="Y15" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="Z15" t="s">
         <v>146</v>
@@ -14801,9 +15032,15 @@
       <c r="I16" t="s">
         <v>32</v>
       </c>
+      <c r="J16" t="s">
+        <v>665</v>
+      </c>
       <c r="K16" t="s">
         <v>166</v>
       </c>
+      <c r="L16" t="s">
+        <v>667</v>
+      </c>
       <c r="M16" t="s">
         <v>143</v>
       </c>
@@ -14817,10 +15054,16 @@
         <v>53</v>
       </c>
       <c r="S16" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T16" t="s">
+        <v>665</v>
       </c>
       <c r="U16" t="s">
-        <v>40</v>
+        <v>89</v>
+      </c>
+      <c r="V16" t="s">
+        <v>666</v>
       </c>
       <c r="W16" t="s">
         <v>168</v>
@@ -14829,7 +15072,7 @@
         <v>169</v>
       </c>
       <c r="Y16" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="Z16" t="s">
         <v>146</v>
@@ -14890,9 +15133,15 @@
       <c r="I17" t="s">
         <v>32</v>
       </c>
+      <c r="J17" t="s">
+        <v>665</v>
+      </c>
       <c r="K17" t="s">
         <v>173</v>
       </c>
+      <c r="L17" t="s">
+        <v>667</v>
+      </c>
       <c r="M17" t="s">
         <v>87</v>
       </c>
@@ -14902,17 +15151,29 @@
       <c r="Q17" t="s">
         <v>174</v>
       </c>
+      <c r="R17" t="s">
+        <v>665</v>
+      </c>
       <c r="S17" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T17" t="s">
+        <v>665</v>
       </c>
       <c r="U17" t="s">
-        <v>40</v>
+        <v>89</v>
+      </c>
+      <c r="V17" t="s">
+        <v>666</v>
       </c>
       <c r="W17" t="s">
         <v>175</v>
       </c>
+      <c r="X17" t="s">
+        <v>674</v>
+      </c>
       <c r="Y17" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="Z17" t="s">
         <v>146</v>
@@ -14973,9 +15234,15 @@
       <c r="I18" t="s">
         <v>181</v>
       </c>
+      <c r="J18" t="s">
+        <v>665</v>
+      </c>
       <c r="K18" t="s">
         <v>182</v>
       </c>
+      <c r="L18" t="s">
+        <v>667</v>
+      </c>
       <c r="M18" t="s">
         <v>143</v>
       </c>
@@ -14991,11 +15258,23 @@
       <c r="S18" t="s">
         <v>181</v>
       </c>
+      <c r="T18" t="s">
+        <v>665</v>
+      </c>
       <c r="U18" t="s">
         <v>38</v>
       </c>
+      <c r="V18" t="s">
+        <v>666</v>
+      </c>
+      <c r="W18" t="s">
+        <v>674</v>
+      </c>
+      <c r="X18" t="s">
+        <v>674</v>
+      </c>
       <c r="Y18" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="Z18" t="s">
         <v>146</v>
@@ -15056,9 +15335,15 @@
       <c r="I19" t="s">
         <v>32</v>
       </c>
+      <c r="J19" t="s">
+        <v>665</v>
+      </c>
       <c r="K19" t="s">
         <v>189</v>
       </c>
+      <c r="L19" t="s">
+        <v>667</v>
+      </c>
       <c r="M19" t="s">
         <v>190</v>
       </c>
@@ -15072,13 +15357,16 @@
         <v>24</v>
       </c>
       <c r="S19" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T19" t="s">
+        <v>665</v>
       </c>
       <c r="U19" t="s">
         <v>38</v>
       </c>
       <c r="V19" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="W19" t="s">
         <v>192</v>
@@ -15087,7 +15375,7 @@
         <v>193</v>
       </c>
       <c r="Y19" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="Z19" t="s">
         <v>146</v>
@@ -15148,11 +15436,14 @@
       <c r="I20" t="s">
         <v>32</v>
       </c>
+      <c r="J20" t="s">
+        <v>665</v>
+      </c>
       <c r="K20" t="s">
         <v>198</v>
       </c>
       <c r="L20" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="M20" t="s">
         <v>199</v>
@@ -15163,11 +15454,35 @@
       <c r="Q20" t="s">
         <v>199</v>
       </c>
+      <c r="R20" t="s">
+        <v>665</v>
+      </c>
+      <c r="S20" t="s">
+        <v>665</v>
+      </c>
+      <c r="T20" t="s">
+        <v>665</v>
+      </c>
+      <c r="U20" t="s">
+        <v>666</v>
+      </c>
+      <c r="V20" t="s">
+        <v>666</v>
+      </c>
+      <c r="W20" t="s">
+        <v>674</v>
+      </c>
+      <c r="X20" t="s">
+        <v>674</v>
+      </c>
       <c r="Y20" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="Z20" t="s">
         <v>128</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>667</v>
       </c>
       <c r="AC20" s="48"/>
       <c r="AD20" t="s">
@@ -15220,9 +15535,15 @@
       <c r="I21" t="s">
         <v>32</v>
       </c>
+      <c r="J21" t="s">
+        <v>665</v>
+      </c>
       <c r="K21" t="s">
         <v>205</v>
       </c>
+      <c r="L21" t="s">
+        <v>667</v>
+      </c>
       <c r="M21" t="s">
         <v>34</v>
       </c>
@@ -15230,19 +15551,31 @@
         <v>35</v>
       </c>
       <c r="Q21" t="s">
-        <v>206</v>
+        <v>669</v>
       </c>
       <c r="R21">
         <v>55</v>
       </c>
+      <c r="S21" t="s">
+        <v>665</v>
+      </c>
+      <c r="T21" t="s">
+        <v>665</v>
+      </c>
       <c r="U21" t="s">
         <v>38</v>
       </c>
+      <c r="V21" t="s">
+        <v>666</v>
+      </c>
       <c r="W21" t="s">
         <v>207</v>
       </c>
+      <c r="X21" t="s">
+        <v>674</v>
+      </c>
       <c r="Y21" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="Z21" t="s">
         <v>146</v>
@@ -15303,9 +15636,15 @@
       <c r="I22" t="s">
         <v>32</v>
       </c>
+      <c r="J22" t="s">
+        <v>665</v>
+      </c>
       <c r="K22" t="s">
         <v>212</v>
       </c>
+      <c r="L22" t="s">
+        <v>667</v>
+      </c>
       <c r="M22" t="s">
         <v>108</v>
       </c>
@@ -15319,16 +15658,25 @@
         <v>45</v>
       </c>
       <c r="S22" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T22" t="s">
+        <v>665</v>
       </c>
       <c r="U22" t="s">
         <v>38</v>
       </c>
+      <c r="V22" t="s">
+        <v>666</v>
+      </c>
       <c r="W22" t="s">
         <v>214</v>
       </c>
+      <c r="X22" t="s">
+        <v>674</v>
+      </c>
       <c r="Y22" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="Z22" t="s">
         <v>146</v>
@@ -15389,9 +15737,15 @@
       <c r="I23" t="s">
         <v>32</v>
       </c>
+      <c r="J23" t="s">
+        <v>665</v>
+      </c>
       <c r="K23" t="s">
         <v>220</v>
       </c>
+      <c r="L23" t="s">
+        <v>667</v>
+      </c>
       <c r="M23" t="s">
         <v>34</v>
       </c>
@@ -15405,13 +15759,25 @@
         <v>30</v>
       </c>
       <c r="S23" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T23" t="s">
+        <v>665</v>
       </c>
       <c r="U23" t="s">
         <v>38</v>
       </c>
+      <c r="V23" t="s">
+        <v>666</v>
+      </c>
+      <c r="W23" t="s">
+        <v>674</v>
+      </c>
+      <c r="X23" t="s">
+        <v>674</v>
+      </c>
       <c r="Y23" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="Z23" t="s">
         <v>146</v>
@@ -15470,9 +15836,15 @@
       <c r="I24" t="s">
         <v>32</v>
       </c>
+      <c r="J24" t="s">
+        <v>665</v>
+      </c>
       <c r="K24" t="s">
         <v>226</v>
       </c>
+      <c r="L24" t="s">
+        <v>667</v>
+      </c>
       <c r="M24" t="s">
         <v>87</v>
       </c>
@@ -15486,11 +15858,17 @@
         <v>46</v>
       </c>
       <c r="S24" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T24" t="s">
+        <v>665</v>
       </c>
       <c r="U24" t="s">
         <v>38</v>
       </c>
+      <c r="V24" t="s">
+        <v>666</v>
+      </c>
       <c r="W24" t="s">
         <v>228</v>
       </c>
@@ -15498,7 +15876,7 @@
         <v>229</v>
       </c>
       <c r="Y24" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="Z24" t="s">
         <v>146</v>
@@ -15557,9 +15935,15 @@
       <c r="I25" t="s">
         <v>32</v>
       </c>
+      <c r="J25" t="s">
+        <v>665</v>
+      </c>
       <c r="K25" t="s">
         <v>234</v>
       </c>
+      <c r="L25" t="s">
+        <v>667</v>
+      </c>
       <c r="M25" t="s">
         <v>34</v>
       </c>
@@ -15573,13 +15957,25 @@
         <v>32</v>
       </c>
       <c r="S25" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T25" t="s">
+        <v>665</v>
       </c>
       <c r="U25" t="s">
         <v>38</v>
       </c>
+      <c r="V25" t="s">
+        <v>666</v>
+      </c>
+      <c r="W25" t="s">
+        <v>674</v>
+      </c>
+      <c r="X25" t="s">
+        <v>674</v>
+      </c>
       <c r="Y25" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="Z25" t="s">
         <v>146</v>
@@ -15638,9 +16034,15 @@
       <c r="I26" t="s">
         <v>32</v>
       </c>
+      <c r="J26" t="s">
+        <v>665</v>
+      </c>
       <c r="K26" t="s">
         <v>240</v>
       </c>
+      <c r="L26" t="s">
+        <v>667</v>
+      </c>
       <c r="M26" t="s">
         <v>241</v>
       </c>
@@ -15648,16 +16050,28 @@
         <v>60</v>
       </c>
       <c r="Q26" t="s">
-        <v>242</v>
+        <v>670</v>
       </c>
       <c r="R26">
         <v>41</v>
       </c>
+      <c r="S26" t="s">
+        <v>665</v>
+      </c>
+      <c r="T26" t="s">
+        <v>665</v>
+      </c>
       <c r="U26" t="s">
         <v>38</v>
       </c>
+      <c r="V26" t="s">
+        <v>666</v>
+      </c>
       <c r="W26" t="s">
         <v>243</v>
+      </c>
+      <c r="X26" t="s">
+        <v>674</v>
       </c>
       <c r="Y26" t="s">
         <v>89</v>
@@ -15722,9 +16136,15 @@
       <c r="I27" t="s">
         <v>248</v>
       </c>
+      <c r="J27" t="s">
+        <v>665</v>
+      </c>
       <c r="K27" t="s">
         <v>249</v>
       </c>
+      <c r="L27" t="s">
+        <v>667</v>
+      </c>
       <c r="M27" t="s">
         <v>34</v>
       </c>
@@ -15738,13 +16158,22 @@
         <v>25</v>
       </c>
       <c r="S27" t="s">
-        <v>251</v>
+        <v>248</v>
+      </c>
+      <c r="T27" t="s">
+        <v>665</v>
       </c>
       <c r="U27" t="s">
         <v>38</v>
       </c>
       <c r="V27" t="s">
         <v>89</v>
+      </c>
+      <c r="W27" t="s">
+        <v>674</v>
+      </c>
+      <c r="X27" t="s">
+        <v>674</v>
       </c>
       <c r="Y27" t="s">
         <v>89</v>
@@ -15806,9 +16235,15 @@
       <c r="I28" t="s">
         <v>32</v>
       </c>
+      <c r="J28" t="s">
+        <v>665</v>
+      </c>
       <c r="K28" t="s">
         <v>255</v>
       </c>
+      <c r="L28" t="s">
+        <v>667</v>
+      </c>
       <c r="M28" t="s">
         <v>256</v>
       </c>
@@ -15818,11 +16253,23 @@
       <c r="Q28" t="s">
         <v>257</v>
       </c>
+      <c r="R28" t="s">
+        <v>665</v>
+      </c>
       <c r="S28" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T28" t="s">
+        <v>665</v>
       </c>
       <c r="U28" t="s">
         <v>38</v>
+      </c>
+      <c r="V28" t="s">
+        <v>666</v>
+      </c>
+      <c r="W28" t="s">
+        <v>674</v>
       </c>
       <c r="X28" t="s">
         <v>258</v>
@@ -15890,9 +16337,15 @@
       <c r="I29" t="s">
         <v>265</v>
       </c>
+      <c r="J29" t="s">
+        <v>665</v>
+      </c>
       <c r="K29" t="s">
         <v>266</v>
       </c>
+      <c r="L29" t="s">
+        <v>667</v>
+      </c>
       <c r="M29" t="s">
         <v>143</v>
       </c>
@@ -15902,14 +16355,29 @@
       <c r="Q29" t="s">
         <v>267</v>
       </c>
+      <c r="R29" t="s">
+        <v>665</v>
+      </c>
       <c r="S29" t="s">
-        <v>268</v>
+        <v>265</v>
+      </c>
+      <c r="T29" t="s">
+        <v>665</v>
       </c>
       <c r="U29" t="s">
         <v>89</v>
       </c>
+      <c r="V29" t="s">
+        <v>666</v>
+      </c>
+      <c r="W29" t="s">
+        <v>674</v>
+      </c>
       <c r="X29" t="s">
         <v>269</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>666</v>
       </c>
       <c r="Z29" t="s">
         <v>146</v>
@@ -15971,9 +16439,15 @@
       <c r="I30" t="s">
         <v>265</v>
       </c>
+      <c r="J30" t="s">
+        <v>665</v>
+      </c>
       <c r="K30" t="s">
         <v>275</v>
       </c>
+      <c r="L30" t="s">
+        <v>667</v>
+      </c>
       <c r="M30" t="s">
         <v>276</v>
       </c>
@@ -15983,14 +16457,29 @@
       <c r="Q30" t="s">
         <v>267</v>
       </c>
+      <c r="R30" t="s">
+        <v>665</v>
+      </c>
       <c r="S30" t="s">
-        <v>268</v>
+        <v>265</v>
+      </c>
+      <c r="T30" t="s">
+        <v>665</v>
       </c>
       <c r="U30" t="s">
         <v>89</v>
       </c>
+      <c r="V30" t="s">
+        <v>666</v>
+      </c>
+      <c r="W30" t="s">
+        <v>674</v>
+      </c>
       <c r="X30" t="s">
         <v>269</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>666</v>
       </c>
       <c r="Z30" t="s">
         <v>41</v>
@@ -16046,9 +16535,15 @@
       <c r="I31" t="s">
         <v>32</v>
       </c>
+      <c r="J31" t="s">
+        <v>665</v>
+      </c>
       <c r="K31" t="s">
         <v>280</v>
       </c>
+      <c r="L31" t="s">
+        <v>667</v>
+      </c>
       <c r="M31" t="s">
         <v>281</v>
       </c>
@@ -16058,11 +16553,29 @@
       <c r="Q31" t="s">
         <v>283</v>
       </c>
+      <c r="R31" t="s">
+        <v>665</v>
+      </c>
       <c r="S31" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T31" t="s">
+        <v>665</v>
       </c>
       <c r="U31" t="s">
         <v>38</v>
+      </c>
+      <c r="V31" t="s">
+        <v>666</v>
+      </c>
+      <c r="W31" t="s">
+        <v>674</v>
+      </c>
+      <c r="X31" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>666</v>
       </c>
       <c r="Z31" t="s">
         <v>41</v>
@@ -16142,8 +16655,11 @@
       <c r="Q32" t="s">
         <v>292</v>
       </c>
+      <c r="R32" t="s">
+        <v>665</v>
+      </c>
       <c r="S32" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T32" t="s">
         <v>293</v>
@@ -16151,8 +16667,17 @@
       <c r="U32" t="s">
         <v>38</v>
       </c>
+      <c r="V32" t="s">
+        <v>666</v>
+      </c>
       <c r="W32" t="s">
         <v>294</v>
+      </c>
+      <c r="X32" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>666</v>
       </c>
       <c r="Z32" t="s">
         <v>41</v>
@@ -16211,9 +16736,18 @@
       <c r="H33">
         <v>21</v>
       </c>
+      <c r="I33" t="s">
+        <v>665</v>
+      </c>
+      <c r="J33" t="s">
+        <v>665</v>
+      </c>
       <c r="K33" t="s">
         <v>301</v>
       </c>
+      <c r="L33" t="s">
+        <v>667</v>
+      </c>
       <c r="M33" t="s">
         <v>34</v>
       </c>
@@ -16226,15 +16760,36 @@
       <c r="R33">
         <v>28</v>
       </c>
+      <c r="S33" t="s">
+        <v>665</v>
+      </c>
+      <c r="T33" t="s">
+        <v>665</v>
+      </c>
       <c r="U33" t="s">
         <v>38</v>
       </c>
+      <c r="V33" t="s">
+        <v>666</v>
+      </c>
+      <c r="W33" t="s">
+        <v>674</v>
+      </c>
+      <c r="X33" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>666</v>
+      </c>
       <c r="Z33" t="s">
         <v>41</v>
       </c>
+      <c r="AB33" t="s">
+        <v>667</v>
+      </c>
       <c r="AC33" s="48"/>
       <c r="AD33" t="s">
-        <v>303</v>
+        <v>676</v>
       </c>
       <c r="AH33" t="s">
         <v>304</v>
@@ -16280,12 +16835,18 @@
       <c r="H34">
         <v>34</v>
       </c>
+      <c r="I34" t="s">
+        <v>665</v>
+      </c>
       <c r="J34" t="s">
         <v>309</v>
       </c>
       <c r="K34" t="s">
         <v>310</v>
       </c>
+      <c r="L34" t="s">
+        <v>667</v>
+      </c>
       <c r="M34" t="s">
         <v>34</v>
       </c>
@@ -16295,17 +16856,35 @@
       <c r="Q34" t="s">
         <v>312</v>
       </c>
+      <c r="R34" t="s">
+        <v>665</v>
+      </c>
       <c r="S34" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T34" t="s">
+        <v>665</v>
+      </c>
+      <c r="U34" t="s">
+        <v>666</v>
+      </c>
+      <c r="V34" t="s">
+        <v>666</v>
       </c>
       <c r="W34" t="s">
         <v>313</v>
       </c>
+      <c r="X34" t="s">
+        <v>674</v>
+      </c>
       <c r="Y34" t="s">
         <v>38</v>
       </c>
       <c r="Z34" t="s">
         <v>14</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>667</v>
       </c>
       <c r="AC34" s="48"/>
       <c r="AD34" t="s">
@@ -16352,6 +16931,9 @@
       <c r="I35" t="s">
         <v>32</v>
       </c>
+      <c r="J35" t="s">
+        <v>665</v>
+      </c>
       <c r="K35" t="s">
         <v>316</v>
       </c>
@@ -16371,13 +16953,31 @@
         <v>23</v>
       </c>
       <c r="S35" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T35" t="s">
+        <v>665</v>
+      </c>
+      <c r="U35" t="s">
+        <v>666</v>
+      </c>
+      <c r="V35" t="s">
+        <v>666</v>
+      </c>
+      <c r="W35" t="s">
+        <v>674</v>
+      </c>
+      <c r="X35" t="s">
+        <v>674</v>
       </c>
       <c r="Y35" t="s">
         <v>38</v>
       </c>
       <c r="Z35" t="s">
         <v>14</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>667</v>
       </c>
       <c r="AC35" s="48"/>
       <c r="AD35" t="s">
@@ -16430,9 +17030,15 @@
       <c r="I36" t="s">
         <v>32</v>
       </c>
+      <c r="J36" t="s">
+        <v>665</v>
+      </c>
       <c r="K36" t="s">
         <v>323</v>
       </c>
+      <c r="L36" t="s">
+        <v>667</v>
+      </c>
       <c r="M36" t="s">
         <v>116</v>
       </c>
@@ -16442,17 +17048,35 @@
       <c r="Q36" t="s">
         <v>324</v>
       </c>
+      <c r="R36" t="s">
+        <v>665</v>
+      </c>
       <c r="S36" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T36" t="s">
+        <v>665</v>
+      </c>
+      <c r="U36" t="s">
+        <v>666</v>
+      </c>
+      <c r="V36" t="s">
+        <v>666</v>
       </c>
       <c r="W36" t="s">
         <v>325</v>
       </c>
+      <c r="X36" t="s">
+        <v>674</v>
+      </c>
       <c r="Y36" t="s">
         <v>38</v>
       </c>
       <c r="Z36" t="s">
         <v>14</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>667</v>
       </c>
       <c r="AC36" s="48"/>
       <c r="AD36" t="s">
@@ -16500,11 +17124,17 @@
         <v>11</v>
       </c>
       <c r="I37" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="J37" t="s">
+        <v>665</v>
       </c>
       <c r="K37" t="s">
         <v>330</v>
       </c>
+      <c r="L37" t="s">
+        <v>667</v>
+      </c>
       <c r="M37" t="s">
         <v>331</v>
       </c>
@@ -16518,13 +17148,31 @@
         <v>32</v>
       </c>
       <c r="S37" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T37" t="s">
+        <v>665</v>
+      </c>
+      <c r="U37" t="s">
+        <v>666</v>
+      </c>
+      <c r="V37" t="s">
+        <v>666</v>
+      </c>
+      <c r="W37" t="s">
+        <v>674</v>
+      </c>
+      <c r="X37" t="s">
+        <v>674</v>
       </c>
       <c r="Y37" t="s">
         <v>38</v>
       </c>
       <c r="Z37" t="s">
         <v>63</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>667</v>
       </c>
       <c r="AC37" s="48"/>
       <c r="AD37" t="s">
@@ -16574,9 +17222,18 @@
       <c r="H38">
         <v>1</v>
       </c>
+      <c r="I38" t="s">
+        <v>665</v>
+      </c>
+      <c r="J38" t="s">
+        <v>665</v>
+      </c>
       <c r="K38" t="s">
         <v>337</v>
       </c>
+      <c r="L38" t="s">
+        <v>667</v>
+      </c>
       <c r="M38" t="s">
         <v>331</v>
       </c>
@@ -16584,10 +17241,37 @@
         <v>338</v>
       </c>
       <c r="Q38" t="s">
-        <v>88</v>
+        <v>671</v>
+      </c>
+      <c r="R38" t="s">
+        <v>665</v>
+      </c>
+      <c r="S38" t="s">
+        <v>665</v>
+      </c>
+      <c r="T38" t="s">
+        <v>665</v>
+      </c>
+      <c r="U38" t="s">
+        <v>666</v>
+      </c>
+      <c r="V38" t="s">
+        <v>666</v>
+      </c>
+      <c r="W38" t="s">
+        <v>674</v>
+      </c>
+      <c r="X38" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>666</v>
       </c>
       <c r="Z38" t="s">
         <v>63</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>667</v>
       </c>
       <c r="AC38" s="48"/>
       <c r="AD38" t="s">
@@ -16637,9 +17321,18 @@
       <c r="H39">
         <v>2</v>
       </c>
+      <c r="I39" t="s">
+        <v>665</v>
+      </c>
+      <c r="J39" t="s">
+        <v>665</v>
+      </c>
       <c r="K39" t="s">
         <v>341</v>
       </c>
+      <c r="L39" t="s">
+        <v>667</v>
+      </c>
       <c r="M39" t="s">
         <v>331</v>
       </c>
@@ -16647,10 +17340,37 @@
         <v>338</v>
       </c>
       <c r="Q39" t="s">
-        <v>88</v>
+        <v>671</v>
+      </c>
+      <c r="R39" t="s">
+        <v>665</v>
+      </c>
+      <c r="S39" t="s">
+        <v>665</v>
+      </c>
+      <c r="T39" t="s">
+        <v>665</v>
+      </c>
+      <c r="U39" t="s">
+        <v>666</v>
+      </c>
+      <c r="V39" t="s">
+        <v>666</v>
+      </c>
+      <c r="W39" t="s">
+        <v>674</v>
+      </c>
+      <c r="X39" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>666</v>
       </c>
       <c r="Z39" t="s">
         <v>63</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>667</v>
       </c>
       <c r="AC39" s="48"/>
       <c r="AD39" t="s">
@@ -16701,11 +17421,17 @@
         <v>7</v>
       </c>
       <c r="I40" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="J40" t="s">
+        <v>665</v>
       </c>
       <c r="K40" t="s">
         <v>343</v>
       </c>
+      <c r="L40" t="s">
+        <v>667</v>
+      </c>
       <c r="M40" t="s">
         <v>344</v>
       </c>
@@ -16715,14 +17441,35 @@
       <c r="Q40" t="s">
         <v>161</v>
       </c>
+      <c r="R40" t="s">
+        <v>665</v>
+      </c>
       <c r="S40" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T40" t="s">
+        <v>665</v>
+      </c>
+      <c r="U40" t="s">
+        <v>666</v>
+      </c>
+      <c r="V40" t="s">
+        <v>666</v>
+      </c>
+      <c r="W40" t="s">
+        <v>674</v>
+      </c>
+      <c r="X40" t="s">
+        <v>674</v>
       </c>
       <c r="Y40" t="s">
         <v>38</v>
       </c>
       <c r="Z40" t="s">
         <v>63</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>667</v>
       </c>
       <c r="AC40" s="48"/>
       <c r="AD40" t="s">
@@ -16772,9 +17519,15 @@
       <c r="I41" t="s">
         <v>32</v>
       </c>
+      <c r="J41" t="s">
+        <v>665</v>
+      </c>
       <c r="K41" t="s">
         <v>459</v>
       </c>
+      <c r="L41" t="s">
+        <v>667</v>
+      </c>
       <c r="M41" t="s">
         <v>143</v>
       </c>
@@ -16787,14 +17540,35 @@
       <c r="R41">
         <v>61</v>
       </c>
+      <c r="S41" t="s">
+        <v>665</v>
+      </c>
+      <c r="T41" t="s">
+        <v>665</v>
+      </c>
+      <c r="U41" t="s">
+        <v>666</v>
+      </c>
+      <c r="V41" t="s">
+        <v>666</v>
+      </c>
+      <c r="W41" t="s">
+        <v>674</v>
+      </c>
       <c r="X41" t="s">
         <v>461</v>
       </c>
+      <c r="Y41" t="s">
+        <v>666</v>
+      </c>
       <c r="Z41" t="s">
         <v>41</v>
       </c>
       <c r="AB41" t="s">
         <v>462</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>665</v>
       </c>
       <c r="AH41" t="s">
         <v>463</v>
@@ -16834,9 +17608,18 @@
       <c r="H42">
         <v>46</v>
       </c>
+      <c r="I42" t="s">
+        <v>665</v>
+      </c>
+      <c r="J42" t="s">
+        <v>665</v>
+      </c>
       <c r="K42" t="s">
         <v>466</v>
       </c>
+      <c r="L42" t="s">
+        <v>667</v>
+      </c>
       <c r="M42" t="s">
         <v>34</v>
       </c>
@@ -16846,14 +17629,38 @@
       <c r="Q42" t="s">
         <v>467</v>
       </c>
+      <c r="R42" t="s">
+        <v>665</v>
+      </c>
+      <c r="S42" t="s">
+        <v>665</v>
+      </c>
+      <c r="T42" t="s">
+        <v>665</v>
+      </c>
+      <c r="U42" t="s">
+        <v>666</v>
+      </c>
+      <c r="V42" t="s">
+        <v>666</v>
+      </c>
+      <c r="W42" t="s">
+        <v>674</v>
+      </c>
       <c r="X42" t="s">
         <v>468</v>
       </c>
+      <c r="Y42" t="s">
+        <v>666</v>
+      </c>
       <c r="Z42" t="s">
         <v>41</v>
       </c>
       <c r="AB42" t="s">
         <v>462</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>665</v>
       </c>
       <c r="AH42" t="s">
         <v>469</v>
@@ -16896,9 +17703,15 @@
       <c r="I43" t="s">
         <v>474</v>
       </c>
+      <c r="J43" t="s">
+        <v>665</v>
+      </c>
       <c r="K43" t="s">
         <v>475</v>
       </c>
+      <c r="L43" t="s">
+        <v>667</v>
+      </c>
       <c r="M43" t="s">
         <v>476</v>
       </c>
@@ -16912,13 +17725,25 @@
         <v>21</v>
       </c>
       <c r="S43" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T43" t="s">
+        <v>665</v>
       </c>
       <c r="U43" t="s">
         <v>478</v>
       </c>
       <c r="V43" t="s">
         <v>479</v>
+      </c>
+      <c r="W43" t="s">
+        <v>674</v>
+      </c>
+      <c r="X43" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>666</v>
       </c>
       <c r="Z43" t="s">
         <v>63</v>
@@ -16970,11 +17795,14 @@
       <c r="I44" t="s">
         <v>32</v>
       </c>
+      <c r="J44" t="s">
+        <v>665</v>
+      </c>
       <c r="K44" t="s">
         <v>483</v>
       </c>
       <c r="L44" t="s">
-        <v>135</v>
+        <v>564</v>
       </c>
       <c r="M44" t="s">
         <v>484</v>
@@ -16989,13 +17817,25 @@
         <v>21</v>
       </c>
       <c r="S44" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T44" t="s">
+        <v>665</v>
       </c>
       <c r="U44" t="s">
         <v>478</v>
       </c>
       <c r="V44" t="s">
-        <v>40</v>
+        <v>89</v>
+      </c>
+      <c r="W44" t="s">
+        <v>674</v>
+      </c>
+      <c r="X44" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>666</v>
       </c>
       <c r="Z44" t="s">
         <v>110</v>
@@ -17004,13 +17844,13 @@
         <v>480</v>
       </c>
       <c r="AD44" t="s">
+        <v>480</v>
+      </c>
+      <c r="AH44" t="s">
         <v>486</v>
       </c>
-      <c r="AH44" t="s">
+      <c r="AI44" t="s">
         <v>487</v>
-      </c>
-      <c r="AI44" t="s">
-        <v>488</v>
       </c>
       <c r="AJ44" t="s">
         <v>390</v>
@@ -17033,13 +17873,13 @@
         <v>7301</v>
       </c>
       <c r="E45" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F45" t="s">
         <v>56</v>
       </c>
       <c r="G45" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H45">
         <v>26</v>
@@ -17047,41 +17887,62 @@
       <c r="I45" t="s">
         <v>474</v>
       </c>
+      <c r="J45" t="s">
+        <v>665</v>
+      </c>
       <c r="K45" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L45" t="s">
         <v>479</v>
       </c>
       <c r="M45" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="P45" t="s">
         <v>137</v>
       </c>
       <c r="Q45" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="R45">
         <v>24</v>
       </c>
       <c r="S45" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T45" t="s">
+        <v>665</v>
       </c>
       <c r="U45" t="s">
         <v>38</v>
       </c>
+      <c r="V45" t="s">
+        <v>666</v>
+      </c>
+      <c r="W45" t="s">
+        <v>674</v>
+      </c>
+      <c r="X45" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>666</v>
+      </c>
       <c r="Z45" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AB45" t="s">
         <v>462</v>
       </c>
+      <c r="AD45" t="s">
+        <v>665</v>
+      </c>
       <c r="AH45" t="s">
+        <v>494</v>
+      </c>
+      <c r="AI45" t="s">
         <v>495</v>
-      </c>
-      <c r="AI45" t="s">
-        <v>496</v>
       </c>
       <c r="AJ45" t="s">
         <v>396</v>
@@ -17104,40 +17965,61 @@
         <v>11101</v>
       </c>
       <c r="E46" t="s">
+        <v>496</v>
+      </c>
+      <c r="F46" t="s">
         <v>497</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>498</v>
-      </c>
-      <c r="G46" t="s">
-        <v>499</v>
       </c>
       <c r="H46">
         <v>21</v>
       </c>
+      <c r="I46" t="s">
+        <v>665</v>
+      </c>
+      <c r="J46" t="s">
+        <v>665</v>
+      </c>
       <c r="K46" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L46" t="s">
         <v>479</v>
       </c>
       <c r="M46" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="P46" t="s">
         <v>60</v>
       </c>
       <c r="Q46" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="R46">
         <v>42</v>
       </c>
       <c r="S46" t="s">
-        <v>503</v>
+        <v>672</v>
+      </c>
+      <c r="T46" t="s">
+        <v>665</v>
+      </c>
+      <c r="U46" t="s">
+        <v>666</v>
       </c>
       <c r="V46" t="s">
-        <v>504</v>
+        <v>502</v>
+      </c>
+      <c r="W46" t="s">
+        <v>674</v>
+      </c>
+      <c r="X46" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>666</v>
       </c>
       <c r="Z46" t="s">
         <v>128</v>
@@ -17146,13 +18028,13 @@
         <v>462</v>
       </c>
       <c r="AD46" t="s">
+        <v>503</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>504</v>
+      </c>
+      <c r="AI46" t="s">
         <v>505</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>506</v>
-      </c>
-      <c r="AI46" t="s">
-        <v>507</v>
       </c>
       <c r="AJ46" t="s">
         <v>413</v>
@@ -17175,55 +18057,76 @@
         <v>16205</v>
       </c>
       <c r="E47" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F47" t="s">
         <v>415</v>
       </c>
       <c r="G47" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H47">
         <v>42</v>
       </c>
+      <c r="I47" t="s">
+        <v>665</v>
+      </c>
+      <c r="J47" t="s">
+        <v>665</v>
+      </c>
       <c r="K47" t="s">
+        <v>508</v>
+      </c>
+      <c r="L47" t="s">
+        <v>667</v>
+      </c>
+      <c r="M47" t="s">
+        <v>509</v>
+      </c>
+      <c r="P47" t="s">
         <v>510</v>
       </c>
-      <c r="M47" t="s">
+      <c r="Q47" t="s">
         <v>511</v>
-      </c>
-      <c r="P47" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>513</v>
       </c>
       <c r="R47">
         <v>44</v>
       </c>
       <c r="S47" t="s">
-        <v>514</v>
+        <v>32</v>
+      </c>
+      <c r="T47" t="s">
+        <v>665</v>
       </c>
       <c r="U47" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="V47" t="s">
-        <v>504</v>
+        <v>502</v>
+      </c>
+      <c r="W47" t="s">
+        <v>674</v>
+      </c>
+      <c r="X47" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>666</v>
       </c>
       <c r="Z47" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AB47" t="s">
         <v>480</v>
       </c>
       <c r="AD47" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AH47" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AI47" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AJ47" t="s">
         <v>418</v>
@@ -17252,52 +18155,70 @@
         <v>158</v>
       </c>
       <c r="G48" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H48">
         <v>33</v>
       </c>
       <c r="I48" t="s">
+        <v>517</v>
+      </c>
+      <c r="J48" t="s">
+        <v>665</v>
+      </c>
+      <c r="K48" t="s">
+        <v>518</v>
+      </c>
+      <c r="L48" t="s">
+        <v>667</v>
+      </c>
+      <c r="M48" t="s">
+        <v>519</v>
+      </c>
+      <c r="P48" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q48" t="s">
         <v>520</v>
-      </c>
-      <c r="K48" t="s">
-        <v>521</v>
-      </c>
-      <c r="M48" t="s">
-        <v>522</v>
-      </c>
-      <c r="P48" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>523</v>
       </c>
       <c r="R48">
         <v>27</v>
       </c>
       <c r="S48" t="s">
-        <v>524</v>
+        <v>248</v>
+      </c>
+      <c r="T48" t="s">
+        <v>665</v>
       </c>
       <c r="U48" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="V48" t="s">
         <v>479</v>
       </c>
+      <c r="W48" t="s">
+        <v>674</v>
+      </c>
+      <c r="X48" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>666</v>
+      </c>
       <c r="Z48" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AB48" t="s">
         <v>480</v>
       </c>
       <c r="AD48" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AH48" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="AI48" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AJ48" t="s">
         <v>393</v>
@@ -17326,7 +18247,7 @@
         <v>98</v>
       </c>
       <c r="G49" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H49">
         <v>63</v>
@@ -17334,44 +18255,59 @@
       <c r="I49" t="s">
         <v>474</v>
       </c>
+      <c r="J49" t="s">
+        <v>665</v>
+      </c>
       <c r="K49" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="L49" t="s">
         <v>479</v>
       </c>
       <c r="M49" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="P49" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="Q49" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="R49">
         <v>40</v>
       </c>
       <c r="S49" t="s">
-        <v>514</v>
+        <v>32</v>
+      </c>
+      <c r="T49" t="s">
+        <v>665</v>
       </c>
       <c r="U49" t="s">
-        <v>504</v>
+        <v>502</v>
+      </c>
+      <c r="V49" t="s">
+        <v>666</v>
+      </c>
+      <c r="W49" t="s">
+        <v>674</v>
       </c>
       <c r="X49" t="s">
-        <v>532</v>
+        <v>675</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>666</v>
       </c>
       <c r="Z49" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AB49" t="s">
         <v>480</v>
       </c>
       <c r="AD49" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AH49" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="AJ49" t="s">
         <v>392</v>
@@ -17400,43 +18336,70 @@
         <v>423</v>
       </c>
       <c r="G50" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="H50">
         <v>35</v>
       </c>
       <c r="I50" t="s">
-        <v>535</v>
+        <v>530</v>
+      </c>
+      <c r="J50" t="s">
+        <v>665</v>
       </c>
       <c r="K50" t="s">
-        <v>536</v>
+        <v>531</v>
+      </c>
+      <c r="L50" t="s">
+        <v>667</v>
       </c>
       <c r="M50" t="s">
         <v>143</v>
       </c>
       <c r="P50" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Q50" t="s">
-        <v>537</v>
+        <v>532</v>
+      </c>
+      <c r="R50" t="s">
+        <v>665</v>
+      </c>
+      <c r="S50" t="s">
+        <v>665</v>
+      </c>
+      <c r="T50" t="s">
+        <v>665</v>
       </c>
       <c r="U50" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="V50" t="s">
         <v>479</v>
       </c>
+      <c r="W50" t="s">
+        <v>674</v>
+      </c>
+      <c r="X50" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>666</v>
+      </c>
       <c r="Z50" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AB50" t="s">
         <v>462</v>
       </c>
+      <c r="AD50" t="s">
+        <v>665</v>
+      </c>
       <c r="AH50" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="AI50" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="AJ50" t="s">
         <v>426</v>
@@ -17465,7 +18428,7 @@
         <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="H51">
         <v>24</v>
@@ -17473,23 +18436,32 @@
       <c r="I51" t="s">
         <v>474</v>
       </c>
+      <c r="J51" t="s">
+        <v>665</v>
+      </c>
       <c r="K51" t="s">
-        <v>541</v>
+        <v>536</v>
+      </c>
+      <c r="L51" t="s">
+        <v>667</v>
       </c>
       <c r="M51" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="P51" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Q51" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="R51">
         <v>33</v>
       </c>
       <c r="S51" t="s">
-        <v>514</v>
+        <v>32</v>
+      </c>
+      <c r="T51" t="s">
+        <v>665</v>
       </c>
       <c r="U51" t="s">
         <v>478</v>
@@ -17497,17 +18469,29 @@
       <c r="V51" t="s">
         <v>479</v>
       </c>
+      <c r="W51" t="s">
+        <v>674</v>
+      </c>
+      <c r="X51" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>666</v>
+      </c>
       <c r="Z51" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AB51" t="s">
         <v>462</v>
       </c>
+      <c r="AD51" t="s">
+        <v>665</v>
+      </c>
       <c r="AH51" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="AI51" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="AJ51" t="s">
         <v>387</v>
@@ -17530,13 +18514,13 @@
         <v>7201</v>
       </c>
       <c r="E52" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F52" t="s">
         <v>56</v>
       </c>
       <c r="G52" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="H52">
         <v>36</v>
@@ -17544,41 +18528,62 @@
       <c r="I52" t="s">
         <v>474</v>
       </c>
+      <c r="J52" t="s">
+        <v>665</v>
+      </c>
       <c r="K52" t="s">
-        <v>547</v>
+        <v>542</v>
+      </c>
+      <c r="L52" t="s">
+        <v>667</v>
       </c>
       <c r="M52" t="s">
         <v>484</v>
       </c>
       <c r="P52" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="Q52" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="R52">
         <v>31</v>
       </c>
+      <c r="S52" t="s">
+        <v>665</v>
+      </c>
+      <c r="T52" t="s">
+        <v>665</v>
+      </c>
       <c r="U52" t="s">
-        <v>504</v>
+        <v>502</v>
+      </c>
+      <c r="V52" t="s">
+        <v>666</v>
+      </c>
+      <c r="W52" t="s">
+        <v>674</v>
       </c>
       <c r="X52" t="s">
-        <v>549</v>
+        <v>544</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>666</v>
       </c>
       <c r="Z52" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="AB52" t="s">
         <v>480</v>
       </c>
       <c r="AD52" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AH52" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="AI52" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="AJ52" t="s">
         <v>396</v>
@@ -17601,13 +18606,13 @@
         <v>7101</v>
       </c>
       <c r="E53" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F53" t="s">
         <v>56</v>
       </c>
       <c r="G53" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="H53">
         <v>20</v>
@@ -17615,8 +18620,14 @@
       <c r="I53" t="s">
         <v>32</v>
       </c>
+      <c r="J53" t="s">
+        <v>665</v>
+      </c>
       <c r="K53" t="s">
-        <v>555</v>
+        <v>550</v>
+      </c>
+      <c r="L53" t="s">
+        <v>667</v>
       </c>
       <c r="M53" t="s">
         <v>34</v>
@@ -17625,28 +18636,46 @@
         <v>35</v>
       </c>
       <c r="Q53" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="R53">
         <v>22</v>
       </c>
       <c r="S53" t="s">
-        <v>514</v>
+        <v>32</v>
+      </c>
+      <c r="T53" t="s">
+        <v>665</v>
       </c>
       <c r="U53" t="s">
-        <v>504</v>
+        <v>502</v>
+      </c>
+      <c r="V53" t="s">
+        <v>666</v>
+      </c>
+      <c r="W53" t="s">
+        <v>674</v>
+      </c>
+      <c r="X53" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>666</v>
       </c>
       <c r="Z53" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AB53" t="s">
         <v>462</v>
       </c>
+      <c r="AD53" t="s">
+        <v>665</v>
+      </c>
       <c r="AH53" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="AI53" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="AJ53" t="s">
         <v>396</v>
@@ -17675,7 +18704,7 @@
         <v>430</v>
       </c>
       <c r="G54" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H54">
         <v>26</v>
@@ -17683,8 +18712,14 @@
       <c r="I54" t="s">
         <v>32</v>
       </c>
+      <c r="J54" t="s">
+        <v>665</v>
+      </c>
       <c r="K54" t="s">
-        <v>560</v>
+        <v>555</v>
+      </c>
+      <c r="L54" t="s">
+        <v>667</v>
       </c>
       <c r="M54" t="s">
         <v>34</v>
@@ -17693,31 +18728,46 @@
         <v>35</v>
       </c>
       <c r="Q54" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="R54">
         <v>37</v>
       </c>
       <c r="S54" t="s">
-        <v>514</v>
+        <v>32</v>
+      </c>
+      <c r="T54" t="s">
+        <v>665</v>
       </c>
       <c r="U54" t="s">
-        <v>504</v>
+        <v>502</v>
+      </c>
+      <c r="V54" t="s">
+        <v>666</v>
+      </c>
+      <c r="W54" t="s">
+        <v>674</v>
       </c>
       <c r="X54" t="s">
-        <v>562</v>
+        <v>557</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>666</v>
       </c>
       <c r="Z54" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AB54" t="s">
         <v>462</v>
       </c>
+      <c r="AD54" t="s">
+        <v>665</v>
+      </c>
       <c r="AH54" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="AI54" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="AJ54" t="s">
         <v>387</v>
@@ -17740,13 +18790,13 @@
         <v>13401</v>
       </c>
       <c r="E55" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F55" t="s">
         <v>75</v>
       </c>
       <c r="G55" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="H55">
         <v>67</v>
@@ -17755,49 +18805,61 @@
         <v>32</v>
       </c>
       <c r="J55" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="K55" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="L55" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="M55" t="s">
         <v>476</v>
       </c>
       <c r="P55" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="Q55" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="R55">
         <v>40</v>
       </c>
       <c r="S55" t="s">
-        <v>514</v>
+        <v>32</v>
+      </c>
+      <c r="T55" t="s">
+        <v>665</v>
       </c>
       <c r="U55" t="s">
-        <v>504</v>
+        <v>502</v>
+      </c>
+      <c r="V55" t="s">
+        <v>666</v>
+      </c>
+      <c r="W55" t="s">
+        <v>674</v>
       </c>
       <c r="X55" t="s">
-        <v>571</v>
+        <v>566</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>666</v>
       </c>
       <c r="Z55" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="AB55" t="s">
         <v>462</v>
       </c>
       <c r="AD55" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AH55" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AI55" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="AJ55" t="s">
         <v>390</v>
@@ -17820,13 +18882,13 @@
         <v>13130</v>
       </c>
       <c r="E56" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F56" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G56" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H56">
         <v>52</v>
@@ -17834,8 +18896,14 @@
       <c r="I56" t="s">
         <v>474</v>
       </c>
+      <c r="J56" t="s">
+        <v>665</v>
+      </c>
       <c r="K56" t="s">
-        <v>578</v>
+        <v>573</v>
+      </c>
+      <c r="L56" t="s">
+        <v>667</v>
       </c>
       <c r="M56" t="s">
         <v>34</v>
@@ -17844,37 +18912,46 @@
         <v>35</v>
       </c>
       <c r="Q56" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="R56">
         <v>32</v>
       </c>
       <c r="S56" t="s">
-        <v>514</v>
+        <v>32</v>
+      </c>
+      <c r="T56" t="s">
+        <v>665</v>
       </c>
       <c r="U56" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="V56" t="s">
-        <v>504</v>
+        <v>502</v>
+      </c>
+      <c r="W56" t="s">
+        <v>674</v>
       </c>
       <c r="X56" t="s">
-        <v>580</v>
+        <v>575</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>666</v>
       </c>
       <c r="Z56" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="AB56" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="AD56" t="s">
         <v>103</v>
       </c>
       <c r="AH56" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="AI56" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="AJ56" t="s">
         <v>390</v>
@@ -17897,13 +18974,13 @@
         <v>5701</v>
       </c>
       <c r="E57" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F57" t="s">
         <v>406</v>
       </c>
       <c r="G57" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="H57">
         <v>45</v>
@@ -17912,10 +18989,13 @@
         <v>32</v>
       </c>
       <c r="J57" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="K57" t="s">
-        <v>588</v>
+        <v>583</v>
+      </c>
+      <c r="L57" t="s">
+        <v>667</v>
       </c>
       <c r="M57" t="s">
         <v>87</v>
@@ -17924,31 +19004,46 @@
         <v>35</v>
       </c>
       <c r="Q57" t="s">
-        <v>88</v>
+        <v>671</v>
+      </c>
+      <c r="R57" t="s">
+        <v>665</v>
+      </c>
+      <c r="S57" t="s">
+        <v>665</v>
+      </c>
+      <c r="T57" t="s">
+        <v>665</v>
       </c>
       <c r="U57" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="V57" t="s">
-        <v>504</v>
+        <v>502</v>
+      </c>
+      <c r="W57" t="s">
+        <v>674</v>
       </c>
       <c r="X57" t="s">
-        <v>589</v>
+        <v>584</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>666</v>
       </c>
       <c r="Z57" t="s">
         <v>146</v>
       </c>
       <c r="AB57" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AD57" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="AH57" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AI57" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="AJ57" t="s">
         <v>392</v>
@@ -17977,7 +19072,7 @@
         <v>98</v>
       </c>
       <c r="G58" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="H58">
         <v>38</v>
@@ -17985,8 +19080,14 @@
       <c r="I58" t="s">
         <v>32</v>
       </c>
+      <c r="J58" t="s">
+        <v>665</v>
+      </c>
       <c r="K58" t="s">
-        <v>594</v>
+        <v>589</v>
+      </c>
+      <c r="L58" t="s">
+        <v>667</v>
       </c>
       <c r="M58" t="s">
         <v>34</v>
@@ -17995,13 +19096,31 @@
         <v>35</v>
       </c>
       <c r="Q58" t="s">
-        <v>88</v>
+        <v>671</v>
+      </c>
+      <c r="R58" t="s">
+        <v>665</v>
+      </c>
+      <c r="S58" t="s">
+        <v>665</v>
+      </c>
+      <c r="T58" t="s">
+        <v>665</v>
       </c>
       <c r="U58" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="V58" t="s">
-        <v>504</v>
+        <v>502</v>
+      </c>
+      <c r="W58" t="s">
+        <v>674</v>
+      </c>
+      <c r="X58" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>666</v>
       </c>
       <c r="Z58" t="s">
         <v>146</v>
@@ -18013,10 +19132,10 @@
         <v>480</v>
       </c>
       <c r="AH58" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="AI58" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="AJ58" t="s">
         <v>392</v>
@@ -18045,7 +19164,7 @@
         <v>321</v>
       </c>
       <c r="G59" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="H59">
         <v>26</v>
@@ -18053,8 +19172,14 @@
       <c r="I59" t="s">
         <v>32</v>
       </c>
+      <c r="J59" t="s">
+        <v>665</v>
+      </c>
       <c r="K59" t="s">
-        <v>598</v>
+        <v>593</v>
+      </c>
+      <c r="L59" t="s">
+        <v>667</v>
       </c>
       <c r="M59" t="s">
         <v>34</v>
@@ -18063,22 +19188,31 @@
         <v>35</v>
       </c>
       <c r="Q59" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="R59">
         <v>31</v>
       </c>
       <c r="S59" t="s">
-        <v>514</v>
+        <v>32</v>
+      </c>
+      <c r="T59" t="s">
+        <v>665</v>
       </c>
       <c r="U59" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="V59" t="s">
-        <v>504</v>
+        <v>502</v>
+      </c>
+      <c r="W59" t="s">
+        <v>674</v>
       </c>
       <c r="X59" t="s">
-        <v>600</v>
+        <v>595</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>666</v>
       </c>
       <c r="Z59" t="s">
         <v>146</v>
@@ -18086,11 +19220,14 @@
       <c r="AB59" t="s">
         <v>480</v>
       </c>
+      <c r="AD59" t="s">
+        <v>665</v>
+      </c>
       <c r="AH59" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="AI59" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="AJ59" t="s">
         <v>452</v>
@@ -18119,7 +19256,7 @@
         <v>75</v>
       </c>
       <c r="G60" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="H60">
         <v>28</v>
@@ -18127,8 +19264,14 @@
       <c r="I60" t="s">
         <v>474</v>
       </c>
+      <c r="J60" t="s">
+        <v>665</v>
+      </c>
       <c r="K60" t="s">
-        <v>604</v>
+        <v>599</v>
+      </c>
+      <c r="L60" t="s">
+        <v>667</v>
       </c>
       <c r="M60" t="s">
         <v>34</v>
@@ -18137,13 +19280,31 @@
         <v>35</v>
       </c>
       <c r="Q60" t="s">
-        <v>605</v>
+        <v>600</v>
+      </c>
+      <c r="R60" t="s">
+        <v>665</v>
+      </c>
+      <c r="S60" t="s">
+        <v>665</v>
+      </c>
+      <c r="T60" t="s">
+        <v>665</v>
       </c>
       <c r="U60" t="s">
-        <v>504</v>
+        <v>502</v>
+      </c>
+      <c r="V60" t="s">
+        <v>666</v>
+      </c>
+      <c r="W60" t="s">
+        <v>674</v>
       </c>
       <c r="X60" t="s">
-        <v>606</v>
+        <v>601</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>666</v>
       </c>
       <c r="Z60" t="s">
         <v>146</v>
@@ -18155,10 +19316,10 @@
         <v>462</v>
       </c>
       <c r="AH60" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="AI60" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="AJ60" t="s">
         <v>390</v>
@@ -18184,10 +19345,10 @@
         <v>56</v>
       </c>
       <c r="F61" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G61" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="H61">
         <v>36</v>
@@ -18195,8 +19356,14 @@
       <c r="I61" t="s">
         <v>32</v>
       </c>
+      <c r="J61" t="s">
+        <v>665</v>
+      </c>
       <c r="K61" t="s">
-        <v>611</v>
+        <v>606</v>
+      </c>
+      <c r="L61" t="s">
+        <v>667</v>
       </c>
       <c r="M61" t="s">
         <v>34</v>
@@ -18205,28 +19372,46 @@
         <v>35</v>
       </c>
       <c r="Q61" t="s">
-        <v>612</v>
+        <v>607</v>
+      </c>
+      <c r="R61" t="s">
+        <v>665</v>
+      </c>
+      <c r="S61" t="s">
+        <v>665</v>
+      </c>
+      <c r="T61" t="s">
+        <v>665</v>
       </c>
       <c r="U61" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="V61" t="s">
-        <v>504</v>
+        <v>502</v>
+      </c>
+      <c r="W61" t="s">
+        <v>674</v>
+      </c>
+      <c r="X61" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>666</v>
       </c>
       <c r="Z61" t="s">
         <v>146</v>
       </c>
       <c r="AB61" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AD61" t="s">
         <v>480</v>
       </c>
       <c r="AH61" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="AI61" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="AJ61" t="s">
         <v>396</v>
@@ -18255,7 +19440,7 @@
         <v>321</v>
       </c>
       <c r="G62" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="H62">
         <v>54</v>
@@ -18263,44 +19448,62 @@
       <c r="I62" t="s">
         <v>474</v>
       </c>
+      <c r="J62" t="s">
+        <v>665</v>
+      </c>
       <c r="K62" t="s">
-        <v>616</v>
+        <v>611</v>
+      </c>
+      <c r="L62" t="s">
+        <v>667</v>
       </c>
       <c r="M62" t="s">
         <v>476</v>
       </c>
       <c r="P62" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="Q62" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="R62">
         <v>23</v>
       </c>
       <c r="S62" t="s">
-        <v>514</v>
+        <v>32</v>
+      </c>
+      <c r="T62" t="s">
+        <v>665</v>
       </c>
       <c r="U62" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="V62" t="s">
-        <v>504</v>
+        <v>502</v>
+      </c>
+      <c r="W62" t="s">
+        <v>674</v>
+      </c>
+      <c r="X62" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>666</v>
       </c>
       <c r="Z62" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="AB62" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AD62" t="s">
         <v>480</v>
       </c>
       <c r="AH62" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="AI62" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="AJ62" t="s">
         <v>452</v>
@@ -18323,13 +19526,13 @@
         <v>8108</v>
       </c>
       <c r="E63" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="F63" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="G63" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="H63">
         <v>66</v>
@@ -18337,8 +19540,14 @@
       <c r="I63" t="s">
         <v>474</v>
       </c>
+      <c r="J63" t="s">
+        <v>665</v>
+      </c>
       <c r="K63" t="s">
-        <v>623</v>
+        <v>618</v>
+      </c>
+      <c r="L63" t="s">
+        <v>667</v>
       </c>
       <c r="M63" t="s">
         <v>143</v>
@@ -18347,34 +19556,46 @@
         <v>35</v>
       </c>
       <c r="Q63" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="R63">
         <v>73</v>
       </c>
+      <c r="S63" t="s">
+        <v>665</v>
+      </c>
+      <c r="T63" t="s">
+        <v>665</v>
+      </c>
       <c r="U63" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="V63" t="s">
         <v>479</v>
       </c>
+      <c r="W63" t="s">
+        <v>674</v>
+      </c>
       <c r="X63" t="s">
-        <v>625</v>
+        <v>620</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>666</v>
       </c>
       <c r="Z63" t="s">
         <v>146</v>
       </c>
       <c r="AB63" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AD63" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AH63" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="AI63" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="AJ63" t="s">
         <v>391</v>
@@ -18403,52 +19624,70 @@
         <v>430</v>
       </c>
       <c r="G64" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="H64">
         <v>25</v>
       </c>
       <c r="I64" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="J64" t="s">
+        <v>665</v>
       </c>
       <c r="K64" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="L64" t="s">
         <v>479</v>
       </c>
       <c r="M64" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="P64" t="s">
-        <v>631</v>
+        <v>668</v>
       </c>
       <c r="Q64" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="R64">
         <v>58</v>
       </c>
       <c r="S64" t="s">
-        <v>514</v>
+        <v>32</v>
+      </c>
+      <c r="T64" t="s">
+        <v>665</v>
       </c>
       <c r="U64" t="s">
-        <v>504</v>
+        <v>502</v>
+      </c>
+      <c r="V64" t="s">
+        <v>666</v>
+      </c>
+      <c r="W64" t="s">
+        <v>674</v>
+      </c>
+      <c r="X64" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>666</v>
       </c>
       <c r="Z64" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="AB64" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AD64" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AH64" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="AI64" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="AJ64" t="s">
         <v>387</v>
@@ -18486,46 +19725,61 @@
         <v>32</v>
       </c>
       <c r="J65" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="K65" t="s">
-        <v>637</v>
+        <v>631</v>
+      </c>
+      <c r="L65" t="s">
+        <v>667</v>
       </c>
       <c r="M65" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="P65" t="s">
         <v>35</v>
       </c>
       <c r="Q65" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="R65">
         <v>36</v>
       </c>
       <c r="S65" t="s">
-        <v>639</v>
+        <v>673</v>
+      </c>
+      <c r="T65" t="s">
+        <v>665</v>
       </c>
       <c r="U65" t="s">
         <v>38</v>
       </c>
+      <c r="V65" t="s">
+        <v>666</v>
+      </c>
+      <c r="W65" t="s">
+        <v>674</v>
+      </c>
       <c r="X65" t="s">
-        <v>640</v>
+        <v>633</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>666</v>
       </c>
       <c r="Z65" t="s">
         <v>146</v>
       </c>
       <c r="AB65" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AD65" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="AH65" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="AI65" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="AJ65" t="s">
         <v>390</v>
@@ -18554,7 +19808,7 @@
         <v>98</v>
       </c>
       <c r="G66" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="H66">
         <v>40</v>
@@ -18562,11 +19816,14 @@
       <c r="I66" t="s">
         <v>32</v>
       </c>
+      <c r="J66" t="s">
+        <v>665</v>
+      </c>
       <c r="K66" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="L66" t="s">
-        <v>135</v>
+        <v>564</v>
       </c>
       <c r="M66" t="s">
         <v>87</v>
@@ -18575,25 +19832,37 @@
         <v>35</v>
       </c>
       <c r="Q66" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="R66">
         <v>30</v>
       </c>
       <c r="S66" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T66" t="s">
+        <v>665</v>
       </c>
       <c r="U66" t="s">
         <v>38</v>
       </c>
+      <c r="V66" t="s">
+        <v>666</v>
+      </c>
+      <c r="W66" t="s">
+        <v>674</v>
+      </c>
       <c r="X66" t="s">
-        <v>647</v>
+        <v>640</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>666</v>
       </c>
       <c r="Z66" t="s">
         <v>146</v>
       </c>
       <c r="AA66" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="AB66" t="s">
         <v>462</v>
@@ -18602,10 +19871,10 @@
         <v>462</v>
       </c>
       <c r="AH66" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="AI66" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="AJ66" t="s">
         <v>392</v>
@@ -18628,19 +19897,28 @@
         <v>5502</v>
       </c>
       <c r="E67" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="F67" t="s">
         <v>98</v>
       </c>
       <c r="G67" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="H67">
         <v>46</v>
       </c>
+      <c r="I67" t="s">
+        <v>665</v>
+      </c>
+      <c r="J67" t="s">
+        <v>665</v>
+      </c>
       <c r="K67" t="s">
-        <v>653</v>
+        <v>646</v>
+      </c>
+      <c r="L67" t="s">
+        <v>667</v>
       </c>
       <c r="M67" t="s">
         <v>34</v>
@@ -18649,16 +19927,31 @@
         <v>35</v>
       </c>
       <c r="Q67" t="s">
-        <v>88</v>
+        <v>671</v>
       </c>
       <c r="R67">
         <v>57</v>
       </c>
+      <c r="S67" t="s">
+        <v>665</v>
+      </c>
+      <c r="T67" t="s">
+        <v>665</v>
+      </c>
       <c r="U67" t="s">
         <v>89</v>
       </c>
+      <c r="V67" t="s">
+        <v>666</v>
+      </c>
+      <c r="W67" t="s">
+        <v>674</v>
+      </c>
       <c r="X67" t="s">
-        <v>654</v>
+        <v>647</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>666</v>
       </c>
       <c r="Z67" t="s">
         <v>146</v>
@@ -18667,13 +19960,13 @@
         <v>271</v>
       </c>
       <c r="AD67" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="AH67" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="AI67" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="AJ67" t="s">
         <v>392</v>
@@ -18696,13 +19989,13 @@
         <v>10107</v>
       </c>
       <c r="E68" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="F68" t="s">
         <v>321</v>
       </c>
       <c r="G68" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="H68">
         <v>89</v>
@@ -18710,8 +20003,14 @@
       <c r="I68" t="s">
         <v>32</v>
       </c>
+      <c r="J68" t="s">
+        <v>665</v>
+      </c>
       <c r="K68" t="s">
-        <v>660</v>
+        <v>653</v>
+      </c>
+      <c r="L68" t="s">
+        <v>667</v>
       </c>
       <c r="M68" t="s">
         <v>476</v>
@@ -18720,34 +20019,49 @@
         <v>60</v>
       </c>
       <c r="Q68" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="R68">
         <v>53</v>
       </c>
       <c r="S68" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="T68" t="s">
+        <v>665</v>
       </c>
       <c r="U68" t="s">
         <v>479</v>
       </c>
+      <c r="V68" t="s">
+        <v>666</v>
+      </c>
+      <c r="W68" t="s">
+        <v>674</v>
+      </c>
+      <c r="X68" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>666</v>
+      </c>
       <c r="Z68" t="s">
         <v>63</v>
       </c>
       <c r="AB68" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="AD68" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="AH68" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="AI68" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="AJ68" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="AK68" t="s">
         <v>401</v>
@@ -18772,8 +20086,8 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19786,7 +21100,7 @@
       <c r="A27">
         <v>33</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="54">
         <v>44082</v>
       </c>
       <c r="C27">
@@ -19818,7 +21132,7 @@
       <c r="A28">
         <v>34</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="54">
         <v>44083</v>
       </c>
       <c r="C28">
@@ -19850,7 +21164,7 @@
       <c r="A29">
         <v>35</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="54">
         <v>44105</v>
       </c>
       <c r="C29">
@@ -19882,7 +21196,7 @@
       <c r="A30">
         <v>36</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="54">
         <v>44109</v>
       </c>
       <c r="C30">
@@ -19914,7 +21228,7 @@
       <c r="A31">
         <v>37</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="54">
         <v>44115</v>
       </c>
       <c r="C31">
@@ -19946,7 +21260,7 @@
       <c r="A32">
         <v>38</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="54">
         <v>44124</v>
       </c>
       <c r="C32">
@@ -19978,7 +21292,7 @@
       <c r="A33">
         <v>39</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="54">
         <v>44136</v>
       </c>
       <c r="C33">
@@ -20010,7 +21324,7 @@
       <c r="A34">
         <v>40</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="54">
         <v>44137</v>
       </c>
       <c r="C34">
@@ -20042,7 +21356,7 @@
       <c r="A35">
         <v>41</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="54">
         <v>44138</v>
       </c>
       <c r="C35">
@@ -20074,7 +21388,7 @@
       <c r="A36">
         <v>42</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="54">
         <v>44121</v>
       </c>
       <c r="C36">
@@ -20106,7 +21420,7 @@
       <c r="A37">
         <v>43</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="54">
         <v>44157</v>
       </c>
       <c r="C37">
@@ -20138,7 +21452,7 @@
       <c r="A38">
         <v>44</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="54">
         <v>44170</v>
       </c>
       <c r="C38">
@@ -20170,7 +21484,7 @@
       <c r="A39">
         <v>45</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="54">
         <v>44177</v>
       </c>
       <c r="C39">
@@ -20202,7 +21516,7 @@
       <c r="A40">
         <v>46</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="54">
         <v>44180</v>
       </c>
       <c r="C40">
@@ -20234,7 +21548,7 @@
       <c r="A41">
         <v>47</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="54">
         <v>44163</v>
       </c>
       <c r="C41">
@@ -20266,7 +21580,7 @@
       <c r="A42">
         <v>48</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="54">
         <v>44189</v>
       </c>
       <c r="C42">
@@ -20298,7 +21612,7 @@
       <c r="A43">
         <v>49</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="54">
         <v>44188</v>
       </c>
       <c r="C43">

--- a/Femicidios 2020.xlsx
+++ b/Femicidios 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-RIESGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933EB857-D881-4B66-BC16-A679D6CFFBCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAF2091-6DA4-4BEF-BC20-9BFD08A4DB25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="679">
   <si>
     <t>FEMICIDIOS 2020</t>
   </si>
@@ -1309,9 +1309,6 @@
     <t>Ñuble</t>
   </si>
   <si>
-    <t xml:space="preserve"> Carolina Fuentes Bustos</t>
-  </si>
-  <si>
     <t xml:space="preserve">"Fue encontrado el cuerpo sin vida de Carolina
 Fuentes Bustos, de 42 años, en la orilla del río Ñuble, quien se encontraba desaparecida desde el 30
 de junio. Tras peritajes, se pudo establecer que hubo intervención de terceros en su muerte y se
@@ -1355,9 +1352,6 @@
     <t xml:space="preserve">Talca </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lhysbet Ureta Méndez</t>
-  </si>
-  <si>
     <t>"Habría
  sido asesinada por su conviviente con arma blanca. El presunto autor el crimen se encuentra detenido
 y formalizado por el delito de femicidio consumado"</t>
@@ -1403,24 +1397,15 @@
     <t>Peñalolén</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jocelyn Hernández Jara</t>
-  </si>
-  <si>
     <t>"Fue asesinada por su conviviente con arma blanca. El autor del crimen se encuentra detenido y
 formalizado por el delito de femicidio"</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ignacia Kustmann Rojas</t>
-  </si>
-  <si>
     <t>"Con lesiones atribuibles a terceros, en el domicilio que
 compartía con su pareja. Este último es el principal sospechoso del crimen y se encuentra detenido"</t>
   </si>
   <si>
     <t>San Pedro de la Paz</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ana María Guerra Castañeda</t>
   </si>
   <si>
     <t xml:space="preserve">"Fue asesinada por su cónyuge de 73 años. El sujeto confesó su autoría y se encuentra
@@ -2119,6 +2104,27 @@
   </si>
   <si>
     <t>Detenido y formalizado</t>
+  </si>
+  <si>
+    <t>http://www.doble-espacio.uchile.cl/2020/07/08/los-12-femicidios-cometidos-durante-la-crisis-de-covid-19/</t>
+  </si>
+  <si>
+    <t>https://www.elmostrador.cl/braga/2020/06/22/mas-que-un-numero-las-21-mujeres-cuyas-vidas-han-sido-arrebatadas-por-femicidas-en-lo-que-va-del-2020/</t>
+  </si>
+  <si>
+    <t>https://www.24horas.cl/regiones/atacama/gobierno-confirma-femicidio-en-atacama-hombre-mato-a-ex-pareja-e-hijo-de-7-anos--4045320</t>
+  </si>
+  <si>
+    <t>Ignacia Kustmann Rojas</t>
+  </si>
+  <si>
+    <t>Ana María Guerra Castañeda</t>
+  </si>
+  <si>
+    <t>Jocelyn Hernández Jara</t>
+  </si>
+  <si>
+    <t>Lhysbet Ureta Méndez</t>
   </si>
 </sst>
 </file>
@@ -13455,7 +13461,7 @@
   <dimension ref="A1:AM68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13531,10 +13537,10 @@
         <v>11</v>
       </c>
       <c r="N1" s="49" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="O1" s="49" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="P1" t="s">
         <v>12</v>
@@ -13543,13 +13549,13 @@
         <v>13</v>
       </c>
       <c r="R1" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="S1" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="T1" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="U1" t="s">
         <v>14</v>
@@ -13638,13 +13644,13 @@
         <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K2" t="s">
         <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M2" t="s">
         <v>34</v>
@@ -13662,25 +13668,28 @@
         <v>32</v>
       </c>
       <c r="T2" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U2" t="s">
         <v>38</v>
       </c>
       <c r="V2" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W2" t="s">
         <v>39</v>
       </c>
       <c r="X2" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y2" t="s">
         <v>89</v>
       </c>
       <c r="Z2" t="s">
         <v>41</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>660</v>
       </c>
       <c r="AB2" t="s">
         <v>42</v>
@@ -13739,13 +13748,13 @@
         <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K3" t="s">
         <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M3" t="s">
         <v>34</v>
@@ -13763,25 +13772,28 @@
         <v>32</v>
       </c>
       <c r="T3" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U3" t="s">
         <v>51</v>
       </c>
       <c r="V3" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W3" t="s">
         <v>52</v>
       </c>
       <c r="X3" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y3" t="s">
         <v>89</v>
       </c>
       <c r="Z3" t="s">
         <v>41</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>660</v>
       </c>
       <c r="AB3" t="s">
         <v>42</v>
@@ -13838,13 +13850,13 @@
         <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K4" t="s">
         <v>58</v>
       </c>
       <c r="L4" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M4" t="s">
         <v>59</v>
@@ -13862,25 +13874,28 @@
         <v>32</v>
       </c>
       <c r="T4" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U4" t="s">
         <v>38</v>
       </c>
       <c r="V4" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W4" t="s">
         <v>62</v>
       </c>
       <c r="X4" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y4" t="s">
         <v>38</v>
       </c>
       <c r="Z4" t="s">
         <v>63</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>660</v>
       </c>
       <c r="AB4" t="s">
         <v>42</v>
@@ -13937,13 +13952,13 @@
         <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K5" t="s">
         <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M5" t="s">
         <v>34</v>
@@ -13961,25 +13976,28 @@
         <v>32</v>
       </c>
       <c r="T5" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U5" t="s">
         <v>51</v>
       </c>
       <c r="V5" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W5" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X5" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y5" t="s">
         <v>89</v>
       </c>
       <c r="Z5" t="s">
         <v>41</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>660</v>
       </c>
       <c r="AB5" t="s">
         <v>42</v>
@@ -14036,13 +14054,13 @@
         <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K6" t="s">
         <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M6" t="s">
         <v>34</v>
@@ -14072,13 +14090,16 @@
         <v>80</v>
       </c>
       <c r="X6" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y6" t="s">
         <v>89</v>
       </c>
       <c r="Z6" t="s">
         <v>41</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>660</v>
       </c>
       <c r="AB6" t="s">
         <v>42</v>
@@ -14135,13 +14156,13 @@
         <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K7" t="s">
         <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M7" t="s">
         <v>87</v>
@@ -14150,22 +14171,22 @@
         <v>35</v>
       </c>
       <c r="Q7" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="R7">
         <v>35</v>
       </c>
       <c r="S7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="T7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U7" t="s">
         <v>89</v>
       </c>
       <c r="V7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W7" t="s">
         <v>90</v>
@@ -14239,13 +14260,13 @@
         <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K8" t="s">
         <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M8" t="s">
         <v>87</v>
@@ -14254,34 +14275,37 @@
         <v>35</v>
       </c>
       <c r="Q8" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="R8" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="S8" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="T8" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U8" t="s">
         <v>38</v>
       </c>
       <c r="V8" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W8" t="s">
         <v>101</v>
       </c>
       <c r="X8" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y8" t="s">
         <v>38</v>
       </c>
       <c r="Z8" t="s">
         <v>102</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>660</v>
       </c>
       <c r="AB8" t="s">
         <v>103</v>
@@ -14338,13 +14362,13 @@
         <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K9" t="s">
         <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M9" t="s">
         <v>108</v>
@@ -14362,7 +14386,7 @@
         <v>32</v>
       </c>
       <c r="T9" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U9" t="s">
         <v>38</v>
@@ -14371,16 +14395,19 @@
         <v>38</v>
       </c>
       <c r="W9" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X9" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y9" t="s">
         <v>89</v>
       </c>
       <c r="Z9" t="s">
         <v>110</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>660</v>
       </c>
       <c r="AB9" t="s">
         <v>42</v>
@@ -14434,13 +14461,13 @@
         <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K10" t="s">
         <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M10" t="s">
         <v>116</v>
@@ -14458,7 +14485,7 @@
         <v>32</v>
       </c>
       <c r="T10" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U10" t="s">
         <v>38</v>
@@ -14470,13 +14497,16 @@
         <v>118</v>
       </c>
       <c r="X10" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y10" t="s">
         <v>38</v>
       </c>
       <c r="Z10" t="s">
         <v>119</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>660</v>
       </c>
       <c r="AB10" t="s">
         <v>42</v>
@@ -14566,16 +14596,19 @@
         <v>38</v>
       </c>
       <c r="W11" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X11" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y11" t="s">
         <v>89</v>
       </c>
       <c r="Z11" t="s">
         <v>128</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>660</v>
       </c>
       <c r="AB11" t="s">
         <v>42</v>
@@ -14632,13 +14665,13 @@
         <v>32</v>
       </c>
       <c r="J12" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K12" t="s">
         <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="M12" t="s">
         <v>136</v>
@@ -14650,25 +14683,25 @@
         <v>136</v>
       </c>
       <c r="R12" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="S12" t="s">
         <v>32</v>
       </c>
       <c r="T12" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U12" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="V12" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W12" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X12" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y12" t="s">
         <v>38</v>
@@ -14676,8 +14709,11 @@
       <c r="Z12" t="s">
         <v>92</v>
       </c>
+      <c r="AA12" t="s">
+        <v>660</v>
+      </c>
       <c r="AB12" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="AC12" s="48"/>
       <c r="AD12" t="s">
@@ -14731,13 +14767,13 @@
         <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K13" t="s">
         <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M13" t="s">
         <v>143</v>
@@ -14755,25 +14791,28 @@
         <v>32</v>
       </c>
       <c r="T13" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U13" t="s">
         <v>51</v>
       </c>
       <c r="V13" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W13" t="s">
         <v>145</v>
       </c>
       <c r="X13" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y13" t="s">
         <v>89</v>
       </c>
       <c r="Z13" t="s">
         <v>146</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>660</v>
       </c>
       <c r="AB13" t="s">
         <v>42</v>
@@ -14830,13 +14869,13 @@
         <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K14" t="s">
         <v>151</v>
       </c>
       <c r="L14" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M14" t="s">
         <v>34</v>
@@ -14854,16 +14893,16 @@
         <v>32</v>
       </c>
       <c r="T14" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U14" t="s">
         <v>38</v>
       </c>
       <c r="V14" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W14" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X14" t="s">
         <v>153</v>
@@ -14932,13 +14971,13 @@
         <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K15" t="s">
         <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M15" t="s">
         <v>34</v>
@@ -14950,25 +14989,25 @@
         <v>161</v>
       </c>
       <c r="R15" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="S15" t="s">
         <v>32</v>
       </c>
       <c r="T15" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U15" t="s">
         <v>89</v>
       </c>
       <c r="V15" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W15" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X15" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y15" t="s">
         <v>89</v>
@@ -14987,6 +15026,9 @@
       </c>
       <c r="AD15" t="s">
         <v>94</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>674</v>
       </c>
       <c r="AI15" t="s">
         <v>163</v>
@@ -15033,13 +15075,13 @@
         <v>32</v>
       </c>
       <c r="J16" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K16" t="s">
         <v>166</v>
       </c>
       <c r="L16" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M16" t="s">
         <v>143</v>
@@ -15057,13 +15099,13 @@
         <v>32</v>
       </c>
       <c r="T16" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U16" t="s">
         <v>89</v>
       </c>
       <c r="V16" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W16" t="s">
         <v>168</v>
@@ -15076,6 +15118,9 @@
       </c>
       <c r="Z16" t="s">
         <v>146</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>660</v>
       </c>
       <c r="AB16" t="s">
         <v>162</v>
@@ -15134,13 +15179,13 @@
         <v>32</v>
       </c>
       <c r="J17" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K17" t="s">
         <v>173</v>
       </c>
       <c r="L17" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M17" t="s">
         <v>87</v>
@@ -15152,31 +15197,34 @@
         <v>174</v>
       </c>
       <c r="R17" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="S17" t="s">
         <v>32</v>
       </c>
       <c r="T17" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U17" t="s">
         <v>89</v>
       </c>
       <c r="V17" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W17" t="s">
         <v>175</v>
       </c>
       <c r="X17" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y17" t="s">
         <v>89</v>
       </c>
       <c r="Z17" t="s">
         <v>146</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>660</v>
       </c>
       <c r="AB17" t="s">
         <v>162</v>
@@ -15235,13 +15283,13 @@
         <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K18" t="s">
         <v>182</v>
       </c>
       <c r="L18" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M18" t="s">
         <v>143</v>
@@ -15259,25 +15307,28 @@
         <v>181</v>
       </c>
       <c r="T18" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U18" t="s">
         <v>38</v>
       </c>
       <c r="V18" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W18" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X18" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y18" t="s">
         <v>89</v>
       </c>
       <c r="Z18" t="s">
         <v>146</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>660</v>
       </c>
       <c r="AB18" t="s">
         <v>42</v>
@@ -15336,13 +15387,13 @@
         <v>32</v>
       </c>
       <c r="J19" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K19" t="s">
         <v>189</v>
       </c>
       <c r="L19" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M19" t="s">
         <v>190</v>
@@ -15360,7 +15411,7 @@
         <v>32</v>
       </c>
       <c r="T19" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U19" t="s">
         <v>38</v>
@@ -15379,6 +15430,9 @@
       </c>
       <c r="Z19" t="s">
         <v>146</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>660</v>
       </c>
       <c r="AB19" t="s">
         <v>42</v>
@@ -15437,7 +15491,7 @@
         <v>32</v>
       </c>
       <c r="J20" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K20" t="s">
         <v>198</v>
@@ -15455,25 +15509,25 @@
         <v>199</v>
       </c>
       <c r="R20" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="S20" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="T20" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U20" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="V20" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W20" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X20" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y20" t="s">
         <v>89</v>
@@ -15481,8 +15535,11 @@
       <c r="Z20" t="s">
         <v>128</v>
       </c>
+      <c r="AA20" t="s">
+        <v>660</v>
+      </c>
       <c r="AB20" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="AC20" s="48"/>
       <c r="AD20" t="s">
@@ -15536,13 +15593,13 @@
         <v>32</v>
       </c>
       <c r="J21" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K21" t="s">
         <v>205</v>
       </c>
       <c r="L21" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M21" t="s">
         <v>34</v>
@@ -15551,34 +15608,37 @@
         <v>35</v>
       </c>
       <c r="Q21" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="R21">
         <v>55</v>
       </c>
       <c r="S21" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="T21" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U21" t="s">
         <v>38</v>
       </c>
       <c r="V21" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W21" t="s">
         <v>207</v>
       </c>
       <c r="X21" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y21" t="s">
         <v>89</v>
       </c>
       <c r="Z21" t="s">
         <v>146</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>660</v>
       </c>
       <c r="AB21" t="s">
         <v>42</v>
@@ -15637,13 +15697,13 @@
         <v>32</v>
       </c>
       <c r="J22" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K22" t="s">
         <v>212</v>
       </c>
       <c r="L22" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M22" t="s">
         <v>108</v>
@@ -15661,25 +15721,28 @@
         <v>32</v>
       </c>
       <c r="T22" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U22" t="s">
         <v>38</v>
       </c>
       <c r="V22" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W22" t="s">
         <v>214</v>
       </c>
       <c r="X22" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y22" t="s">
         <v>89</v>
       </c>
       <c r="Z22" t="s">
         <v>146</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>660</v>
       </c>
       <c r="AB22" t="s">
         <v>42</v>
@@ -15738,13 +15801,13 @@
         <v>32</v>
       </c>
       <c r="J23" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K23" t="s">
         <v>220</v>
       </c>
       <c r="L23" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M23" t="s">
         <v>34</v>
@@ -15762,25 +15825,28 @@
         <v>32</v>
       </c>
       <c r="T23" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U23" t="s">
         <v>38</v>
       </c>
       <c r="V23" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W23" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X23" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y23" t="s">
         <v>89</v>
       </c>
       <c r="Z23" t="s">
         <v>146</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>660</v>
       </c>
       <c r="AB23" t="s">
         <v>42</v>
@@ -15837,13 +15903,13 @@
         <v>32</v>
       </c>
       <c r="J24" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K24" t="s">
         <v>226</v>
       </c>
       <c r="L24" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M24" t="s">
         <v>87</v>
@@ -15861,13 +15927,13 @@
         <v>32</v>
       </c>
       <c r="T24" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U24" t="s">
         <v>38</v>
       </c>
       <c r="V24" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W24" t="s">
         <v>228</v>
@@ -15880,6 +15946,9 @@
       </c>
       <c r="Z24" t="s">
         <v>146</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>660</v>
       </c>
       <c r="AB24" t="s">
         <v>42</v>
@@ -15936,13 +16005,13 @@
         <v>32</v>
       </c>
       <c r="J25" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K25" t="s">
         <v>234</v>
       </c>
       <c r="L25" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M25" t="s">
         <v>34</v>
@@ -15960,25 +16029,28 @@
         <v>32</v>
       </c>
       <c r="T25" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U25" t="s">
         <v>38</v>
       </c>
       <c r="V25" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W25" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X25" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y25" t="s">
         <v>89</v>
       </c>
       <c r="Z25" t="s">
         <v>146</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>660</v>
       </c>
       <c r="AB25" t="s">
         <v>42</v>
@@ -16035,13 +16107,13 @@
         <v>32</v>
       </c>
       <c r="J26" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K26" t="s">
         <v>240</v>
       </c>
       <c r="L26" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M26" t="s">
         <v>241</v>
@@ -16050,28 +16122,28 @@
         <v>60</v>
       </c>
       <c r="Q26" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="R26">
         <v>41</v>
       </c>
       <c r="S26" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="T26" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U26" t="s">
         <v>38</v>
       </c>
       <c r="V26" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W26" t="s">
         <v>243</v>
       </c>
       <c r="X26" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y26" t="s">
         <v>89</v>
@@ -16137,13 +16209,13 @@
         <v>248</v>
       </c>
       <c r="J27" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K27" t="s">
         <v>249</v>
       </c>
       <c r="L27" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M27" t="s">
         <v>34</v>
@@ -16161,7 +16233,7 @@
         <v>248</v>
       </c>
       <c r="T27" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U27" t="s">
         <v>38</v>
@@ -16170,16 +16242,19 @@
         <v>89</v>
       </c>
       <c r="W27" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X27" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y27" t="s">
         <v>89</v>
       </c>
       <c r="Z27" t="s">
         <v>146</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>660</v>
       </c>
       <c r="AB27" t="s">
         <v>42</v>
@@ -16236,13 +16311,13 @@
         <v>32</v>
       </c>
       <c r="J28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K28" t="s">
         <v>255</v>
       </c>
       <c r="L28" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M28" t="s">
         <v>256</v>
@@ -16254,22 +16329,22 @@
         <v>257</v>
       </c>
       <c r="R28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="S28" t="s">
         <v>32</v>
       </c>
       <c r="T28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U28" t="s">
         <v>38</v>
       </c>
       <c r="V28" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W28" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X28" t="s">
         <v>258</v>
@@ -16338,13 +16413,13 @@
         <v>265</v>
       </c>
       <c r="J29" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K29" t="s">
         <v>266</v>
       </c>
       <c r="L29" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M29" t="s">
         <v>143</v>
@@ -16356,28 +16431,28 @@
         <v>267</v>
       </c>
       <c r="R29" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="S29" t="s">
         <v>265</v>
       </c>
       <c r="T29" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U29" t="s">
         <v>89</v>
       </c>
       <c r="V29" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W29" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X29" t="s">
         <v>269</v>
       </c>
       <c r="Y29" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z29" t="s">
         <v>146</v>
@@ -16440,13 +16515,13 @@
         <v>265</v>
       </c>
       <c r="J30" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K30" t="s">
         <v>275</v>
       </c>
       <c r="L30" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M30" t="s">
         <v>276</v>
@@ -16458,28 +16533,28 @@
         <v>267</v>
       </c>
       <c r="R30" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="S30" t="s">
         <v>265</v>
       </c>
       <c r="T30" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U30" t="s">
         <v>89</v>
       </c>
       <c r="V30" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W30" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X30" t="s">
         <v>269</v>
       </c>
       <c r="Y30" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z30" t="s">
         <v>41</v>
@@ -16536,13 +16611,13 @@
         <v>32</v>
       </c>
       <c r="J31" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K31" t="s">
         <v>280</v>
       </c>
       <c r="L31" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M31" t="s">
         <v>281</v>
@@ -16554,28 +16629,28 @@
         <v>283</v>
       </c>
       <c r="R31" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="S31" t="s">
         <v>32</v>
       </c>
       <c r="T31" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U31" t="s">
         <v>38</v>
       </c>
       <c r="V31" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W31" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X31" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y31" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z31" t="s">
         <v>41</v>
@@ -16656,7 +16731,7 @@
         <v>292</v>
       </c>
       <c r="R32" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="S32" t="s">
         <v>32</v>
@@ -16668,16 +16743,16 @@
         <v>38</v>
       </c>
       <c r="V32" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W32" t="s">
         <v>294</v>
       </c>
       <c r="X32" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y32" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z32" t="s">
         <v>41</v>
@@ -16737,16 +16812,16 @@
         <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="J33" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K33" t="s">
         <v>301</v>
       </c>
       <c r="L33" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M33" t="s">
         <v>34</v>
@@ -16761,35 +16836,38 @@
         <v>28</v>
       </c>
       <c r="S33" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="T33" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U33" t="s">
         <v>38</v>
       </c>
       <c r="V33" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W33" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X33" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y33" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z33" t="s">
         <v>41</v>
       </c>
+      <c r="AA33" t="s">
+        <v>660</v>
+      </c>
       <c r="AB33" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="AC33" s="48"/>
       <c r="AD33" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="AH33" t="s">
         <v>304</v>
@@ -16836,7 +16914,7 @@
         <v>34</v>
       </c>
       <c r="I34" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="J34" t="s">
         <v>309</v>
@@ -16845,7 +16923,7 @@
         <v>310</v>
       </c>
       <c r="L34" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M34" t="s">
         <v>34</v>
@@ -16857,25 +16935,25 @@
         <v>312</v>
       </c>
       <c r="R34" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="S34" t="s">
         <v>32</v>
       </c>
       <c r="T34" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U34" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="V34" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W34" t="s">
         <v>313</v>
       </c>
       <c r="X34" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y34" t="s">
         <v>38</v>
@@ -16883,13 +16961,22 @@
       <c r="Z34" t="s">
         <v>14</v>
       </c>
+      <c r="AA34" t="s">
+        <v>660</v>
+      </c>
       <c r="AB34" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="AC34" s="48"/>
       <c r="AD34" t="s">
         <v>103</v>
       </c>
+      <c r="AH34" t="s">
+        <v>672</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>672</v>
+      </c>
       <c r="AJ34" t="s">
         <v>390</v>
       </c>
@@ -16932,7 +17019,7 @@
         <v>32</v>
       </c>
       <c r="J35" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K35" t="s">
         <v>316</v>
@@ -16956,19 +17043,19 @@
         <v>32</v>
       </c>
       <c r="T35" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U35" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="V35" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W35" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X35" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y35" t="s">
         <v>38</v>
@@ -16976,8 +17063,11 @@
       <c r="Z35" t="s">
         <v>14</v>
       </c>
+      <c r="AA35" t="s">
+        <v>660</v>
+      </c>
       <c r="AB35" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="AC35" s="48"/>
       <c r="AD35" t="s">
@@ -17031,13 +17121,13 @@
         <v>32</v>
       </c>
       <c r="J36" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K36" t="s">
         <v>323</v>
       </c>
       <c r="L36" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M36" t="s">
         <v>116</v>
@@ -17049,25 +17139,25 @@
         <v>324</v>
       </c>
       <c r="R36" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="S36" t="s">
         <v>32</v>
       </c>
       <c r="T36" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U36" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="V36" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W36" t="s">
         <v>325</v>
       </c>
       <c r="X36" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y36" t="s">
         <v>38</v>
@@ -17075,8 +17165,11 @@
       <c r="Z36" t="s">
         <v>14</v>
       </c>
+      <c r="AA36" t="s">
+        <v>660</v>
+      </c>
       <c r="AB36" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="AC36" s="48"/>
       <c r="AD36" t="s">
@@ -17127,13 +17220,13 @@
         <v>32</v>
       </c>
       <c r="J37" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K37" t="s">
         <v>330</v>
       </c>
       <c r="L37" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M37" t="s">
         <v>331</v>
@@ -17151,19 +17244,19 @@
         <v>32</v>
       </c>
       <c r="T37" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U37" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="V37" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W37" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X37" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y37" t="s">
         <v>38</v>
@@ -17171,8 +17264,11 @@
       <c r="Z37" t="s">
         <v>63</v>
       </c>
+      <c r="AA37" t="s">
+        <v>660</v>
+      </c>
       <c r="AB37" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="AC37" s="48"/>
       <c r="AD37" t="s">
@@ -17223,16 +17319,16 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="J38" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K38" t="s">
         <v>337</v>
       </c>
       <c r="L38" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M38" t="s">
         <v>331</v>
@@ -17241,37 +17337,40 @@
         <v>338</v>
       </c>
       <c r="Q38" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="R38" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="S38" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="T38" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U38" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="V38" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W38" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X38" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y38" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z38" t="s">
         <v>63</v>
       </c>
+      <c r="AA38" t="s">
+        <v>660</v>
+      </c>
       <c r="AB38" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="AC38" s="48"/>
       <c r="AD38" t="s">
@@ -17322,16 +17421,16 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="J39" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K39" t="s">
         <v>341</v>
       </c>
       <c r="L39" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M39" t="s">
         <v>331</v>
@@ -17340,37 +17439,40 @@
         <v>338</v>
       </c>
       <c r="Q39" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="R39" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="S39" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="T39" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U39" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="V39" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W39" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X39" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y39" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z39" t="s">
         <v>63</v>
       </c>
+      <c r="AA39" t="s">
+        <v>660</v>
+      </c>
       <c r="AB39" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="AC39" s="48"/>
       <c r="AD39" t="s">
@@ -17424,13 +17526,13 @@
         <v>32</v>
       </c>
       <c r="J40" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K40" t="s">
         <v>343</v>
       </c>
       <c r="L40" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M40" t="s">
         <v>344</v>
@@ -17442,25 +17544,25 @@
         <v>161</v>
       </c>
       <c r="R40" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="S40" t="s">
         <v>32</v>
       </c>
       <c r="T40" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U40" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="V40" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W40" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X40" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y40" t="s">
         <v>38</v>
@@ -17468,13 +17570,19 @@
       <c r="Z40" t="s">
         <v>63</v>
       </c>
+      <c r="AA40" t="s">
+        <v>660</v>
+      </c>
       <c r="AB40" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="AC40" s="48"/>
       <c r="AD40" t="s">
         <v>345</v>
       </c>
+      <c r="AH40" t="s">
+        <v>673</v>
+      </c>
       <c r="AI40" t="s">
         <v>163</v>
       </c>
@@ -17505,13 +17613,13 @@
         <v>13302</v>
       </c>
       <c r="E41" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F41" t="s">
         <v>75</v>
       </c>
       <c r="G41" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="H41">
         <v>60</v>
@@ -17520,13 +17628,13 @@
         <v>32</v>
       </c>
       <c r="J41" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K41" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="L41" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M41" t="s">
         <v>143</v>
@@ -17535,46 +17643,49 @@
         <v>35</v>
       </c>
       <c r="Q41" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="R41">
         <v>61</v>
       </c>
       <c r="S41" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="T41" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U41" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="V41" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W41" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X41" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Y41" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z41" t="s">
         <v>41</v>
       </c>
+      <c r="AA41" t="s">
+        <v>660</v>
+      </c>
       <c r="AB41" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AD41" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="AH41" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="AI41" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="AJ41" t="s">
         <v>390</v>
@@ -17603,22 +17714,22 @@
         <v>98</v>
       </c>
       <c r="G42" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H42">
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="J42" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K42" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="L42" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M42" t="s">
         <v>34</v>
@@ -17627,46 +17738,49 @@
         <v>35</v>
       </c>
       <c r="Q42" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="R42" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="S42" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="T42" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U42" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="V42" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W42" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X42" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="Y42" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z42" t="s">
         <v>41</v>
       </c>
+      <c r="AA42" t="s">
+        <v>660</v>
+      </c>
       <c r="AB42" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AD42" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="AH42" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AI42" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="AJ42" t="s">
         <v>392</v>
@@ -17677,7 +17791,7 @@
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B43" s="54">
         <v>44088</v>
@@ -17689,37 +17803,37 @@
         <v>13125</v>
       </c>
       <c r="E43" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F43" t="s">
         <v>75</v>
       </c>
       <c r="G43" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="H43">
         <v>54</v>
       </c>
       <c r="I43" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="J43" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K43" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L43" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M43" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="P43" t="s">
         <v>60</v>
       </c>
       <c r="Q43" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="R43">
         <v>21</v>
@@ -17728,37 +17842,40 @@
         <v>32</v>
       </c>
       <c r="T43" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U43" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="V43" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="W43" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X43" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y43" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z43" t="s">
         <v>63</v>
       </c>
+      <c r="AA43" t="s">
+        <v>660</v>
+      </c>
       <c r="AB43" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AD43" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AH43" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="AI43" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="AJ43" t="s">
         <v>390</v>
@@ -17769,7 +17886,7 @@
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B44" s="54">
         <v>44088</v>
@@ -17781,13 +17898,13 @@
         <v>13125</v>
       </c>
       <c r="E44" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F44" t="s">
         <v>75</v>
       </c>
       <c r="G44" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="H44">
         <v>18</v>
@@ -17796,22 +17913,22 @@
         <v>32</v>
       </c>
       <c r="J44" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K44" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="L44" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="M44" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="P44" t="s">
         <v>60</v>
       </c>
       <c r="Q44" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="R44">
         <v>21</v>
@@ -17820,37 +17937,40 @@
         <v>32</v>
       </c>
       <c r="T44" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U44" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="V44" t="s">
         <v>89</v>
       </c>
       <c r="W44" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X44" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y44" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z44" t="s">
         <v>110</v>
       </c>
+      <c r="AA44" t="s">
+        <v>660</v>
+      </c>
       <c r="AB44" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AD44" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AH44" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="AI44" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="AJ44" t="s">
         <v>390</v>
@@ -17873,37 +17993,37 @@
         <v>7301</v>
       </c>
       <c r="E45" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F45" t="s">
         <v>56</v>
       </c>
       <c r="G45" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="H45">
         <v>26</v>
       </c>
       <c r="I45" t="s">
+        <v>469</v>
+      </c>
+      <c r="J45" t="s">
+        <v>660</v>
+      </c>
+      <c r="K45" t="s">
+        <v>485</v>
+      </c>
+      <c r="L45" t="s">
         <v>474</v>
       </c>
-      <c r="J45" t="s">
-        <v>665</v>
-      </c>
-      <c r="K45" t="s">
-        <v>490</v>
-      </c>
-      <c r="L45" t="s">
-        <v>479</v>
-      </c>
       <c r="M45" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="P45" t="s">
         <v>137</v>
       </c>
       <c r="Q45" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="R45">
         <v>24</v>
@@ -17912,37 +18032,40 @@
         <v>32</v>
       </c>
       <c r="T45" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U45" t="s">
         <v>38</v>
       </c>
       <c r="V45" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W45" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X45" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y45" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z45" t="s">
-        <v>493</v>
+        <v>488</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>660</v>
       </c>
       <c r="AB45" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AD45" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="AH45" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="AI45" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="AJ45" t="s">
         <v>396</v>
@@ -17965,76 +18088,79 @@
         <v>11101</v>
       </c>
       <c r="E46" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F46" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G46" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H46">
         <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="J46" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K46" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="L46" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="M46" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="P46" t="s">
         <v>60</v>
       </c>
       <c r="Q46" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="R46">
         <v>42</v>
       </c>
       <c r="S46" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="T46" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U46" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="V46" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="W46" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X46" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y46" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z46" t="s">
         <v>128</v>
       </c>
+      <c r="AA46" t="s">
+        <v>660</v>
+      </c>
       <c r="AB46" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AD46" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="AH46" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="AI46" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="AJ46" t="s">
         <v>413</v>
@@ -18057,37 +18183,37 @@
         <v>16205</v>
       </c>
       <c r="E47" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F47" t="s">
         <v>415</v>
       </c>
       <c r="G47" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H47">
         <v>42</v>
       </c>
       <c r="I47" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="J47" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K47" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="L47" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M47" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="P47" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="Q47" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="R47">
         <v>44</v>
@@ -18096,40 +18222,43 @@
         <v>32</v>
       </c>
       <c r="T47" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U47" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V47" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="W47" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X47" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y47" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z47" t="s">
-        <v>512</v>
+        <v>507</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>660</v>
       </c>
       <c r="AB47" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AD47" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="AH47" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="AI47" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="AJ47" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AK47" t="s">
         <v>401</v>
@@ -18149,37 +18278,37 @@
         <v>3101</v>
       </c>
       <c r="E48" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F48" t="s">
         <v>158</v>
       </c>
       <c r="G48" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="H48">
         <v>33</v>
       </c>
       <c r="I48" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="J48" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K48" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="L48" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M48" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="P48" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="Q48" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="R48">
         <v>27</v>
@@ -18188,37 +18317,40 @@
         <v>248</v>
       </c>
       <c r="T48" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U48" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V48" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="W48" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X48" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y48" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z48" t="s">
-        <v>512</v>
+        <v>507</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>660</v>
       </c>
       <c r="AB48" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AD48" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="AH48" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="AI48" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="AJ48" t="s">
         <v>393</v>
@@ -18247,31 +18379,31 @@
         <v>98</v>
       </c>
       <c r="G49" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="H49">
         <v>63</v>
       </c>
       <c r="I49" t="s">
+        <v>469</v>
+      </c>
+      <c r="J49" t="s">
+        <v>660</v>
+      </c>
+      <c r="K49" t="s">
+        <v>519</v>
+      </c>
+      <c r="L49" t="s">
         <v>474</v>
       </c>
-      <c r="J49" t="s">
-        <v>665</v>
-      </c>
-      <c r="K49" t="s">
-        <v>524</v>
-      </c>
-      <c r="L49" t="s">
-        <v>479</v>
-      </c>
       <c r="M49" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="P49" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="Q49" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="R49">
         <v>40</v>
@@ -18280,34 +18412,37 @@
         <v>32</v>
       </c>
       <c r="T49" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U49" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V49" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W49" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X49" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="Y49" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z49" t="s">
-        <v>493</v>
+        <v>488</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>660</v>
       </c>
       <c r="AB49" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AD49" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="AH49" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="AJ49" t="s">
         <v>392</v>
@@ -18318,7 +18453,7 @@
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B50" s="54">
         <v>44124</v>
@@ -18330,79 +18465,82 @@
         <v>2201</v>
       </c>
       <c r="E50" t="s">
+        <v>421</v>
+      </c>
+      <c r="F50" t="s">
         <v>422</v>
       </c>
-      <c r="F50" t="s">
-        <v>423</v>
-      </c>
       <c r="G50" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="H50">
         <v>35</v>
       </c>
       <c r="I50" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="J50" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K50" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="L50" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M50" t="s">
         <v>143</v>
       </c>
       <c r="P50" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="Q50" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="R50" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="S50" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="T50" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U50" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V50" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="W50" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X50" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y50" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z50" t="s">
-        <v>512</v>
+        <v>507</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>660</v>
       </c>
       <c r="AB50" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AD50" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="AH50" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="AI50" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="AJ50" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AK50" t="s">
         <v>401</v>
@@ -18428,31 +18566,31 @@
         <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="H51">
         <v>24</v>
       </c>
       <c r="I51" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="J51" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K51" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="L51" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M51" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="P51" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="Q51" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="R51">
         <v>33</v>
@@ -18461,37 +18599,40 @@
         <v>32</v>
       </c>
       <c r="T51" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U51" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="V51" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="W51" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X51" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y51" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z51" t="s">
-        <v>512</v>
+        <v>507</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>660</v>
       </c>
       <c r="AB51" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AD51" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="AH51" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="AI51" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="AJ51" t="s">
         <v>387</v>
@@ -18514,76 +18655,79 @@
         <v>7201</v>
       </c>
       <c r="E52" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F52" t="s">
         <v>56</v>
       </c>
       <c r="G52" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="H52">
         <v>36</v>
       </c>
       <c r="I52" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="J52" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K52" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="L52" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M52" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="P52" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="Q52" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="R52">
         <v>31</v>
       </c>
       <c r="S52" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="T52" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U52" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V52" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W52" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X52" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="Y52" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z52" t="s">
-        <v>545</v>
+        <v>540</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>660</v>
       </c>
       <c r="AB52" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AD52" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="AH52" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="AI52" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="AJ52" t="s">
         <v>396</v>
@@ -18606,13 +18750,13 @@
         <v>7101</v>
       </c>
       <c r="E53" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F53" t="s">
         <v>56</v>
       </c>
       <c r="G53" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="H53">
         <v>20</v>
@@ -18621,13 +18765,13 @@
         <v>32</v>
       </c>
       <c r="J53" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K53" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="L53" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M53" t="s">
         <v>34</v>
@@ -18636,7 +18780,7 @@
         <v>35</v>
       </c>
       <c r="Q53" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="R53">
         <v>22</v>
@@ -18645,37 +18789,40 @@
         <v>32</v>
       </c>
       <c r="T53" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U53" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V53" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W53" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X53" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y53" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z53" t="s">
-        <v>512</v>
+        <v>507</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>660</v>
       </c>
       <c r="AB53" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AD53" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="AH53" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="AI53" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="AJ53" t="s">
         <v>396</v>
@@ -18698,13 +18845,13 @@
         <v>14108</v>
       </c>
       <c r="E54" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F54" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G54" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="H54">
         <v>26</v>
@@ -18713,13 +18860,13 @@
         <v>32</v>
       </c>
       <c r="J54" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K54" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="L54" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M54" t="s">
         <v>34</v>
@@ -18728,7 +18875,7 @@
         <v>35</v>
       </c>
       <c r="Q54" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="R54">
         <v>37</v>
@@ -18737,37 +18884,40 @@
         <v>32</v>
       </c>
       <c r="T54" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U54" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V54" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W54" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X54" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="Y54" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z54" t="s">
-        <v>512</v>
+        <v>507</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>660</v>
       </c>
       <c r="AB54" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AD54" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="AH54" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="AI54" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="AJ54" t="s">
         <v>387</v>
@@ -18790,13 +18940,13 @@
         <v>13401</v>
       </c>
       <c r="E55" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F55" t="s">
         <v>75</v>
       </c>
       <c r="G55" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H55">
         <v>67</v>
@@ -18805,22 +18955,22 @@
         <v>32</v>
       </c>
       <c r="J55" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="K55" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L55" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="M55" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="P55" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="Q55" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="R55">
         <v>40</v>
@@ -18829,37 +18979,40 @@
         <v>32</v>
       </c>
       <c r="T55" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U55" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V55" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W55" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X55" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="Y55" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z55" t="s">
-        <v>567</v>
+        <v>562</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>660</v>
       </c>
       <c r="AB55" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AD55" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="AH55" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="AI55" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="AJ55" t="s">
         <v>390</v>
@@ -18882,28 +19035,28 @@
         <v>13130</v>
       </c>
       <c r="E56" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F56" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="G56" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="H56">
         <v>52</v>
       </c>
       <c r="I56" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="J56" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K56" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="L56" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M56" t="s">
         <v>34</v>
@@ -18912,7 +19065,7 @@
         <v>35</v>
       </c>
       <c r="Q56" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="R56">
         <v>32</v>
@@ -18921,37 +19074,40 @@
         <v>32</v>
       </c>
       <c r="T56" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U56" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V56" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="W56" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X56" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="Y56" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z56" t="s">
-        <v>576</v>
+        <v>571</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>660</v>
       </c>
       <c r="AB56" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="AD56" t="s">
         <v>103</v>
       </c>
       <c r="AH56" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="AI56" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="AJ56" t="s">
         <v>390</v>
@@ -18974,13 +19130,13 @@
         <v>5701</v>
       </c>
       <c r="E57" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="F57" t="s">
         <v>406</v>
       </c>
       <c r="G57" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="H57">
         <v>45</v>
@@ -18989,13 +19145,13 @@
         <v>32</v>
       </c>
       <c r="J57" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="K57" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L57" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M57" t="s">
         <v>87</v>
@@ -19004,46 +19160,49 @@
         <v>35</v>
       </c>
       <c r="Q57" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="R57" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="S57" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="T57" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U57" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V57" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="W57" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X57" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="Y57" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z57" t="s">
         <v>146</v>
       </c>
+      <c r="AA57" t="s">
+        <v>660</v>
+      </c>
       <c r="AB57" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="AD57" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="AH57" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="AI57" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="AJ57" t="s">
         <v>392</v>
@@ -19072,7 +19231,7 @@
         <v>98</v>
       </c>
       <c r="G58" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="H58">
         <v>38</v>
@@ -19081,13 +19240,13 @@
         <v>32</v>
       </c>
       <c r="J58" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K58" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="L58" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M58" t="s">
         <v>34</v>
@@ -19096,46 +19255,49 @@
         <v>35</v>
       </c>
       <c r="Q58" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="R58" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="S58" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="T58" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U58" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V58" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="W58" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X58" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y58" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z58" t="s">
         <v>146</v>
       </c>
+      <c r="AA58" t="s">
+        <v>660</v>
+      </c>
       <c r="AB58" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AD58" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AH58" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AI58" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AJ58" t="s">
         <v>392</v>
@@ -19158,13 +19320,13 @@
         <v>10101</v>
       </c>
       <c r="E59" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F59" t="s">
         <v>321</v>
       </c>
       <c r="G59" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="H59">
         <v>26</v>
@@ -19173,13 +19335,13 @@
         <v>32</v>
       </c>
       <c r="J59" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K59" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L59" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M59" t="s">
         <v>34</v>
@@ -19188,7 +19350,7 @@
         <v>35</v>
       </c>
       <c r="Q59" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="R59">
         <v>31</v>
@@ -19197,40 +19359,43 @@
         <v>32</v>
       </c>
       <c r="T59" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U59" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V59" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="W59" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X59" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="Y59" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z59" t="s">
         <v>146</v>
       </c>
+      <c r="AA59" t="s">
+        <v>660</v>
+      </c>
       <c r="AB59" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AD59" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="AH59" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="AI59" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="AJ59" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="AK59" t="s">
         <v>401</v>
@@ -19250,28 +19415,28 @@
         <v>13122</v>
       </c>
       <c r="E60" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F60" t="s">
         <v>75</v>
       </c>
       <c r="G60" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="H60">
         <v>28</v>
       </c>
       <c r="I60" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="J60" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K60" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="L60" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M60" t="s">
         <v>34</v>
@@ -19280,46 +19445,49 @@
         <v>35</v>
       </c>
       <c r="Q60" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="R60" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="S60" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="T60" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U60" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V60" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W60" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X60" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="Y60" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z60" t="s">
         <v>146</v>
       </c>
+      <c r="AA60" t="s">
+        <v>660</v>
+      </c>
       <c r="AB60" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AD60" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AH60" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="AI60" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="AJ60" t="s">
         <v>390</v>
@@ -19345,10 +19513,10 @@
         <v>56</v>
       </c>
       <c r="F61" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G61" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="H61">
         <v>36</v>
@@ -19357,13 +19525,13 @@
         <v>32</v>
       </c>
       <c r="J61" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K61" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="L61" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M61" t="s">
         <v>34</v>
@@ -19372,46 +19540,49 @@
         <v>35</v>
       </c>
       <c r="Q61" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="R61" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="S61" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="T61" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U61" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V61" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="W61" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X61" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y61" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z61" t="s">
         <v>146</v>
       </c>
+      <c r="AA61" t="s">
+        <v>660</v>
+      </c>
       <c r="AB61" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="AD61" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AH61" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="AI61" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="AJ61" t="s">
         <v>396</v>
@@ -19434,37 +19605,37 @@
         <v>10101</v>
       </c>
       <c r="E62" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F62" t="s">
         <v>321</v>
       </c>
       <c r="G62" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="H62">
         <v>54</v>
       </c>
       <c r="I62" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="J62" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K62" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="L62" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M62" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="P62" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="Q62" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="R62">
         <v>23</v>
@@ -19473,40 +19644,43 @@
         <v>32</v>
       </c>
       <c r="T62" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U62" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V62" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="W62" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X62" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y62" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z62" t="s">
-        <v>567</v>
+        <v>562</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>660</v>
       </c>
       <c r="AB62" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="AD62" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AH62" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="AI62" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="AJ62" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="AK62" t="s">
         <v>401</v>
@@ -19526,28 +19700,28 @@
         <v>8108</v>
       </c>
       <c r="E63" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F63" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G63" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="H63">
         <v>66</v>
       </c>
       <c r="I63" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="J63" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K63" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="L63" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M63" t="s">
         <v>143</v>
@@ -19556,46 +19730,49 @@
         <v>35</v>
       </c>
       <c r="Q63" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="R63">
         <v>73</v>
       </c>
       <c r="S63" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="T63" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U63" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V63" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="W63" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X63" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="Y63" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z63" t="s">
         <v>146</v>
       </c>
+      <c r="AA63" t="s">
+        <v>660</v>
+      </c>
       <c r="AB63" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="AD63" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="AH63" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="AI63" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="AJ63" t="s">
         <v>391</v>
@@ -19621,10 +19798,10 @@
         <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G64" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="H64">
         <v>25</v>
@@ -19633,22 +19810,22 @@
         <v>32</v>
       </c>
       <c r="J64" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K64" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="L64" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="M64" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="P64" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q64" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="R64">
         <v>58</v>
@@ -19657,37 +19834,40 @@
         <v>32</v>
       </c>
       <c r="T64" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U64" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V64" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W64" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X64" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y64" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z64" t="s">
-        <v>627</v>
+        <v>622</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>660</v>
       </c>
       <c r="AB64" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="AD64" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="AH64" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="AI64" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="AJ64" t="s">
         <v>387</v>
@@ -19716,7 +19896,7 @@
         <v>75</v>
       </c>
       <c r="G65" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H65">
         <v>22</v>
@@ -19725,61 +19905,64 @@
         <v>32</v>
       </c>
       <c r="J65" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="K65" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="L65" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M65" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="P65" t="s">
         <v>35</v>
       </c>
       <c r="Q65" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="R65">
         <v>36</v>
       </c>
       <c r="S65" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="T65" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U65" t="s">
         <v>38</v>
       </c>
       <c r="V65" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W65" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X65" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="Y65" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z65" t="s">
         <v>146</v>
       </c>
+      <c r="AA65" t="s">
+        <v>660</v>
+      </c>
       <c r="AB65" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="AD65" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="AH65" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="AI65" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AJ65" t="s">
         <v>390</v>
@@ -19808,7 +19991,7 @@
         <v>98</v>
       </c>
       <c r="G66" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="H66">
         <v>40</v>
@@ -19817,13 +20000,13 @@
         <v>32</v>
       </c>
       <c r="J66" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K66" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="L66" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="M66" t="s">
         <v>87</v>
@@ -19832,7 +20015,7 @@
         <v>35</v>
       </c>
       <c r="Q66" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="R66">
         <v>30</v>
@@ -19841,40 +20024,40 @@
         <v>32</v>
       </c>
       <c r="T66" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U66" t="s">
         <v>38</v>
       </c>
       <c r="V66" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W66" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X66" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="Y66" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z66" t="s">
         <v>146</v>
       </c>
       <c r="AA66" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="AB66" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AD66" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AH66" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="AI66" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="AJ66" t="s">
         <v>392</v>
@@ -19897,28 +20080,28 @@
         <v>5502</v>
       </c>
       <c r="E67" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F67" t="s">
         <v>98</v>
       </c>
       <c r="G67" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="H67">
         <v>46</v>
       </c>
       <c r="I67" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="J67" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K67" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="L67" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M67" t="s">
         <v>34</v>
@@ -19927,46 +20110,49 @@
         <v>35</v>
       </c>
       <c r="Q67" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="R67">
         <v>57</v>
       </c>
       <c r="S67" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="T67" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U67" t="s">
         <v>89</v>
       </c>
       <c r="V67" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W67" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X67" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="Y67" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z67" t="s">
         <v>146</v>
       </c>
+      <c r="AA67" t="s">
+        <v>660</v>
+      </c>
       <c r="AB67" t="s">
         <v>271</v>
       </c>
       <c r="AD67" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AH67" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AI67" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="AJ67" t="s">
         <v>392</v>
@@ -19989,13 +20175,13 @@
         <v>10107</v>
       </c>
       <c r="E68" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F68" t="s">
         <v>321</v>
       </c>
       <c r="G68" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="H68">
         <v>89</v>
@@ -20004,22 +20190,22 @@
         <v>32</v>
       </c>
       <c r="J68" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K68" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="L68" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M68" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="P68" t="s">
         <v>60</v>
       </c>
       <c r="Q68" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="R68">
         <v>53</v>
@@ -20028,40 +20214,43 @@
         <v>32</v>
       </c>
       <c r="T68" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U68" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="V68" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="W68" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X68" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Y68" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="Z68" t="s">
         <v>63</v>
       </c>
+      <c r="AA68" t="s">
+        <v>660</v>
+      </c>
       <c r="AB68" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="AD68" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="AH68" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="AI68" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="AJ68" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="AK68" t="s">
         <v>401</v>
@@ -20086,8 +20275,8 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21212,16 +21401,16 @@
         <v>415</v>
       </c>
       <c r="G30" t="s">
-        <v>416</v>
+        <v>502</v>
       </c>
       <c r="H30">
         <v>42</v>
       </c>
       <c r="I30" t="s">
+        <v>416</v>
+      </c>
+      <c r="J30" t="s">
         <v>417</v>
-      </c>
-      <c r="J30" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -21238,19 +21427,19 @@
         <v>3101</v>
       </c>
       <c r="E31" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F31" t="s">
         <v>158</v>
       </c>
       <c r="G31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H31">
         <v>33</v>
       </c>
       <c r="I31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J31" t="s">
         <v>393</v>
@@ -21270,22 +21459,22 @@
         <v>2201</v>
       </c>
       <c r="E32" t="s">
+        <v>421</v>
+      </c>
+      <c r="F32" t="s">
         <v>422</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>423</v>
-      </c>
-      <c r="G32" t="s">
-        <v>424</v>
       </c>
       <c r="H32">
         <v>37</v>
       </c>
       <c r="I32" t="s">
+        <v>424</v>
+      </c>
+      <c r="J32" t="s">
         <v>425</v>
-      </c>
-      <c r="J32" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -21302,19 +21491,19 @@
         <v>7101</v>
       </c>
       <c r="E33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F33" t="s">
         <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>428</v>
+        <v>678</v>
       </c>
       <c r="H33">
         <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J33" t="s">
         <v>396</v>
@@ -21337,16 +21526,16 @@
         <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G34" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H34">
         <v>25</v>
       </c>
       <c r="I34" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J34" t="s">
         <v>387</v>
@@ -21366,19 +21555,19 @@
         <v>14108</v>
       </c>
       <c r="E35" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F35" t="s">
         <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H35">
         <v>26</v>
       </c>
       <c r="I35" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J35" t="s">
         <v>387</v>
@@ -21404,13 +21593,13 @@
         <v>98</v>
       </c>
       <c r="G36" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H36">
         <v>65</v>
       </c>
       <c r="I36" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J36" t="s">
         <v>392</v>
@@ -21436,13 +21625,13 @@
         <v>98</v>
       </c>
       <c r="G37" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H37">
         <v>38</v>
       </c>
       <c r="I37" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J37" t="s">
         <v>392</v>
@@ -21462,19 +21651,19 @@
         <v>13122</v>
       </c>
       <c r="E38" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F38" t="s">
         <v>75</v>
       </c>
       <c r="G38" t="s">
-        <v>441</v>
+        <v>677</v>
       </c>
       <c r="H38">
         <v>28</v>
       </c>
       <c r="I38" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J38" t="s">
         <v>390</v>
@@ -21500,13 +21689,13 @@
         <v>56</v>
       </c>
       <c r="G39" t="s">
-        <v>443</v>
+        <v>675</v>
       </c>
       <c r="H39">
         <v>36</v>
       </c>
       <c r="I39" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J39" t="s">
         <v>396</v>
@@ -21526,19 +21715,19 @@
         <v>8108</v>
       </c>
       <c r="E40" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F40" t="s">
         <v>380</v>
       </c>
       <c r="G40" t="s">
-        <v>446</v>
+        <v>676</v>
       </c>
       <c r="H40">
         <v>66</v>
       </c>
       <c r="I40" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="J40" t="s">
         <v>391</v>
@@ -21558,22 +21747,22 @@
         <v>10101</v>
       </c>
       <c r="E41" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F41" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G41" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="H41">
         <v>26</v>
       </c>
       <c r="I41" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="J41" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -21596,13 +21785,13 @@
         <v>98</v>
       </c>
       <c r="G42" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H42">
         <v>40</v>
       </c>
       <c r="I42" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="J42" t="s">
         <v>392</v>
@@ -21628,13 +21817,13 @@
         <v>75</v>
       </c>
       <c r="G43" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H43">
         <v>22</v>
       </c>
       <c r="I43" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="J43" t="s">
         <v>390</v>

--- a/Femicidios 2020.xlsx
+++ b/Femicidios 2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-RIESGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAF2091-6DA4-4BEF-BC20-9BFD08A4DB25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EDA426-9B9C-40EF-ACB0-7FCF10C4149F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FEMICIDIOS 2020" sheetId="1" r:id="rId1"/>
@@ -13460,8 +13460,8 @@
   </sheetPr>
   <dimension ref="A1:AM68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AH17" sqref="AH17"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18557,7 +18557,7 @@
         <v>14</v>
       </c>
       <c r="D51">
-        <v>1401</v>
+        <v>14101</v>
       </c>
       <c r="E51" t="s">
         <v>29</v>
@@ -20275,8 +20275,8 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
